--- a/index.xlsx
+++ b/index.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79740befb0f8f73c/문서/ALDrive/Download/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shell\kang\done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28A04085-6A64-4BC3-91FE-B429FA169244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34111A0B-1C1C-4812-B33A-6B3958EB5E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="1410" windowWidth="22725" windowHeight="13245" xr2:uid="{65989A62-DD22-4017-B1F4-9BE3BB514C20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65989A62-DD22-4017-B1F4-9BE3BB514C20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="114">
   <si>
     <t>일   자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -482,6 +482,14 @@
   </si>
   <si>
     <t>임광빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김종찬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김낙영</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1464,7 +1472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1709,6 +1717,30 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1719,15 +1751,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1757,9 +1780,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1767,21 +1787,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2105,10 +2110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC16636-847A-47F1-BA3B-A88365FF7E52}">
-  <dimension ref="B1:X40"/>
+  <dimension ref="B1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2147,20 +2152,20 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="2:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:23" ht="20.25" x14ac:dyDescent="0.3">
@@ -2207,12 +2212,12 @@
         <v>9</v>
       </c>
       <c r="R6"/>
-      <c r="S6" s="95" t="s">
+      <c r="S6" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="96"/>
-      <c r="U6" s="96"/>
-      <c r="V6" s="97"/>
+      <c r="T6" s="101"/>
+      <c r="U6" s="101"/>
+      <c r="V6" s="102"/>
       <c r="W6"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
@@ -2231,7 +2236,7 @@
       <c r="G7" s="26">
         <v>31</v>
       </c>
-      <c r="H7" s="103">
+      <c r="H7" s="85">
         <v>45660</v>
       </c>
       <c r="I7" s="53" t="s">
@@ -2283,7 +2288,7 @@
       <c r="G8" s="3">
         <v>32</v>
       </c>
-      <c r="H8" s="87"/>
+      <c r="H8" s="83"/>
       <c r="I8" s="55" t="s">
         <v>46</v>
       </c>
@@ -2321,7 +2326,7 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="83">
+      <c r="C9" s="91">
         <v>45658</v>
       </c>
       <c r="D9" s="44" t="s">
@@ -2333,7 +2338,7 @@
       <c r="G9" s="3">
         <v>33</v>
       </c>
-      <c r="H9" s="87"/>
+      <c r="H9" s="83"/>
       <c r="I9" s="55" t="s">
         <v>47</v>
       </c>
@@ -2371,7 +2376,7 @@
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="84"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="45" t="s">
         <v>18</v>
       </c>
@@ -2381,7 +2386,7 @@
       <c r="G10" s="3">
         <v>34</v>
       </c>
-      <c r="H10" s="87"/>
+      <c r="H10" s="83"/>
       <c r="I10" s="55" t="s">
         <v>48</v>
       </c>
@@ -2391,7 +2396,7 @@
       <c r="L10" s="3">
         <v>64</v>
       </c>
-      <c r="M10" s="98">
+      <c r="M10" s="82">
         <v>45689</v>
       </c>
       <c r="N10" s="76" t="s">
@@ -2411,7 +2416,7 @@
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="84"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="45" t="s">
         <v>19</v>
       </c>
@@ -2421,7 +2426,7 @@
       <c r="G11" s="3">
         <v>35</v>
       </c>
-      <c r="H11" s="88"/>
+      <c r="H11" s="86"/>
       <c r="I11" s="55" t="s">
         <v>49</v>
       </c>
@@ -2431,7 +2436,7 @@
       <c r="L11" s="3">
         <v>65</v>
       </c>
-      <c r="M11" s="99"/>
+      <c r="M11" s="103"/>
       <c r="N11" s="76" t="s">
         <v>82</v>
       </c>
@@ -2454,7 +2459,7 @@
       <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="84"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="45" t="s">
         <v>20</v>
       </c>
@@ -2464,7 +2469,7 @@
       <c r="G12" s="3">
         <v>36</v>
       </c>
-      <c r="H12" s="104">
+      <c r="H12" s="87">
         <v>45661</v>
       </c>
       <c r="I12" s="46" t="s">
@@ -2476,7 +2481,7 @@
       <c r="L12" s="3">
         <v>66</v>
       </c>
-      <c r="M12" s="100"/>
+      <c r="M12" s="104"/>
       <c r="N12" s="76" t="s">
         <v>105</v>
       </c>
@@ -2490,7 +2495,7 @@
       <c r="B13" s="5">
         <v>7</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="45" t="s">
         <v>21</v>
       </c>
@@ -2500,7 +2505,7 @@
       <c r="G13" s="3">
         <v>37</v>
       </c>
-      <c r="H13" s="104"/>
+      <c r="H13" s="87"/>
       <c r="I13" s="46" t="s">
         <v>51</v>
       </c>
@@ -2510,7 +2515,7 @@
       <c r="L13" s="3">
         <v>67</v>
       </c>
-      <c r="M13" s="98">
+      <c r="M13" s="82">
         <v>45691</v>
       </c>
       <c r="N13" s="76" t="s">
@@ -2520,10 +2525,10 @@
         <v>5</v>
       </c>
       <c r="R13"/>
-      <c r="S13" s="89" t="s">
+      <c r="S13" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="90"/>
+      <c r="T13" s="95"/>
       <c r="U13" s="19" t="s">
         <v>14</v>
       </c>
@@ -2536,7 +2541,7 @@
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="84"/>
+      <c r="C14" s="92"/>
       <c r="D14" s="45" t="s">
         <v>22</v>
       </c>
@@ -2558,7 +2563,7 @@
       <c r="L14" s="3">
         <v>68</v>
       </c>
-      <c r="M14" s="100"/>
+      <c r="M14" s="104"/>
       <c r="N14" s="76" t="s">
         <v>84</v>
       </c>
@@ -2566,13 +2571,13 @@
         <v>5</v>
       </c>
       <c r="R14"/>
-      <c r="S14" s="91" t="s">
+      <c r="S14" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="92"/>
+      <c r="T14" s="97"/>
       <c r="U14" s="35">
-        <f>E37+J37+O40</f>
-        <v>465</v>
+        <f>E37+J37+O42</f>
+        <v>475</v>
       </c>
       <c r="V14" s="16"/>
       <c r="W14"/>
@@ -2581,7 +2586,7 @@
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="84"/>
+      <c r="C15" s="92"/>
       <c r="D15" s="45" t="s">
         <v>23</v>
       </c>
@@ -2591,7 +2596,7 @@
       <c r="G15" s="5">
         <v>39</v>
       </c>
-      <c r="H15" s="86">
+      <c r="H15" s="88">
         <v>45663</v>
       </c>
       <c r="I15" s="48" t="s">
@@ -2613,10 +2618,10 @@
         <v>5</v>
       </c>
       <c r="R15"/>
-      <c r="S15" s="91" t="s">
+      <c r="S15" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="T15" s="92"/>
+      <c r="T15" s="97"/>
       <c r="U15" s="36">
         <f>U11</f>
         <v>330</v>
@@ -2628,7 +2633,7 @@
       <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="84"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="45" t="s">
         <v>24</v>
       </c>
@@ -2638,7 +2643,7 @@
       <c r="G16" s="3">
         <v>40</v>
       </c>
-      <c r="H16" s="87"/>
+      <c r="H16" s="83"/>
       <c r="I16" s="48" t="s">
         <v>54</v>
       </c>
@@ -2648,7 +2653,7 @@
       <c r="L16" s="3">
         <v>70</v>
       </c>
-      <c r="M16" s="101">
+      <c r="M16" s="105">
         <v>45700</v>
       </c>
       <c r="N16" s="76" t="s">
@@ -2658,13 +2663,13 @@
         <v>5</v>
       </c>
       <c r="R16"/>
-      <c r="S16" s="93" t="s">
+      <c r="S16" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="94"/>
+      <c r="T16" s="99"/>
       <c r="U16" s="37">
         <f>SUM(U14:U15)</f>
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="V16" s="18"/>
       <c r="W16"/>
@@ -2673,7 +2678,7 @@
       <c r="B17" s="3">
         <v>11</v>
       </c>
-      <c r="C17" s="84"/>
+      <c r="C17" s="92"/>
       <c r="D17" s="45" t="s">
         <v>25</v>
       </c>
@@ -2683,7 +2688,7 @@
       <c r="G17" s="3">
         <v>41</v>
       </c>
-      <c r="H17" s="88"/>
+      <c r="H17" s="86"/>
       <c r="I17" s="48" t="s">
         <v>55</v>
       </c>
@@ -2693,7 +2698,7 @@
       <c r="L17" s="3">
         <v>71</v>
       </c>
-      <c r="M17" s="101"/>
+      <c r="M17" s="105"/>
       <c r="N17" s="76" t="s">
         <v>101</v>
       </c>
@@ -2707,7 +2712,7 @@
       <c r="B18" s="3">
         <v>12</v>
       </c>
-      <c r="C18" s="84"/>
+      <c r="C18" s="92"/>
       <c r="D18" s="45" t="s">
         <v>26</v>
       </c>
@@ -2717,7 +2722,7 @@
       <c r="G18" s="3">
         <v>42</v>
       </c>
-      <c r="H18" s="86">
+      <c r="H18" s="88">
         <v>45664</v>
       </c>
       <c r="I18" s="68" t="s">
@@ -2729,7 +2734,7 @@
       <c r="L18" s="3">
         <v>72</v>
       </c>
-      <c r="M18" s="101">
+      <c r="M18" s="105">
         <v>45701</v>
       </c>
       <c r="N18" s="76" t="s">
@@ -2746,7 +2751,7 @@
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="84"/>
+      <c r="C19" s="92"/>
       <c r="D19" s="45" t="s">
         <v>27</v>
       </c>
@@ -2756,7 +2761,7 @@
       <c r="G19" s="3">
         <v>43</v>
       </c>
-      <c r="H19" s="105"/>
+      <c r="H19" s="89"/>
       <c r="I19" s="68" t="s">
         <v>60</v>
       </c>
@@ -2766,7 +2771,7 @@
       <c r="L19" s="3">
         <v>73</v>
       </c>
-      <c r="M19" s="101"/>
+      <c r="M19" s="105"/>
       <c r="N19" s="76" t="s">
         <v>89</v>
       </c>
@@ -2780,7 +2785,7 @@
       <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="84"/>
+      <c r="C20" s="92"/>
       <c r="D20" s="46" t="s">
         <v>28</v>
       </c>
@@ -2790,7 +2795,7 @@
       <c r="G20" s="3">
         <v>44</v>
       </c>
-      <c r="H20" s="86">
+      <c r="H20" s="88">
         <v>45665</v>
       </c>
       <c r="I20" s="68" t="s">
@@ -2818,7 +2823,7 @@
       <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="84"/>
+      <c r="C21" s="92"/>
       <c r="D21" s="46" t="s">
         <v>29</v>
       </c>
@@ -2828,7 +2833,7 @@
       <c r="G21" s="3">
         <v>45</v>
       </c>
-      <c r="H21" s="105"/>
+      <c r="H21" s="89"/>
       <c r="I21" s="68" t="s">
         <v>62</v>
       </c>
@@ -2838,7 +2843,7 @@
       <c r="L21" s="3">
         <v>75</v>
       </c>
-      <c r="M21" s="101">
+      <c r="M21" s="105">
         <v>45708</v>
       </c>
       <c r="N21" s="76" t="s">
@@ -2854,7 +2859,7 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="84"/>
+      <c r="C22" s="92"/>
       <c r="D22" s="46" t="s">
         <v>30</v>
       </c>
@@ -2876,7 +2881,7 @@
       <c r="L22" s="3">
         <v>76</v>
       </c>
-      <c r="M22" s="101"/>
+      <c r="M22" s="105"/>
       <c r="N22" s="76" t="s">
         <v>92</v>
       </c>
@@ -2890,7 +2895,7 @@
       <c r="B23" s="3">
         <v>17</v>
       </c>
-      <c r="C23" s="84"/>
+      <c r="C23" s="92"/>
       <c r="D23" s="46" t="s">
         <v>31</v>
       </c>
@@ -2912,7 +2917,7 @@
       <c r="L23" s="3">
         <v>77</v>
       </c>
-      <c r="M23" s="101"/>
+      <c r="M23" s="105"/>
       <c r="N23" s="76" t="s">
         <v>93</v>
       </c>
@@ -2927,7 +2932,7 @@
       <c r="B24" s="3">
         <v>18</v>
       </c>
-      <c r="C24" s="84"/>
+      <c r="C24" s="92"/>
       <c r="D24" s="46" t="s">
         <v>32</v>
       </c>
@@ -2937,7 +2942,7 @@
       <c r="G24" s="3">
         <v>48</v>
       </c>
-      <c r="H24" s="104">
+      <c r="H24" s="87">
         <v>45670</v>
       </c>
       <c r="I24" s="68" t="s">
@@ -2965,7 +2970,7 @@
       <c r="B25" s="3">
         <v>19</v>
       </c>
-      <c r="C25" s="84"/>
+      <c r="C25" s="92"/>
       <c r="D25" s="46" t="s">
         <v>33</v>
       </c>
@@ -2975,7 +2980,7 @@
       <c r="G25" s="3">
         <v>49</v>
       </c>
-      <c r="H25" s="104"/>
+      <c r="H25" s="87"/>
       <c r="I25" s="70" t="s">
         <v>65</v>
       </c>
@@ -3001,7 +3006,7 @@
       <c r="B26" s="3">
         <v>20</v>
       </c>
-      <c r="C26" s="84"/>
+      <c r="C26" s="92"/>
       <c r="D26" s="45" t="s">
         <v>34</v>
       </c>
@@ -3011,7 +3016,7 @@
       <c r="G26" s="4">
         <v>50</v>
       </c>
-      <c r="H26" s="104"/>
+      <c r="H26" s="87"/>
       <c r="I26" s="70" t="s">
         <v>66</v>
       </c>
@@ -3037,7 +3042,7 @@
       <c r="B27" s="3">
         <v>21</v>
       </c>
-      <c r="C27" s="85"/>
+      <c r="C27" s="93"/>
       <c r="D27" s="45" t="s">
         <v>35</v>
       </c>
@@ -3059,7 +3064,7 @@
       <c r="L27" s="28">
         <v>81</v>
       </c>
-      <c r="M27" s="101">
+      <c r="M27" s="105">
         <v>45721</v>
       </c>
       <c r="N27" s="76" t="s">
@@ -3075,7 +3080,7 @@
       <c r="B28" s="3">
         <v>22</v>
       </c>
-      <c r="C28" s="86">
+      <c r="C28" s="88">
         <v>45659</v>
       </c>
       <c r="D28" s="45" t="s">
@@ -3087,7 +3092,7 @@
       <c r="G28" s="3">
         <v>52</v>
       </c>
-      <c r="H28" s="104">
+      <c r="H28" s="87">
         <v>45673</v>
       </c>
       <c r="I28" s="70" t="s">
@@ -3099,7 +3104,7 @@
       <c r="L28" s="28">
         <v>82</v>
       </c>
-      <c r="M28" s="101"/>
+      <c r="M28" s="105"/>
       <c r="N28" s="76" t="s">
         <v>98</v>
       </c>
@@ -3113,7 +3118,7 @@
       <c r="B29" s="5">
         <v>23</v>
       </c>
-      <c r="C29" s="87"/>
+      <c r="C29" s="83"/>
       <c r="D29" s="48" t="s">
         <v>37</v>
       </c>
@@ -3123,7 +3128,7 @@
       <c r="G29" s="3">
         <v>53</v>
       </c>
-      <c r="H29" s="104"/>
+      <c r="H29" s="87"/>
       <c r="I29" s="70" t="s">
         <v>70</v>
       </c>
@@ -3133,7 +3138,7 @@
       <c r="L29" s="28">
         <v>83</v>
       </c>
-      <c r="M29" s="101"/>
+      <c r="M29" s="105"/>
       <c r="N29" s="29" t="s">
         <v>99</v>
       </c>
@@ -3147,7 +3152,7 @@
       <c r="B30" s="3">
         <v>24</v>
       </c>
-      <c r="C30" s="87"/>
+      <c r="C30" s="83"/>
       <c r="D30" s="48" t="s">
         <v>38</v>
       </c>
@@ -3157,7 +3162,7 @@
       <c r="G30" s="3">
         <v>54</v>
       </c>
-      <c r="H30" s="104"/>
+      <c r="H30" s="87"/>
       <c r="I30" s="70" t="s">
         <v>71</v>
       </c>
@@ -3183,7 +3188,7 @@
       <c r="B31" s="3">
         <v>25</v>
       </c>
-      <c r="C31" s="87"/>
+      <c r="C31" s="83"/>
       <c r="D31" s="48" t="s">
         <v>39</v>
       </c>
@@ -3221,7 +3226,7 @@
       <c r="B32" s="3">
         <v>26</v>
       </c>
-      <c r="C32" s="88"/>
+      <c r="C32" s="86"/>
       <c r="D32" s="48" t="s">
         <v>40</v>
       </c>
@@ -3259,7 +3264,7 @@
       <c r="B33" s="3">
         <v>27</v>
       </c>
-      <c r="C33" s="87">
+      <c r="C33" s="83">
         <v>45660</v>
       </c>
       <c r="D33" s="48" t="s">
@@ -3299,7 +3304,7 @@
       <c r="B34" s="3">
         <v>28</v>
       </c>
-      <c r="C34" s="87"/>
+      <c r="C34" s="83"/>
       <c r="D34" s="48" t="s">
         <v>42</v>
       </c>
@@ -3337,7 +3342,7 @@
       <c r="B35" s="3">
         <v>29</v>
       </c>
-      <c r="C35" s="87"/>
+      <c r="C35" s="83"/>
       <c r="D35" s="48" t="s">
         <v>43</v>
       </c>
@@ -3376,7 +3381,7 @@
       <c r="B36" s="6">
         <v>30</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="84"/>
       <c r="D36" s="48" t="s">
         <v>44</v>
       </c>
@@ -3444,7 +3449,7 @@
       <c r="L38" s="28">
         <v>92</v>
       </c>
-      <c r="M38" s="98">
+      <c r="M38" s="82">
         <v>45793</v>
       </c>
       <c r="N38" s="76" t="s">
@@ -3454,7 +3459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C39" s="32" t="s">
         <v>5</v>
       </c>
@@ -3469,7 +3474,7 @@
       <c r="L39" s="28">
         <v>93</v>
       </c>
-      <c r="M39" s="106"/>
+      <c r="M39" s="104"/>
       <c r="N39" s="76" t="s">
         <v>111</v>
       </c>
@@ -3477,31 +3482,50 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C40" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L40" s="81"/>
-      <c r="M40" s="22" t="s">
+      <c r="L40" s="28">
+        <v>94</v>
+      </c>
+      <c r="M40" s="31">
+        <v>45800</v>
+      </c>
+      <c r="N40" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="O40" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L41" s="28">
+        <v>95</v>
+      </c>
+      <c r="M41" s="31">
+        <v>45802</v>
+      </c>
+      <c r="N41" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="O41" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L42" s="81"/>
+      <c r="M42" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="N40" s="24"/>
-      <c r="O40" s="25">
-        <f>SUM(O7:O39)</f>
-        <v>165</v>
+      <c r="N42" s="24"/>
+      <c r="O42" s="25">
+        <f>SUM(O7:O41)</f>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H24:H26"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="C9:C27"/>
     <mergeCell ref="C28:C32"/>
@@ -3516,6 +3540,15 @@
     <mergeCell ref="M18:M19"/>
     <mergeCell ref="M21:M23"/>
     <mergeCell ref="M27:M29"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H24:H26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shell\kang\done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34111A0B-1C1C-4812-B33A-6B3958EB5E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F625258A-BBBE-48E3-A5D3-FEA007732A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65989A62-DD22-4017-B1F4-9BE3BB514C20}"/>
+    <workbookView xWindow="1935" yWindow="1755" windowWidth="22725" windowHeight="13245" xr2:uid="{65989A62-DD22-4017-B1F4-9BE3BB514C20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="115">
   <si>
     <t>일   자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -490,6 +490,10 @@
   </si>
   <si>
     <t>김낙영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김상관</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,7 +670,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -1466,13 +1470,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF002060"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF002060"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF002060"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1717,40 +1741,28 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1780,6 +1792,9 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1787,6 +1802,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2110,10 +2143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC16636-847A-47F1-BA3B-A88365FF7E52}">
-  <dimension ref="B1:X42"/>
+  <dimension ref="B1:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2152,20 +2185,20 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
     </row>
     <row r="3" spans="2:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:23" ht="20.25" x14ac:dyDescent="0.3">
@@ -2212,12 +2245,12 @@
         <v>9</v>
       </c>
       <c r="R6"/>
-      <c r="S6" s="100" t="s">
+      <c r="S6" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="101"/>
-      <c r="U6" s="101"/>
-      <c r="V6" s="102"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="97"/>
+      <c r="V6" s="98"/>
       <c r="W6"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
@@ -2236,7 +2269,7 @@
       <c r="G7" s="26">
         <v>31</v>
       </c>
-      <c r="H7" s="85">
+      <c r="H7" s="104">
         <v>45660</v>
       </c>
       <c r="I7" s="53" t="s">
@@ -2288,7 +2321,7 @@
       <c r="G8" s="3">
         <v>32</v>
       </c>
-      <c r="H8" s="83"/>
+      <c r="H8" s="88"/>
       <c r="I8" s="55" t="s">
         <v>46</v>
       </c>
@@ -2326,7 +2359,7 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="91">
+      <c r="C9" s="84">
         <v>45658</v>
       </c>
       <c r="D9" s="44" t="s">
@@ -2338,7 +2371,7 @@
       <c r="G9" s="3">
         <v>33</v>
       </c>
-      <c r="H9" s="83"/>
+      <c r="H9" s="88"/>
       <c r="I9" s="55" t="s">
         <v>47</v>
       </c>
@@ -2376,7 +2409,7 @@
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="92"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="45" t="s">
         <v>18</v>
       </c>
@@ -2386,7 +2419,7 @@
       <c r="G10" s="3">
         <v>34</v>
       </c>
-      <c r="H10" s="83"/>
+      <c r="H10" s="88"/>
       <c r="I10" s="55" t="s">
         <v>48</v>
       </c>
@@ -2396,7 +2429,7 @@
       <c r="L10" s="3">
         <v>64</v>
       </c>
-      <c r="M10" s="82">
+      <c r="M10" s="99">
         <v>45689</v>
       </c>
       <c r="N10" s="76" t="s">
@@ -2416,7 +2449,7 @@
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="92"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="45" t="s">
         <v>19</v>
       </c>
@@ -2426,7 +2459,7 @@
       <c r="G11" s="3">
         <v>35</v>
       </c>
-      <c r="H11" s="86"/>
+      <c r="H11" s="89"/>
       <c r="I11" s="55" t="s">
         <v>49</v>
       </c>
@@ -2436,7 +2469,7 @@
       <c r="L11" s="3">
         <v>65</v>
       </c>
-      <c r="M11" s="103"/>
+      <c r="M11" s="100"/>
       <c r="N11" s="76" t="s">
         <v>82</v>
       </c>
@@ -2459,7 +2492,7 @@
       <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="92"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="45" t="s">
         <v>20</v>
       </c>
@@ -2469,7 +2502,7 @@
       <c r="G12" s="3">
         <v>36</v>
       </c>
-      <c r="H12" s="87">
+      <c r="H12" s="105">
         <v>45661</v>
       </c>
       <c r="I12" s="46" t="s">
@@ -2481,7 +2514,7 @@
       <c r="L12" s="3">
         <v>66</v>
       </c>
-      <c r="M12" s="104"/>
+      <c r="M12" s="101"/>
       <c r="N12" s="76" t="s">
         <v>105</v>
       </c>
@@ -2495,7 +2528,7 @@
       <c r="B13" s="5">
         <v>7</v>
       </c>
-      <c r="C13" s="92"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="45" t="s">
         <v>21</v>
       </c>
@@ -2505,7 +2538,7 @@
       <c r="G13" s="3">
         <v>37</v>
       </c>
-      <c r="H13" s="87"/>
+      <c r="H13" s="105"/>
       <c r="I13" s="46" t="s">
         <v>51</v>
       </c>
@@ -2515,7 +2548,7 @@
       <c r="L13" s="3">
         <v>67</v>
       </c>
-      <c r="M13" s="82">
+      <c r="M13" s="99">
         <v>45691</v>
       </c>
       <c r="N13" s="76" t="s">
@@ -2525,10 +2558,10 @@
         <v>5</v>
       </c>
       <c r="R13"/>
-      <c r="S13" s="94" t="s">
+      <c r="S13" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="95"/>
+      <c r="T13" s="91"/>
       <c r="U13" s="19" t="s">
         <v>14</v>
       </c>
@@ -2541,7 +2574,7 @@
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="92"/>
+      <c r="C14" s="85"/>
       <c r="D14" s="45" t="s">
         <v>22</v>
       </c>
@@ -2563,7 +2596,7 @@
       <c r="L14" s="3">
         <v>68</v>
       </c>
-      <c r="M14" s="104"/>
+      <c r="M14" s="101"/>
       <c r="N14" s="76" t="s">
         <v>84</v>
       </c>
@@ -2571,13 +2604,13 @@
         <v>5</v>
       </c>
       <c r="R14"/>
-      <c r="S14" s="96" t="s">
+      <c r="S14" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="97"/>
+      <c r="T14" s="93"/>
       <c r="U14" s="35">
-        <f>E37+J37+O42</f>
-        <v>475</v>
+        <f>E37+J37+O43</f>
+        <v>480</v>
       </c>
       <c r="V14" s="16"/>
       <c r="W14"/>
@@ -2586,7 +2619,7 @@
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="92"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="45" t="s">
         <v>23</v>
       </c>
@@ -2596,7 +2629,7 @@
       <c r="G15" s="5">
         <v>39</v>
       </c>
-      <c r="H15" s="88">
+      <c r="H15" s="87">
         <v>45663</v>
       </c>
       <c r="I15" s="48" t="s">
@@ -2618,10 +2651,10 @@
         <v>5</v>
       </c>
       <c r="R15"/>
-      <c r="S15" s="96" t="s">
+      <c r="S15" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="T15" s="97"/>
+      <c r="T15" s="93"/>
       <c r="U15" s="36">
         <f>U11</f>
         <v>330</v>
@@ -2633,7 +2666,7 @@
       <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="92"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="45" t="s">
         <v>24</v>
       </c>
@@ -2643,7 +2676,7 @@
       <c r="G16" s="3">
         <v>40</v>
       </c>
-      <c r="H16" s="83"/>
+      <c r="H16" s="88"/>
       <c r="I16" s="48" t="s">
         <v>54</v>
       </c>
@@ -2653,7 +2686,7 @@
       <c r="L16" s="3">
         <v>70</v>
       </c>
-      <c r="M16" s="105">
+      <c r="M16" s="102">
         <v>45700</v>
       </c>
       <c r="N16" s="76" t="s">
@@ -2663,13 +2696,13 @@
         <v>5</v>
       </c>
       <c r="R16"/>
-      <c r="S16" s="98" t="s">
+      <c r="S16" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="99"/>
+      <c r="T16" s="95"/>
       <c r="U16" s="37">
         <f>SUM(U14:U15)</f>
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="V16" s="18"/>
       <c r="W16"/>
@@ -2678,7 +2711,7 @@
       <c r="B17" s="3">
         <v>11</v>
       </c>
-      <c r="C17" s="92"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="45" t="s">
         <v>25</v>
       </c>
@@ -2688,7 +2721,7 @@
       <c r="G17" s="3">
         <v>41</v>
       </c>
-      <c r="H17" s="86"/>
+      <c r="H17" s="89"/>
       <c r="I17" s="48" t="s">
         <v>55</v>
       </c>
@@ -2698,7 +2731,7 @@
       <c r="L17" s="3">
         <v>71</v>
       </c>
-      <c r="M17" s="105"/>
+      <c r="M17" s="102"/>
       <c r="N17" s="76" t="s">
         <v>101</v>
       </c>
@@ -2712,7 +2745,7 @@
       <c r="B18" s="3">
         <v>12</v>
       </c>
-      <c r="C18" s="92"/>
+      <c r="C18" s="85"/>
       <c r="D18" s="45" t="s">
         <v>26</v>
       </c>
@@ -2722,7 +2755,7 @@
       <c r="G18" s="3">
         <v>42</v>
       </c>
-      <c r="H18" s="88">
+      <c r="H18" s="87">
         <v>45664</v>
       </c>
       <c r="I18" s="68" t="s">
@@ -2734,7 +2767,7 @@
       <c r="L18" s="3">
         <v>72</v>
       </c>
-      <c r="M18" s="105">
+      <c r="M18" s="102">
         <v>45701</v>
       </c>
       <c r="N18" s="76" t="s">
@@ -2751,7 +2784,7 @@
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="92"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="45" t="s">
         <v>27</v>
       </c>
@@ -2761,7 +2794,7 @@
       <c r="G19" s="3">
         <v>43</v>
       </c>
-      <c r="H19" s="89"/>
+      <c r="H19" s="106"/>
       <c r="I19" s="68" t="s">
         <v>60</v>
       </c>
@@ -2771,7 +2804,7 @@
       <c r="L19" s="3">
         <v>73</v>
       </c>
-      <c r="M19" s="105"/>
+      <c r="M19" s="102"/>
       <c r="N19" s="76" t="s">
         <v>89</v>
       </c>
@@ -2785,7 +2818,7 @@
       <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="92"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="46" t="s">
         <v>28</v>
       </c>
@@ -2795,7 +2828,7 @@
       <c r="G20" s="3">
         <v>44</v>
       </c>
-      <c r="H20" s="88">
+      <c r="H20" s="87">
         <v>45665</v>
       </c>
       <c r="I20" s="68" t="s">
@@ -2823,7 +2856,7 @@
       <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="92"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="46" t="s">
         <v>29</v>
       </c>
@@ -2833,7 +2866,7 @@
       <c r="G21" s="3">
         <v>45</v>
       </c>
-      <c r="H21" s="89"/>
+      <c r="H21" s="106"/>
       <c r="I21" s="68" t="s">
         <v>62</v>
       </c>
@@ -2843,7 +2876,7 @@
       <c r="L21" s="3">
         <v>75</v>
       </c>
-      <c r="M21" s="105">
+      <c r="M21" s="102">
         <v>45708</v>
       </c>
       <c r="N21" s="76" t="s">
@@ -2859,7 +2892,7 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="92"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="46" t="s">
         <v>30</v>
       </c>
@@ -2881,7 +2914,7 @@
       <c r="L22" s="3">
         <v>76</v>
       </c>
-      <c r="M22" s="105"/>
+      <c r="M22" s="102"/>
       <c r="N22" s="76" t="s">
         <v>92</v>
       </c>
@@ -2895,7 +2928,7 @@
       <c r="B23" s="3">
         <v>17</v>
       </c>
-      <c r="C23" s="92"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="46" t="s">
         <v>31</v>
       </c>
@@ -2917,7 +2950,7 @@
       <c r="L23" s="3">
         <v>77</v>
       </c>
-      <c r="M23" s="105"/>
+      <c r="M23" s="102"/>
       <c r="N23" s="76" t="s">
         <v>93</v>
       </c>
@@ -2932,7 +2965,7 @@
       <c r="B24" s="3">
         <v>18</v>
       </c>
-      <c r="C24" s="92"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="46" t="s">
         <v>32</v>
       </c>
@@ -2942,7 +2975,7 @@
       <c r="G24" s="3">
         <v>48</v>
       </c>
-      <c r="H24" s="87">
+      <c r="H24" s="105">
         <v>45670</v>
       </c>
       <c r="I24" s="68" t="s">
@@ -2970,7 +3003,7 @@
       <c r="B25" s="3">
         <v>19</v>
       </c>
-      <c r="C25" s="92"/>
+      <c r="C25" s="85"/>
       <c r="D25" s="46" t="s">
         <v>33</v>
       </c>
@@ -2980,7 +3013,7 @@
       <c r="G25" s="3">
         <v>49</v>
       </c>
-      <c r="H25" s="87"/>
+      <c r="H25" s="105"/>
       <c r="I25" s="70" t="s">
         <v>65</v>
       </c>
@@ -3006,7 +3039,7 @@
       <c r="B26" s="3">
         <v>20</v>
       </c>
-      <c r="C26" s="92"/>
+      <c r="C26" s="85"/>
       <c r="D26" s="45" t="s">
         <v>34</v>
       </c>
@@ -3016,7 +3049,7 @@
       <c r="G26" s="4">
         <v>50</v>
       </c>
-      <c r="H26" s="87"/>
+      <c r="H26" s="105"/>
       <c r="I26" s="70" t="s">
         <v>66</v>
       </c>
@@ -3042,7 +3075,7 @@
       <c r="B27" s="3">
         <v>21</v>
       </c>
-      <c r="C27" s="93"/>
+      <c r="C27" s="86"/>
       <c r="D27" s="45" t="s">
         <v>35</v>
       </c>
@@ -3064,7 +3097,7 @@
       <c r="L27" s="28">
         <v>81</v>
       </c>
-      <c r="M27" s="105">
+      <c r="M27" s="102">
         <v>45721</v>
       </c>
       <c r="N27" s="76" t="s">
@@ -3080,7 +3113,7 @@
       <c r="B28" s="3">
         <v>22</v>
       </c>
-      <c r="C28" s="88">
+      <c r="C28" s="87">
         <v>45659</v>
       </c>
       <c r="D28" s="45" t="s">
@@ -3092,7 +3125,7 @@
       <c r="G28" s="3">
         <v>52</v>
       </c>
-      <c r="H28" s="87">
+      <c r="H28" s="105">
         <v>45673</v>
       </c>
       <c r="I28" s="70" t="s">
@@ -3104,7 +3137,7 @@
       <c r="L28" s="28">
         <v>82</v>
       </c>
-      <c r="M28" s="105"/>
+      <c r="M28" s="102"/>
       <c r="N28" s="76" t="s">
         <v>98</v>
       </c>
@@ -3118,7 +3151,7 @@
       <c r="B29" s="5">
         <v>23</v>
       </c>
-      <c r="C29" s="83"/>
+      <c r="C29" s="88"/>
       <c r="D29" s="48" t="s">
         <v>37</v>
       </c>
@@ -3128,7 +3161,7 @@
       <c r="G29" s="3">
         <v>53</v>
       </c>
-      <c r="H29" s="87"/>
+      <c r="H29" s="105"/>
       <c r="I29" s="70" t="s">
         <v>70</v>
       </c>
@@ -3138,7 +3171,7 @@
       <c r="L29" s="28">
         <v>83</v>
       </c>
-      <c r="M29" s="105"/>
+      <c r="M29" s="102"/>
       <c r="N29" s="29" t="s">
         <v>99</v>
       </c>
@@ -3152,7 +3185,7 @@
       <c r="B30" s="3">
         <v>24</v>
       </c>
-      <c r="C30" s="83"/>
+      <c r="C30" s="88"/>
       <c r="D30" s="48" t="s">
         <v>38</v>
       </c>
@@ -3162,7 +3195,7 @@
       <c r="G30" s="3">
         <v>54</v>
       </c>
-      <c r="H30" s="87"/>
+      <c r="H30" s="105"/>
       <c r="I30" s="70" t="s">
         <v>71</v>
       </c>
@@ -3188,7 +3221,7 @@
       <c r="B31" s="3">
         <v>25</v>
       </c>
-      <c r="C31" s="83"/>
+      <c r="C31" s="88"/>
       <c r="D31" s="48" t="s">
         <v>39</v>
       </c>
@@ -3226,7 +3259,7 @@
       <c r="B32" s="3">
         <v>26</v>
       </c>
-      <c r="C32" s="86"/>
+      <c r="C32" s="89"/>
       <c r="D32" s="48" t="s">
         <v>40</v>
       </c>
@@ -3264,7 +3297,7 @@
       <c r="B33" s="3">
         <v>27</v>
       </c>
-      <c r="C33" s="83">
+      <c r="C33" s="88">
         <v>45660</v>
       </c>
       <c r="D33" s="48" t="s">
@@ -3304,7 +3337,7 @@
       <c r="B34" s="3">
         <v>28</v>
       </c>
-      <c r="C34" s="83"/>
+      <c r="C34" s="88"/>
       <c r="D34" s="48" t="s">
         <v>42</v>
       </c>
@@ -3342,7 +3375,7 @@
       <c r="B35" s="3">
         <v>29</v>
       </c>
-      <c r="C35" s="83"/>
+      <c r="C35" s="88"/>
       <c r="D35" s="48" t="s">
         <v>43</v>
       </c>
@@ -3381,7 +3414,7 @@
       <c r="B36" s="6">
         <v>30</v>
       </c>
-      <c r="C36" s="84"/>
+      <c r="C36" s="103"/>
       <c r="D36" s="48" t="s">
         <v>44</v>
       </c>
@@ -3449,7 +3482,7 @@
       <c r="L38" s="28">
         <v>92</v>
       </c>
-      <c r="M38" s="82">
+      <c r="M38" s="99">
         <v>45793</v>
       </c>
       <c r="N38" s="76" t="s">
@@ -3474,7 +3507,7 @@
       <c r="L39" s="28">
         <v>93</v>
       </c>
-      <c r="M39" s="104"/>
+      <c r="M39" s="101"/>
       <c r="N39" s="76" t="s">
         <v>111</v>
       </c>
@@ -3499,7 +3532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="L41" s="28">
         <v>95</v>
       </c>
@@ -3514,18 +3547,39 @@
       </c>
     </row>
     <row r="42" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L42" s="81"/>
-      <c r="M42" s="22" t="s">
+      <c r="L42" s="5"/>
+      <c r="M42" s="82">
+        <v>45803</v>
+      </c>
+      <c r="N42" s="107" t="s">
+        <v>114</v>
+      </c>
+      <c r="O42" s="108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L43" s="81"/>
+      <c r="M43" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="N42" s="24"/>
-      <c r="O42" s="25">
-        <f>SUM(O7:O41)</f>
-        <v>175</v>
+      <c r="N43" s="24"/>
+      <c r="O43" s="25">
+        <f>SUM(O7:O42)</f>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H24:H26"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="C9:C27"/>
     <mergeCell ref="C28:C32"/>
@@ -3540,15 +3594,6 @@
     <mergeCell ref="M18:M19"/>
     <mergeCell ref="M21:M23"/>
     <mergeCell ref="M27:M29"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H24:H26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F625258A-BBBE-48E3-A5D3-FEA007732A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3251DF1-90A3-4B03-905A-ED42BE26D66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1935" yWindow="1755" windowWidth="22725" windowHeight="13245" xr2:uid="{65989A62-DD22-4017-B1F4-9BE3BB514C20}"/>
   </bookViews>
@@ -1744,6 +1744,39 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1754,15 +1787,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1792,34 +1816,10 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2145,8 +2145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC16636-847A-47F1-BA3B-A88365FF7E52}">
   <dimension ref="B1:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="U45" sqref="U45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2185,20 +2185,20 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="2:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:23" ht="20.25" x14ac:dyDescent="0.3">
@@ -2245,12 +2245,12 @@
         <v>9</v>
       </c>
       <c r="R6"/>
-      <c r="S6" s="96" t="s">
+      <c r="S6" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="97"/>
-      <c r="U6" s="97"/>
-      <c r="V6" s="98"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="105"/>
+      <c r="V6" s="106"/>
       <c r="W6"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
@@ -2269,7 +2269,7 @@
       <c r="G7" s="26">
         <v>31</v>
       </c>
-      <c r="H7" s="104">
+      <c r="H7" s="89">
         <v>45660</v>
       </c>
       <c r="I7" s="53" t="s">
@@ -2321,7 +2321,7 @@
       <c r="G8" s="3">
         <v>32</v>
       </c>
-      <c r="H8" s="88"/>
+      <c r="H8" s="87"/>
       <c r="I8" s="55" t="s">
         <v>46</v>
       </c>
@@ -2359,7 +2359,7 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="84">
+      <c r="C9" s="95">
         <v>45658</v>
       </c>
       <c r="D9" s="44" t="s">
@@ -2371,7 +2371,7 @@
       <c r="G9" s="3">
         <v>33</v>
       </c>
-      <c r="H9" s="88"/>
+      <c r="H9" s="87"/>
       <c r="I9" s="55" t="s">
         <v>47</v>
       </c>
@@ -2409,7 +2409,7 @@
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="85"/>
+      <c r="C10" s="96"/>
       <c r="D10" s="45" t="s">
         <v>18</v>
       </c>
@@ -2419,7 +2419,7 @@
       <c r="G10" s="3">
         <v>34</v>
       </c>
-      <c r="H10" s="88"/>
+      <c r="H10" s="87"/>
       <c r="I10" s="55" t="s">
         <v>48</v>
       </c>
@@ -2429,7 +2429,7 @@
       <c r="L10" s="3">
         <v>64</v>
       </c>
-      <c r="M10" s="99">
+      <c r="M10" s="85">
         <v>45689</v>
       </c>
       <c r="N10" s="76" t="s">
@@ -2449,7 +2449,7 @@
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="85"/>
+      <c r="C11" s="96"/>
       <c r="D11" s="45" t="s">
         <v>19</v>
       </c>
@@ -2459,7 +2459,7 @@
       <c r="G11" s="3">
         <v>35</v>
       </c>
-      <c r="H11" s="89"/>
+      <c r="H11" s="90"/>
       <c r="I11" s="55" t="s">
         <v>49</v>
       </c>
@@ -2469,7 +2469,7 @@
       <c r="L11" s="3">
         <v>65</v>
       </c>
-      <c r="M11" s="100"/>
+      <c r="M11" s="107"/>
       <c r="N11" s="76" t="s">
         <v>82</v>
       </c>
@@ -2492,7 +2492,7 @@
       <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="85"/>
+      <c r="C12" s="96"/>
       <c r="D12" s="45" t="s">
         <v>20</v>
       </c>
@@ -2502,7 +2502,7 @@
       <c r="G12" s="3">
         <v>36</v>
       </c>
-      <c r="H12" s="105">
+      <c r="H12" s="91">
         <v>45661</v>
       </c>
       <c r="I12" s="46" t="s">
@@ -2514,7 +2514,7 @@
       <c r="L12" s="3">
         <v>66</v>
       </c>
-      <c r="M12" s="101"/>
+      <c r="M12" s="86"/>
       <c r="N12" s="76" t="s">
         <v>105</v>
       </c>
@@ -2528,7 +2528,7 @@
       <c r="B13" s="5">
         <v>7</v>
       </c>
-      <c r="C13" s="85"/>
+      <c r="C13" s="96"/>
       <c r="D13" s="45" t="s">
         <v>21</v>
       </c>
@@ -2538,7 +2538,7 @@
       <c r="G13" s="3">
         <v>37</v>
       </c>
-      <c r="H13" s="105"/>
+      <c r="H13" s="91"/>
       <c r="I13" s="46" t="s">
         <v>51</v>
       </c>
@@ -2548,7 +2548,7 @@
       <c r="L13" s="3">
         <v>67</v>
       </c>
-      <c r="M13" s="99">
+      <c r="M13" s="85">
         <v>45691</v>
       </c>
       <c r="N13" s="76" t="s">
@@ -2558,10 +2558,10 @@
         <v>5</v>
       </c>
       <c r="R13"/>
-      <c r="S13" s="90" t="s">
+      <c r="S13" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="91"/>
+      <c r="T13" s="99"/>
       <c r="U13" s="19" t="s">
         <v>14</v>
       </c>
@@ -2574,7 +2574,7 @@
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="85"/>
+      <c r="C14" s="96"/>
       <c r="D14" s="45" t="s">
         <v>22</v>
       </c>
@@ -2596,7 +2596,7 @@
       <c r="L14" s="3">
         <v>68</v>
       </c>
-      <c r="M14" s="101"/>
+      <c r="M14" s="86"/>
       <c r="N14" s="76" t="s">
         <v>84</v>
       </c>
@@ -2604,10 +2604,10 @@
         <v>5</v>
       </c>
       <c r="R14"/>
-      <c r="S14" s="92" t="s">
+      <c r="S14" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="93"/>
+      <c r="T14" s="101"/>
       <c r="U14" s="35">
         <f>E37+J37+O43</f>
         <v>480</v>
@@ -2619,7 +2619,7 @@
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="85"/>
+      <c r="C15" s="96"/>
       <c r="D15" s="45" t="s">
         <v>23</v>
       </c>
@@ -2629,7 +2629,7 @@
       <c r="G15" s="5">
         <v>39</v>
       </c>
-      <c r="H15" s="87">
+      <c r="H15" s="92">
         <v>45663</v>
       </c>
       <c r="I15" s="48" t="s">
@@ -2651,10 +2651,10 @@
         <v>5</v>
       </c>
       <c r="R15"/>
-      <c r="S15" s="92" t="s">
+      <c r="S15" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="T15" s="93"/>
+      <c r="T15" s="101"/>
       <c r="U15" s="36">
         <f>U11</f>
         <v>330</v>
@@ -2666,7 +2666,7 @@
       <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="85"/>
+      <c r="C16" s="96"/>
       <c r="D16" s="45" t="s">
         <v>24</v>
       </c>
@@ -2676,7 +2676,7 @@
       <c r="G16" s="3">
         <v>40</v>
       </c>
-      <c r="H16" s="88"/>
+      <c r="H16" s="87"/>
       <c r="I16" s="48" t="s">
         <v>54</v>
       </c>
@@ -2686,7 +2686,7 @@
       <c r="L16" s="3">
         <v>70</v>
       </c>
-      <c r="M16" s="102">
+      <c r="M16" s="108">
         <v>45700</v>
       </c>
       <c r="N16" s="76" t="s">
@@ -2696,10 +2696,10 @@
         <v>5</v>
       </c>
       <c r="R16"/>
-      <c r="S16" s="94" t="s">
+      <c r="S16" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="95"/>
+      <c r="T16" s="103"/>
       <c r="U16" s="37">
         <f>SUM(U14:U15)</f>
         <v>810</v>
@@ -2711,7 +2711,7 @@
       <c r="B17" s="3">
         <v>11</v>
       </c>
-      <c r="C17" s="85"/>
+      <c r="C17" s="96"/>
       <c r="D17" s="45" t="s">
         <v>25</v>
       </c>
@@ -2721,7 +2721,7 @@
       <c r="G17" s="3">
         <v>41</v>
       </c>
-      <c r="H17" s="89"/>
+      <c r="H17" s="90"/>
       <c r="I17" s="48" t="s">
         <v>55</v>
       </c>
@@ -2731,7 +2731,7 @@
       <c r="L17" s="3">
         <v>71</v>
       </c>
-      <c r="M17" s="102"/>
+      <c r="M17" s="108"/>
       <c r="N17" s="76" t="s">
         <v>101</v>
       </c>
@@ -2745,7 +2745,7 @@
       <c r="B18" s="3">
         <v>12</v>
       </c>
-      <c r="C18" s="85"/>
+      <c r="C18" s="96"/>
       <c r="D18" s="45" t="s">
         <v>26</v>
       </c>
@@ -2755,7 +2755,7 @@
       <c r="G18" s="3">
         <v>42</v>
       </c>
-      <c r="H18" s="87">
+      <c r="H18" s="92">
         <v>45664</v>
       </c>
       <c r="I18" s="68" t="s">
@@ -2767,7 +2767,7 @@
       <c r="L18" s="3">
         <v>72</v>
       </c>
-      <c r="M18" s="102">
+      <c r="M18" s="108">
         <v>45701</v>
       </c>
       <c r="N18" s="76" t="s">
@@ -2784,7 +2784,7 @@
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="85"/>
+      <c r="C19" s="96"/>
       <c r="D19" s="45" t="s">
         <v>27</v>
       </c>
@@ -2794,7 +2794,7 @@
       <c r="G19" s="3">
         <v>43</v>
       </c>
-      <c r="H19" s="106"/>
+      <c r="H19" s="93"/>
       <c r="I19" s="68" t="s">
         <v>60</v>
       </c>
@@ -2804,7 +2804,7 @@
       <c r="L19" s="3">
         <v>73</v>
       </c>
-      <c r="M19" s="102"/>
+      <c r="M19" s="108"/>
       <c r="N19" s="76" t="s">
         <v>89</v>
       </c>
@@ -2818,7 +2818,7 @@
       <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="85"/>
+      <c r="C20" s="96"/>
       <c r="D20" s="46" t="s">
         <v>28</v>
       </c>
@@ -2828,7 +2828,7 @@
       <c r="G20" s="3">
         <v>44</v>
       </c>
-      <c r="H20" s="87">
+      <c r="H20" s="92">
         <v>45665</v>
       </c>
       <c r="I20" s="68" t="s">
@@ -2856,7 +2856,7 @@
       <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="85"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="46" t="s">
         <v>29</v>
       </c>
@@ -2866,7 +2866,7 @@
       <c r="G21" s="3">
         <v>45</v>
       </c>
-      <c r="H21" s="106"/>
+      <c r="H21" s="93"/>
       <c r="I21" s="68" t="s">
         <v>62</v>
       </c>
@@ -2876,7 +2876,7 @@
       <c r="L21" s="3">
         <v>75</v>
       </c>
-      <c r="M21" s="102">
+      <c r="M21" s="108">
         <v>45708</v>
       </c>
       <c r="N21" s="76" t="s">
@@ -2892,7 +2892,7 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="85"/>
+      <c r="C22" s="96"/>
       <c r="D22" s="46" t="s">
         <v>30</v>
       </c>
@@ -2914,7 +2914,7 @@
       <c r="L22" s="3">
         <v>76</v>
       </c>
-      <c r="M22" s="102"/>
+      <c r="M22" s="108"/>
       <c r="N22" s="76" t="s">
         <v>92</v>
       </c>
@@ -2928,7 +2928,7 @@
       <c r="B23" s="3">
         <v>17</v>
       </c>
-      <c r="C23" s="85"/>
+      <c r="C23" s="96"/>
       <c r="D23" s="46" t="s">
         <v>31</v>
       </c>
@@ -2950,7 +2950,7 @@
       <c r="L23" s="3">
         <v>77</v>
       </c>
-      <c r="M23" s="102"/>
+      <c r="M23" s="108"/>
       <c r="N23" s="76" t="s">
         <v>93</v>
       </c>
@@ -2965,7 +2965,7 @@
       <c r="B24" s="3">
         <v>18</v>
       </c>
-      <c r="C24" s="85"/>
+      <c r="C24" s="96"/>
       <c r="D24" s="46" t="s">
         <v>32</v>
       </c>
@@ -2975,7 +2975,7 @@
       <c r="G24" s="3">
         <v>48</v>
       </c>
-      <c r="H24" s="105">
+      <c r="H24" s="91">
         <v>45670</v>
       </c>
       <c r="I24" s="68" t="s">
@@ -3003,7 +3003,7 @@
       <c r="B25" s="3">
         <v>19</v>
       </c>
-      <c r="C25" s="85"/>
+      <c r="C25" s="96"/>
       <c r="D25" s="46" t="s">
         <v>33</v>
       </c>
@@ -3013,7 +3013,7 @@
       <c r="G25" s="3">
         <v>49</v>
       </c>
-      <c r="H25" s="105"/>
+      <c r="H25" s="91"/>
       <c r="I25" s="70" t="s">
         <v>65</v>
       </c>
@@ -3039,7 +3039,7 @@
       <c r="B26" s="3">
         <v>20</v>
       </c>
-      <c r="C26" s="85"/>
+      <c r="C26" s="96"/>
       <c r="D26" s="45" t="s">
         <v>34</v>
       </c>
@@ -3049,7 +3049,7 @@
       <c r="G26" s="4">
         <v>50</v>
       </c>
-      <c r="H26" s="105"/>
+      <c r="H26" s="91"/>
       <c r="I26" s="70" t="s">
         <v>66</v>
       </c>
@@ -3075,7 +3075,7 @@
       <c r="B27" s="3">
         <v>21</v>
       </c>
-      <c r="C27" s="86"/>
+      <c r="C27" s="97"/>
       <c r="D27" s="45" t="s">
         <v>35</v>
       </c>
@@ -3097,7 +3097,7 @@
       <c r="L27" s="28">
         <v>81</v>
       </c>
-      <c r="M27" s="102">
+      <c r="M27" s="108">
         <v>45721</v>
       </c>
       <c r="N27" s="76" t="s">
@@ -3113,7 +3113,7 @@
       <c r="B28" s="3">
         <v>22</v>
       </c>
-      <c r="C28" s="87">
+      <c r="C28" s="92">
         <v>45659</v>
       </c>
       <c r="D28" s="45" t="s">
@@ -3125,7 +3125,7 @@
       <c r="G28" s="3">
         <v>52</v>
       </c>
-      <c r="H28" s="105">
+      <c r="H28" s="91">
         <v>45673</v>
       </c>
       <c r="I28" s="70" t="s">
@@ -3137,7 +3137,7 @@
       <c r="L28" s="28">
         <v>82</v>
       </c>
-      <c r="M28" s="102"/>
+      <c r="M28" s="108"/>
       <c r="N28" s="76" t="s">
         <v>98</v>
       </c>
@@ -3151,7 +3151,7 @@
       <c r="B29" s="5">
         <v>23</v>
       </c>
-      <c r="C29" s="88"/>
+      <c r="C29" s="87"/>
       <c r="D29" s="48" t="s">
         <v>37</v>
       </c>
@@ -3161,7 +3161,7 @@
       <c r="G29" s="3">
         <v>53</v>
       </c>
-      <c r="H29" s="105"/>
+      <c r="H29" s="91"/>
       <c r="I29" s="70" t="s">
         <v>70</v>
       </c>
@@ -3171,7 +3171,7 @@
       <c r="L29" s="28">
         <v>83</v>
       </c>
-      <c r="M29" s="102"/>
+      <c r="M29" s="108"/>
       <c r="N29" s="29" t="s">
         <v>99</v>
       </c>
@@ -3185,7 +3185,7 @@
       <c r="B30" s="3">
         <v>24</v>
       </c>
-      <c r="C30" s="88"/>
+      <c r="C30" s="87"/>
       <c r="D30" s="48" t="s">
         <v>38</v>
       </c>
@@ -3195,7 +3195,7 @@
       <c r="G30" s="3">
         <v>54</v>
       </c>
-      <c r="H30" s="105"/>
+      <c r="H30" s="91"/>
       <c r="I30" s="70" t="s">
         <v>71</v>
       </c>
@@ -3221,7 +3221,7 @@
       <c r="B31" s="3">
         <v>25</v>
       </c>
-      <c r="C31" s="88"/>
+      <c r="C31" s="87"/>
       <c r="D31" s="48" t="s">
         <v>39</v>
       </c>
@@ -3259,7 +3259,7 @@
       <c r="B32" s="3">
         <v>26</v>
       </c>
-      <c r="C32" s="89"/>
+      <c r="C32" s="90"/>
       <c r="D32" s="48" t="s">
         <v>40</v>
       </c>
@@ -3297,7 +3297,7 @@
       <c r="B33" s="3">
         <v>27</v>
       </c>
-      <c r="C33" s="88">
+      <c r="C33" s="87">
         <v>45660</v>
       </c>
       <c r="D33" s="48" t="s">
@@ -3337,7 +3337,7 @@
       <c r="B34" s="3">
         <v>28</v>
       </c>
-      <c r="C34" s="88"/>
+      <c r="C34" s="87"/>
       <c r="D34" s="48" t="s">
         <v>42</v>
       </c>
@@ -3375,7 +3375,7 @@
       <c r="B35" s="3">
         <v>29</v>
       </c>
-      <c r="C35" s="88"/>
+      <c r="C35" s="87"/>
       <c r="D35" s="48" t="s">
         <v>43</v>
       </c>
@@ -3414,7 +3414,7 @@
       <c r="B36" s="6">
         <v>30</v>
       </c>
-      <c r="C36" s="103"/>
+      <c r="C36" s="88"/>
       <c r="D36" s="48" t="s">
         <v>44</v>
       </c>
@@ -3482,7 +3482,7 @@
       <c r="L38" s="28">
         <v>92</v>
       </c>
-      <c r="M38" s="99">
+      <c r="M38" s="85">
         <v>45793</v>
       </c>
       <c r="N38" s="76" t="s">
@@ -3507,7 +3507,7 @@
       <c r="L39" s="28">
         <v>93</v>
       </c>
-      <c r="M39" s="101"/>
+      <c r="M39" s="86"/>
       <c r="N39" s="76" t="s">
         <v>111</v>
       </c>
@@ -3547,14 +3547,16 @@
       </c>
     </row>
     <row r="42" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L42" s="5"/>
+      <c r="L42" s="28">
+        <v>96</v>
+      </c>
       <c r="M42" s="82">
         <v>45803</v>
       </c>
-      <c r="N42" s="107" t="s">
+      <c r="N42" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="O42" s="108">
+      <c r="O42" s="84">
         <v>5</v>
       </c>
     </row>
@@ -3571,15 +3573,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H24:H26"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="C9:C27"/>
     <mergeCell ref="C28:C32"/>
@@ -3594,6 +3587,15 @@
     <mergeCell ref="M18:M19"/>
     <mergeCell ref="M21:M23"/>
     <mergeCell ref="M27:M29"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H24:H26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3251DF1-90A3-4B03-905A-ED42BE26D66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B230DAC0-E32D-458E-8B4C-A52AA3815707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1935" yWindow="1755" windowWidth="22725" windowHeight="13245" xr2:uid="{65989A62-DD22-4017-B1F4-9BE3BB514C20}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="116">
   <si>
     <t>일   자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,6 +494,10 @@
   </si>
   <si>
     <t>김상관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤석우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1750,43 +1754,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1816,10 +1802,28 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2143,10 +2147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC16636-847A-47F1-BA3B-A88365FF7E52}">
-  <dimension ref="B1:X43"/>
+  <dimension ref="B1:X44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="U45" sqref="U45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2185,20 +2189,20 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
     </row>
     <row r="3" spans="2:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:23" ht="20.25" x14ac:dyDescent="0.3">
@@ -2245,12 +2249,12 @@
         <v>9</v>
       </c>
       <c r="R6"/>
-      <c r="S6" s="104" t="s">
+      <c r="S6" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="105"/>
-      <c r="U6" s="105"/>
-      <c r="V6" s="106"/>
+      <c r="T6" s="99"/>
+      <c r="U6" s="99"/>
+      <c r="V6" s="100"/>
       <c r="W6"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
@@ -2269,7 +2273,7 @@
       <c r="G7" s="26">
         <v>31</v>
       </c>
-      <c r="H7" s="89">
+      <c r="H7" s="106">
         <v>45660</v>
       </c>
       <c r="I7" s="53" t="s">
@@ -2321,7 +2325,7 @@
       <c r="G8" s="3">
         <v>32</v>
       </c>
-      <c r="H8" s="87"/>
+      <c r="H8" s="90"/>
       <c r="I8" s="55" t="s">
         <v>46</v>
       </c>
@@ -2359,7 +2363,7 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="95">
+      <c r="C9" s="86">
         <v>45658</v>
       </c>
       <c r="D9" s="44" t="s">
@@ -2371,7 +2375,7 @@
       <c r="G9" s="3">
         <v>33</v>
       </c>
-      <c r="H9" s="87"/>
+      <c r="H9" s="90"/>
       <c r="I9" s="55" t="s">
         <v>47</v>
       </c>
@@ -2409,7 +2413,7 @@
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="96"/>
+      <c r="C10" s="87"/>
       <c r="D10" s="45" t="s">
         <v>18</v>
       </c>
@@ -2419,7 +2423,7 @@
       <c r="G10" s="3">
         <v>34</v>
       </c>
-      <c r="H10" s="87"/>
+      <c r="H10" s="90"/>
       <c r="I10" s="55" t="s">
         <v>48</v>
       </c>
@@ -2429,7 +2433,7 @@
       <c r="L10" s="3">
         <v>64</v>
       </c>
-      <c r="M10" s="85">
+      <c r="M10" s="101">
         <v>45689</v>
       </c>
       <c r="N10" s="76" t="s">
@@ -2449,7 +2453,7 @@
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="96"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="45" t="s">
         <v>19</v>
       </c>
@@ -2459,7 +2463,7 @@
       <c r="G11" s="3">
         <v>35</v>
       </c>
-      <c r="H11" s="90"/>
+      <c r="H11" s="91"/>
       <c r="I11" s="55" t="s">
         <v>49</v>
       </c>
@@ -2469,7 +2473,7 @@
       <c r="L11" s="3">
         <v>65</v>
       </c>
-      <c r="M11" s="107"/>
+      <c r="M11" s="102"/>
       <c r="N11" s="76" t="s">
         <v>82</v>
       </c>
@@ -2492,7 +2496,7 @@
       <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="96"/>
+      <c r="C12" s="87"/>
       <c r="D12" s="45" t="s">
         <v>20</v>
       </c>
@@ -2502,7 +2506,7 @@
       <c r="G12" s="3">
         <v>36</v>
       </c>
-      <c r="H12" s="91">
+      <c r="H12" s="107">
         <v>45661</v>
       </c>
       <c r="I12" s="46" t="s">
@@ -2514,7 +2518,7 @@
       <c r="L12" s="3">
         <v>66</v>
       </c>
-      <c r="M12" s="86"/>
+      <c r="M12" s="103"/>
       <c r="N12" s="76" t="s">
         <v>105</v>
       </c>
@@ -2528,7 +2532,7 @@
       <c r="B13" s="5">
         <v>7</v>
       </c>
-      <c r="C13" s="96"/>
+      <c r="C13" s="87"/>
       <c r="D13" s="45" t="s">
         <v>21</v>
       </c>
@@ -2538,7 +2542,7 @@
       <c r="G13" s="3">
         <v>37</v>
       </c>
-      <c r="H13" s="91"/>
+      <c r="H13" s="107"/>
       <c r="I13" s="46" t="s">
         <v>51</v>
       </c>
@@ -2548,7 +2552,7 @@
       <c r="L13" s="3">
         <v>67</v>
       </c>
-      <c r="M13" s="85">
+      <c r="M13" s="101">
         <v>45691</v>
       </c>
       <c r="N13" s="76" t="s">
@@ -2558,10 +2562,10 @@
         <v>5</v>
       </c>
       <c r="R13"/>
-      <c r="S13" s="98" t="s">
+      <c r="S13" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="99"/>
+      <c r="T13" s="93"/>
       <c r="U13" s="19" t="s">
         <v>14</v>
       </c>
@@ -2574,7 +2578,7 @@
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="96"/>
+      <c r="C14" s="87"/>
       <c r="D14" s="45" t="s">
         <v>22</v>
       </c>
@@ -2596,7 +2600,7 @@
       <c r="L14" s="3">
         <v>68</v>
       </c>
-      <c r="M14" s="86"/>
+      <c r="M14" s="103"/>
       <c r="N14" s="76" t="s">
         <v>84</v>
       </c>
@@ -2604,13 +2608,13 @@
         <v>5</v>
       </c>
       <c r="R14"/>
-      <c r="S14" s="100" t="s">
+      <c r="S14" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="101"/>
+      <c r="T14" s="95"/>
       <c r="U14" s="35">
-        <f>E37+J37+O43</f>
-        <v>480</v>
+        <f>E37+J37+O44</f>
+        <v>485</v>
       </c>
       <c r="V14" s="16"/>
       <c r="W14"/>
@@ -2619,7 +2623,7 @@
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="96"/>
+      <c r="C15" s="87"/>
       <c r="D15" s="45" t="s">
         <v>23</v>
       </c>
@@ -2629,7 +2633,7 @@
       <c r="G15" s="5">
         <v>39</v>
       </c>
-      <c r="H15" s="92">
+      <c r="H15" s="89">
         <v>45663</v>
       </c>
       <c r="I15" s="48" t="s">
@@ -2651,10 +2655,10 @@
         <v>5</v>
       </c>
       <c r="R15"/>
-      <c r="S15" s="100" t="s">
+      <c r="S15" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="T15" s="101"/>
+      <c r="T15" s="95"/>
       <c r="U15" s="36">
         <f>U11</f>
         <v>330</v>
@@ -2666,7 +2670,7 @@
       <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="96"/>
+      <c r="C16" s="87"/>
       <c r="D16" s="45" t="s">
         <v>24</v>
       </c>
@@ -2676,7 +2680,7 @@
       <c r="G16" s="3">
         <v>40</v>
       </c>
-      <c r="H16" s="87"/>
+      <c r="H16" s="90"/>
       <c r="I16" s="48" t="s">
         <v>54</v>
       </c>
@@ -2686,7 +2690,7 @@
       <c r="L16" s="3">
         <v>70</v>
       </c>
-      <c r="M16" s="108">
+      <c r="M16" s="104">
         <v>45700</v>
       </c>
       <c r="N16" s="76" t="s">
@@ -2696,13 +2700,13 @@
         <v>5</v>
       </c>
       <c r="R16"/>
-      <c r="S16" s="102" t="s">
+      <c r="S16" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="103"/>
+      <c r="T16" s="97"/>
       <c r="U16" s="37">
         <f>SUM(U14:U15)</f>
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="V16" s="18"/>
       <c r="W16"/>
@@ -2711,7 +2715,7 @@
       <c r="B17" s="3">
         <v>11</v>
       </c>
-      <c r="C17" s="96"/>
+      <c r="C17" s="87"/>
       <c r="D17" s="45" t="s">
         <v>25</v>
       </c>
@@ -2721,7 +2725,7 @@
       <c r="G17" s="3">
         <v>41</v>
       </c>
-      <c r="H17" s="90"/>
+      <c r="H17" s="91"/>
       <c r="I17" s="48" t="s">
         <v>55</v>
       </c>
@@ -2731,7 +2735,7 @@
       <c r="L17" s="3">
         <v>71</v>
       </c>
-      <c r="M17" s="108"/>
+      <c r="M17" s="104"/>
       <c r="N17" s="76" t="s">
         <v>101</v>
       </c>
@@ -2745,7 +2749,7 @@
       <c r="B18" s="3">
         <v>12</v>
       </c>
-      <c r="C18" s="96"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="45" t="s">
         <v>26</v>
       </c>
@@ -2755,7 +2759,7 @@
       <c r="G18" s="3">
         <v>42</v>
       </c>
-      <c r="H18" s="92">
+      <c r="H18" s="89">
         <v>45664</v>
       </c>
       <c r="I18" s="68" t="s">
@@ -2767,7 +2771,7 @@
       <c r="L18" s="3">
         <v>72</v>
       </c>
-      <c r="M18" s="108">
+      <c r="M18" s="104">
         <v>45701</v>
       </c>
       <c r="N18" s="76" t="s">
@@ -2784,7 +2788,7 @@
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="96"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="45" t="s">
         <v>27</v>
       </c>
@@ -2794,7 +2798,7 @@
       <c r="G19" s="3">
         <v>43</v>
       </c>
-      <c r="H19" s="93"/>
+      <c r="H19" s="108"/>
       <c r="I19" s="68" t="s">
         <v>60</v>
       </c>
@@ -2804,7 +2808,7 @@
       <c r="L19" s="3">
         <v>73</v>
       </c>
-      <c r="M19" s="108"/>
+      <c r="M19" s="104"/>
       <c r="N19" s="76" t="s">
         <v>89</v>
       </c>
@@ -2818,7 +2822,7 @@
       <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="96"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="46" t="s">
         <v>28</v>
       </c>
@@ -2828,7 +2832,7 @@
       <c r="G20" s="3">
         <v>44</v>
       </c>
-      <c r="H20" s="92">
+      <c r="H20" s="89">
         <v>45665</v>
       </c>
       <c r="I20" s="68" t="s">
@@ -2856,7 +2860,7 @@
       <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="96"/>
+      <c r="C21" s="87"/>
       <c r="D21" s="46" t="s">
         <v>29</v>
       </c>
@@ -2866,7 +2870,7 @@
       <c r="G21" s="3">
         <v>45</v>
       </c>
-      <c r="H21" s="93"/>
+      <c r="H21" s="108"/>
       <c r="I21" s="68" t="s">
         <v>62</v>
       </c>
@@ -2876,7 +2880,7 @@
       <c r="L21" s="3">
         <v>75</v>
       </c>
-      <c r="M21" s="108">
+      <c r="M21" s="104">
         <v>45708</v>
       </c>
       <c r="N21" s="76" t="s">
@@ -2892,7 +2896,7 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="96"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="46" t="s">
         <v>30</v>
       </c>
@@ -2914,7 +2918,7 @@
       <c r="L22" s="3">
         <v>76</v>
       </c>
-      <c r="M22" s="108"/>
+      <c r="M22" s="104"/>
       <c r="N22" s="76" t="s">
         <v>92</v>
       </c>
@@ -2928,7 +2932,7 @@
       <c r="B23" s="3">
         <v>17</v>
       </c>
-      <c r="C23" s="96"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="46" t="s">
         <v>31</v>
       </c>
@@ -2950,7 +2954,7 @@
       <c r="L23" s="3">
         <v>77</v>
       </c>
-      <c r="M23" s="108"/>
+      <c r="M23" s="104"/>
       <c r="N23" s="76" t="s">
         <v>93</v>
       </c>
@@ -2965,7 +2969,7 @@
       <c r="B24" s="3">
         <v>18</v>
       </c>
-      <c r="C24" s="96"/>
+      <c r="C24" s="87"/>
       <c r="D24" s="46" t="s">
         <v>32</v>
       </c>
@@ -2975,7 +2979,7 @@
       <c r="G24" s="3">
         <v>48</v>
       </c>
-      <c r="H24" s="91">
+      <c r="H24" s="107">
         <v>45670</v>
       </c>
       <c r="I24" s="68" t="s">
@@ -3003,7 +3007,7 @@
       <c r="B25" s="3">
         <v>19</v>
       </c>
-      <c r="C25" s="96"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="46" t="s">
         <v>33</v>
       </c>
@@ -3013,7 +3017,7 @@
       <c r="G25" s="3">
         <v>49</v>
       </c>
-      <c r="H25" s="91"/>
+      <c r="H25" s="107"/>
       <c r="I25" s="70" t="s">
         <v>65</v>
       </c>
@@ -3039,7 +3043,7 @@
       <c r="B26" s="3">
         <v>20</v>
       </c>
-      <c r="C26" s="96"/>
+      <c r="C26" s="87"/>
       <c r="D26" s="45" t="s">
         <v>34</v>
       </c>
@@ -3049,7 +3053,7 @@
       <c r="G26" s="4">
         <v>50</v>
       </c>
-      <c r="H26" s="91"/>
+      <c r="H26" s="107"/>
       <c r="I26" s="70" t="s">
         <v>66</v>
       </c>
@@ -3075,7 +3079,7 @@
       <c r="B27" s="3">
         <v>21</v>
       </c>
-      <c r="C27" s="97"/>
+      <c r="C27" s="88"/>
       <c r="D27" s="45" t="s">
         <v>35</v>
       </c>
@@ -3097,7 +3101,7 @@
       <c r="L27" s="28">
         <v>81</v>
       </c>
-      <c r="M27" s="108">
+      <c r="M27" s="104">
         <v>45721</v>
       </c>
       <c r="N27" s="76" t="s">
@@ -3113,7 +3117,7 @@
       <c r="B28" s="3">
         <v>22</v>
       </c>
-      <c r="C28" s="92">
+      <c r="C28" s="89">
         <v>45659</v>
       </c>
       <c r="D28" s="45" t="s">
@@ -3125,7 +3129,7 @@
       <c r="G28" s="3">
         <v>52</v>
       </c>
-      <c r="H28" s="91">
+      <c r="H28" s="107">
         <v>45673</v>
       </c>
       <c r="I28" s="70" t="s">
@@ -3137,7 +3141,7 @@
       <c r="L28" s="28">
         <v>82</v>
       </c>
-      <c r="M28" s="108"/>
+      <c r="M28" s="104"/>
       <c r="N28" s="76" t="s">
         <v>98</v>
       </c>
@@ -3151,7 +3155,7 @@
       <c r="B29" s="5">
         <v>23</v>
       </c>
-      <c r="C29" s="87"/>
+      <c r="C29" s="90"/>
       <c r="D29" s="48" t="s">
         <v>37</v>
       </c>
@@ -3161,7 +3165,7 @@
       <c r="G29" s="3">
         <v>53</v>
       </c>
-      <c r="H29" s="91"/>
+      <c r="H29" s="107"/>
       <c r="I29" s="70" t="s">
         <v>70</v>
       </c>
@@ -3171,7 +3175,7 @@
       <c r="L29" s="28">
         <v>83</v>
       </c>
-      <c r="M29" s="108"/>
+      <c r="M29" s="104"/>
       <c r="N29" s="29" t="s">
         <v>99</v>
       </c>
@@ -3185,7 +3189,7 @@
       <c r="B30" s="3">
         <v>24</v>
       </c>
-      <c r="C30" s="87"/>
+      <c r="C30" s="90"/>
       <c r="D30" s="48" t="s">
         <v>38</v>
       </c>
@@ -3195,7 +3199,7 @@
       <c r="G30" s="3">
         <v>54</v>
       </c>
-      <c r="H30" s="91"/>
+      <c r="H30" s="107"/>
       <c r="I30" s="70" t="s">
         <v>71</v>
       </c>
@@ -3221,7 +3225,7 @@
       <c r="B31" s="3">
         <v>25</v>
       </c>
-      <c r="C31" s="87"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="48" t="s">
         <v>39</v>
       </c>
@@ -3259,7 +3263,7 @@
       <c r="B32" s="3">
         <v>26</v>
       </c>
-      <c r="C32" s="90"/>
+      <c r="C32" s="91"/>
       <c r="D32" s="48" t="s">
         <v>40</v>
       </c>
@@ -3297,7 +3301,7 @@
       <c r="B33" s="3">
         <v>27</v>
       </c>
-      <c r="C33" s="87">
+      <c r="C33" s="90">
         <v>45660</v>
       </c>
       <c r="D33" s="48" t="s">
@@ -3337,7 +3341,7 @@
       <c r="B34" s="3">
         <v>28</v>
       </c>
-      <c r="C34" s="87"/>
+      <c r="C34" s="90"/>
       <c r="D34" s="48" t="s">
         <v>42</v>
       </c>
@@ -3375,7 +3379,7 @@
       <c r="B35" s="3">
         <v>29</v>
       </c>
-      <c r="C35" s="87"/>
+      <c r="C35" s="90"/>
       <c r="D35" s="48" t="s">
         <v>43</v>
       </c>
@@ -3414,7 +3418,7 @@
       <c r="B36" s="6">
         <v>30</v>
       </c>
-      <c r="C36" s="88"/>
+      <c r="C36" s="105"/>
       <c r="D36" s="48" t="s">
         <v>44</v>
       </c>
@@ -3482,7 +3486,7 @@
       <c r="L38" s="28">
         <v>92</v>
       </c>
-      <c r="M38" s="85">
+      <c r="M38" s="101">
         <v>45793</v>
       </c>
       <c r="N38" s="76" t="s">
@@ -3507,7 +3511,7 @@
       <c r="L39" s="28">
         <v>93</v>
       </c>
-      <c r="M39" s="86"/>
+      <c r="M39" s="103"/>
       <c r="N39" s="76" t="s">
         <v>111</v>
       </c>
@@ -3546,7 +3550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="L42" s="28">
         <v>96</v>
       </c>
@@ -3561,18 +3565,39 @@
       </c>
     </row>
     <row r="43" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L43" s="81"/>
-      <c r="M43" s="22" t="s">
+      <c r="L43" s="28"/>
+      <c r="M43" s="31">
+        <v>45805</v>
+      </c>
+      <c r="N43" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="O43" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L44" s="81"/>
+      <c r="M44" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="N43" s="24"/>
-      <c r="O43" s="25">
-        <f>SUM(O7:O42)</f>
-        <v>180</v>
+      <c r="N44" s="24"/>
+      <c r="O44" s="25">
+        <f>SUM(O7:O43)</f>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H24:H26"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="C9:C27"/>
     <mergeCell ref="C28:C32"/>
@@ -3587,15 +3612,6 @@
     <mergeCell ref="M18:M19"/>
     <mergeCell ref="M21:M23"/>
     <mergeCell ref="M27:M29"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H24:H26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B230DAC0-E32D-458E-8B4C-A52AA3815707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B51754-8D1A-43F6-8FE3-22D03FE4EE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1935" yWindow="1755" windowWidth="22725" windowHeight="13245" xr2:uid="{65989A62-DD22-4017-B1F4-9BE3BB514C20}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="118">
   <si>
     <t>일   자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -498,6 +498,14 @@
   </si>
   <si>
     <t>윤석우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김갑생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박성건</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -674,7 +682,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -1459,48 +1467,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF002060"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF002060"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF002060"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF002060"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF002060"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF002060"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF002060"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1742,16 +1715,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1764,15 +1752,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1802,28 +1781,13 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2147,10 +2111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC16636-847A-47F1-BA3B-A88365FF7E52}">
-  <dimension ref="B1:X44"/>
+  <dimension ref="B1:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="V47" sqref="V47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2189,20 +2153,20 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="2:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:23" ht="20.25" x14ac:dyDescent="0.3">
@@ -2249,12 +2213,12 @@
         <v>9</v>
       </c>
       <c r="R6"/>
-      <c r="S6" s="98" t="s">
+      <c r="S6" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="99"/>
-      <c r="U6" s="99"/>
-      <c r="V6" s="100"/>
+      <c r="T6" s="101"/>
+      <c r="U6" s="101"/>
+      <c r="V6" s="102"/>
       <c r="W6"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
@@ -2273,7 +2237,7 @@
       <c r="G7" s="26">
         <v>31</v>
       </c>
-      <c r="H7" s="106">
+      <c r="H7" s="85">
         <v>45660</v>
       </c>
       <c r="I7" s="53" t="s">
@@ -2325,7 +2289,7 @@
       <c r="G8" s="3">
         <v>32</v>
       </c>
-      <c r="H8" s="90"/>
+      <c r="H8" s="83"/>
       <c r="I8" s="55" t="s">
         <v>46</v>
       </c>
@@ -2363,7 +2327,7 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="86">
+      <c r="C9" s="91">
         <v>45658</v>
       </c>
       <c r="D9" s="44" t="s">
@@ -2375,7 +2339,7 @@
       <c r="G9" s="3">
         <v>33</v>
       </c>
-      <c r="H9" s="90"/>
+      <c r="H9" s="83"/>
       <c r="I9" s="55" t="s">
         <v>47</v>
       </c>
@@ -2413,7 +2377,7 @@
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="87"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="45" t="s">
         <v>18</v>
       </c>
@@ -2423,7 +2387,7 @@
       <c r="G10" s="3">
         <v>34</v>
       </c>
-      <c r="H10" s="90"/>
+      <c r="H10" s="83"/>
       <c r="I10" s="55" t="s">
         <v>48</v>
       </c>
@@ -2433,7 +2397,7 @@
       <c r="L10" s="3">
         <v>64</v>
       </c>
-      <c r="M10" s="101">
+      <c r="M10" s="81">
         <v>45689</v>
       </c>
       <c r="N10" s="76" t="s">
@@ -2453,7 +2417,7 @@
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="87"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="45" t="s">
         <v>19</v>
       </c>
@@ -2463,7 +2427,7 @@
       <c r="G11" s="3">
         <v>35</v>
       </c>
-      <c r="H11" s="91"/>
+      <c r="H11" s="86"/>
       <c r="I11" s="55" t="s">
         <v>49</v>
       </c>
@@ -2473,7 +2437,7 @@
       <c r="L11" s="3">
         <v>65</v>
       </c>
-      <c r="M11" s="102"/>
+      <c r="M11" s="103"/>
       <c r="N11" s="76" t="s">
         <v>82</v>
       </c>
@@ -2496,7 +2460,7 @@
       <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="87"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="45" t="s">
         <v>20</v>
       </c>
@@ -2506,7 +2470,7 @@
       <c r="G12" s="3">
         <v>36</v>
       </c>
-      <c r="H12" s="107">
+      <c r="H12" s="87">
         <v>45661</v>
       </c>
       <c r="I12" s="46" t="s">
@@ -2518,7 +2482,7 @@
       <c r="L12" s="3">
         <v>66</v>
       </c>
-      <c r="M12" s="103"/>
+      <c r="M12" s="82"/>
       <c r="N12" s="76" t="s">
         <v>105</v>
       </c>
@@ -2532,7 +2496,7 @@
       <c r="B13" s="5">
         <v>7</v>
       </c>
-      <c r="C13" s="87"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="45" t="s">
         <v>21</v>
       </c>
@@ -2542,7 +2506,7 @@
       <c r="G13" s="3">
         <v>37</v>
       </c>
-      <c r="H13" s="107"/>
+      <c r="H13" s="87"/>
       <c r="I13" s="46" t="s">
         <v>51</v>
       </c>
@@ -2552,7 +2516,7 @@
       <c r="L13" s="3">
         <v>67</v>
       </c>
-      <c r="M13" s="101">
+      <c r="M13" s="81">
         <v>45691</v>
       </c>
       <c r="N13" s="76" t="s">
@@ -2562,10 +2526,10 @@
         <v>5</v>
       </c>
       <c r="R13"/>
-      <c r="S13" s="92" t="s">
+      <c r="S13" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="93"/>
+      <c r="T13" s="95"/>
       <c r="U13" s="19" t="s">
         <v>14</v>
       </c>
@@ -2578,7 +2542,7 @@
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="87"/>
+      <c r="C14" s="92"/>
       <c r="D14" s="45" t="s">
         <v>22</v>
       </c>
@@ -2600,7 +2564,7 @@
       <c r="L14" s="3">
         <v>68</v>
       </c>
-      <c r="M14" s="103"/>
+      <c r="M14" s="82"/>
       <c r="N14" s="76" t="s">
         <v>84</v>
       </c>
@@ -2608,13 +2572,13 @@
         <v>5</v>
       </c>
       <c r="R14"/>
-      <c r="S14" s="94" t="s">
+      <c r="S14" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="95"/>
+      <c r="T14" s="97"/>
       <c r="U14" s="35">
-        <f>E37+J37+O44</f>
-        <v>485</v>
+        <f>E37+J37+O46</f>
+        <v>495</v>
       </c>
       <c r="V14" s="16"/>
       <c r="W14"/>
@@ -2623,7 +2587,7 @@
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="87"/>
+      <c r="C15" s="92"/>
       <c r="D15" s="45" t="s">
         <v>23</v>
       </c>
@@ -2633,7 +2597,7 @@
       <c r="G15" s="5">
         <v>39</v>
       </c>
-      <c r="H15" s="89">
+      <c r="H15" s="88">
         <v>45663</v>
       </c>
       <c r="I15" s="48" t="s">
@@ -2655,10 +2619,10 @@
         <v>5</v>
       </c>
       <c r="R15"/>
-      <c r="S15" s="94" t="s">
+      <c r="S15" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="T15" s="95"/>
+      <c r="T15" s="97"/>
       <c r="U15" s="36">
         <f>U11</f>
         <v>330</v>
@@ -2670,7 +2634,7 @@
       <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="87"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="45" t="s">
         <v>24</v>
       </c>
@@ -2680,7 +2644,7 @@
       <c r="G16" s="3">
         <v>40</v>
       </c>
-      <c r="H16" s="90"/>
+      <c r="H16" s="83"/>
       <c r="I16" s="48" t="s">
         <v>54</v>
       </c>
@@ -2700,13 +2664,13 @@
         <v>5</v>
       </c>
       <c r="R16"/>
-      <c r="S16" s="96" t="s">
+      <c r="S16" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="97"/>
+      <c r="T16" s="99"/>
       <c r="U16" s="37">
         <f>SUM(U14:U15)</f>
-        <v>815</v>
+        <v>825</v>
       </c>
       <c r="V16" s="18"/>
       <c r="W16"/>
@@ -2715,7 +2679,7 @@
       <c r="B17" s="3">
         <v>11</v>
       </c>
-      <c r="C17" s="87"/>
+      <c r="C17" s="92"/>
       <c r="D17" s="45" t="s">
         <v>25</v>
       </c>
@@ -2725,7 +2689,7 @@
       <c r="G17" s="3">
         <v>41</v>
       </c>
-      <c r="H17" s="91"/>
+      <c r="H17" s="86"/>
       <c r="I17" s="48" t="s">
         <v>55</v>
       </c>
@@ -2749,7 +2713,7 @@
       <c r="B18" s="3">
         <v>12</v>
       </c>
-      <c r="C18" s="87"/>
+      <c r="C18" s="92"/>
       <c r="D18" s="45" t="s">
         <v>26</v>
       </c>
@@ -2759,7 +2723,7 @@
       <c r="G18" s="3">
         <v>42</v>
       </c>
-      <c r="H18" s="89">
+      <c r="H18" s="88">
         <v>45664</v>
       </c>
       <c r="I18" s="68" t="s">
@@ -2788,7 +2752,7 @@
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="87"/>
+      <c r="C19" s="92"/>
       <c r="D19" s="45" t="s">
         <v>27</v>
       </c>
@@ -2798,7 +2762,7 @@
       <c r="G19" s="3">
         <v>43</v>
       </c>
-      <c r="H19" s="108"/>
+      <c r="H19" s="89"/>
       <c r="I19" s="68" t="s">
         <v>60</v>
       </c>
@@ -2822,7 +2786,7 @@
       <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="87"/>
+      <c r="C20" s="92"/>
       <c r="D20" s="46" t="s">
         <v>28</v>
       </c>
@@ -2832,7 +2796,7 @@
       <c r="G20" s="3">
         <v>44</v>
       </c>
-      <c r="H20" s="89">
+      <c r="H20" s="88">
         <v>45665</v>
       </c>
       <c r="I20" s="68" t="s">
@@ -2860,7 +2824,7 @@
       <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="87"/>
+      <c r="C21" s="92"/>
       <c r="D21" s="46" t="s">
         <v>29</v>
       </c>
@@ -2870,7 +2834,7 @@
       <c r="G21" s="3">
         <v>45</v>
       </c>
-      <c r="H21" s="108"/>
+      <c r="H21" s="89"/>
       <c r="I21" s="68" t="s">
         <v>62</v>
       </c>
@@ -2896,7 +2860,7 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="87"/>
+      <c r="C22" s="92"/>
       <c r="D22" s="46" t="s">
         <v>30</v>
       </c>
@@ -2932,7 +2896,7 @@
       <c r="B23" s="3">
         <v>17</v>
       </c>
-      <c r="C23" s="87"/>
+      <c r="C23" s="92"/>
       <c r="D23" s="46" t="s">
         <v>31</v>
       </c>
@@ -2969,7 +2933,7 @@
       <c r="B24" s="3">
         <v>18</v>
       </c>
-      <c r="C24" s="87"/>
+      <c r="C24" s="92"/>
       <c r="D24" s="46" t="s">
         <v>32</v>
       </c>
@@ -2979,7 +2943,7 @@
       <c r="G24" s="3">
         <v>48</v>
       </c>
-      <c r="H24" s="107">
+      <c r="H24" s="87">
         <v>45670</v>
       </c>
       <c r="I24" s="68" t="s">
@@ -3007,7 +2971,7 @@
       <c r="B25" s="3">
         <v>19</v>
       </c>
-      <c r="C25" s="87"/>
+      <c r="C25" s="92"/>
       <c r="D25" s="46" t="s">
         <v>33</v>
       </c>
@@ -3017,7 +2981,7 @@
       <c r="G25" s="3">
         <v>49</v>
       </c>
-      <c r="H25" s="107"/>
+      <c r="H25" s="87"/>
       <c r="I25" s="70" t="s">
         <v>65</v>
       </c>
@@ -3043,7 +3007,7 @@
       <c r="B26" s="3">
         <v>20</v>
       </c>
-      <c r="C26" s="87"/>
+      <c r="C26" s="92"/>
       <c r="D26" s="45" t="s">
         <v>34</v>
       </c>
@@ -3053,7 +3017,7 @@
       <c r="G26" s="4">
         <v>50</v>
       </c>
-      <c r="H26" s="107"/>
+      <c r="H26" s="87"/>
       <c r="I26" s="70" t="s">
         <v>66</v>
       </c>
@@ -3079,7 +3043,7 @@
       <c r="B27" s="3">
         <v>21</v>
       </c>
-      <c r="C27" s="88"/>
+      <c r="C27" s="93"/>
       <c r="D27" s="45" t="s">
         <v>35</v>
       </c>
@@ -3117,7 +3081,7 @@
       <c r="B28" s="3">
         <v>22</v>
       </c>
-      <c r="C28" s="89">
+      <c r="C28" s="88">
         <v>45659</v>
       </c>
       <c r="D28" s="45" t="s">
@@ -3129,7 +3093,7 @@
       <c r="G28" s="3">
         <v>52</v>
       </c>
-      <c r="H28" s="107">
+      <c r="H28" s="87">
         <v>45673</v>
       </c>
       <c r="I28" s="70" t="s">
@@ -3155,7 +3119,7 @@
       <c r="B29" s="5">
         <v>23</v>
       </c>
-      <c r="C29" s="90"/>
+      <c r="C29" s="83"/>
       <c r="D29" s="48" t="s">
         <v>37</v>
       </c>
@@ -3165,7 +3129,7 @@
       <c r="G29" s="3">
         <v>53</v>
       </c>
-      <c r="H29" s="107"/>
+      <c r="H29" s="87"/>
       <c r="I29" s="70" t="s">
         <v>70</v>
       </c>
@@ -3189,7 +3153,7 @@
       <c r="B30" s="3">
         <v>24</v>
       </c>
-      <c r="C30" s="90"/>
+      <c r="C30" s="83"/>
       <c r="D30" s="48" t="s">
         <v>38</v>
       </c>
@@ -3199,7 +3163,7 @@
       <c r="G30" s="3">
         <v>54</v>
       </c>
-      <c r="H30" s="107"/>
+      <c r="H30" s="87"/>
       <c r="I30" s="70" t="s">
         <v>71</v>
       </c>
@@ -3225,7 +3189,7 @@
       <c r="B31" s="3">
         <v>25</v>
       </c>
-      <c r="C31" s="90"/>
+      <c r="C31" s="83"/>
       <c r="D31" s="48" t="s">
         <v>39</v>
       </c>
@@ -3263,7 +3227,7 @@
       <c r="B32" s="3">
         <v>26</v>
       </c>
-      <c r="C32" s="91"/>
+      <c r="C32" s="86"/>
       <c r="D32" s="48" t="s">
         <v>40</v>
       </c>
@@ -3301,7 +3265,7 @@
       <c r="B33" s="3">
         <v>27</v>
       </c>
-      <c r="C33" s="90">
+      <c r="C33" s="83">
         <v>45660</v>
       </c>
       <c r="D33" s="48" t="s">
@@ -3341,7 +3305,7 @@
       <c r="B34" s="3">
         <v>28</v>
       </c>
-      <c r="C34" s="90"/>
+      <c r="C34" s="83"/>
       <c r="D34" s="48" t="s">
         <v>42</v>
       </c>
@@ -3379,7 +3343,7 @@
       <c r="B35" s="3">
         <v>29</v>
       </c>
-      <c r="C35" s="90"/>
+      <c r="C35" s="83"/>
       <c r="D35" s="48" t="s">
         <v>43</v>
       </c>
@@ -3418,7 +3382,7 @@
       <c r="B36" s="6">
         <v>30</v>
       </c>
-      <c r="C36" s="105"/>
+      <c r="C36" s="84"/>
       <c r="D36" s="48" t="s">
         <v>44</v>
       </c>
@@ -3486,7 +3450,7 @@
       <c r="L38" s="28">
         <v>92</v>
       </c>
-      <c r="M38" s="101">
+      <c r="M38" s="81">
         <v>45793</v>
       </c>
       <c r="N38" s="76" t="s">
@@ -3511,7 +3475,7 @@
       <c r="L39" s="28">
         <v>93</v>
       </c>
-      <c r="M39" s="103"/>
+      <c r="M39" s="82"/>
       <c r="N39" s="76" t="s">
         <v>111</v>
       </c>
@@ -3554,18 +3518,20 @@
       <c r="L42" s="28">
         <v>96</v>
       </c>
-      <c r="M42" s="82">
+      <c r="M42" s="31">
         <v>45803</v>
       </c>
-      <c r="N42" s="83" t="s">
+      <c r="N42" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="O42" s="84">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L43" s="28"/>
+      <c r="O42" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="L43" s="28">
+        <v>97</v>
+      </c>
       <c r="M43" s="31">
         <v>45805</v>
       </c>
@@ -3576,28 +3542,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L44" s="81"/>
-      <c r="M44" s="22" t="s">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="L44" s="28">
+        <v>98</v>
+      </c>
+      <c r="M44" s="81">
+        <v>45806</v>
+      </c>
+      <c r="N44" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="O44" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L45" s="28">
+        <v>99</v>
+      </c>
+      <c r="M45" s="105"/>
+      <c r="N45" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="O45" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L46" s="28"/>
+      <c r="M46" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="N44" s="24"/>
-      <c r="O44" s="25">
-        <f>SUM(O7:O43)</f>
-        <v>185</v>
-      </c>
-    </row>
+      <c r="N46" s="24"/>
+      <c r="O46" s="25">
+        <f>SUM(O7:O45)</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H24:H26"/>
+  <mergeCells count="24">
+    <mergeCell ref="M44:M45"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="C9:C27"/>
     <mergeCell ref="C28:C32"/>
@@ -3612,6 +3597,15 @@
     <mergeCell ref="M18:M19"/>
     <mergeCell ref="M21:M23"/>
     <mergeCell ref="M27:M29"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H24:H26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B51754-8D1A-43F6-8FE3-22D03FE4EE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D3A3CB-FCFD-4089-9CB7-9E6CED36EC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1935" yWindow="1755" windowWidth="22725" windowHeight="13245" xr2:uid="{65989A62-DD22-4017-B1F4-9BE3BB514C20}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="119">
   <si>
     <t>일   자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -506,6 +506,10 @@
   </si>
   <si>
     <t>박성건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재택</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,7 +686,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -1467,13 +1471,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF002060"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF002060"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF002060"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1715,43 +1739,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1784,10 +1799,28 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2111,10 +2144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC16636-847A-47F1-BA3B-A88365FF7E52}">
-  <dimension ref="B1:X47"/>
+  <dimension ref="B1:X48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="V47" sqref="V47"/>
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2153,20 +2186,20 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
     </row>
     <row r="3" spans="2:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:23" ht="20.25" x14ac:dyDescent="0.3">
@@ -2213,12 +2246,12 @@
         <v>9</v>
       </c>
       <c r="R6"/>
-      <c r="S6" s="100" t="s">
+      <c r="S6" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="101"/>
-      <c r="U6" s="101"/>
-      <c r="V6" s="102"/>
+      <c r="T6" s="98"/>
+      <c r="U6" s="98"/>
+      <c r="V6" s="99"/>
       <c r="W6"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
@@ -2237,7 +2270,7 @@
       <c r="G7" s="26">
         <v>31</v>
       </c>
-      <c r="H7" s="85">
+      <c r="H7" s="104">
         <v>45660</v>
       </c>
       <c r="I7" s="53" t="s">
@@ -2289,7 +2322,7 @@
       <c r="G8" s="3">
         <v>32</v>
       </c>
-      <c r="H8" s="83"/>
+      <c r="H8" s="89"/>
       <c r="I8" s="55" t="s">
         <v>46</v>
       </c>
@@ -2327,7 +2360,7 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="91">
+      <c r="C9" s="85">
         <v>45658</v>
       </c>
       <c r="D9" s="44" t="s">
@@ -2339,7 +2372,7 @@
       <c r="G9" s="3">
         <v>33</v>
       </c>
-      <c r="H9" s="83"/>
+      <c r="H9" s="89"/>
       <c r="I9" s="55" t="s">
         <v>47</v>
       </c>
@@ -2377,7 +2410,7 @@
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="92"/>
+      <c r="C10" s="86"/>
       <c r="D10" s="45" t="s">
         <v>18</v>
       </c>
@@ -2387,7 +2420,7 @@
       <c r="G10" s="3">
         <v>34</v>
       </c>
-      <c r="H10" s="83"/>
+      <c r="H10" s="89"/>
       <c r="I10" s="55" t="s">
         <v>48</v>
       </c>
@@ -2397,7 +2430,7 @@
       <c r="L10" s="3">
         <v>64</v>
       </c>
-      <c r="M10" s="81">
+      <c r="M10" s="82">
         <v>45689</v>
       </c>
       <c r="N10" s="76" t="s">
@@ -2417,7 +2450,7 @@
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="92"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="45" t="s">
         <v>19</v>
       </c>
@@ -2427,7 +2460,7 @@
       <c r="G11" s="3">
         <v>35</v>
       </c>
-      <c r="H11" s="86"/>
+      <c r="H11" s="90"/>
       <c r="I11" s="55" t="s">
         <v>49</v>
       </c>
@@ -2437,7 +2470,7 @@
       <c r="L11" s="3">
         <v>65</v>
       </c>
-      <c r="M11" s="103"/>
+      <c r="M11" s="100"/>
       <c r="N11" s="76" t="s">
         <v>82</v>
       </c>
@@ -2460,7 +2493,7 @@
       <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="92"/>
+      <c r="C12" s="86"/>
       <c r="D12" s="45" t="s">
         <v>20</v>
       </c>
@@ -2470,7 +2503,7 @@
       <c r="G12" s="3">
         <v>36</v>
       </c>
-      <c r="H12" s="87">
+      <c r="H12" s="105">
         <v>45661</v>
       </c>
       <c r="I12" s="46" t="s">
@@ -2482,7 +2515,7 @@
       <c r="L12" s="3">
         <v>66</v>
       </c>
-      <c r="M12" s="82"/>
+      <c r="M12" s="101"/>
       <c r="N12" s="76" t="s">
         <v>105</v>
       </c>
@@ -2496,7 +2529,7 @@
       <c r="B13" s="5">
         <v>7</v>
       </c>
-      <c r="C13" s="92"/>
+      <c r="C13" s="86"/>
       <c r="D13" s="45" t="s">
         <v>21</v>
       </c>
@@ -2506,7 +2539,7 @@
       <c r="G13" s="3">
         <v>37</v>
       </c>
-      <c r="H13" s="87"/>
+      <c r="H13" s="105"/>
       <c r="I13" s="46" t="s">
         <v>51</v>
       </c>
@@ -2516,7 +2549,7 @@
       <c r="L13" s="3">
         <v>67</v>
       </c>
-      <c r="M13" s="81">
+      <c r="M13" s="82">
         <v>45691</v>
       </c>
       <c r="N13" s="76" t="s">
@@ -2526,10 +2559,10 @@
         <v>5</v>
       </c>
       <c r="R13"/>
-      <c r="S13" s="94" t="s">
+      <c r="S13" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="95"/>
+      <c r="T13" s="92"/>
       <c r="U13" s="19" t="s">
         <v>14</v>
       </c>
@@ -2542,7 +2575,7 @@
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="92"/>
+      <c r="C14" s="86"/>
       <c r="D14" s="45" t="s">
         <v>22</v>
       </c>
@@ -2564,7 +2597,7 @@
       <c r="L14" s="3">
         <v>68</v>
       </c>
-      <c r="M14" s="82"/>
+      <c r="M14" s="101"/>
       <c r="N14" s="76" t="s">
         <v>84</v>
       </c>
@@ -2572,13 +2605,13 @@
         <v>5</v>
       </c>
       <c r="R14"/>
-      <c r="S14" s="96" t="s">
+      <c r="S14" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="97"/>
+      <c r="T14" s="94"/>
       <c r="U14" s="35">
-        <f>E37+J37+O46</f>
-        <v>495</v>
+        <f>E37+J37+O47</f>
+        <v>500</v>
       </c>
       <c r="V14" s="16"/>
       <c r="W14"/>
@@ -2587,7 +2620,7 @@
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="92"/>
+      <c r="C15" s="86"/>
       <c r="D15" s="45" t="s">
         <v>23</v>
       </c>
@@ -2619,10 +2652,10 @@
         <v>5</v>
       </c>
       <c r="R15"/>
-      <c r="S15" s="96" t="s">
+      <c r="S15" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="T15" s="97"/>
+      <c r="T15" s="94"/>
       <c r="U15" s="36">
         <f>U11</f>
         <v>330</v>
@@ -2634,7 +2667,7 @@
       <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="92"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="45" t="s">
         <v>24</v>
       </c>
@@ -2644,7 +2677,7 @@
       <c r="G16" s="3">
         <v>40</v>
       </c>
-      <c r="H16" s="83"/>
+      <c r="H16" s="89"/>
       <c r="I16" s="48" t="s">
         <v>54</v>
       </c>
@@ -2654,7 +2687,7 @@
       <c r="L16" s="3">
         <v>70</v>
       </c>
-      <c r="M16" s="104">
+      <c r="M16" s="102">
         <v>45700</v>
       </c>
       <c r="N16" s="76" t="s">
@@ -2664,13 +2697,13 @@
         <v>5</v>
       </c>
       <c r="R16"/>
-      <c r="S16" s="98" t="s">
+      <c r="S16" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="99"/>
+      <c r="T16" s="96"/>
       <c r="U16" s="37">
         <f>SUM(U14:U15)</f>
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="V16" s="18"/>
       <c r="W16"/>
@@ -2679,7 +2712,7 @@
       <c r="B17" s="3">
         <v>11</v>
       </c>
-      <c r="C17" s="92"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="45" t="s">
         <v>25</v>
       </c>
@@ -2689,7 +2722,7 @@
       <c r="G17" s="3">
         <v>41</v>
       </c>
-      <c r="H17" s="86"/>
+      <c r="H17" s="90"/>
       <c r="I17" s="48" t="s">
         <v>55</v>
       </c>
@@ -2699,7 +2732,7 @@
       <c r="L17" s="3">
         <v>71</v>
       </c>
-      <c r="M17" s="104"/>
+      <c r="M17" s="102"/>
       <c r="N17" s="76" t="s">
         <v>101</v>
       </c>
@@ -2713,7 +2746,7 @@
       <c r="B18" s="3">
         <v>12</v>
       </c>
-      <c r="C18" s="92"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="45" t="s">
         <v>26</v>
       </c>
@@ -2735,7 +2768,7 @@
       <c r="L18" s="3">
         <v>72</v>
       </c>
-      <c r="M18" s="104">
+      <c r="M18" s="102">
         <v>45701</v>
       </c>
       <c r="N18" s="76" t="s">
@@ -2752,7 +2785,7 @@
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="92"/>
+      <c r="C19" s="86"/>
       <c r="D19" s="45" t="s">
         <v>27</v>
       </c>
@@ -2762,7 +2795,7 @@
       <c r="G19" s="3">
         <v>43</v>
       </c>
-      <c r="H19" s="89"/>
+      <c r="H19" s="106"/>
       <c r="I19" s="68" t="s">
         <v>60</v>
       </c>
@@ -2772,7 +2805,7 @@
       <c r="L19" s="3">
         <v>73</v>
       </c>
-      <c r="M19" s="104"/>
+      <c r="M19" s="102"/>
       <c r="N19" s="76" t="s">
         <v>89</v>
       </c>
@@ -2786,7 +2819,7 @@
       <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="92"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="46" t="s">
         <v>28</v>
       </c>
@@ -2824,7 +2857,7 @@
       <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="92"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="46" t="s">
         <v>29</v>
       </c>
@@ -2834,7 +2867,7 @@
       <c r="G21" s="3">
         <v>45</v>
       </c>
-      <c r="H21" s="89"/>
+      <c r="H21" s="106"/>
       <c r="I21" s="68" t="s">
         <v>62</v>
       </c>
@@ -2844,7 +2877,7 @@
       <c r="L21" s="3">
         <v>75</v>
       </c>
-      <c r="M21" s="104">
+      <c r="M21" s="102">
         <v>45708</v>
       </c>
       <c r="N21" s="76" t="s">
@@ -2860,7 +2893,7 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="92"/>
+      <c r="C22" s="86"/>
       <c r="D22" s="46" t="s">
         <v>30</v>
       </c>
@@ -2882,7 +2915,7 @@
       <c r="L22" s="3">
         <v>76</v>
       </c>
-      <c r="M22" s="104"/>
+      <c r="M22" s="102"/>
       <c r="N22" s="76" t="s">
         <v>92</v>
       </c>
@@ -2896,7 +2929,7 @@
       <c r="B23" s="3">
         <v>17</v>
       </c>
-      <c r="C23" s="92"/>
+      <c r="C23" s="86"/>
       <c r="D23" s="46" t="s">
         <v>31</v>
       </c>
@@ -2918,7 +2951,7 @@
       <c r="L23" s="3">
         <v>77</v>
       </c>
-      <c r="M23" s="104"/>
+      <c r="M23" s="102"/>
       <c r="N23" s="76" t="s">
         <v>93</v>
       </c>
@@ -2933,7 +2966,7 @@
       <c r="B24" s="3">
         <v>18</v>
       </c>
-      <c r="C24" s="92"/>
+      <c r="C24" s="86"/>
       <c r="D24" s="46" t="s">
         <v>32</v>
       </c>
@@ -2943,7 +2976,7 @@
       <c r="G24" s="3">
         <v>48</v>
       </c>
-      <c r="H24" s="87">
+      <c r="H24" s="105">
         <v>45670</v>
       </c>
       <c r="I24" s="68" t="s">
@@ -2971,7 +3004,7 @@
       <c r="B25" s="3">
         <v>19</v>
       </c>
-      <c r="C25" s="92"/>
+      <c r="C25" s="86"/>
       <c r="D25" s="46" t="s">
         <v>33</v>
       </c>
@@ -2981,7 +3014,7 @@
       <c r="G25" s="3">
         <v>49</v>
       </c>
-      <c r="H25" s="87"/>
+      <c r="H25" s="105"/>
       <c r="I25" s="70" t="s">
         <v>65</v>
       </c>
@@ -3007,7 +3040,7 @@
       <c r="B26" s="3">
         <v>20</v>
       </c>
-      <c r="C26" s="92"/>
+      <c r="C26" s="86"/>
       <c r="D26" s="45" t="s">
         <v>34</v>
       </c>
@@ -3017,7 +3050,7 @@
       <c r="G26" s="4">
         <v>50</v>
       </c>
-      <c r="H26" s="87"/>
+      <c r="H26" s="105"/>
       <c r="I26" s="70" t="s">
         <v>66</v>
       </c>
@@ -3043,7 +3076,7 @@
       <c r="B27" s="3">
         <v>21</v>
       </c>
-      <c r="C27" s="93"/>
+      <c r="C27" s="87"/>
       <c r="D27" s="45" t="s">
         <v>35</v>
       </c>
@@ -3065,7 +3098,7 @@
       <c r="L27" s="28">
         <v>81</v>
       </c>
-      <c r="M27" s="104">
+      <c r="M27" s="102">
         <v>45721</v>
       </c>
       <c r="N27" s="76" t="s">
@@ -3093,7 +3126,7 @@
       <c r="G28" s="3">
         <v>52</v>
       </c>
-      <c r="H28" s="87">
+      <c r="H28" s="105">
         <v>45673</v>
       </c>
       <c r="I28" s="70" t="s">
@@ -3105,7 +3138,7 @@
       <c r="L28" s="28">
         <v>82</v>
       </c>
-      <c r="M28" s="104"/>
+      <c r="M28" s="102"/>
       <c r="N28" s="76" t="s">
         <v>98</v>
       </c>
@@ -3119,7 +3152,7 @@
       <c r="B29" s="5">
         <v>23</v>
       </c>
-      <c r="C29" s="83"/>
+      <c r="C29" s="89"/>
       <c r="D29" s="48" t="s">
         <v>37</v>
       </c>
@@ -3129,7 +3162,7 @@
       <c r="G29" s="3">
         <v>53</v>
       </c>
-      <c r="H29" s="87"/>
+      <c r="H29" s="105"/>
       <c r="I29" s="70" t="s">
         <v>70</v>
       </c>
@@ -3139,7 +3172,7 @@
       <c r="L29" s="28">
         <v>83</v>
       </c>
-      <c r="M29" s="104"/>
+      <c r="M29" s="102"/>
       <c r="N29" s="29" t="s">
         <v>99</v>
       </c>
@@ -3153,7 +3186,7 @@
       <c r="B30" s="3">
         <v>24</v>
       </c>
-      <c r="C30" s="83"/>
+      <c r="C30" s="89"/>
       <c r="D30" s="48" t="s">
         <v>38</v>
       </c>
@@ -3163,7 +3196,7 @@
       <c r="G30" s="3">
         <v>54</v>
       </c>
-      <c r="H30" s="87"/>
+      <c r="H30" s="105"/>
       <c r="I30" s="70" t="s">
         <v>71</v>
       </c>
@@ -3189,7 +3222,7 @@
       <c r="B31" s="3">
         <v>25</v>
       </c>
-      <c r="C31" s="83"/>
+      <c r="C31" s="89"/>
       <c r="D31" s="48" t="s">
         <v>39</v>
       </c>
@@ -3227,7 +3260,7 @@
       <c r="B32" s="3">
         <v>26</v>
       </c>
-      <c r="C32" s="86"/>
+      <c r="C32" s="90"/>
       <c r="D32" s="48" t="s">
         <v>40</v>
       </c>
@@ -3265,7 +3298,7 @@
       <c r="B33" s="3">
         <v>27</v>
       </c>
-      <c r="C33" s="83">
+      <c r="C33" s="89">
         <v>45660</v>
       </c>
       <c r="D33" s="48" t="s">
@@ -3305,7 +3338,7 @@
       <c r="B34" s="3">
         <v>28</v>
       </c>
-      <c r="C34" s="83"/>
+      <c r="C34" s="89"/>
       <c r="D34" s="48" t="s">
         <v>42</v>
       </c>
@@ -3343,7 +3376,7 @@
       <c r="B35" s="3">
         <v>29</v>
       </c>
-      <c r="C35" s="83"/>
+      <c r="C35" s="89"/>
       <c r="D35" s="48" t="s">
         <v>43</v>
       </c>
@@ -3382,7 +3415,7 @@
       <c r="B36" s="6">
         <v>30</v>
       </c>
-      <c r="C36" s="84"/>
+      <c r="C36" s="103"/>
       <c r="D36" s="48" t="s">
         <v>44</v>
       </c>
@@ -3450,7 +3483,7 @@
       <c r="L38" s="28">
         <v>92</v>
       </c>
-      <c r="M38" s="81">
+      <c r="M38" s="82">
         <v>45793</v>
       </c>
       <c r="N38" s="76" t="s">
@@ -3475,7 +3508,7 @@
       <c r="L39" s="28">
         <v>93</v>
       </c>
-      <c r="M39" s="82"/>
+      <c r="M39" s="101"/>
       <c r="N39" s="76" t="s">
         <v>111</v>
       </c>
@@ -3546,7 +3579,7 @@
       <c r="L44" s="28">
         <v>98</v>
       </c>
-      <c r="M44" s="81">
+      <c r="M44" s="82">
         <v>45806</v>
       </c>
       <c r="N44" s="76" t="s">
@@ -3560,7 +3593,7 @@
       <c r="L45" s="28">
         <v>99</v>
       </c>
-      <c r="M45" s="105"/>
+      <c r="M45" s="83"/>
       <c r="N45" s="76" t="s">
         <v>117</v>
       </c>
@@ -3569,19 +3602,41 @@
       </c>
     </row>
     <row r="46" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L46" s="28"/>
-      <c r="M46" s="22" t="s">
+      <c r="L46" s="28">
+        <v>100</v>
+      </c>
+      <c r="M46" s="81">
+        <v>45806</v>
+      </c>
+      <c r="N46" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="O46" s="108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L47" s="28"/>
+      <c r="M47" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="N46" s="24"/>
-      <c r="O46" s="25">
-        <f>SUM(O7:O45)</f>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="25">
+        <f>SUM(O7:O46)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H24:H26"/>
     <mergeCell ref="M44:M45"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="C9:C27"/>
@@ -3598,14 +3653,6 @@
     <mergeCell ref="M21:M23"/>
     <mergeCell ref="M27:M29"/>
     <mergeCell ref="M38:M39"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H24:H26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D3A3CB-FCFD-4089-9CB7-9E6CED36EC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5419CF-8E26-4F4B-85FA-B262D38126F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1935" yWindow="1755" windowWidth="22725" windowHeight="13245" xr2:uid="{65989A62-DD22-4017-B1F4-9BE3BB514C20}"/>
   </bookViews>
@@ -1497,7 +1497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1742,12 +1742,36 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1758,15 +1782,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1803,24 +1818,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2147,7 +2144,7 @@
   <dimension ref="B1:X48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+      <selection activeCell="W38" sqref="W38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2186,20 +2183,20 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
     </row>
     <row r="3" spans="2:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:23" ht="20.25" x14ac:dyDescent="0.3">
@@ -2246,12 +2243,12 @@
         <v>9</v>
       </c>
       <c r="R6"/>
-      <c r="S6" s="97" t="s">
+      <c r="S6" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="98"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="99"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="103"/>
+      <c r="V6" s="104"/>
       <c r="W6"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
@@ -2270,7 +2267,7 @@
       <c r="G7" s="26">
         <v>31</v>
       </c>
-      <c r="H7" s="104">
+      <c r="H7" s="86">
         <v>45660</v>
       </c>
       <c r="I7" s="53" t="s">
@@ -2322,7 +2319,7 @@
       <c r="G8" s="3">
         <v>32</v>
       </c>
-      <c r="H8" s="89"/>
+      <c r="H8" s="84"/>
       <c r="I8" s="55" t="s">
         <v>46</v>
       </c>
@@ -2360,7 +2357,7 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="85">
+      <c r="C9" s="93">
         <v>45658</v>
       </c>
       <c r="D9" s="44" t="s">
@@ -2372,7 +2369,7 @@
       <c r="G9" s="3">
         <v>33</v>
       </c>
-      <c r="H9" s="89"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="55" t="s">
         <v>47</v>
       </c>
@@ -2410,7 +2407,7 @@
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="86"/>
+      <c r="C10" s="94"/>
       <c r="D10" s="45" t="s">
         <v>18</v>
       </c>
@@ -2420,7 +2417,7 @@
       <c r="G10" s="3">
         <v>34</v>
       </c>
-      <c r="H10" s="89"/>
+      <c r="H10" s="84"/>
       <c r="I10" s="55" t="s">
         <v>48</v>
       </c>
@@ -2430,7 +2427,7 @@
       <c r="L10" s="3">
         <v>64</v>
       </c>
-      <c r="M10" s="82">
+      <c r="M10" s="91">
         <v>45689</v>
       </c>
       <c r="N10" s="76" t="s">
@@ -2450,7 +2447,7 @@
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="86"/>
+      <c r="C11" s="94"/>
       <c r="D11" s="45" t="s">
         <v>19</v>
       </c>
@@ -2460,7 +2457,7 @@
       <c r="G11" s="3">
         <v>35</v>
       </c>
-      <c r="H11" s="90"/>
+      <c r="H11" s="87"/>
       <c r="I11" s="55" t="s">
         <v>49</v>
       </c>
@@ -2470,7 +2467,7 @@
       <c r="L11" s="3">
         <v>65</v>
       </c>
-      <c r="M11" s="100"/>
+      <c r="M11" s="105"/>
       <c r="N11" s="76" t="s">
         <v>82</v>
       </c>
@@ -2493,7 +2490,7 @@
       <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="86"/>
+      <c r="C12" s="94"/>
       <c r="D12" s="45" t="s">
         <v>20</v>
       </c>
@@ -2503,7 +2500,7 @@
       <c r="G12" s="3">
         <v>36</v>
       </c>
-      <c r="H12" s="105">
+      <c r="H12" s="88">
         <v>45661</v>
       </c>
       <c r="I12" s="46" t="s">
@@ -2515,7 +2512,7 @@
       <c r="L12" s="3">
         <v>66</v>
       </c>
-      <c r="M12" s="101"/>
+      <c r="M12" s="106"/>
       <c r="N12" s="76" t="s">
         <v>105</v>
       </c>
@@ -2529,7 +2526,7 @@
       <c r="B13" s="5">
         <v>7</v>
       </c>
-      <c r="C13" s="86"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="45" t="s">
         <v>21</v>
       </c>
@@ -2539,7 +2536,7 @@
       <c r="G13" s="3">
         <v>37</v>
       </c>
-      <c r="H13" s="105"/>
+      <c r="H13" s="88"/>
       <c r="I13" s="46" t="s">
         <v>51</v>
       </c>
@@ -2549,7 +2546,7 @@
       <c r="L13" s="3">
         <v>67</v>
       </c>
-      <c r="M13" s="82">
+      <c r="M13" s="91">
         <v>45691</v>
       </c>
       <c r="N13" s="76" t="s">
@@ -2559,10 +2556,10 @@
         <v>5</v>
       </c>
       <c r="R13"/>
-      <c r="S13" s="91" t="s">
+      <c r="S13" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="92"/>
+      <c r="T13" s="97"/>
       <c r="U13" s="19" t="s">
         <v>14</v>
       </c>
@@ -2575,7 +2572,7 @@
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="86"/>
+      <c r="C14" s="94"/>
       <c r="D14" s="45" t="s">
         <v>22</v>
       </c>
@@ -2597,7 +2594,7 @@
       <c r="L14" s="3">
         <v>68</v>
       </c>
-      <c r="M14" s="101"/>
+      <c r="M14" s="106"/>
       <c r="N14" s="76" t="s">
         <v>84</v>
       </c>
@@ -2605,10 +2602,10 @@
         <v>5</v>
       </c>
       <c r="R14"/>
-      <c r="S14" s="93" t="s">
+      <c r="S14" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="94"/>
+      <c r="T14" s="99"/>
       <c r="U14" s="35">
         <f>E37+J37+O47</f>
         <v>500</v>
@@ -2620,7 +2617,7 @@
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="86"/>
+      <c r="C15" s="94"/>
       <c r="D15" s="45" t="s">
         <v>23</v>
       </c>
@@ -2630,7 +2627,7 @@
       <c r="G15" s="5">
         <v>39</v>
       </c>
-      <c r="H15" s="88">
+      <c r="H15" s="89">
         <v>45663</v>
       </c>
       <c r="I15" s="48" t="s">
@@ -2652,10 +2649,10 @@
         <v>5</v>
       </c>
       <c r="R15"/>
-      <c r="S15" s="93" t="s">
+      <c r="S15" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="T15" s="94"/>
+      <c r="T15" s="99"/>
       <c r="U15" s="36">
         <f>U11</f>
         <v>330</v>
@@ -2667,7 +2664,7 @@
       <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="86"/>
+      <c r="C16" s="94"/>
       <c r="D16" s="45" t="s">
         <v>24</v>
       </c>
@@ -2677,7 +2674,7 @@
       <c r="G16" s="3">
         <v>40</v>
       </c>
-      <c r="H16" s="89"/>
+      <c r="H16" s="84"/>
       <c r="I16" s="48" t="s">
         <v>54</v>
       </c>
@@ -2687,7 +2684,7 @@
       <c r="L16" s="3">
         <v>70</v>
       </c>
-      <c r="M16" s="102">
+      <c r="M16" s="107">
         <v>45700</v>
       </c>
       <c r="N16" s="76" t="s">
@@ -2697,10 +2694,10 @@
         <v>5</v>
       </c>
       <c r="R16"/>
-      <c r="S16" s="95" t="s">
+      <c r="S16" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="96"/>
+      <c r="T16" s="101"/>
       <c r="U16" s="37">
         <f>SUM(U14:U15)</f>
         <v>830</v>
@@ -2712,7 +2709,7 @@
       <c r="B17" s="3">
         <v>11</v>
       </c>
-      <c r="C17" s="86"/>
+      <c r="C17" s="94"/>
       <c r="D17" s="45" t="s">
         <v>25</v>
       </c>
@@ -2722,7 +2719,7 @@
       <c r="G17" s="3">
         <v>41</v>
       </c>
-      <c r="H17" s="90"/>
+      <c r="H17" s="87"/>
       <c r="I17" s="48" t="s">
         <v>55</v>
       </c>
@@ -2732,7 +2729,7 @@
       <c r="L17" s="3">
         <v>71</v>
       </c>
-      <c r="M17" s="102"/>
+      <c r="M17" s="107"/>
       <c r="N17" s="76" t="s">
         <v>101</v>
       </c>
@@ -2746,7 +2743,7 @@
       <c r="B18" s="3">
         <v>12</v>
       </c>
-      <c r="C18" s="86"/>
+      <c r="C18" s="94"/>
       <c r="D18" s="45" t="s">
         <v>26</v>
       </c>
@@ -2756,7 +2753,7 @@
       <c r="G18" s="3">
         <v>42</v>
       </c>
-      <c r="H18" s="88">
+      <c r="H18" s="89">
         <v>45664</v>
       </c>
       <c r="I18" s="68" t="s">
@@ -2768,7 +2765,7 @@
       <c r="L18" s="3">
         <v>72</v>
       </c>
-      <c r="M18" s="102">
+      <c r="M18" s="107">
         <v>45701</v>
       </c>
       <c r="N18" s="76" t="s">
@@ -2785,7 +2782,7 @@
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="86"/>
+      <c r="C19" s="94"/>
       <c r="D19" s="45" t="s">
         <v>27</v>
       </c>
@@ -2795,7 +2792,7 @@
       <c r="G19" s="3">
         <v>43</v>
       </c>
-      <c r="H19" s="106"/>
+      <c r="H19" s="90"/>
       <c r="I19" s="68" t="s">
         <v>60</v>
       </c>
@@ -2805,7 +2802,7 @@
       <c r="L19" s="3">
         <v>73</v>
       </c>
-      <c r="M19" s="102"/>
+      <c r="M19" s="107"/>
       <c r="N19" s="76" t="s">
         <v>89</v>
       </c>
@@ -2819,7 +2816,7 @@
       <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="86"/>
+      <c r="C20" s="94"/>
       <c r="D20" s="46" t="s">
         <v>28</v>
       </c>
@@ -2829,7 +2826,7 @@
       <c r="G20" s="3">
         <v>44</v>
       </c>
-      <c r="H20" s="88">
+      <c r="H20" s="89">
         <v>45665</v>
       </c>
       <c r="I20" s="68" t="s">
@@ -2857,7 +2854,7 @@
       <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="86"/>
+      <c r="C21" s="94"/>
       <c r="D21" s="46" t="s">
         <v>29</v>
       </c>
@@ -2867,7 +2864,7 @@
       <c r="G21" s="3">
         <v>45</v>
       </c>
-      <c r="H21" s="106"/>
+      <c r="H21" s="90"/>
       <c r="I21" s="68" t="s">
         <v>62</v>
       </c>
@@ -2877,7 +2874,7 @@
       <c r="L21" s="3">
         <v>75</v>
       </c>
-      <c r="M21" s="102">
+      <c r="M21" s="107">
         <v>45708</v>
       </c>
       <c r="N21" s="76" t="s">
@@ -2893,7 +2890,7 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="86"/>
+      <c r="C22" s="94"/>
       <c r="D22" s="46" t="s">
         <v>30</v>
       </c>
@@ -2915,7 +2912,7 @@
       <c r="L22" s="3">
         <v>76</v>
       </c>
-      <c r="M22" s="102"/>
+      <c r="M22" s="107"/>
       <c r="N22" s="76" t="s">
         <v>92</v>
       </c>
@@ -2929,7 +2926,7 @@
       <c r="B23" s="3">
         <v>17</v>
       </c>
-      <c r="C23" s="86"/>
+      <c r="C23" s="94"/>
       <c r="D23" s="46" t="s">
         <v>31</v>
       </c>
@@ -2951,7 +2948,7 @@
       <c r="L23" s="3">
         <v>77</v>
       </c>
-      <c r="M23" s="102"/>
+      <c r="M23" s="107"/>
       <c r="N23" s="76" t="s">
         <v>93</v>
       </c>
@@ -2966,7 +2963,7 @@
       <c r="B24" s="3">
         <v>18</v>
       </c>
-      <c r="C24" s="86"/>
+      <c r="C24" s="94"/>
       <c r="D24" s="46" t="s">
         <v>32</v>
       </c>
@@ -2976,7 +2973,7 @@
       <c r="G24" s="3">
         <v>48</v>
       </c>
-      <c r="H24" s="105">
+      <c r="H24" s="88">
         <v>45670</v>
       </c>
       <c r="I24" s="68" t="s">
@@ -3004,7 +3001,7 @@
       <c r="B25" s="3">
         <v>19</v>
       </c>
-      <c r="C25" s="86"/>
+      <c r="C25" s="94"/>
       <c r="D25" s="46" t="s">
         <v>33</v>
       </c>
@@ -3014,7 +3011,7 @@
       <c r="G25" s="3">
         <v>49</v>
       </c>
-      <c r="H25" s="105"/>
+      <c r="H25" s="88"/>
       <c r="I25" s="70" t="s">
         <v>65</v>
       </c>
@@ -3040,7 +3037,7 @@
       <c r="B26" s="3">
         <v>20</v>
       </c>
-      <c r="C26" s="86"/>
+      <c r="C26" s="94"/>
       <c r="D26" s="45" t="s">
         <v>34</v>
       </c>
@@ -3050,7 +3047,7 @@
       <c r="G26" s="4">
         <v>50</v>
       </c>
-      <c r="H26" s="105"/>
+      <c r="H26" s="88"/>
       <c r="I26" s="70" t="s">
         <v>66</v>
       </c>
@@ -3076,7 +3073,7 @@
       <c r="B27" s="3">
         <v>21</v>
       </c>
-      <c r="C27" s="87"/>
+      <c r="C27" s="95"/>
       <c r="D27" s="45" t="s">
         <v>35</v>
       </c>
@@ -3098,7 +3095,7 @@
       <c r="L27" s="28">
         <v>81</v>
       </c>
-      <c r="M27" s="102">
+      <c r="M27" s="107">
         <v>45721</v>
       </c>
       <c r="N27" s="76" t="s">
@@ -3114,7 +3111,7 @@
       <c r="B28" s="3">
         <v>22</v>
       </c>
-      <c r="C28" s="88">
+      <c r="C28" s="89">
         <v>45659</v>
       </c>
       <c r="D28" s="45" t="s">
@@ -3126,7 +3123,7 @@
       <c r="G28" s="3">
         <v>52</v>
       </c>
-      <c r="H28" s="105">
+      <c r="H28" s="88">
         <v>45673</v>
       </c>
       <c r="I28" s="70" t="s">
@@ -3138,7 +3135,7 @@
       <c r="L28" s="28">
         <v>82</v>
       </c>
-      <c r="M28" s="102"/>
+      <c r="M28" s="107"/>
       <c r="N28" s="76" t="s">
         <v>98</v>
       </c>
@@ -3152,7 +3149,7 @@
       <c r="B29" s="5">
         <v>23</v>
       </c>
-      <c r="C29" s="89"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="48" t="s">
         <v>37</v>
       </c>
@@ -3162,7 +3159,7 @@
       <c r="G29" s="3">
         <v>53</v>
       </c>
-      <c r="H29" s="105"/>
+      <c r="H29" s="88"/>
       <c r="I29" s="70" t="s">
         <v>70</v>
       </c>
@@ -3172,7 +3169,7 @@
       <c r="L29" s="28">
         <v>83</v>
       </c>
-      <c r="M29" s="102"/>
+      <c r="M29" s="107"/>
       <c r="N29" s="29" t="s">
         <v>99</v>
       </c>
@@ -3186,7 +3183,7 @@
       <c r="B30" s="3">
         <v>24</v>
       </c>
-      <c r="C30" s="89"/>
+      <c r="C30" s="84"/>
       <c r="D30" s="48" t="s">
         <v>38</v>
       </c>
@@ -3196,7 +3193,7 @@
       <c r="G30" s="3">
         <v>54</v>
       </c>
-      <c r="H30" s="105"/>
+      <c r="H30" s="88"/>
       <c r="I30" s="70" t="s">
         <v>71</v>
       </c>
@@ -3222,7 +3219,7 @@
       <c r="B31" s="3">
         <v>25</v>
       </c>
-      <c r="C31" s="89"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="48" t="s">
         <v>39</v>
       </c>
@@ -3260,7 +3257,7 @@
       <c r="B32" s="3">
         <v>26</v>
       </c>
-      <c r="C32" s="90"/>
+      <c r="C32" s="87"/>
       <c r="D32" s="48" t="s">
         <v>40</v>
       </c>
@@ -3298,7 +3295,7 @@
       <c r="B33" s="3">
         <v>27</v>
       </c>
-      <c r="C33" s="89">
+      <c r="C33" s="84">
         <v>45660</v>
       </c>
       <c r="D33" s="48" t="s">
@@ -3338,7 +3335,7 @@
       <c r="B34" s="3">
         <v>28</v>
       </c>
-      <c r="C34" s="89"/>
+      <c r="C34" s="84"/>
       <c r="D34" s="48" t="s">
         <v>42</v>
       </c>
@@ -3376,7 +3373,7 @@
       <c r="B35" s="3">
         <v>29</v>
       </c>
-      <c r="C35" s="89"/>
+      <c r="C35" s="84"/>
       <c r="D35" s="48" t="s">
         <v>43</v>
       </c>
@@ -3415,7 +3412,7 @@
       <c r="B36" s="6">
         <v>30</v>
       </c>
-      <c r="C36" s="103"/>
+      <c r="C36" s="85"/>
       <c r="D36" s="48" t="s">
         <v>44</v>
       </c>
@@ -3483,7 +3480,7 @@
       <c r="L38" s="28">
         <v>92</v>
       </c>
-      <c r="M38" s="82">
+      <c r="M38" s="91">
         <v>45793</v>
       </c>
       <c r="N38" s="76" t="s">
@@ -3508,7 +3505,7 @@
       <c r="L39" s="28">
         <v>93</v>
       </c>
-      <c r="M39" s="101"/>
+      <c r="M39" s="106"/>
       <c r="N39" s="76" t="s">
         <v>111</v>
       </c>
@@ -3579,7 +3576,7 @@
       <c r="L44" s="28">
         <v>98</v>
       </c>
-      <c r="M44" s="82">
+      <c r="M44" s="91">
         <v>45806</v>
       </c>
       <c r="N44" s="76" t="s">
@@ -3589,11 +3586,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
       <c r="L45" s="28">
         <v>99</v>
       </c>
-      <c r="M45" s="83"/>
+      <c r="M45" s="106"/>
       <c r="N45" s="76" t="s">
         <v>117</v>
       </c>
@@ -3608,10 +3605,10 @@
       <c r="M46" s="81">
         <v>45806</v>
       </c>
-      <c r="N46" s="107" t="s">
+      <c r="N46" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="O46" s="108">
+      <c r="O46" s="83">
         <v>5</v>
       </c>
     </row>
@@ -3629,14 +3626,6 @@
     <row r="48" spans="2:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H24:H26"/>
     <mergeCell ref="M44:M45"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="C9:C27"/>
@@ -3653,6 +3642,14 @@
     <mergeCell ref="M21:M23"/>
     <mergeCell ref="M27:M29"/>
     <mergeCell ref="M38:M39"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H24:H26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5419CF-8E26-4F4B-85FA-B262D38126F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B64280F-01FF-40D8-9066-D62FAD74B8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="1755" windowWidth="22725" windowHeight="13245" xr2:uid="{65989A62-DD22-4017-B1F4-9BE3BB514C20}"/>
+    <workbookView xWindow="4245" yWindow="1365" windowWidth="22725" windowHeight="13245" xr2:uid="{65989A62-DD22-4017-B1F4-9BE3BB514C20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="121">
   <si>
     <t>일   자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,299 +217,307 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>이민우</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>이인길</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>노승관</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>노석후</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상준</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>김대식</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>임석준</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>여운근</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재헌</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>공성문</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>이효수</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>발전기금</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>납입계좌: 국민은행 342302-04-202661 (예금주 오준환, 수도권 5만원, 지방 3만원)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>김자윤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어수용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신종인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허명권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유우열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서성원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>육광열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이정근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김영택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이성원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박성근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김한옥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신환철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박희준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남무호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안 순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김문환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김창남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유중식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성혁진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이두형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서철웅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서인표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤창남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김용희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025년도 연회비 납입 현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한명섭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한순현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이계판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김필웅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장성범</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김희덕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김상곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최광식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고광윤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤진호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조영훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유기현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김일수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김경태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권오봉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노문호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장우석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신기완</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤태순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임봉석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문만종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심관무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김진수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이정복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임광빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김종찬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김낙영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김상관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤석우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김갑생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박성건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>송창림</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>이민우</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>이인길</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>노승관</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>노석후</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>이상준</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>김대식</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>임석준</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>여운근</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>이재헌</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>공성문</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>이효수</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>발전기금</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>납입계좌: 국민은행 342302-04-202661 (예금주 오준환, 수도권 5만원, 지방 3만원)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>김자윤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어수용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신종인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>허명권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유우열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서성원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>육광열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이정근</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김영택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이성원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박성근</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김한옥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신환철</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박희준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남무호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김재강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안 순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김문환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김창남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유중식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성혁진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이두형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서철웅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서인표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윤창남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김용희</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025년도 연회비 납입 현황</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한명섭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한순현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이계판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김필웅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장성범</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김희덕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김상곤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최광식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고광윤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윤진호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조영훈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유기현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김일수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김경태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권오봉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노문호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장우석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신기완</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윤태순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임봉석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문만종</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>심관무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김진수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이정복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임광빈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김종찬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김낙영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김상관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윤석우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김갑생</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박성건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이재택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최병승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임인상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,7 +694,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -756,19 +764,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF002060"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF002060"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF002060"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF002060"/>
       </left>
@@ -1310,8 +1305,25 @@
         <color rgb="FF002060"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF002060"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF002060"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF002060"/>
       </bottom>
       <diagonal/>
@@ -1320,56 +1332,41 @@
       <left style="thin">
         <color rgb="FF002060"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF002060"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF002060"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <right style="medium">
+        <color rgb="FF002060"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
         <color rgb="FF002060"/>
       </left>
       <right style="thin">
         <color rgb="FF002060"/>
       </right>
-      <top style="medium">
-        <color rgb="FF002060"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF002060"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF002060"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF002060"/>
-      </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF002060"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF002060"/>
-      </left>
-      <right style="thin">
+      <left style="thin">
+        <color rgb="FF002060"/>
+      </left>
+      <right style="thick">
         <color rgb="FF002060"/>
       </right>
       <top style="thin">
         <color rgb="FF002060"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF002060"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1382,112 +1379,6 @@
       <top style="thin">
         <color rgb="FF002060"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF002060"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF002060"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF002060"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF002060"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF002060"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF002060"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF002060"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF002060"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF002060"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF002060"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF002060"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF002060"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF002060"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF002060"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF002060"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF002060"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF002060"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF002060"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF002060"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF002060"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF002060"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF002060"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF002060"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF002060"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF002060"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1497,7 +1388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1510,10 +1401,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1522,7 +1413,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1531,263 +1425,212 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="13" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1799,8 +1642,8 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1808,17 +1651,23 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2141,10 +1990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC16636-847A-47F1-BA3B-A88365FF7E52}">
-  <dimension ref="B1:X48"/>
+  <dimension ref="B1:X44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="W38" sqref="W38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2183,25 +2032,25 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
+      <c r="B2" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
     </row>
     <row r="3" spans="2:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:23" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C4" s="67" t="s">
-        <v>58</v>
+      <c r="C4" s="60" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:23" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2243,63 +2092,63 @@
         <v>9</v>
       </c>
       <c r="R6"/>
-      <c r="S6" s="102" t="s">
+      <c r="S6" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="103"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="104"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="87"/>
       <c r="W6"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="39">
         <v>46015</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="43">
-        <v>5</v>
-      </c>
-      <c r="G7" s="26">
-        <v>31</v>
-      </c>
-      <c r="H7" s="86">
+      <c r="E7" s="41">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>35</v>
+      </c>
+      <c r="H7" s="92">
         <v>45660</v>
       </c>
-      <c r="I7" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="54">
-        <v>5</v>
-      </c>
-      <c r="L7" s="27">
-        <v>61</v>
-      </c>
-      <c r="M7" s="73">
-        <v>45685</v>
-      </c>
-      <c r="N7" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="O7" s="75">
+      <c r="I7" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="45">
+        <v>5</v>
+      </c>
+      <c r="L7" s="3">
+        <v>69</v>
+      </c>
+      <c r="M7" s="29">
+        <v>45695</v>
+      </c>
+      <c r="N7" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" s="28">
         <v>5</v>
       </c>
       <c r="R7"/>
-      <c r="S7" s="60">
+      <c r="S7" s="53">
         <v>45658</v>
       </c>
-      <c r="T7" s="61" t="s">
+      <c r="T7" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="U7" s="55">
+        <v>30</v>
+      </c>
+      <c r="V7" s="56" t="s">
         <v>56</v>
-      </c>
-      <c r="U7" s="62">
-        <v>30</v>
-      </c>
-      <c r="V7" s="63" t="s">
-        <v>57</v>
       </c>
       <c r="W7"/>
     </row>
@@ -2307,49 +2156,51 @@
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="39">
         <v>46022</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="41">
         <v>5</v>
       </c>
       <c r="G8" s="3">
-        <v>32</v>
-      </c>
-      <c r="H8" s="84"/>
-      <c r="I8" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="47">
-        <v>5</v>
-      </c>
-      <c r="L8" s="28">
-        <v>62</v>
-      </c>
-      <c r="M8" s="31">
-        <v>45687</v>
-      </c>
-      <c r="N8" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="O8" s="30">
+        <v>36</v>
+      </c>
+      <c r="H8" s="93">
+        <v>45661</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="45">
+        <v>5</v>
+      </c>
+      <c r="L8" s="3">
+        <v>70</v>
+      </c>
+      <c r="M8" s="88">
+        <v>45700</v>
+      </c>
+      <c r="N8" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" s="28">
         <v>5</v>
       </c>
       <c r="R8"/>
-      <c r="S8" s="64">
+      <c r="S8" s="57">
         <v>45659</v>
       </c>
-      <c r="T8" s="65" t="s">
+      <c r="T8" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="U8" s="62">
+      <c r="U8" s="55">
         <v>100</v>
       </c>
-      <c r="V8" s="63" t="s">
-        <v>57</v>
+      <c r="V8" s="56" t="s">
+        <v>56</v>
       </c>
       <c r="W8"/>
     </row>
@@ -2357,49 +2208,47 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="93">
+      <c r="C9" s="73">
         <v>45658</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="41">
         <v>5</v>
       </c>
       <c r="G9" s="3">
-        <v>33</v>
-      </c>
-      <c r="H9" s="84"/>
-      <c r="I9" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="47">
-        <v>5</v>
+        <v>37</v>
+      </c>
+      <c r="H9" s="93"/>
+      <c r="I9" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="45">
+        <v>3</v>
       </c>
       <c r="L9" s="3">
-        <v>63</v>
-      </c>
-      <c r="M9" s="31">
-        <v>45688</v>
-      </c>
-      <c r="N9" s="76" t="s">
-        <v>80</v>
-      </c>
-      <c r="O9" s="30">
+        <v>71</v>
+      </c>
+      <c r="M9" s="88"/>
+      <c r="N9" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" s="28">
         <v>5</v>
       </c>
       <c r="R9"/>
-      <c r="S9" s="64">
+      <c r="S9" s="57">
         <v>45700</v>
       </c>
-      <c r="T9" s="66" t="s">
-        <v>87</v>
-      </c>
-      <c r="U9" s="62">
+      <c r="T9" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="U9" s="55">
         <v>200</v>
       </c>
-      <c r="V9" s="63" t="s">
-        <v>57</v>
+      <c r="V9" s="56" t="s">
+        <v>56</v>
       </c>
       <c r="W9"/>
     </row>
@@ -2407,71 +2256,75 @@
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="45" t="s">
+      <c r="C10" s="74"/>
+      <c r="D10" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="43">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>34</v>
-      </c>
-      <c r="H10" s="84"/>
-      <c r="I10" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="47">
+      <c r="E10" s="41">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4">
+        <v>38</v>
+      </c>
+      <c r="H10" s="51">
+        <v>45662</v>
+      </c>
+      <c r="I10" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="45">
         <v>5</v>
       </c>
       <c r="L10" s="3">
-        <v>64</v>
-      </c>
-      <c r="M10" s="91">
-        <v>45689</v>
-      </c>
-      <c r="N10" s="76" t="s">
-        <v>81</v>
-      </c>
-      <c r="O10" s="30">
+        <v>72</v>
+      </c>
+      <c r="M10" s="88">
+        <v>45701</v>
+      </c>
+      <c r="N10" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" s="28">
         <v>5</v>
       </c>
       <c r="R10"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="40"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="38"/>
       <c r="W10"/>
     </row>
     <row r="11" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="45" t="s">
+      <c r="C11" s="74"/>
+      <c r="D11" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="43">
-        <v>5</v>
-      </c>
-      <c r="G11" s="3">
-        <v>35</v>
-      </c>
-      <c r="H11" s="87"/>
-      <c r="I11" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="47">
+      <c r="E11" s="41">
+        <v>5</v>
+      </c>
+      <c r="G11" s="5">
+        <v>39</v>
+      </c>
+      <c r="H11" s="76">
+        <v>45663</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="45">
         <v>5</v>
       </c>
       <c r="L11" s="3">
-        <v>65</v>
-      </c>
-      <c r="M11" s="105"/>
-      <c r="N11" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="O11" s="30">
+        <v>73</v>
+      </c>
+      <c r="M11" s="88"/>
+      <c r="N11" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11" s="28">
         <v>5</v>
       </c>
       <c r="R11"/>
@@ -2479,7 +2332,7 @@
       <c r="T11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="U11" s="39">
+      <c r="U11" s="37">
         <f>SUM(U7:U10)</f>
         <v>330</v>
       </c>
@@ -2490,33 +2343,33 @@
       <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="45" t="s">
+      <c r="C12" s="74"/>
+      <c r="D12" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="41">
         <v>5</v>
       </c>
       <c r="G12" s="3">
-        <v>36</v>
-      </c>
-      <c r="H12" s="88">
-        <v>45661</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H12" s="77"/>
       <c r="I12" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" s="47">
+        <v>53</v>
+      </c>
+      <c r="J12" s="45">
         <v>5</v>
       </c>
       <c r="L12" s="3">
-        <v>66</v>
-      </c>
-      <c r="M12" s="106"/>
-      <c r="N12" s="76" t="s">
-        <v>105</v>
-      </c>
-      <c r="O12" s="30">
+        <v>74</v>
+      </c>
+      <c r="M12" s="29">
+        <v>45707</v>
+      </c>
+      <c r="N12" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="O12" s="28">
         <v>5</v>
       </c>
       <c r="R12"/>
@@ -2526,40 +2379,40 @@
       <c r="B13" s="5">
         <v>7</v>
       </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="45" t="s">
+      <c r="C13" s="74"/>
+      <c r="D13" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="41">
         <v>5</v>
       </c>
       <c r="G13" s="3">
-        <v>37</v>
-      </c>
-      <c r="H13" s="88"/>
+        <v>41</v>
+      </c>
+      <c r="H13" s="78"/>
       <c r="I13" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="47">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="J13" s="45">
+        <v>5</v>
       </c>
       <c r="L13" s="3">
-        <v>67</v>
-      </c>
-      <c r="M13" s="91">
-        <v>45691</v>
-      </c>
-      <c r="N13" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="O13" s="30">
+        <v>75</v>
+      </c>
+      <c r="M13" s="88">
+        <v>45708</v>
+      </c>
+      <c r="N13" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" s="28">
         <v>5</v>
       </c>
       <c r="R13"/>
-      <c r="S13" s="96" t="s">
+      <c r="S13" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="97"/>
+      <c r="T13" s="80"/>
       <c r="U13" s="19" t="s">
         <v>14</v>
       </c>
@@ -2572,43 +2425,43 @@
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="45" t="s">
+      <c r="C14" s="74"/>
+      <c r="D14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="43">
-        <v>5</v>
-      </c>
-      <c r="G14" s="4">
-        <v>38</v>
-      </c>
-      <c r="H14" s="56">
-        <v>45662</v>
-      </c>
-      <c r="I14" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="47">
+      <c r="E14" s="41">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>42</v>
+      </c>
+      <c r="H14" s="76">
+        <v>45664</v>
+      </c>
+      <c r="I14" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="45">
         <v>5</v>
       </c>
       <c r="L14" s="3">
-        <v>68</v>
-      </c>
-      <c r="M14" s="106"/>
-      <c r="N14" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="O14" s="30">
+        <v>76</v>
+      </c>
+      <c r="M14" s="88"/>
+      <c r="N14" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="O14" s="28">
         <v>5</v>
       </c>
       <c r="R14"/>
-      <c r="S14" s="98" t="s">
+      <c r="S14" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="99"/>
-      <c r="U14" s="35">
-        <f>E37+J37+O47</f>
-        <v>500</v>
+      <c r="T14" s="82"/>
+      <c r="U14" s="33">
+        <f>E41+J41+O41</f>
+        <v>510</v>
       </c>
       <c r="V14" s="16"/>
       <c r="W14"/>
@@ -2617,43 +2470,39 @@
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="45" t="s">
+      <c r="C15" s="74"/>
+      <c r="D15" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="43">
-        <v>5</v>
-      </c>
-      <c r="G15" s="5">
-        <v>39</v>
-      </c>
-      <c r="H15" s="89">
-        <v>45663</v>
-      </c>
-      <c r="I15" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" s="47">
+      <c r="E15" s="41">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>43</v>
+      </c>
+      <c r="H15" s="91"/>
+      <c r="I15" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="45">
         <v>5</v>
       </c>
       <c r="L15" s="3">
-        <v>69</v>
-      </c>
-      <c r="M15" s="31">
-        <v>45695</v>
-      </c>
-      <c r="N15" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="O15" s="30">
+        <v>77</v>
+      </c>
+      <c r="M15" s="88"/>
+      <c r="N15" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="O15" s="28">
         <v>5</v>
       </c>
       <c r="R15"/>
-      <c r="S15" s="98" t="s">
+      <c r="S15" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="T15" s="99"/>
-      <c r="U15" s="36">
+      <c r="T15" s="82"/>
+      <c r="U15" s="34">
         <f>U11</f>
         <v>330</v>
       </c>
@@ -2664,43 +2513,45 @@
       <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="45" t="s">
+      <c r="C16" s="74"/>
+      <c r="D16" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="41">
         <v>3</v>
       </c>
       <c r="G16" s="3">
-        <v>40</v>
-      </c>
-      <c r="H16" s="84"/>
-      <c r="I16" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" s="47">
+        <v>44</v>
+      </c>
+      <c r="H16" s="76">
+        <v>45665</v>
+      </c>
+      <c r="I16" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="45">
         <v>5</v>
       </c>
       <c r="L16" s="3">
-        <v>70</v>
-      </c>
-      <c r="M16" s="107">
-        <v>45700</v>
-      </c>
-      <c r="N16" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="O16" s="30">
+        <v>78</v>
+      </c>
+      <c r="M16" s="29">
+        <v>45716</v>
+      </c>
+      <c r="N16" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="O16" s="28">
         <v>5</v>
       </c>
       <c r="R16"/>
-      <c r="S16" s="100" t="s">
+      <c r="S16" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="101"/>
-      <c r="U16" s="37">
+      <c r="T16" s="84"/>
+      <c r="U16" s="35">
         <f>SUM(U14:U15)</f>
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="V16" s="18"/>
       <c r="W16"/>
@@ -2709,31 +2560,33 @@
       <c r="B17" s="3">
         <v>11</v>
       </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="45" t="s">
+      <c r="C17" s="74"/>
+      <c r="D17" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="41">
         <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>41</v>
-      </c>
-      <c r="H17" s="87"/>
-      <c r="I17" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="47">
+        <v>45</v>
+      </c>
+      <c r="H17" s="91"/>
+      <c r="I17" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="45">
         <v>5</v>
       </c>
       <c r="L17" s="3">
-        <v>71</v>
-      </c>
-      <c r="M17" s="107"/>
-      <c r="N17" s="76" t="s">
-        <v>101</v>
-      </c>
-      <c r="O17" s="30">
+        <v>79</v>
+      </c>
+      <c r="M17" s="66">
+        <v>45717</v>
+      </c>
+      <c r="N17" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="O17" s="68">
         <v>5</v>
       </c>
       <c r="R17"/>
@@ -2743,35 +2596,35 @@
       <c r="B18" s="3">
         <v>12</v>
       </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="45" t="s">
+      <c r="C18" s="74"/>
+      <c r="D18" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="41">
         <v>3</v>
       </c>
       <c r="G18" s="3">
-        <v>42</v>
-      </c>
-      <c r="H18" s="89">
-        <v>45664</v>
-      </c>
-      <c r="I18" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="J18" s="47">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
-        <v>72</v>
-      </c>
-      <c r="M18" s="107">
-        <v>45701</v>
-      </c>
-      <c r="N18" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="O18" s="30">
+        <v>46</v>
+      </c>
+      <c r="H18" s="62">
+        <v>45667</v>
+      </c>
+      <c r="I18" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="45">
+        <v>3</v>
+      </c>
+      <c r="L18" s="26">
+        <v>80</v>
+      </c>
+      <c r="M18" s="29">
+        <v>45720</v>
+      </c>
+      <c r="N18" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="O18" s="28">
         <v>5</v>
       </c>
       <c r="R18"/>
@@ -2782,31 +2635,35 @@
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="45" t="s">
+      <c r="C19" s="74"/>
+      <c r="D19" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="43">
+      <c r="E19" s="41">
         <v>5</v>
       </c>
       <c r="G19" s="3">
-        <v>43</v>
-      </c>
-      <c r="H19" s="90"/>
-      <c r="I19" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="J19" s="47">
-        <v>5</v>
-      </c>
-      <c r="L19" s="3">
-        <v>73</v>
-      </c>
-      <c r="M19" s="107"/>
-      <c r="N19" s="76" t="s">
-        <v>89</v>
-      </c>
-      <c r="O19" s="30">
+        <v>47</v>
+      </c>
+      <c r="H19" s="62">
+        <v>45669</v>
+      </c>
+      <c r="I19" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" s="45">
+        <v>5</v>
+      </c>
+      <c r="L19" s="26">
+        <v>81</v>
+      </c>
+      <c r="M19" s="88">
+        <v>45721</v>
+      </c>
+      <c r="N19" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="O19" s="28">
         <v>5</v>
       </c>
       <c r="R19"/>
@@ -2816,35 +2673,33 @@
       <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="46" t="s">
+      <c r="C20" s="74"/>
+      <c r="D20" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="45">
         <v>15</v>
       </c>
       <c r="G20" s="3">
-        <v>44</v>
-      </c>
-      <c r="H20" s="89">
-        <v>45665</v>
-      </c>
-      <c r="I20" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="J20" s="47">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
-        <v>74</v>
-      </c>
-      <c r="M20" s="31">
-        <v>45707</v>
-      </c>
-      <c r="N20" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="O20" s="30">
+        <v>48</v>
+      </c>
+      <c r="H20" s="90">
+        <v>45670</v>
+      </c>
+      <c r="I20" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="45">
+        <v>5</v>
+      </c>
+      <c r="L20" s="26">
+        <v>82</v>
+      </c>
+      <c r="M20" s="88"/>
+      <c r="N20" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="O20" s="28">
         <v>5</v>
       </c>
       <c r="R20"/>
@@ -2854,33 +2709,31 @@
       <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="46" t="s">
+      <c r="C21" s="74"/>
+      <c r="D21" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E21" s="45">
         <v>5</v>
       </c>
       <c r="G21" s="3">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H21" s="90"/>
-      <c r="I21" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="J21" s="47">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
-        <v>75</v>
-      </c>
-      <c r="M21" s="107">
-        <v>45708</v>
-      </c>
-      <c r="N21" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="O21" s="30">
+      <c r="I21" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="J21" s="45">
+        <v>5</v>
+      </c>
+      <c r="L21" s="26">
+        <v>83</v>
+      </c>
+      <c r="M21" s="88"/>
+      <c r="N21" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="O21" s="28">
         <v>5</v>
       </c>
       <c r="R21"/>
@@ -2890,33 +2743,33 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="46" t="s">
+      <c r="C22" s="74"/>
+      <c r="D22" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="47">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>46</v>
-      </c>
-      <c r="H22" s="69">
-        <v>45667</v>
-      </c>
-      <c r="I22" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="J22" s="47">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3">
-        <v>76</v>
-      </c>
-      <c r="M22" s="107"/>
-      <c r="N22" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="O22" s="30">
+      <c r="E22" s="45">
+        <v>5</v>
+      </c>
+      <c r="G22" s="4">
+        <v>50</v>
+      </c>
+      <c r="H22" s="90"/>
+      <c r="I22" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="45">
+        <v>5</v>
+      </c>
+      <c r="L22" s="26">
+        <v>84</v>
+      </c>
+      <c r="M22" s="29">
+        <v>45722</v>
+      </c>
+      <c r="N22" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="O22" s="28">
         <v>5</v>
       </c>
       <c r="R22"/>
@@ -2926,33 +2779,35 @@
       <c r="B23" s="3">
         <v>17</v>
       </c>
-      <c r="C23" s="94"/>
-      <c r="D23" s="46" t="s">
+      <c r="C23" s="74"/>
+      <c r="D23" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="45">
         <v>5</v>
       </c>
       <c r="G23" s="3">
-        <v>47</v>
-      </c>
-      <c r="H23" s="69">
-        <v>45669</v>
-      </c>
-      <c r="I23" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="J23" s="47">
+        <v>51</v>
+      </c>
+      <c r="H23" s="64">
+        <v>45671</v>
+      </c>
+      <c r="I23" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="45">
         <v>5</v>
       </c>
       <c r="L23" s="3">
-        <v>77</v>
-      </c>
-      <c r="M23" s="107"/>
-      <c r="N23" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="O23" s="30">
+        <v>85</v>
+      </c>
+      <c r="M23" s="66">
+        <v>45725</v>
+      </c>
+      <c r="N23" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="O23" s="68">
         <v>5</v>
       </c>
       <c r="R23"/>
@@ -2963,35 +2818,35 @@
       <c r="B24" s="3">
         <v>18</v>
       </c>
-      <c r="C24" s="94"/>
-      <c r="D24" s="46" t="s">
+      <c r="C24" s="74"/>
+      <c r="D24" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="47">
+      <c r="E24" s="45">
         <v>5</v>
       </c>
       <c r="G24" s="3">
-        <v>48</v>
-      </c>
-      <c r="H24" s="88">
-        <v>45670</v>
-      </c>
-      <c r="I24" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="90">
+        <v>45673</v>
+      </c>
+      <c r="I24" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="J24" s="47">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
-        <v>78</v>
-      </c>
-      <c r="M24" s="31">
-        <v>45716</v>
-      </c>
-      <c r="N24" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="O24" s="30">
+      <c r="J24" s="45">
+        <v>5</v>
+      </c>
+      <c r="L24" s="26">
+        <v>86</v>
+      </c>
+      <c r="M24" s="29">
+        <v>45726</v>
+      </c>
+      <c r="N24" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="O24" s="28">
         <v>5</v>
       </c>
       <c r="R24"/>
@@ -3001,33 +2856,33 @@
       <c r="B25" s="3">
         <v>19</v>
       </c>
-      <c r="C25" s="94"/>
-      <c r="D25" s="46" t="s">
+      <c r="C25" s="74"/>
+      <c r="D25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="47">
+      <c r="E25" s="45">
         <v>5</v>
       </c>
       <c r="G25" s="3">
-        <v>49</v>
-      </c>
-      <c r="H25" s="88"/>
-      <c r="I25" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="J25" s="47">
-        <v>5</v>
-      </c>
-      <c r="L25" s="3">
-        <v>79</v>
-      </c>
-      <c r="M25" s="77">
-        <v>45717</v>
-      </c>
-      <c r="N25" s="78" t="s">
-        <v>95</v>
-      </c>
-      <c r="O25" s="79">
+        <v>53</v>
+      </c>
+      <c r="H25" s="90"/>
+      <c r="I25" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" s="45">
+        <v>5</v>
+      </c>
+      <c r="L25" s="26">
+        <v>87</v>
+      </c>
+      <c r="M25" s="29">
+        <v>45730</v>
+      </c>
+      <c r="N25" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="O25" s="28">
         <v>5</v>
       </c>
       <c r="R25"/>
@@ -3037,33 +2892,33 @@
       <c r="B26" s="3">
         <v>20</v>
       </c>
-      <c r="C26" s="94"/>
-      <c r="D26" s="45" t="s">
+      <c r="C26" s="74"/>
+      <c r="D26" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="47">
-        <v>5</v>
-      </c>
-      <c r="G26" s="4">
-        <v>50</v>
-      </c>
-      <c r="H26" s="88"/>
-      <c r="I26" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="J26" s="47">
-        <v>5</v>
-      </c>
-      <c r="L26" s="28">
-        <v>80</v>
-      </c>
-      <c r="M26" s="31">
-        <v>45720</v>
-      </c>
-      <c r="N26" s="76" t="s">
-        <v>96</v>
-      </c>
-      <c r="O26" s="30">
+      <c r="E26" s="45">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>54</v>
+      </c>
+      <c r="H26" s="90"/>
+      <c r="I26" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26" s="45">
+        <v>5</v>
+      </c>
+      <c r="L26" s="26">
+        <v>88</v>
+      </c>
+      <c r="M26" s="29">
+        <v>45734</v>
+      </c>
+      <c r="N26" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="O26" s="28">
         <v>5</v>
       </c>
       <c r="R26"/>
@@ -3073,35 +2928,35 @@
       <c r="B27" s="3">
         <v>21</v>
       </c>
-      <c r="C27" s="95"/>
-      <c r="D27" s="45" t="s">
+      <c r="C27" s="75"/>
+      <c r="D27" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="45">
         <v>5</v>
       </c>
       <c r="G27" s="3">
-        <v>51</v>
-      </c>
-      <c r="H27" s="71">
-        <v>45671</v>
-      </c>
-      <c r="I27" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="J27" s="47">
-        <v>5</v>
-      </c>
-      <c r="L27" s="28">
-        <v>81</v>
-      </c>
-      <c r="M27" s="107">
-        <v>45721</v>
-      </c>
-      <c r="N27" s="76" t="s">
-        <v>97</v>
-      </c>
-      <c r="O27" s="30">
+        <v>55</v>
+      </c>
+      <c r="H27" s="62">
+        <v>45676</v>
+      </c>
+      <c r="I27" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" s="45">
+        <v>5</v>
+      </c>
+      <c r="L27" s="26">
+        <v>89</v>
+      </c>
+      <c r="M27" s="29">
+        <v>45748</v>
+      </c>
+      <c r="N27" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="O27" s="28">
         <v>5</v>
       </c>
       <c r="R27"/>
@@ -3111,35 +2966,37 @@
       <c r="B28" s="3">
         <v>22</v>
       </c>
-      <c r="C28" s="89">
+      <c r="C28" s="76">
         <v>45659</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="47">
+      <c r="E28" s="45">
         <v>5</v>
       </c>
       <c r="G28" s="3">
-        <v>52</v>
-      </c>
-      <c r="H28" s="88">
-        <v>45673</v>
-      </c>
-      <c r="I28" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="J28" s="47">
-        <v>5</v>
-      </c>
-      <c r="L28" s="28">
-        <v>82</v>
-      </c>
-      <c r="M28" s="107"/>
-      <c r="N28" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="O28" s="30">
+        <v>56</v>
+      </c>
+      <c r="H28" s="62">
+        <v>45677</v>
+      </c>
+      <c r="I28" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28" s="45">
+        <v>5</v>
+      </c>
+      <c r="L28" s="26">
+        <v>90</v>
+      </c>
+      <c r="M28" s="29">
+        <v>45777</v>
+      </c>
+      <c r="N28" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="O28" s="28">
         <v>5</v>
       </c>
       <c r="R28"/>
@@ -3149,31 +3006,35 @@
       <c r="B29" s="5">
         <v>23</v>
       </c>
-      <c r="C29" s="84"/>
-      <c r="D29" s="48" t="s">
+      <c r="C29" s="77"/>
+      <c r="D29" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="47">
+      <c r="E29" s="45">
         <v>5</v>
       </c>
       <c r="G29" s="3">
-        <v>53</v>
-      </c>
-      <c r="H29" s="88"/>
-      <c r="I29" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="J29" s="47">
-        <v>5</v>
-      </c>
-      <c r="L29" s="28">
-        <v>83</v>
-      </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="O29" s="30">
+        <v>57</v>
+      </c>
+      <c r="H29" s="62">
+        <v>45678</v>
+      </c>
+      <c r="I29" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="J29" s="45">
+        <v>5</v>
+      </c>
+      <c r="L29" s="26">
+        <v>91</v>
+      </c>
+      <c r="M29" s="29">
+        <v>45778</v>
+      </c>
+      <c r="N29" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="O29" s="28">
         <v>5</v>
       </c>
       <c r="R29"/>
@@ -3183,33 +3044,35 @@
       <c r="B30" s="3">
         <v>24</v>
       </c>
-      <c r="C30" s="84"/>
-      <c r="D30" s="48" t="s">
+      <c r="C30" s="77"/>
+      <c r="D30" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="47">
+      <c r="E30" s="45">
         <v>3</v>
       </c>
       <c r="G30" s="3">
-        <v>54</v>
-      </c>
-      <c r="H30" s="88"/>
-      <c r="I30" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="J30" s="47">
-        <v>5</v>
-      </c>
-      <c r="L30" s="28">
-        <v>84</v>
-      </c>
-      <c r="M30" s="31">
-        <v>45722</v>
-      </c>
-      <c r="N30" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="O30" s="30">
+        <v>58</v>
+      </c>
+      <c r="H30" s="62">
+        <v>45679</v>
+      </c>
+      <c r="I30" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="J30" s="45">
+        <v>5</v>
+      </c>
+      <c r="L30" s="26">
+        <v>92</v>
+      </c>
+      <c r="M30" s="70">
+        <v>45793</v>
+      </c>
+      <c r="N30" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="O30" s="28">
         <v>5</v>
       </c>
       <c r="R30"/>
@@ -3219,35 +3082,33 @@
       <c r="B31" s="3">
         <v>25</v>
       </c>
-      <c r="C31" s="84"/>
-      <c r="D31" s="48" t="s">
+      <c r="C31" s="77"/>
+      <c r="D31" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="47">
+      <c r="E31" s="45">
         <v>5</v>
       </c>
       <c r="G31" s="3">
-        <v>55</v>
-      </c>
-      <c r="H31" s="69">
-        <v>45676</v>
-      </c>
-      <c r="I31" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="J31" s="47">
-        <v>5</v>
-      </c>
-      <c r="L31" s="3">
-        <v>85</v>
-      </c>
-      <c r="M31" s="77">
-        <v>45725</v>
-      </c>
-      <c r="N31" s="80" t="s">
-        <v>102</v>
-      </c>
-      <c r="O31" s="79">
+        <v>59</v>
+      </c>
+      <c r="H31" s="62">
+        <v>45680</v>
+      </c>
+      <c r="I31" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="J31" s="45">
+        <v>5</v>
+      </c>
+      <c r="L31" s="26">
+        <v>93</v>
+      </c>
+      <c r="M31" s="71"/>
+      <c r="N31" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="O31" s="28">
         <v>5</v>
       </c>
       <c r="R31"/>
@@ -3257,35 +3118,35 @@
       <c r="B32" s="3">
         <v>26</v>
       </c>
-      <c r="C32" s="87"/>
-      <c r="D32" s="48" t="s">
+      <c r="C32" s="78"/>
+      <c r="D32" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="47">
+      <c r="E32" s="45">
         <v>5</v>
       </c>
       <c r="G32" s="3">
-        <v>56</v>
-      </c>
-      <c r="H32" s="69">
-        <v>45677</v>
-      </c>
-      <c r="I32" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="J32" s="47">
-        <v>5</v>
-      </c>
-      <c r="L32" s="28">
-        <v>86</v>
-      </c>
-      <c r="M32" s="31">
-        <v>45726</v>
-      </c>
-      <c r="N32" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="O32" s="30">
+        <v>60</v>
+      </c>
+      <c r="H32" s="62">
+        <v>45684</v>
+      </c>
+      <c r="I32" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="J32" s="45">
+        <v>5</v>
+      </c>
+      <c r="L32" s="26">
+        <v>94</v>
+      </c>
+      <c r="M32" s="29">
+        <v>45800</v>
+      </c>
+      <c r="N32" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="O32" s="28">
         <v>5</v>
       </c>
       <c r="R32"/>
@@ -3295,37 +3156,37 @@
       <c r="B33" s="3">
         <v>27</v>
       </c>
-      <c r="C33" s="84">
+      <c r="C33" s="76">
         <v>45660</v>
       </c>
-      <c r="D33" s="48" t="s">
+      <c r="D33" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="47">
+      <c r="E33" s="45">
         <v>5</v>
       </c>
       <c r="G33" s="3">
-        <v>57</v>
-      </c>
-      <c r="H33" s="69">
-        <v>45678</v>
-      </c>
-      <c r="I33" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="J33" s="47">
-        <v>5</v>
-      </c>
-      <c r="L33" s="28">
-        <v>87</v>
-      </c>
-      <c r="M33" s="31">
-        <v>45730</v>
-      </c>
-      <c r="N33" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="O33" s="30">
+        <v>61</v>
+      </c>
+      <c r="H33" s="62">
+        <v>45685</v>
+      </c>
+      <c r="I33" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="J33" s="45">
+        <v>5</v>
+      </c>
+      <c r="L33" s="26">
+        <v>95</v>
+      </c>
+      <c r="M33" s="29">
+        <v>45802</v>
+      </c>
+      <c r="N33" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="O33" s="28">
         <v>5</v>
       </c>
       <c r="R33"/>
@@ -3335,35 +3196,35 @@
       <c r="B34" s="3">
         <v>28</v>
       </c>
-      <c r="C34" s="84"/>
-      <c r="D34" s="48" t="s">
+      <c r="C34" s="77"/>
+      <c r="D34" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="47">
-        <v>5</v>
-      </c>
-      <c r="G34" s="3">
-        <v>58</v>
-      </c>
-      <c r="H34" s="69">
-        <v>45679</v>
-      </c>
-      <c r="I34" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="J34" s="47">
-        <v>5</v>
-      </c>
-      <c r="L34" s="28">
-        <v>88</v>
-      </c>
-      <c r="M34" s="31">
-        <v>45734</v>
-      </c>
-      <c r="N34" s="76" t="s">
-        <v>106</v>
-      </c>
-      <c r="O34" s="30">
+      <c r="E34" s="45">
+        <v>5</v>
+      </c>
+      <c r="G34" s="26">
+        <v>62</v>
+      </c>
+      <c r="H34" s="29">
+        <v>45687</v>
+      </c>
+      <c r="I34" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="J34" s="28">
+        <v>5</v>
+      </c>
+      <c r="L34" s="26">
+        <v>96</v>
+      </c>
+      <c r="M34" s="29">
+        <v>45803</v>
+      </c>
+      <c r="N34" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="O34" s="28">
         <v>5</v>
       </c>
       <c r="R34"/>
@@ -3373,36 +3234,36 @@
       <c r="B35" s="3">
         <v>29</v>
       </c>
-      <c r="C35" s="84"/>
-      <c r="D35" s="48" t="s">
+      <c r="C35" s="77"/>
+      <c r="D35" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="47">
+      <c r="E35" s="45">
         <v>5</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="3">
-        <v>59</v>
-      </c>
-      <c r="H35" s="69">
-        <v>45680</v>
-      </c>
-      <c r="I35" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="J35" s="47">
-        <v>5</v>
-      </c>
-      <c r="L35" s="28">
-        <v>89</v>
-      </c>
-      <c r="M35" s="31">
-        <v>45748</v>
-      </c>
-      <c r="N35" s="76" t="s">
-        <v>107</v>
-      </c>
-      <c r="O35" s="30">
+        <v>63</v>
+      </c>
+      <c r="H35" s="29">
+        <v>45688</v>
+      </c>
+      <c r="I35" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="J35" s="28">
+        <v>5</v>
+      </c>
+      <c r="L35" s="26">
+        <v>97</v>
+      </c>
+      <c r="M35" s="29">
+        <v>45805</v>
+      </c>
+      <c r="N35" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="O35" s="28">
         <v>5</v>
       </c>
       <c r="R35"/>
@@ -3412,221 +3273,234 @@
       <c r="B36" s="6">
         <v>30</v>
       </c>
-      <c r="C36" s="85"/>
-      <c r="D36" s="48" t="s">
+      <c r="C36" s="77"/>
+      <c r="D36" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36" s="45">
         <v>5</v>
       </c>
       <c r="G36" s="3">
-        <v>60</v>
-      </c>
-      <c r="H36" s="72">
-        <v>45684</v>
-      </c>
-      <c r="I36" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="J36" s="59">
-        <v>5</v>
-      </c>
-      <c r="L36" s="28">
-        <v>90</v>
-      </c>
-      <c r="M36" s="31">
-        <v>45777</v>
-      </c>
-      <c r="N36" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="O36" s="30">
+        <v>64</v>
+      </c>
+      <c r="H36" s="29">
+        <v>45689</v>
+      </c>
+      <c r="I36" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36" s="28">
+        <v>5</v>
+      </c>
+      <c r="L36" s="26">
+        <v>98</v>
+      </c>
+      <c r="M36" s="70">
+        <v>45806</v>
+      </c>
+      <c r="N36" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="O36" s="28">
         <v>5</v>
       </c>
       <c r="R36"/>
       <c r="W36"/>
     </row>
-    <row r="37" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="21"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="52">
-        <f>SUM(E7:E36)</f>
-        <v>154</v>
-      </c>
-      <c r="G37" s="21"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="52">
-        <f>SUM(J7:J36)</f>
-        <v>146</v>
-      </c>
-      <c r="L37" s="28">
-        <v>91</v>
-      </c>
-      <c r="M37" s="31">
-        <v>45778</v>
-      </c>
-      <c r="N37" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="O37" s="30">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B37" s="3">
+        <v>31</v>
+      </c>
+      <c r="C37" s="77"/>
+      <c r="D37" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="45">
+        <v>5</v>
+      </c>
+      <c r="G37" s="3">
+        <v>65</v>
+      </c>
+      <c r="H37" s="70">
+        <v>45689</v>
+      </c>
+      <c r="I37" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="J37" s="28">
+        <v>5</v>
+      </c>
+      <c r="L37" s="26">
+        <v>99</v>
+      </c>
+      <c r="M37" s="71"/>
+      <c r="N37" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="O37" s="28">
         <v>5</v>
       </c>
       <c r="R37"/>
       <c r="W37"/>
     </row>
-    <row r="38" spans="2:23" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="L38" s="28">
-        <v>92</v>
-      </c>
-      <c r="M38" s="91">
-        <v>45793</v>
-      </c>
-      <c r="N38" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="O38" s="30">
+    <row r="38" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="3">
+        <v>32</v>
+      </c>
+      <c r="C38" s="77"/>
+      <c r="D38" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="45">
+        <v>5</v>
+      </c>
+      <c r="G38" s="3">
+        <v>66</v>
+      </c>
+      <c r="H38" s="71"/>
+      <c r="I38" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="J38" s="28">
+        <v>5</v>
+      </c>
+      <c r="L38" s="26">
+        <v>100</v>
+      </c>
+      <c r="M38" s="29">
+        <v>45806</v>
+      </c>
+      <c r="N38" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="O38" s="28">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="2:23" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C39" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="28">
-        <v>93</v>
-      </c>
-      <c r="M39" s="106"/>
-      <c r="N39" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="O39" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C40" s="15" t="s">
+      <c r="B39" s="3">
+        <v>33</v>
+      </c>
+      <c r="C39" s="77"/>
+      <c r="D39" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="45">
+        <v>5</v>
+      </c>
+      <c r="F39" s="30"/>
+      <c r="G39" s="3">
+        <v>67</v>
+      </c>
+      <c r="H39" s="70">
+        <v>45691</v>
+      </c>
+      <c r="I39" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="J39" s="28">
+        <v>5</v>
+      </c>
+      <c r="K39" s="30"/>
+      <c r="L39" s="26">
+        <v>101</v>
+      </c>
+      <c r="M39" s="29">
+        <v>45780</v>
+      </c>
+      <c r="N39" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="O39" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="3">
+        <v>34</v>
+      </c>
+      <c r="C40" s="89"/>
+      <c r="D40" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="45">
+        <v>5</v>
+      </c>
+      <c r="G40" s="3">
+        <v>68</v>
+      </c>
+      <c r="H40" s="71"/>
+      <c r="I40" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="J40" s="28">
+        <v>5</v>
+      </c>
+      <c r="L40" s="26">
+        <v>102</v>
+      </c>
+      <c r="M40" s="29">
+        <v>45812</v>
+      </c>
+      <c r="N40" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="O40" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="21"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="49">
+        <f>SUM(E7:E40)</f>
+        <v>174</v>
+      </c>
+      <c r="G41" s="21"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="49">
+        <f>SUM(J7:J40)</f>
+        <v>166</v>
+      </c>
+      <c r="L41" s="26"/>
+      <c r="M41" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="N41" s="24"/>
+      <c r="O41" s="25">
+        <f>SUM(O7:O40)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:23" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C43" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C44" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L40" s="28">
-        <v>94</v>
-      </c>
-      <c r="M40" s="31">
-        <v>45800</v>
-      </c>
-      <c r="N40" s="76" t="s">
-        <v>112</v>
-      </c>
-      <c r="O40" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="L41" s="28">
-        <v>95</v>
-      </c>
-      <c r="M41" s="31">
-        <v>45802</v>
-      </c>
-      <c r="N41" s="76" t="s">
-        <v>113</v>
-      </c>
-      <c r="O41" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="L42" s="28">
-        <v>96</v>
-      </c>
-      <c r="M42" s="31">
-        <v>45803</v>
-      </c>
-      <c r="N42" s="76" t="s">
-        <v>114</v>
-      </c>
-      <c r="O42" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="L43" s="28">
-        <v>97</v>
-      </c>
-      <c r="M43" s="31">
-        <v>45805</v>
-      </c>
-      <c r="N43" s="76" t="s">
-        <v>115</v>
-      </c>
-      <c r="O43" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="L44" s="28">
-        <v>98</v>
-      </c>
-      <c r="M44" s="91">
-        <v>45806</v>
-      </c>
-      <c r="N44" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="O44" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="L45" s="28">
-        <v>99</v>
-      </c>
-      <c r="M45" s="106"/>
-      <c r="N45" s="76" t="s">
-        <v>117</v>
-      </c>
-      <c r="O45" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L46" s="28">
-        <v>100</v>
-      </c>
-      <c r="M46" s="81">
-        <v>45806</v>
-      </c>
-      <c r="N46" s="82" t="s">
-        <v>118</v>
-      </c>
-      <c r="O46" s="83">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L47" s="28"/>
-      <c r="M47" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="N47" s="24"/>
-      <c r="O47" s="25">
-        <f>SUM(O7:O46)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="M44:M45"/>
+  <mergeCells count="22">
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="C33:C40"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="M36:M37"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="C9:C27"/>
     <mergeCell ref="C28:C32"/>
@@ -3635,21 +3509,12 @@
     <mergeCell ref="S15:T15"/>
     <mergeCell ref="S16:T16"/>
     <mergeCell ref="S6:V6"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="M30:M31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B64280F-01FF-40D8-9066-D62FAD74B8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033BEE3C-D63C-4ECB-BFD4-3906B209BB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="1365" windowWidth="22725" windowHeight="13245" xr2:uid="{65989A62-DD22-4017-B1F4-9BE3BB514C20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65989A62-DD22-4017-B1F4-9BE3BB514C20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="122">
   <si>
     <t>일   자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -518,6 +518,10 @@
   </si>
   <si>
     <t>임인상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김경집</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,7 +698,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1382,13 +1386,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF002060"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF002060"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF002060"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1597,12 +1621,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1613,15 +1658,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1654,20 +1690,14 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1992,8 +2022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC16636-847A-47F1-BA3B-A88365FF7E52}">
   <dimension ref="B1:X44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2032,20 +2062,20 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
     </row>
     <row r="3" spans="2:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:23" ht="20.25" x14ac:dyDescent="0.3">
@@ -2092,12 +2122,12 @@
         <v>9</v>
       </c>
       <c r="R6"/>
-      <c r="S6" s="85" t="s">
+      <c r="S6" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="87"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="91"/>
       <c r="W6"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
@@ -2116,7 +2146,7 @@
       <c r="G7" s="3">
         <v>35</v>
       </c>
-      <c r="H7" s="92">
+      <c r="H7" s="70">
         <v>45660</v>
       </c>
       <c r="I7" s="50" t="s">
@@ -2168,7 +2198,7 @@
       <c r="G8" s="3">
         <v>36</v>
       </c>
-      <c r="H8" s="93">
+      <c r="H8" s="62">
         <v>45661</v>
       </c>
       <c r="I8" s="44" t="s">
@@ -2180,7 +2210,7 @@
       <c r="L8" s="3">
         <v>70</v>
       </c>
-      <c r="M8" s="88">
+      <c r="M8" s="92">
         <v>45700</v>
       </c>
       <c r="N8" s="65" t="s">
@@ -2208,7 +2238,7 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="80">
         <v>45658</v>
       </c>
       <c r="D9" s="42" t="s">
@@ -2220,7 +2250,7 @@
       <c r="G9" s="3">
         <v>37</v>
       </c>
-      <c r="H9" s="93"/>
+      <c r="H9" s="62"/>
       <c r="I9" s="44" t="s">
         <v>50</v>
       </c>
@@ -2230,7 +2260,7 @@
       <c r="L9" s="3">
         <v>71</v>
       </c>
-      <c r="M9" s="88"/>
+      <c r="M9" s="92"/>
       <c r="N9" s="65" t="s">
         <v>100</v>
       </c>
@@ -2256,7 +2286,7 @@
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="74"/>
+      <c r="C10" s="81"/>
       <c r="D10" s="43" t="s">
         <v>18</v>
       </c>
@@ -2278,7 +2308,7 @@
       <c r="L10" s="3">
         <v>72</v>
       </c>
-      <c r="M10" s="88">
+      <c r="M10" s="92">
         <v>45701</v>
       </c>
       <c r="N10" s="65" t="s">
@@ -2298,7 +2328,7 @@
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="81"/>
       <c r="D11" s="43" t="s">
         <v>19</v>
       </c>
@@ -2308,7 +2338,7 @@
       <c r="G11" s="5">
         <v>39</v>
       </c>
-      <c r="H11" s="76">
+      <c r="H11" s="73">
         <v>45663</v>
       </c>
       <c r="I11" s="46" t="s">
@@ -2320,7 +2350,7 @@
       <c r="L11" s="3">
         <v>73</v>
       </c>
-      <c r="M11" s="88"/>
+      <c r="M11" s="92"/>
       <c r="N11" s="65" t="s">
         <v>88</v>
       </c>
@@ -2343,7 +2373,7 @@
       <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="74"/>
+      <c r="C12" s="81"/>
       <c r="D12" s="43" t="s">
         <v>20</v>
       </c>
@@ -2353,7 +2383,7 @@
       <c r="G12" s="3">
         <v>40</v>
       </c>
-      <c r="H12" s="77"/>
+      <c r="H12" s="74"/>
       <c r="I12" s="46" t="s">
         <v>53</v>
       </c>
@@ -2379,7 +2409,7 @@
       <c r="B13" s="5">
         <v>7</v>
       </c>
-      <c r="C13" s="74"/>
+      <c r="C13" s="81"/>
       <c r="D13" s="43" t="s">
         <v>21</v>
       </c>
@@ -2389,7 +2419,7 @@
       <c r="G13" s="3">
         <v>41</v>
       </c>
-      <c r="H13" s="78"/>
+      <c r="H13" s="76"/>
       <c r="I13" s="46" t="s">
         <v>54</v>
       </c>
@@ -2399,7 +2429,7 @@
       <c r="L13" s="3">
         <v>75</v>
       </c>
-      <c r="M13" s="88">
+      <c r="M13" s="92">
         <v>45708</v>
       </c>
       <c r="N13" s="65" t="s">
@@ -2409,10 +2439,10 @@
         <v>5</v>
       </c>
       <c r="R13"/>
-      <c r="S13" s="79" t="s">
+      <c r="S13" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="80"/>
+      <c r="T13" s="84"/>
       <c r="U13" s="19" t="s">
         <v>14</v>
       </c>
@@ -2425,7 +2455,7 @@
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="74"/>
+      <c r="C14" s="81"/>
       <c r="D14" s="43" t="s">
         <v>22</v>
       </c>
@@ -2435,7 +2465,7 @@
       <c r="G14" s="3">
         <v>42</v>
       </c>
-      <c r="H14" s="76">
+      <c r="H14" s="73">
         <v>45664</v>
       </c>
       <c r="I14" s="61" t="s">
@@ -2447,7 +2477,7 @@
       <c r="L14" s="3">
         <v>76</v>
       </c>
-      <c r="M14" s="88"/>
+      <c r="M14" s="92"/>
       <c r="N14" s="65" t="s">
         <v>91</v>
       </c>
@@ -2455,13 +2485,13 @@
         <v>5</v>
       </c>
       <c r="R14"/>
-      <c r="S14" s="81" t="s">
+      <c r="S14" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="82"/>
+      <c r="T14" s="86"/>
       <c r="U14" s="33">
-        <f>E41+J41+O41</f>
-        <v>510</v>
+        <f>E41+J41+O42</f>
+        <v>515</v>
       </c>
       <c r="V14" s="16"/>
       <c r="W14"/>
@@ -2470,7 +2500,7 @@
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="74"/>
+      <c r="C15" s="81"/>
       <c r="D15" s="43" t="s">
         <v>23</v>
       </c>
@@ -2480,7 +2510,7 @@
       <c r="G15" s="3">
         <v>43</v>
       </c>
-      <c r="H15" s="91"/>
+      <c r="H15" s="77"/>
       <c r="I15" s="61" t="s">
         <v>59</v>
       </c>
@@ -2490,7 +2520,7 @@
       <c r="L15" s="3">
         <v>77</v>
       </c>
-      <c r="M15" s="88"/>
+      <c r="M15" s="92"/>
       <c r="N15" s="65" t="s">
         <v>92</v>
       </c>
@@ -2498,10 +2528,10 @@
         <v>5</v>
       </c>
       <c r="R15"/>
-      <c r="S15" s="81" t="s">
+      <c r="S15" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="T15" s="82"/>
+      <c r="T15" s="86"/>
       <c r="U15" s="34">
         <f>U11</f>
         <v>330</v>
@@ -2513,7 +2543,7 @@
       <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="81"/>
       <c r="D16" s="43" t="s">
         <v>24</v>
       </c>
@@ -2523,7 +2553,7 @@
       <c r="G16" s="3">
         <v>44</v>
       </c>
-      <c r="H16" s="76">
+      <c r="H16" s="73">
         <v>45665</v>
       </c>
       <c r="I16" s="61" t="s">
@@ -2545,13 +2575,13 @@
         <v>5</v>
       </c>
       <c r="R16"/>
-      <c r="S16" s="83" t="s">
+      <c r="S16" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="84"/>
+      <c r="T16" s="88"/>
       <c r="U16" s="35">
         <f>SUM(U14:U15)</f>
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="V16" s="18"/>
       <c r="W16"/>
@@ -2560,7 +2590,7 @@
       <c r="B17" s="3">
         <v>11</v>
       </c>
-      <c r="C17" s="74"/>
+      <c r="C17" s="81"/>
       <c r="D17" s="43" t="s">
         <v>25</v>
       </c>
@@ -2570,7 +2600,7 @@
       <c r="G17" s="3">
         <v>45</v>
       </c>
-      <c r="H17" s="91"/>
+      <c r="H17" s="77"/>
       <c r="I17" s="61" t="s">
         <v>61</v>
       </c>
@@ -2596,7 +2626,7 @@
       <c r="B18" s="3">
         <v>12</v>
       </c>
-      <c r="C18" s="74"/>
+      <c r="C18" s="81"/>
       <c r="D18" s="43" t="s">
         <v>26</v>
       </c>
@@ -2635,7 +2665,7 @@
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="74"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="43" t="s">
         <v>27</v>
       </c>
@@ -2657,7 +2687,7 @@
       <c r="L19" s="26">
         <v>81</v>
       </c>
-      <c r="M19" s="88">
+      <c r="M19" s="92">
         <v>45721</v>
       </c>
       <c r="N19" s="65" t="s">
@@ -2673,7 +2703,7 @@
       <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="74"/>
+      <c r="C20" s="81"/>
       <c r="D20" s="44" t="s">
         <v>28</v>
       </c>
@@ -2683,7 +2713,7 @@
       <c r="G20" s="3">
         <v>48</v>
       </c>
-      <c r="H20" s="90">
+      <c r="H20" s="78">
         <v>45670</v>
       </c>
       <c r="I20" s="61" t="s">
@@ -2695,7 +2725,7 @@
       <c r="L20" s="26">
         <v>82</v>
       </c>
-      <c r="M20" s="88"/>
+      <c r="M20" s="92"/>
       <c r="N20" s="65" t="s">
         <v>97</v>
       </c>
@@ -2709,7 +2739,7 @@
       <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="74"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="44" t="s">
         <v>29</v>
       </c>
@@ -2719,7 +2749,7 @@
       <c r="G21" s="3">
         <v>49</v>
       </c>
-      <c r="H21" s="90"/>
+      <c r="H21" s="78"/>
       <c r="I21" s="63" t="s">
         <v>64</v>
       </c>
@@ -2729,7 +2759,7 @@
       <c r="L21" s="26">
         <v>83</v>
       </c>
-      <c r="M21" s="88"/>
+      <c r="M21" s="92"/>
       <c r="N21" s="27" t="s">
         <v>98</v>
       </c>
@@ -2743,7 +2773,7 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="74"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="44" t="s">
         <v>30</v>
       </c>
@@ -2753,7 +2783,7 @@
       <c r="G22" s="4">
         <v>50</v>
       </c>
-      <c r="H22" s="90"/>
+      <c r="H22" s="78"/>
       <c r="I22" s="63" t="s">
         <v>65</v>
       </c>
@@ -2779,7 +2809,7 @@
       <c r="B23" s="3">
         <v>17</v>
       </c>
-      <c r="C23" s="74"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="44" t="s">
         <v>31</v>
       </c>
@@ -2818,7 +2848,7 @@
       <c r="B24" s="3">
         <v>18</v>
       </c>
-      <c r="C24" s="74"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="44" t="s">
         <v>32</v>
       </c>
@@ -2828,7 +2858,7 @@
       <c r="G24" s="3">
         <v>52</v>
       </c>
-      <c r="H24" s="90">
+      <c r="H24" s="78">
         <v>45673</v>
       </c>
       <c r="I24" s="63" t="s">
@@ -2856,7 +2886,7 @@
       <c r="B25" s="3">
         <v>19</v>
       </c>
-      <c r="C25" s="74"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="44" t="s">
         <v>33</v>
       </c>
@@ -2866,7 +2896,7 @@
       <c r="G25" s="3">
         <v>53</v>
       </c>
-      <c r="H25" s="90"/>
+      <c r="H25" s="78"/>
       <c r="I25" s="63" t="s">
         <v>69</v>
       </c>
@@ -2892,7 +2922,7 @@
       <c r="B26" s="3">
         <v>20</v>
       </c>
-      <c r="C26" s="74"/>
+      <c r="C26" s="81"/>
       <c r="D26" s="43" t="s">
         <v>34</v>
       </c>
@@ -2902,7 +2932,7 @@
       <c r="G26" s="3">
         <v>54</v>
       </c>
-      <c r="H26" s="90"/>
+      <c r="H26" s="78"/>
       <c r="I26" s="63" t="s">
         <v>70</v>
       </c>
@@ -2928,7 +2958,7 @@
       <c r="B27" s="3">
         <v>21</v>
       </c>
-      <c r="C27" s="75"/>
+      <c r="C27" s="82"/>
       <c r="D27" s="43" t="s">
         <v>35</v>
       </c>
@@ -2966,7 +2996,7 @@
       <c r="B28" s="3">
         <v>22</v>
       </c>
-      <c r="C28" s="76">
+      <c r="C28" s="73">
         <v>45659</v>
       </c>
       <c r="D28" s="43" t="s">
@@ -3006,7 +3036,7 @@
       <c r="B29" s="5">
         <v>23</v>
       </c>
-      <c r="C29" s="77"/>
+      <c r="C29" s="74"/>
       <c r="D29" s="46" t="s">
         <v>37</v>
       </c>
@@ -3044,7 +3074,7 @@
       <c r="B30" s="3">
         <v>24</v>
       </c>
-      <c r="C30" s="77"/>
+      <c r="C30" s="74"/>
       <c r="D30" s="46" t="s">
         <v>38</v>
       </c>
@@ -3066,7 +3096,7 @@
       <c r="L30" s="26">
         <v>92</v>
       </c>
-      <c r="M30" s="70">
+      <c r="M30" s="71">
         <v>45793</v>
       </c>
       <c r="N30" s="65" t="s">
@@ -3082,7 +3112,7 @@
       <c r="B31" s="3">
         <v>25</v>
       </c>
-      <c r="C31" s="77"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="46" t="s">
         <v>39</v>
       </c>
@@ -3104,7 +3134,7 @@
       <c r="L31" s="26">
         <v>93</v>
       </c>
-      <c r="M31" s="71"/>
+      <c r="M31" s="72"/>
       <c r="N31" s="65" t="s">
         <v>110</v>
       </c>
@@ -3118,7 +3148,7 @@
       <c r="B32" s="3">
         <v>26</v>
       </c>
-      <c r="C32" s="78"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="46" t="s">
         <v>40</v>
       </c>
@@ -3156,7 +3186,7 @@
       <c r="B33" s="3">
         <v>27</v>
       </c>
-      <c r="C33" s="76">
+      <c r="C33" s="73">
         <v>45660</v>
       </c>
       <c r="D33" s="43" t="s">
@@ -3196,7 +3226,7 @@
       <c r="B34" s="3">
         <v>28</v>
       </c>
-      <c r="C34" s="77"/>
+      <c r="C34" s="74"/>
       <c r="D34" s="46" t="s">
         <v>42</v>
       </c>
@@ -3234,7 +3264,7 @@
       <c r="B35" s="3">
         <v>29</v>
       </c>
-      <c r="C35" s="77"/>
+      <c r="C35" s="74"/>
       <c r="D35" s="46" t="s">
         <v>43</v>
       </c>
@@ -3273,7 +3303,7 @@
       <c r="B36" s="6">
         <v>30</v>
       </c>
-      <c r="C36" s="77"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="46" t="s">
         <v>44</v>
       </c>
@@ -3295,7 +3325,7 @@
       <c r="L36" s="26">
         <v>98</v>
       </c>
-      <c r="M36" s="70">
+      <c r="M36" s="71">
         <v>45806</v>
       </c>
       <c r="N36" s="65" t="s">
@@ -3311,7 +3341,7 @@
       <c r="B37" s="3">
         <v>31</v>
       </c>
-      <c r="C37" s="77"/>
+      <c r="C37" s="74"/>
       <c r="D37" s="63" t="s">
         <v>118</v>
       </c>
@@ -3321,7 +3351,7 @@
       <c r="G37" s="3">
         <v>65</v>
       </c>
-      <c r="H37" s="70">
+      <c r="H37" s="71">
         <v>45689</v>
       </c>
       <c r="I37" s="65" t="s">
@@ -3333,7 +3363,7 @@
       <c r="L37" s="26">
         <v>99</v>
       </c>
-      <c r="M37" s="71"/>
+      <c r="M37" s="72"/>
       <c r="N37" s="65" t="s">
         <v>116</v>
       </c>
@@ -3347,7 +3377,7 @@
       <c r="B38" s="3">
         <v>32</v>
       </c>
-      <c r="C38" s="77"/>
+      <c r="C38" s="74"/>
       <c r="D38" s="50" t="s">
         <v>45</v>
       </c>
@@ -3357,7 +3387,7 @@
       <c r="G38" s="3">
         <v>66</v>
       </c>
-      <c r="H38" s="71"/>
+      <c r="H38" s="72"/>
       <c r="I38" s="65" t="s">
         <v>104</v>
       </c>
@@ -3381,7 +3411,7 @@
       <c r="B39" s="3">
         <v>33</v>
       </c>
-      <c r="C39" s="77"/>
+      <c r="C39" s="74"/>
       <c r="D39" s="50" t="s">
         <v>46</v>
       </c>
@@ -3392,7 +3422,7 @@
       <c r="G39" s="3">
         <v>67</v>
       </c>
-      <c r="H39" s="70">
+      <c r="H39" s="71">
         <v>45691</v>
       </c>
       <c r="I39" s="65" t="s">
@@ -3419,7 +3449,7 @@
       <c r="B40" s="3">
         <v>34</v>
       </c>
-      <c r="C40" s="89"/>
+      <c r="C40" s="75"/>
       <c r="D40" s="50" t="s">
         <v>47</v>
       </c>
@@ -3429,7 +3459,7 @@
       <c r="G40" s="3">
         <v>68</v>
       </c>
-      <c r="H40" s="71"/>
+      <c r="H40" s="72"/>
       <c r="I40" s="65" t="s">
         <v>83</v>
       </c>
@@ -3464,18 +3494,31 @@
         <f>SUM(J7:J40)</f>
         <v>166</v>
       </c>
-      <c r="L41" s="26"/>
-      <c r="M41" s="22" t="s">
+      <c r="L41" s="26">
+        <v>103</v>
+      </c>
+      <c r="M41" s="93">
+        <v>45839</v>
+      </c>
+      <c r="N41" s="94" t="s">
+        <v>121</v>
+      </c>
+      <c r="O41" s="95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L42" s="26"/>
+      <c r="M42" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="N41" s="24"/>
-      <c r="O41" s="25">
-        <f>SUM(O7:O40)</f>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:23" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="N42" s="24"/>
+      <c r="O42" s="25">
+        <f>SUM(O7:O41)</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C43" s="30" t="s">
         <v>5</v>
       </c>
@@ -3493,13 +3536,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="C33:C40"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H20:H22"/>
     <mergeCell ref="M36:M37"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="C9:C27"/>
@@ -3509,12 +3545,19 @@
     <mergeCell ref="S15:T15"/>
     <mergeCell ref="S16:T16"/>
     <mergeCell ref="S6:V6"/>
-    <mergeCell ref="H39:H40"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="M13:M15"/>
     <mergeCell ref="M19:M21"/>
     <mergeCell ref="M30:M31"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="C33:C40"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="H39:H40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033BEE3C-D63C-4ECB-BFD4-3906B209BB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DBE00E-799C-4115-B07D-881FB29E0BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65989A62-DD22-4017-B1F4-9BE3BB514C20}"/>
+    <workbookView xWindow="4590" yWindow="1710" windowWidth="22725" windowHeight="13245" xr2:uid="{65989A62-DD22-4017-B1F4-9BE3BB514C20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="123">
   <si>
     <t>일   자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -522,6 +522,10 @@
   </si>
   <si>
     <t>김경집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성기천</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1624,40 +1628,40 @@
     <xf numFmtId="176" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1690,13 +1694,13 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2022,8 +2026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC16636-847A-47F1-BA3B-A88365FF7E52}">
   <dimension ref="B1:X44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T40" sqref="T40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="V46" sqref="V46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2062,20 +2066,20 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
     </row>
     <row r="3" spans="2:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:23" ht="20.25" x14ac:dyDescent="0.3">
@@ -2238,7 +2242,7 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="80">
+      <c r="C9" s="77">
         <v>45658</v>
       </c>
       <c r="D9" s="42" t="s">
@@ -2286,7 +2290,7 @@
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="81"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="43" t="s">
         <v>18</v>
       </c>
@@ -2328,7 +2332,7 @@
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="81"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="43" t="s">
         <v>19</v>
       </c>
@@ -2338,7 +2342,7 @@
       <c r="G11" s="5">
         <v>39</v>
       </c>
-      <c r="H11" s="73">
+      <c r="H11" s="80">
         <v>45663</v>
       </c>
       <c r="I11" s="46" t="s">
@@ -2373,7 +2377,7 @@
       <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="81"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="43" t="s">
         <v>20</v>
       </c>
@@ -2383,7 +2387,7 @@
       <c r="G12" s="3">
         <v>40</v>
       </c>
-      <c r="H12" s="74"/>
+      <c r="H12" s="81"/>
       <c r="I12" s="46" t="s">
         <v>53</v>
       </c>
@@ -2409,7 +2413,7 @@
       <c r="B13" s="5">
         <v>7</v>
       </c>
-      <c r="C13" s="81"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="43" t="s">
         <v>21</v>
       </c>
@@ -2419,7 +2423,7 @@
       <c r="G13" s="3">
         <v>41</v>
       </c>
-      <c r="H13" s="76"/>
+      <c r="H13" s="82"/>
       <c r="I13" s="46" t="s">
         <v>54</v>
       </c>
@@ -2455,7 +2459,7 @@
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="81"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="43" t="s">
         <v>22</v>
       </c>
@@ -2465,7 +2469,7 @@
       <c r="G14" s="3">
         <v>42</v>
       </c>
-      <c r="H14" s="73">
+      <c r="H14" s="80">
         <v>45664</v>
       </c>
       <c r="I14" s="61" t="s">
@@ -2490,8 +2494,8 @@
       </c>
       <c r="T14" s="86"/>
       <c r="U14" s="33">
-        <f>E41+J41+O42</f>
-        <v>515</v>
+        <f>E41+J41+O43</f>
+        <v>520</v>
       </c>
       <c r="V14" s="16"/>
       <c r="W14"/>
@@ -2500,7 +2504,7 @@
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="81"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="43" t="s">
         <v>23</v>
       </c>
@@ -2510,7 +2514,7 @@
       <c r="G15" s="3">
         <v>43</v>
       </c>
-      <c r="H15" s="77"/>
+      <c r="H15" s="94"/>
       <c r="I15" s="61" t="s">
         <v>59</v>
       </c>
@@ -2543,7 +2547,7 @@
       <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="81"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="43" t="s">
         <v>24</v>
       </c>
@@ -2553,7 +2557,7 @@
       <c r="G16" s="3">
         <v>44</v>
       </c>
-      <c r="H16" s="73">
+      <c r="H16" s="80">
         <v>45665</v>
       </c>
       <c r="I16" s="61" t="s">
@@ -2581,7 +2585,7 @@
       <c r="T16" s="88"/>
       <c r="U16" s="35">
         <f>SUM(U14:U15)</f>
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="V16" s="18"/>
       <c r="W16"/>
@@ -2590,7 +2594,7 @@
       <c r="B17" s="3">
         <v>11</v>
       </c>
-      <c r="C17" s="81"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="43" t="s">
         <v>25</v>
       </c>
@@ -2600,7 +2604,7 @@
       <c r="G17" s="3">
         <v>45</v>
       </c>
-      <c r="H17" s="77"/>
+      <c r="H17" s="94"/>
       <c r="I17" s="61" t="s">
         <v>61</v>
       </c>
@@ -2626,7 +2630,7 @@
       <c r="B18" s="3">
         <v>12</v>
       </c>
-      <c r="C18" s="81"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="43" t="s">
         <v>26</v>
       </c>
@@ -2665,7 +2669,7 @@
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="81"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="43" t="s">
         <v>27</v>
       </c>
@@ -2703,7 +2707,7 @@
       <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="81"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="44" t="s">
         <v>28</v>
       </c>
@@ -2713,7 +2717,7 @@
       <c r="G20" s="3">
         <v>48</v>
       </c>
-      <c r="H20" s="78">
+      <c r="H20" s="95">
         <v>45670</v>
       </c>
       <c r="I20" s="61" t="s">
@@ -2739,7 +2743,7 @@
       <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="81"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="44" t="s">
         <v>29</v>
       </c>
@@ -2749,7 +2753,7 @@
       <c r="G21" s="3">
         <v>49</v>
       </c>
-      <c r="H21" s="78"/>
+      <c r="H21" s="95"/>
       <c r="I21" s="63" t="s">
         <v>64</v>
       </c>
@@ -2773,7 +2777,7 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="81"/>
+      <c r="C22" s="78"/>
       <c r="D22" s="44" t="s">
         <v>30</v>
       </c>
@@ -2783,7 +2787,7 @@
       <c r="G22" s="4">
         <v>50</v>
       </c>
-      <c r="H22" s="78"/>
+      <c r="H22" s="95"/>
       <c r="I22" s="63" t="s">
         <v>65</v>
       </c>
@@ -2809,7 +2813,7 @@
       <c r="B23" s="3">
         <v>17</v>
       </c>
-      <c r="C23" s="81"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="44" t="s">
         <v>31</v>
       </c>
@@ -2848,7 +2852,7 @@
       <c r="B24" s="3">
         <v>18</v>
       </c>
-      <c r="C24" s="81"/>
+      <c r="C24" s="78"/>
       <c r="D24" s="44" t="s">
         <v>32</v>
       </c>
@@ -2858,7 +2862,7 @@
       <c r="G24" s="3">
         <v>52</v>
       </c>
-      <c r="H24" s="78">
+      <c r="H24" s="95">
         <v>45673</v>
       </c>
       <c r="I24" s="63" t="s">
@@ -2886,7 +2890,7 @@
       <c r="B25" s="3">
         <v>19</v>
       </c>
-      <c r="C25" s="81"/>
+      <c r="C25" s="78"/>
       <c r="D25" s="44" t="s">
         <v>33</v>
       </c>
@@ -2896,7 +2900,7 @@
       <c r="G25" s="3">
         <v>53</v>
       </c>
-      <c r="H25" s="78"/>
+      <c r="H25" s="95"/>
       <c r="I25" s="63" t="s">
         <v>69</v>
       </c>
@@ -2922,7 +2926,7 @@
       <c r="B26" s="3">
         <v>20</v>
       </c>
-      <c r="C26" s="81"/>
+      <c r="C26" s="78"/>
       <c r="D26" s="43" t="s">
         <v>34</v>
       </c>
@@ -2932,7 +2936,7 @@
       <c r="G26" s="3">
         <v>54</v>
       </c>
-      <c r="H26" s="78"/>
+      <c r="H26" s="95"/>
       <c r="I26" s="63" t="s">
         <v>70</v>
       </c>
@@ -2958,7 +2962,7 @@
       <c r="B27" s="3">
         <v>21</v>
       </c>
-      <c r="C27" s="82"/>
+      <c r="C27" s="79"/>
       <c r="D27" s="43" t="s">
         <v>35</v>
       </c>
@@ -2996,7 +3000,7 @@
       <c r="B28" s="3">
         <v>22</v>
       </c>
-      <c r="C28" s="73">
+      <c r="C28" s="80">
         <v>45659</v>
       </c>
       <c r="D28" s="43" t="s">
@@ -3036,7 +3040,7 @@
       <c r="B29" s="5">
         <v>23</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="81"/>
       <c r="D29" s="46" t="s">
         <v>37</v>
       </c>
@@ -3074,7 +3078,7 @@
       <c r="B30" s="3">
         <v>24</v>
       </c>
-      <c r="C30" s="74"/>
+      <c r="C30" s="81"/>
       <c r="D30" s="46" t="s">
         <v>38</v>
       </c>
@@ -3096,7 +3100,7 @@
       <c r="L30" s="26">
         <v>92</v>
       </c>
-      <c r="M30" s="71">
+      <c r="M30" s="74">
         <v>45793</v>
       </c>
       <c r="N30" s="65" t="s">
@@ -3112,7 +3116,7 @@
       <c r="B31" s="3">
         <v>25</v>
       </c>
-      <c r="C31" s="74"/>
+      <c r="C31" s="81"/>
       <c r="D31" s="46" t="s">
         <v>39</v>
       </c>
@@ -3134,7 +3138,7 @@
       <c r="L31" s="26">
         <v>93</v>
       </c>
-      <c r="M31" s="72"/>
+      <c r="M31" s="75"/>
       <c r="N31" s="65" t="s">
         <v>110</v>
       </c>
@@ -3148,7 +3152,7 @@
       <c r="B32" s="3">
         <v>26</v>
       </c>
-      <c r="C32" s="76"/>
+      <c r="C32" s="82"/>
       <c r="D32" s="46" t="s">
         <v>40</v>
       </c>
@@ -3186,7 +3190,7 @@
       <c r="B33" s="3">
         <v>27</v>
       </c>
-      <c r="C33" s="73">
+      <c r="C33" s="80">
         <v>45660</v>
       </c>
       <c r="D33" s="43" t="s">
@@ -3226,7 +3230,7 @@
       <c r="B34" s="3">
         <v>28</v>
       </c>
-      <c r="C34" s="74"/>
+      <c r="C34" s="81"/>
       <c r="D34" s="46" t="s">
         <v>42</v>
       </c>
@@ -3264,7 +3268,7 @@
       <c r="B35" s="3">
         <v>29</v>
       </c>
-      <c r="C35" s="74"/>
+      <c r="C35" s="81"/>
       <c r="D35" s="46" t="s">
         <v>43</v>
       </c>
@@ -3303,7 +3307,7 @@
       <c r="B36" s="6">
         <v>30</v>
       </c>
-      <c r="C36" s="74"/>
+      <c r="C36" s="81"/>
       <c r="D36" s="46" t="s">
         <v>44</v>
       </c>
@@ -3325,7 +3329,7 @@
       <c r="L36" s="26">
         <v>98</v>
       </c>
-      <c r="M36" s="71">
+      <c r="M36" s="74">
         <v>45806</v>
       </c>
       <c r="N36" s="65" t="s">
@@ -3341,7 +3345,7 @@
       <c r="B37" s="3">
         <v>31</v>
       </c>
-      <c r="C37" s="74"/>
+      <c r="C37" s="81"/>
       <c r="D37" s="63" t="s">
         <v>118</v>
       </c>
@@ -3351,7 +3355,7 @@
       <c r="G37" s="3">
         <v>65</v>
       </c>
-      <c r="H37" s="71">
+      <c r="H37" s="74">
         <v>45689</v>
       </c>
       <c r="I37" s="65" t="s">
@@ -3363,7 +3367,7 @@
       <c r="L37" s="26">
         <v>99</v>
       </c>
-      <c r="M37" s="72"/>
+      <c r="M37" s="75"/>
       <c r="N37" s="65" t="s">
         <v>116</v>
       </c>
@@ -3377,7 +3381,7 @@
       <c r="B38" s="3">
         <v>32</v>
       </c>
-      <c r="C38" s="74"/>
+      <c r="C38" s="81"/>
       <c r="D38" s="50" t="s">
         <v>45</v>
       </c>
@@ -3387,7 +3391,7 @@
       <c r="G38" s="3">
         <v>66</v>
       </c>
-      <c r="H38" s="72"/>
+      <c r="H38" s="75"/>
       <c r="I38" s="65" t="s">
         <v>104</v>
       </c>
@@ -3411,7 +3415,7 @@
       <c r="B39" s="3">
         <v>33</v>
       </c>
-      <c r="C39" s="74"/>
+      <c r="C39" s="81"/>
       <c r="D39" s="50" t="s">
         <v>46</v>
       </c>
@@ -3422,7 +3426,7 @@
       <c r="G39" s="3">
         <v>67</v>
       </c>
-      <c r="H39" s="71">
+      <c r="H39" s="74">
         <v>45691</v>
       </c>
       <c r="I39" s="65" t="s">
@@ -3449,7 +3453,7 @@
       <c r="B40" s="3">
         <v>34</v>
       </c>
-      <c r="C40" s="75"/>
+      <c r="C40" s="93"/>
       <c r="D40" s="50" t="s">
         <v>47</v>
       </c>
@@ -3459,7 +3463,7 @@
       <c r="G40" s="3">
         <v>68</v>
       </c>
-      <c r="H40" s="72"/>
+      <c r="H40" s="75"/>
       <c r="I40" s="65" t="s">
         <v>83</v>
       </c>
@@ -3497,28 +3501,31 @@
       <c r="L41" s="26">
         <v>103</v>
       </c>
-      <c r="M41" s="93">
+      <c r="M41" s="29">
         <v>45839</v>
       </c>
-      <c r="N41" s="94" t="s">
+      <c r="N41" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="O41" s="95">
+      <c r="O41" s="28">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="2:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L42" s="26"/>
-      <c r="M42" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="N42" s="24"/>
-      <c r="O42" s="25">
-        <f>SUM(O7:O41)</f>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="L42" s="4">
+        <v>104</v>
+      </c>
+      <c r="M42" s="71">
+        <v>45846</v>
+      </c>
+      <c r="N42" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="O42" s="73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C43" s="30" t="s">
         <v>5</v>
       </c>
@@ -3528,14 +3535,29 @@
       <c r="H43" s="30"/>
       <c r="I43" s="30"/>
       <c r="J43" s="30"/>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="L43" s="26"/>
+      <c r="M43" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="N43" s="24"/>
+      <c r="O43" s="25">
+        <f>SUM(O7:O42)</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C44" s="15" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H20:H22"/>
     <mergeCell ref="M36:M37"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="C9:C27"/>
@@ -3552,12 +3574,6 @@
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="C33:C40"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="H39:H40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DBE00E-799C-4115-B07D-881FB29E0BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1B2E6A-8937-44A2-99D6-9B24A8FE0DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4590" yWindow="1710" windowWidth="22725" windowHeight="13245" xr2:uid="{65989A62-DD22-4017-B1F4-9BE3BB514C20}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="124">
   <si>
     <t>일   자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -526,6 +526,10 @@
   </si>
   <si>
     <t>성기천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김영석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1643,6 +1647,21 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1653,15 +1672,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1695,12 +1705,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2024,10 +2028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC16636-847A-47F1-BA3B-A88365FF7E52}">
-  <dimension ref="B1:X44"/>
+  <dimension ref="B1:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="V46" sqref="V46"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2066,20 +2070,20 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
     </row>
     <row r="3" spans="2:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:23" ht="20.25" x14ac:dyDescent="0.3">
@@ -2126,12 +2130,12 @@
         <v>9</v>
       </c>
       <c r="R6"/>
-      <c r="S6" s="89" t="s">
+      <c r="S6" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="91"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="93"/>
       <c r="W6"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
@@ -2214,7 +2218,7 @@
       <c r="L8" s="3">
         <v>70</v>
       </c>
-      <c r="M8" s="92">
+      <c r="M8" s="94">
         <v>45700</v>
       </c>
       <c r="N8" s="65" t="s">
@@ -2242,7 +2246,7 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="77">
+      <c r="C9" s="82">
         <v>45658</v>
       </c>
       <c r="D9" s="42" t="s">
@@ -2264,7 +2268,7 @@
       <c r="L9" s="3">
         <v>71</v>
       </c>
-      <c r="M9" s="92"/>
+      <c r="M9" s="94"/>
       <c r="N9" s="65" t="s">
         <v>100</v>
       </c>
@@ -2290,7 +2294,7 @@
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="78"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="43" t="s">
         <v>18</v>
       </c>
@@ -2312,7 +2316,7 @@
       <c r="L10" s="3">
         <v>72</v>
       </c>
-      <c r="M10" s="92">
+      <c r="M10" s="94">
         <v>45701</v>
       </c>
       <c r="N10" s="65" t="s">
@@ -2332,7 +2336,7 @@
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="78"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="43" t="s">
         <v>19</v>
       </c>
@@ -2342,7 +2346,7 @@
       <c r="G11" s="5">
         <v>39</v>
       </c>
-      <c r="H11" s="80">
+      <c r="H11" s="76">
         <v>45663</v>
       </c>
       <c r="I11" s="46" t="s">
@@ -2354,7 +2358,7 @@
       <c r="L11" s="3">
         <v>73</v>
       </c>
-      <c r="M11" s="92"/>
+      <c r="M11" s="94"/>
       <c r="N11" s="65" t="s">
         <v>88</v>
       </c>
@@ -2377,7 +2381,7 @@
       <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="78"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="43" t="s">
         <v>20</v>
       </c>
@@ -2387,7 +2391,7 @@
       <c r="G12" s="3">
         <v>40</v>
       </c>
-      <c r="H12" s="81"/>
+      <c r="H12" s="77"/>
       <c r="I12" s="46" t="s">
         <v>53</v>
       </c>
@@ -2413,7 +2417,7 @@
       <c r="B13" s="5">
         <v>7</v>
       </c>
-      <c r="C13" s="78"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="43" t="s">
         <v>21</v>
       </c>
@@ -2423,7 +2427,7 @@
       <c r="G13" s="3">
         <v>41</v>
       </c>
-      <c r="H13" s="82"/>
+      <c r="H13" s="78"/>
       <c r="I13" s="46" t="s">
         <v>54</v>
       </c>
@@ -2433,7 +2437,7 @@
       <c r="L13" s="3">
         <v>75</v>
       </c>
-      <c r="M13" s="92">
+      <c r="M13" s="94">
         <v>45708</v>
       </c>
       <c r="N13" s="65" t="s">
@@ -2443,10 +2447,10 @@
         <v>5</v>
       </c>
       <c r="R13"/>
-      <c r="S13" s="83" t="s">
+      <c r="S13" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="84"/>
+      <c r="T13" s="86"/>
       <c r="U13" s="19" t="s">
         <v>14</v>
       </c>
@@ -2459,7 +2463,7 @@
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="78"/>
+      <c r="C14" s="83"/>
       <c r="D14" s="43" t="s">
         <v>22</v>
       </c>
@@ -2469,7 +2473,7 @@
       <c r="G14" s="3">
         <v>42</v>
       </c>
-      <c r="H14" s="80">
+      <c r="H14" s="76">
         <v>45664</v>
       </c>
       <c r="I14" s="61" t="s">
@@ -2481,7 +2485,7 @@
       <c r="L14" s="3">
         <v>76</v>
       </c>
-      <c r="M14" s="92"/>
+      <c r="M14" s="94"/>
       <c r="N14" s="65" t="s">
         <v>91</v>
       </c>
@@ -2489,13 +2493,13 @@
         <v>5</v>
       </c>
       <c r="R14"/>
-      <c r="S14" s="85" t="s">
+      <c r="S14" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="86"/>
+      <c r="T14" s="88"/>
       <c r="U14" s="33">
-        <f>E41+J41+O43</f>
-        <v>520</v>
+        <f>E41+J41+O44</f>
+        <v>523</v>
       </c>
       <c r="V14" s="16"/>
       <c r="W14"/>
@@ -2504,7 +2508,7 @@
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="78"/>
+      <c r="C15" s="83"/>
       <c r="D15" s="43" t="s">
         <v>23</v>
       </c>
@@ -2514,7 +2518,7 @@
       <c r="G15" s="3">
         <v>43</v>
       </c>
-      <c r="H15" s="94"/>
+      <c r="H15" s="79"/>
       <c r="I15" s="61" t="s">
         <v>59</v>
       </c>
@@ -2524,7 +2528,7 @@
       <c r="L15" s="3">
         <v>77</v>
       </c>
-      <c r="M15" s="92"/>
+      <c r="M15" s="94"/>
       <c r="N15" s="65" t="s">
         <v>92</v>
       </c>
@@ -2532,10 +2536,10 @@
         <v>5</v>
       </c>
       <c r="R15"/>
-      <c r="S15" s="85" t="s">
+      <c r="S15" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="T15" s="86"/>
+      <c r="T15" s="88"/>
       <c r="U15" s="34">
         <f>U11</f>
         <v>330</v>
@@ -2547,7 +2551,7 @@
       <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="78"/>
+      <c r="C16" s="83"/>
       <c r="D16" s="43" t="s">
         <v>24</v>
       </c>
@@ -2557,7 +2561,7 @@
       <c r="G16" s="3">
         <v>44</v>
       </c>
-      <c r="H16" s="80">
+      <c r="H16" s="76">
         <v>45665</v>
       </c>
       <c r="I16" s="61" t="s">
@@ -2579,13 +2583,13 @@
         <v>5</v>
       </c>
       <c r="R16"/>
-      <c r="S16" s="87" t="s">
+      <c r="S16" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="88"/>
+      <c r="T16" s="90"/>
       <c r="U16" s="35">
         <f>SUM(U14:U15)</f>
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="V16" s="18"/>
       <c r="W16"/>
@@ -2594,7 +2598,7 @@
       <c r="B17" s="3">
         <v>11</v>
       </c>
-      <c r="C17" s="78"/>
+      <c r="C17" s="83"/>
       <c r="D17" s="43" t="s">
         <v>25</v>
       </c>
@@ -2604,7 +2608,7 @@
       <c r="G17" s="3">
         <v>45</v>
       </c>
-      <c r="H17" s="94"/>
+      <c r="H17" s="79"/>
       <c r="I17" s="61" t="s">
         <v>61</v>
       </c>
@@ -2630,7 +2634,7 @@
       <c r="B18" s="3">
         <v>12</v>
       </c>
-      <c r="C18" s="78"/>
+      <c r="C18" s="83"/>
       <c r="D18" s="43" t="s">
         <v>26</v>
       </c>
@@ -2669,7 +2673,7 @@
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="78"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="43" t="s">
         <v>27</v>
       </c>
@@ -2691,7 +2695,7 @@
       <c r="L19" s="26">
         <v>81</v>
       </c>
-      <c r="M19" s="92">
+      <c r="M19" s="94">
         <v>45721</v>
       </c>
       <c r="N19" s="65" t="s">
@@ -2707,7 +2711,7 @@
       <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="78"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="44" t="s">
         <v>28</v>
       </c>
@@ -2717,7 +2721,7 @@
       <c r="G20" s="3">
         <v>48</v>
       </c>
-      <c r="H20" s="95">
+      <c r="H20" s="80">
         <v>45670</v>
       </c>
       <c r="I20" s="61" t="s">
@@ -2729,7 +2733,7 @@
       <c r="L20" s="26">
         <v>82</v>
       </c>
-      <c r="M20" s="92"/>
+      <c r="M20" s="94"/>
       <c r="N20" s="65" t="s">
         <v>97</v>
       </c>
@@ -2743,7 +2747,7 @@
       <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="78"/>
+      <c r="C21" s="83"/>
       <c r="D21" s="44" t="s">
         <v>29</v>
       </c>
@@ -2753,7 +2757,7 @@
       <c r="G21" s="3">
         <v>49</v>
       </c>
-      <c r="H21" s="95"/>
+      <c r="H21" s="80"/>
       <c r="I21" s="63" t="s">
         <v>64</v>
       </c>
@@ -2763,7 +2767,7 @@
       <c r="L21" s="26">
         <v>83</v>
       </c>
-      <c r="M21" s="92"/>
+      <c r="M21" s="94"/>
       <c r="N21" s="27" t="s">
         <v>98</v>
       </c>
@@ -2777,7 +2781,7 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="78"/>
+      <c r="C22" s="83"/>
       <c r="D22" s="44" t="s">
         <v>30</v>
       </c>
@@ -2787,7 +2791,7 @@
       <c r="G22" s="4">
         <v>50</v>
       </c>
-      <c r="H22" s="95"/>
+      <c r="H22" s="80"/>
       <c r="I22" s="63" t="s">
         <v>65</v>
       </c>
@@ -2813,7 +2817,7 @@
       <c r="B23" s="3">
         <v>17</v>
       </c>
-      <c r="C23" s="78"/>
+      <c r="C23" s="83"/>
       <c r="D23" s="44" t="s">
         <v>31</v>
       </c>
@@ -2852,7 +2856,7 @@
       <c r="B24" s="3">
         <v>18</v>
       </c>
-      <c r="C24" s="78"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="44" t="s">
         <v>32</v>
       </c>
@@ -2862,7 +2866,7 @@
       <c r="G24" s="3">
         <v>52</v>
       </c>
-      <c r="H24" s="95">
+      <c r="H24" s="80">
         <v>45673</v>
       </c>
       <c r="I24" s="63" t="s">
@@ -2890,7 +2894,7 @@
       <c r="B25" s="3">
         <v>19</v>
       </c>
-      <c r="C25" s="78"/>
+      <c r="C25" s="83"/>
       <c r="D25" s="44" t="s">
         <v>33</v>
       </c>
@@ -2900,7 +2904,7 @@
       <c r="G25" s="3">
         <v>53</v>
       </c>
-      <c r="H25" s="95"/>
+      <c r="H25" s="80"/>
       <c r="I25" s="63" t="s">
         <v>69</v>
       </c>
@@ -2926,7 +2930,7 @@
       <c r="B26" s="3">
         <v>20</v>
       </c>
-      <c r="C26" s="78"/>
+      <c r="C26" s="83"/>
       <c r="D26" s="43" t="s">
         <v>34</v>
       </c>
@@ -2936,7 +2940,7 @@
       <c r="G26" s="3">
         <v>54</v>
       </c>
-      <c r="H26" s="95"/>
+      <c r="H26" s="80"/>
       <c r="I26" s="63" t="s">
         <v>70</v>
       </c>
@@ -2962,7 +2966,7 @@
       <c r="B27" s="3">
         <v>21</v>
       </c>
-      <c r="C27" s="79"/>
+      <c r="C27" s="84"/>
       <c r="D27" s="43" t="s">
         <v>35</v>
       </c>
@@ -3000,7 +3004,7 @@
       <c r="B28" s="3">
         <v>22</v>
       </c>
-      <c r="C28" s="80">
+      <c r="C28" s="76">
         <v>45659</v>
       </c>
       <c r="D28" s="43" t="s">
@@ -3040,7 +3044,7 @@
       <c r="B29" s="5">
         <v>23</v>
       </c>
-      <c r="C29" s="81"/>
+      <c r="C29" s="77"/>
       <c r="D29" s="46" t="s">
         <v>37</v>
       </c>
@@ -3078,7 +3082,7 @@
       <c r="B30" s="3">
         <v>24</v>
       </c>
-      <c r="C30" s="81"/>
+      <c r="C30" s="77"/>
       <c r="D30" s="46" t="s">
         <v>38</v>
       </c>
@@ -3116,7 +3120,7 @@
       <c r="B31" s="3">
         <v>25</v>
       </c>
-      <c r="C31" s="81"/>
+      <c r="C31" s="77"/>
       <c r="D31" s="46" t="s">
         <v>39</v>
       </c>
@@ -3152,7 +3156,7 @@
       <c r="B32" s="3">
         <v>26</v>
       </c>
-      <c r="C32" s="82"/>
+      <c r="C32" s="78"/>
       <c r="D32" s="46" t="s">
         <v>40</v>
       </c>
@@ -3190,7 +3194,7 @@
       <c r="B33" s="3">
         <v>27</v>
       </c>
-      <c r="C33" s="80">
+      <c r="C33" s="76">
         <v>45660</v>
       </c>
       <c r="D33" s="43" t="s">
@@ -3230,7 +3234,7 @@
       <c r="B34" s="3">
         <v>28</v>
       </c>
-      <c r="C34" s="81"/>
+      <c r="C34" s="77"/>
       <c r="D34" s="46" t="s">
         <v>42</v>
       </c>
@@ -3268,7 +3272,7 @@
       <c r="B35" s="3">
         <v>29</v>
       </c>
-      <c r="C35" s="81"/>
+      <c r="C35" s="77"/>
       <c r="D35" s="46" t="s">
         <v>43</v>
       </c>
@@ -3307,7 +3311,7 @@
       <c r="B36" s="6">
         <v>30</v>
       </c>
-      <c r="C36" s="81"/>
+      <c r="C36" s="77"/>
       <c r="D36" s="46" t="s">
         <v>44</v>
       </c>
@@ -3345,7 +3349,7 @@
       <c r="B37" s="3">
         <v>31</v>
       </c>
-      <c r="C37" s="81"/>
+      <c r="C37" s="77"/>
       <c r="D37" s="63" t="s">
         <v>118</v>
       </c>
@@ -3381,7 +3385,7 @@
       <c r="B38" s="3">
         <v>32</v>
       </c>
-      <c r="C38" s="81"/>
+      <c r="C38" s="77"/>
       <c r="D38" s="50" t="s">
         <v>45</v>
       </c>
@@ -3415,7 +3419,7 @@
       <c r="B39" s="3">
         <v>33</v>
       </c>
-      <c r="C39" s="81"/>
+      <c r="C39" s="77"/>
       <c r="D39" s="50" t="s">
         <v>46</v>
       </c>
@@ -3453,7 +3457,7 @@
       <c r="B40" s="3">
         <v>34</v>
       </c>
-      <c r="C40" s="93"/>
+      <c r="C40" s="95"/>
       <c r="D40" s="50" t="s">
         <v>47</v>
       </c>
@@ -3511,7 +3515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="2:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="L42" s="4">
         <v>104</v>
       </c>
@@ -3535,29 +3539,36 @@
       <c r="H43" s="30"/>
       <c r="I43" s="30"/>
       <c r="J43" s="30"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="N43" s="24"/>
-      <c r="O43" s="25">
-        <f>SUM(O7:O42)</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="L43" s="4">
+        <v>105</v>
+      </c>
+      <c r="M43" s="29">
+        <v>45854</v>
+      </c>
+      <c r="N43" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="O43" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C44" s="15" t="s">
         <v>4</v>
       </c>
-    </row>
+      <c r="L44" s="26"/>
+      <c r="M44" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="N44" s="24"/>
+      <c r="O44" s="25">
+        <f>SUM(O7:O43)</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H20:H22"/>
     <mergeCell ref="M36:M37"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="C9:C27"/>
@@ -3574,6 +3585,12 @@
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="C33:C40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H20:H22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1B2E6A-8937-44A2-99D6-9B24A8FE0DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8B4490-6EB2-4EDA-B41B-7FC8F9721AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4590" yWindow="1710" windowWidth="22725" windowHeight="13245" xr2:uid="{65989A62-DD22-4017-B1F4-9BE3BB514C20}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="125">
   <si>
     <t>일   자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,6 +530,10 @@
   </si>
   <si>
     <t>김영석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이원석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1647,6 +1651,18 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1654,24 +1670,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1705,6 +1703,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2028,10 +2032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC16636-847A-47F1-BA3B-A88365FF7E52}">
-  <dimension ref="B1:X45"/>
+  <dimension ref="B1:X46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2070,20 +2074,20 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
     </row>
     <row r="3" spans="2:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:23" ht="20.25" x14ac:dyDescent="0.3">
@@ -2130,12 +2134,12 @@
         <v>9</v>
       </c>
       <c r="R6"/>
-      <c r="S6" s="91" t="s">
+      <c r="S6" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="93"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="91"/>
       <c r="W6"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
@@ -2218,7 +2222,7 @@
       <c r="L8" s="3">
         <v>70</v>
       </c>
-      <c r="M8" s="94">
+      <c r="M8" s="92">
         <v>45700</v>
       </c>
       <c r="N8" s="65" t="s">
@@ -2246,7 +2250,7 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="82">
+      <c r="C9" s="77">
         <v>45658</v>
       </c>
       <c r="D9" s="42" t="s">
@@ -2268,7 +2272,7 @@
       <c r="L9" s="3">
         <v>71</v>
       </c>
-      <c r="M9" s="94"/>
+      <c r="M9" s="92"/>
       <c r="N9" s="65" t="s">
         <v>100</v>
       </c>
@@ -2294,7 +2298,7 @@
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="43" t="s">
         <v>18</v>
       </c>
@@ -2316,7 +2320,7 @@
       <c r="L10" s="3">
         <v>72</v>
       </c>
-      <c r="M10" s="94">
+      <c r="M10" s="92">
         <v>45701</v>
       </c>
       <c r="N10" s="65" t="s">
@@ -2336,7 +2340,7 @@
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="43" t="s">
         <v>19</v>
       </c>
@@ -2346,7 +2350,7 @@
       <c r="G11" s="5">
         <v>39</v>
       </c>
-      <c r="H11" s="76">
+      <c r="H11" s="80">
         <v>45663</v>
       </c>
       <c r="I11" s="46" t="s">
@@ -2358,7 +2362,7 @@
       <c r="L11" s="3">
         <v>73</v>
       </c>
-      <c r="M11" s="94"/>
+      <c r="M11" s="92"/>
       <c r="N11" s="65" t="s">
         <v>88</v>
       </c>
@@ -2381,7 +2385,7 @@
       <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="43" t="s">
         <v>20</v>
       </c>
@@ -2391,7 +2395,7 @@
       <c r="G12" s="3">
         <v>40</v>
       </c>
-      <c r="H12" s="77"/>
+      <c r="H12" s="81"/>
       <c r="I12" s="46" t="s">
         <v>53</v>
       </c>
@@ -2417,7 +2421,7 @@
       <c r="B13" s="5">
         <v>7</v>
       </c>
-      <c r="C13" s="83"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="43" t="s">
         <v>21</v>
       </c>
@@ -2427,7 +2431,7 @@
       <c r="G13" s="3">
         <v>41</v>
       </c>
-      <c r="H13" s="78"/>
+      <c r="H13" s="82"/>
       <c r="I13" s="46" t="s">
         <v>54</v>
       </c>
@@ -2437,7 +2441,7 @@
       <c r="L13" s="3">
         <v>75</v>
       </c>
-      <c r="M13" s="94">
+      <c r="M13" s="92">
         <v>45708</v>
       </c>
       <c r="N13" s="65" t="s">
@@ -2447,10 +2451,10 @@
         <v>5</v>
       </c>
       <c r="R13"/>
-      <c r="S13" s="85" t="s">
+      <c r="S13" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="86"/>
+      <c r="T13" s="84"/>
       <c r="U13" s="19" t="s">
         <v>14</v>
       </c>
@@ -2463,7 +2467,7 @@
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="83"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="43" t="s">
         <v>22</v>
       </c>
@@ -2473,7 +2477,7 @@
       <c r="G14" s="3">
         <v>42</v>
       </c>
-      <c r="H14" s="76">
+      <c r="H14" s="80">
         <v>45664</v>
       </c>
       <c r="I14" s="61" t="s">
@@ -2485,7 +2489,7 @@
       <c r="L14" s="3">
         <v>76</v>
       </c>
-      <c r="M14" s="94"/>
+      <c r="M14" s="92"/>
       <c r="N14" s="65" t="s">
         <v>91</v>
       </c>
@@ -2493,13 +2497,13 @@
         <v>5</v>
       </c>
       <c r="R14"/>
-      <c r="S14" s="87" t="s">
+      <c r="S14" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="88"/>
+      <c r="T14" s="86"/>
       <c r="U14" s="33">
-        <f>E41+J41+O44</f>
-        <v>523</v>
+        <f>E41+J41+O45</f>
+        <v>528</v>
       </c>
       <c r="V14" s="16"/>
       <c r="W14"/>
@@ -2508,7 +2512,7 @@
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="83"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="43" t="s">
         <v>23</v>
       </c>
@@ -2518,7 +2522,7 @@
       <c r="G15" s="3">
         <v>43</v>
       </c>
-      <c r="H15" s="79"/>
+      <c r="H15" s="94"/>
       <c r="I15" s="61" t="s">
         <v>59</v>
       </c>
@@ -2528,7 +2532,7 @@
       <c r="L15" s="3">
         <v>77</v>
       </c>
-      <c r="M15" s="94"/>
+      <c r="M15" s="92"/>
       <c r="N15" s="65" t="s">
         <v>92</v>
       </c>
@@ -2536,10 +2540,10 @@
         <v>5</v>
       </c>
       <c r="R15"/>
-      <c r="S15" s="87" t="s">
+      <c r="S15" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="T15" s="88"/>
+      <c r="T15" s="86"/>
       <c r="U15" s="34">
         <f>U11</f>
         <v>330</v>
@@ -2551,7 +2555,7 @@
       <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="83"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="43" t="s">
         <v>24</v>
       </c>
@@ -2561,7 +2565,7 @@
       <c r="G16" s="3">
         <v>44</v>
       </c>
-      <c r="H16" s="76">
+      <c r="H16" s="80">
         <v>45665</v>
       </c>
       <c r="I16" s="61" t="s">
@@ -2583,13 +2587,13 @@
         <v>5</v>
       </c>
       <c r="R16"/>
-      <c r="S16" s="89" t="s">
+      <c r="S16" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="90"/>
+      <c r="T16" s="88"/>
       <c r="U16" s="35">
         <f>SUM(U14:U15)</f>
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="V16" s="18"/>
       <c r="W16"/>
@@ -2598,7 +2602,7 @@
       <c r="B17" s="3">
         <v>11</v>
       </c>
-      <c r="C17" s="83"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="43" t="s">
         <v>25</v>
       </c>
@@ -2608,7 +2612,7 @@
       <c r="G17" s="3">
         <v>45</v>
       </c>
-      <c r="H17" s="79"/>
+      <c r="H17" s="94"/>
       <c r="I17" s="61" t="s">
         <v>61</v>
       </c>
@@ -2634,7 +2638,7 @@
       <c r="B18" s="3">
         <v>12</v>
       </c>
-      <c r="C18" s="83"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="43" t="s">
         <v>26</v>
       </c>
@@ -2673,7 +2677,7 @@
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="83"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="43" t="s">
         <v>27</v>
       </c>
@@ -2695,7 +2699,7 @@
       <c r="L19" s="26">
         <v>81</v>
       </c>
-      <c r="M19" s="94">
+      <c r="M19" s="92">
         <v>45721</v>
       </c>
       <c r="N19" s="65" t="s">
@@ -2711,7 +2715,7 @@
       <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="83"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="44" t="s">
         <v>28</v>
       </c>
@@ -2721,7 +2725,7 @@
       <c r="G20" s="3">
         <v>48</v>
       </c>
-      <c r="H20" s="80">
+      <c r="H20" s="95">
         <v>45670</v>
       </c>
       <c r="I20" s="61" t="s">
@@ -2733,7 +2737,7 @@
       <c r="L20" s="26">
         <v>82</v>
       </c>
-      <c r="M20" s="94"/>
+      <c r="M20" s="92"/>
       <c r="N20" s="65" t="s">
         <v>97</v>
       </c>
@@ -2747,7 +2751,7 @@
       <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="83"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="44" t="s">
         <v>29</v>
       </c>
@@ -2757,7 +2761,7 @@
       <c r="G21" s="3">
         <v>49</v>
       </c>
-      <c r="H21" s="80"/>
+      <c r="H21" s="95"/>
       <c r="I21" s="63" t="s">
         <v>64</v>
       </c>
@@ -2767,7 +2771,7 @@
       <c r="L21" s="26">
         <v>83</v>
       </c>
-      <c r="M21" s="94"/>
+      <c r="M21" s="92"/>
       <c r="N21" s="27" t="s">
         <v>98</v>
       </c>
@@ -2781,7 +2785,7 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="83"/>
+      <c r="C22" s="78"/>
       <c r="D22" s="44" t="s">
         <v>30</v>
       </c>
@@ -2791,7 +2795,7 @@
       <c r="G22" s="4">
         <v>50</v>
       </c>
-      <c r="H22" s="80"/>
+      <c r="H22" s="95"/>
       <c r="I22" s="63" t="s">
         <v>65</v>
       </c>
@@ -2817,7 +2821,7 @@
       <c r="B23" s="3">
         <v>17</v>
       </c>
-      <c r="C23" s="83"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="44" t="s">
         <v>31</v>
       </c>
@@ -2856,7 +2860,7 @@
       <c r="B24" s="3">
         <v>18</v>
       </c>
-      <c r="C24" s="83"/>
+      <c r="C24" s="78"/>
       <c r="D24" s="44" t="s">
         <v>32</v>
       </c>
@@ -2866,7 +2870,7 @@
       <c r="G24" s="3">
         <v>52</v>
       </c>
-      <c r="H24" s="80">
+      <c r="H24" s="95">
         <v>45673</v>
       </c>
       <c r="I24" s="63" t="s">
@@ -2894,7 +2898,7 @@
       <c r="B25" s="3">
         <v>19</v>
       </c>
-      <c r="C25" s="83"/>
+      <c r="C25" s="78"/>
       <c r="D25" s="44" t="s">
         <v>33</v>
       </c>
@@ -2904,7 +2908,7 @@
       <c r="G25" s="3">
         <v>53</v>
       </c>
-      <c r="H25" s="80"/>
+      <c r="H25" s="95"/>
       <c r="I25" s="63" t="s">
         <v>69</v>
       </c>
@@ -2930,7 +2934,7 @@
       <c r="B26" s="3">
         <v>20</v>
       </c>
-      <c r="C26" s="83"/>
+      <c r="C26" s="78"/>
       <c r="D26" s="43" t="s">
         <v>34</v>
       </c>
@@ -2940,7 +2944,7 @@
       <c r="G26" s="3">
         <v>54</v>
       </c>
-      <c r="H26" s="80"/>
+      <c r="H26" s="95"/>
       <c r="I26" s="63" t="s">
         <v>70</v>
       </c>
@@ -2966,7 +2970,7 @@
       <c r="B27" s="3">
         <v>21</v>
       </c>
-      <c r="C27" s="84"/>
+      <c r="C27" s="79"/>
       <c r="D27" s="43" t="s">
         <v>35</v>
       </c>
@@ -3004,7 +3008,7 @@
       <c r="B28" s="3">
         <v>22</v>
       </c>
-      <c r="C28" s="76">
+      <c r="C28" s="80">
         <v>45659</v>
       </c>
       <c r="D28" s="43" t="s">
@@ -3044,7 +3048,7 @@
       <c r="B29" s="5">
         <v>23</v>
       </c>
-      <c r="C29" s="77"/>
+      <c r="C29" s="81"/>
       <c r="D29" s="46" t="s">
         <v>37</v>
       </c>
@@ -3082,7 +3086,7 @@
       <c r="B30" s="3">
         <v>24</v>
       </c>
-      <c r="C30" s="77"/>
+      <c r="C30" s="81"/>
       <c r="D30" s="46" t="s">
         <v>38</v>
       </c>
@@ -3120,7 +3124,7 @@
       <c r="B31" s="3">
         <v>25</v>
       </c>
-      <c r="C31" s="77"/>
+      <c r="C31" s="81"/>
       <c r="D31" s="46" t="s">
         <v>39</v>
       </c>
@@ -3156,7 +3160,7 @@
       <c r="B32" s="3">
         <v>26</v>
       </c>
-      <c r="C32" s="78"/>
+      <c r="C32" s="82"/>
       <c r="D32" s="46" t="s">
         <v>40</v>
       </c>
@@ -3194,7 +3198,7 @@
       <c r="B33" s="3">
         <v>27</v>
       </c>
-      <c r="C33" s="76">
+      <c r="C33" s="80">
         <v>45660</v>
       </c>
       <c r="D33" s="43" t="s">
@@ -3234,7 +3238,7 @@
       <c r="B34" s="3">
         <v>28</v>
       </c>
-      <c r="C34" s="77"/>
+      <c r="C34" s="81"/>
       <c r="D34" s="46" t="s">
         <v>42</v>
       </c>
@@ -3272,7 +3276,7 @@
       <c r="B35" s="3">
         <v>29</v>
       </c>
-      <c r="C35" s="77"/>
+      <c r="C35" s="81"/>
       <c r="D35" s="46" t="s">
         <v>43</v>
       </c>
@@ -3311,7 +3315,7 @@
       <c r="B36" s="6">
         <v>30</v>
       </c>
-      <c r="C36" s="77"/>
+      <c r="C36" s="81"/>
       <c r="D36" s="46" t="s">
         <v>44</v>
       </c>
@@ -3349,7 +3353,7 @@
       <c r="B37" s="3">
         <v>31</v>
       </c>
-      <c r="C37" s="77"/>
+      <c r="C37" s="81"/>
       <c r="D37" s="63" t="s">
         <v>118</v>
       </c>
@@ -3385,7 +3389,7 @@
       <c r="B38" s="3">
         <v>32</v>
       </c>
-      <c r="C38" s="77"/>
+      <c r="C38" s="81"/>
       <c r="D38" s="50" t="s">
         <v>45</v>
       </c>
@@ -3419,7 +3423,7 @@
       <c r="B39" s="3">
         <v>33</v>
       </c>
-      <c r="C39" s="77"/>
+      <c r="C39" s="81"/>
       <c r="D39" s="50" t="s">
         <v>46</v>
       </c>
@@ -3457,7 +3461,7 @@
       <c r="B40" s="3">
         <v>34</v>
       </c>
-      <c r="C40" s="95"/>
+      <c r="C40" s="93"/>
       <c r="D40" s="50" t="s">
         <v>47</v>
       </c>
@@ -3529,7 +3533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C43" s="30" t="s">
         <v>5</v>
       </c>
@@ -3556,19 +3560,39 @@
       <c r="C44" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="26"/>
-      <c r="M44" s="22" t="s">
+      <c r="L44" s="4">
+        <v>106</v>
+      </c>
+      <c r="M44" s="71">
+        <v>45859</v>
+      </c>
+      <c r="N44" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="O44" s="73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L45" s="26"/>
+      <c r="M45" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="N44" s="24"/>
-      <c r="O44" s="25">
-        <f>SUM(O7:O43)</f>
-        <v>183</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="25">
+        <f>SUM(O7:O44)</f>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H20:H22"/>
     <mergeCell ref="M36:M37"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="C9:C27"/>
@@ -3585,12 +3609,6 @@
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="C33:C40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H20:H22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8B4490-6EB2-4EDA-B41B-7FC8F9721AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9703F69-116A-40BA-B69E-64ADD6B7ABE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="1710" windowWidth="22725" windowHeight="13245" xr2:uid="{65989A62-DD22-4017-B1F4-9BE3BB514C20}"/>
+    <workbookView xWindow="3855" yWindow="0" windowWidth="22725" windowHeight="15600" xr2:uid="{65989A62-DD22-4017-B1F4-9BE3BB514C20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="127">
   <si>
     <t>일   자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,6 +534,14 @@
   </si>
   <si>
     <t>이원석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장동환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임승빈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1651,6 +1659,21 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1661,15 +1684,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1703,12 +1717,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2032,10 +2040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC16636-847A-47F1-BA3B-A88365FF7E52}">
-  <dimension ref="B1:X46"/>
+  <dimension ref="B1:X48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2074,20 +2082,20 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
     </row>
     <row r="3" spans="2:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:23" ht="20.25" x14ac:dyDescent="0.3">
@@ -2134,12 +2142,12 @@
         <v>9</v>
       </c>
       <c r="R6"/>
-      <c r="S6" s="89" t="s">
+      <c r="S6" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="91"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="93"/>
       <c r="W6"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
@@ -2222,7 +2230,7 @@
       <c r="L8" s="3">
         <v>70</v>
       </c>
-      <c r="M8" s="92">
+      <c r="M8" s="94">
         <v>45700</v>
       </c>
       <c r="N8" s="65" t="s">
@@ -2250,7 +2258,7 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="77">
+      <c r="C9" s="82">
         <v>45658</v>
       </c>
       <c r="D9" s="42" t="s">
@@ -2272,7 +2280,7 @@
       <c r="L9" s="3">
         <v>71</v>
       </c>
-      <c r="M9" s="92"/>
+      <c r="M9" s="94"/>
       <c r="N9" s="65" t="s">
         <v>100</v>
       </c>
@@ -2298,7 +2306,7 @@
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="78"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="43" t="s">
         <v>18</v>
       </c>
@@ -2320,7 +2328,7 @@
       <c r="L10" s="3">
         <v>72</v>
       </c>
-      <c r="M10" s="92">
+      <c r="M10" s="94">
         <v>45701</v>
       </c>
       <c r="N10" s="65" t="s">
@@ -2340,7 +2348,7 @@
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="78"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="43" t="s">
         <v>19</v>
       </c>
@@ -2350,7 +2358,7 @@
       <c r="G11" s="5">
         <v>39</v>
       </c>
-      <c r="H11" s="80">
+      <c r="H11" s="76">
         <v>45663</v>
       </c>
       <c r="I11" s="46" t="s">
@@ -2362,7 +2370,7 @@
       <c r="L11" s="3">
         <v>73</v>
       </c>
-      <c r="M11" s="92"/>
+      <c r="M11" s="94"/>
       <c r="N11" s="65" t="s">
         <v>88</v>
       </c>
@@ -2385,7 +2393,7 @@
       <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="78"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="43" t="s">
         <v>20</v>
       </c>
@@ -2395,7 +2403,7 @@
       <c r="G12" s="3">
         <v>40</v>
       </c>
-      <c r="H12" s="81"/>
+      <c r="H12" s="77"/>
       <c r="I12" s="46" t="s">
         <v>53</v>
       </c>
@@ -2421,7 +2429,7 @@
       <c r="B13" s="5">
         <v>7</v>
       </c>
-      <c r="C13" s="78"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="43" t="s">
         <v>21</v>
       </c>
@@ -2431,7 +2439,7 @@
       <c r="G13" s="3">
         <v>41</v>
       </c>
-      <c r="H13" s="82"/>
+      <c r="H13" s="78"/>
       <c r="I13" s="46" t="s">
         <v>54</v>
       </c>
@@ -2441,7 +2449,7 @@
       <c r="L13" s="3">
         <v>75</v>
       </c>
-      <c r="M13" s="92">
+      <c r="M13" s="94">
         <v>45708</v>
       </c>
       <c r="N13" s="65" t="s">
@@ -2451,10 +2459,10 @@
         <v>5</v>
       </c>
       <c r="R13"/>
-      <c r="S13" s="83" t="s">
+      <c r="S13" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="84"/>
+      <c r="T13" s="86"/>
       <c r="U13" s="19" t="s">
         <v>14</v>
       </c>
@@ -2467,7 +2475,7 @@
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="78"/>
+      <c r="C14" s="83"/>
       <c r="D14" s="43" t="s">
         <v>22</v>
       </c>
@@ -2477,7 +2485,7 @@
       <c r="G14" s="3">
         <v>42</v>
       </c>
-      <c r="H14" s="80">
+      <c r="H14" s="76">
         <v>45664</v>
       </c>
       <c r="I14" s="61" t="s">
@@ -2489,7 +2497,7 @@
       <c r="L14" s="3">
         <v>76</v>
       </c>
-      <c r="M14" s="92"/>
+      <c r="M14" s="94"/>
       <c r="N14" s="65" t="s">
         <v>91</v>
       </c>
@@ -2497,13 +2505,13 @@
         <v>5</v>
       </c>
       <c r="R14"/>
-      <c r="S14" s="85" t="s">
+      <c r="S14" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="86"/>
+      <c r="T14" s="88"/>
       <c r="U14" s="33">
-        <f>E41+J41+O45</f>
-        <v>528</v>
+        <f>E41+J41+O47</f>
+        <v>538</v>
       </c>
       <c r="V14" s="16"/>
       <c r="W14"/>
@@ -2512,7 +2520,7 @@
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="78"/>
+      <c r="C15" s="83"/>
       <c r="D15" s="43" t="s">
         <v>23</v>
       </c>
@@ -2522,7 +2530,7 @@
       <c r="G15" s="3">
         <v>43</v>
       </c>
-      <c r="H15" s="94"/>
+      <c r="H15" s="79"/>
       <c r="I15" s="61" t="s">
         <v>59</v>
       </c>
@@ -2532,7 +2540,7 @@
       <c r="L15" s="3">
         <v>77</v>
       </c>
-      <c r="M15" s="92"/>
+      <c r="M15" s="94"/>
       <c r="N15" s="65" t="s">
         <v>92</v>
       </c>
@@ -2540,10 +2548,10 @@
         <v>5</v>
       </c>
       <c r="R15"/>
-      <c r="S15" s="85" t="s">
+      <c r="S15" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="T15" s="86"/>
+      <c r="T15" s="88"/>
       <c r="U15" s="34">
         <f>U11</f>
         <v>330</v>
@@ -2555,7 +2563,7 @@
       <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="78"/>
+      <c r="C16" s="83"/>
       <c r="D16" s="43" t="s">
         <v>24</v>
       </c>
@@ -2565,7 +2573,7 @@
       <c r="G16" s="3">
         <v>44</v>
       </c>
-      <c r="H16" s="80">
+      <c r="H16" s="76">
         <v>45665</v>
       </c>
       <c r="I16" s="61" t="s">
@@ -2587,13 +2595,13 @@
         <v>5</v>
       </c>
       <c r="R16"/>
-      <c r="S16" s="87" t="s">
+      <c r="S16" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="88"/>
+      <c r="T16" s="90"/>
       <c r="U16" s="35">
         <f>SUM(U14:U15)</f>
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="V16" s="18"/>
       <c r="W16"/>
@@ -2602,7 +2610,7 @@
       <c r="B17" s="3">
         <v>11</v>
       </c>
-      <c r="C17" s="78"/>
+      <c r="C17" s="83"/>
       <c r="D17" s="43" t="s">
         <v>25</v>
       </c>
@@ -2612,7 +2620,7 @@
       <c r="G17" s="3">
         <v>45</v>
       </c>
-      <c r="H17" s="94"/>
+      <c r="H17" s="79"/>
       <c r="I17" s="61" t="s">
         <v>61</v>
       </c>
@@ -2638,7 +2646,7 @@
       <c r="B18" s="3">
         <v>12</v>
       </c>
-      <c r="C18" s="78"/>
+      <c r="C18" s="83"/>
       <c r="D18" s="43" t="s">
         <v>26</v>
       </c>
@@ -2677,7 +2685,7 @@
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="78"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="43" t="s">
         <v>27</v>
       </c>
@@ -2699,7 +2707,7 @@
       <c r="L19" s="26">
         <v>81</v>
       </c>
-      <c r="M19" s="92">
+      <c r="M19" s="94">
         <v>45721</v>
       </c>
       <c r="N19" s="65" t="s">
@@ -2715,7 +2723,7 @@
       <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="78"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="44" t="s">
         <v>28</v>
       </c>
@@ -2725,7 +2733,7 @@
       <c r="G20" s="3">
         <v>48</v>
       </c>
-      <c r="H20" s="95">
+      <c r="H20" s="80">
         <v>45670</v>
       </c>
       <c r="I20" s="61" t="s">
@@ -2737,7 +2745,7 @@
       <c r="L20" s="26">
         <v>82</v>
       </c>
-      <c r="M20" s="92"/>
+      <c r="M20" s="94"/>
       <c r="N20" s="65" t="s">
         <v>97</v>
       </c>
@@ -2751,7 +2759,7 @@
       <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="78"/>
+      <c r="C21" s="83"/>
       <c r="D21" s="44" t="s">
         <v>29</v>
       </c>
@@ -2761,7 +2769,7 @@
       <c r="G21" s="3">
         <v>49</v>
       </c>
-      <c r="H21" s="95"/>
+      <c r="H21" s="80"/>
       <c r="I21" s="63" t="s">
         <v>64</v>
       </c>
@@ -2771,7 +2779,7 @@
       <c r="L21" s="26">
         <v>83</v>
       </c>
-      <c r="M21" s="92"/>
+      <c r="M21" s="94"/>
       <c r="N21" s="27" t="s">
         <v>98</v>
       </c>
@@ -2785,7 +2793,7 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="78"/>
+      <c r="C22" s="83"/>
       <c r="D22" s="44" t="s">
         <v>30</v>
       </c>
@@ -2795,7 +2803,7 @@
       <c r="G22" s="4">
         <v>50</v>
       </c>
-      <c r="H22" s="95"/>
+      <c r="H22" s="80"/>
       <c r="I22" s="63" t="s">
         <v>65</v>
       </c>
@@ -2821,7 +2829,7 @@
       <c r="B23" s="3">
         <v>17</v>
       </c>
-      <c r="C23" s="78"/>
+      <c r="C23" s="83"/>
       <c r="D23" s="44" t="s">
         <v>31</v>
       </c>
@@ -2860,7 +2868,7 @@
       <c r="B24" s="3">
         <v>18</v>
       </c>
-      <c r="C24" s="78"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="44" t="s">
         <v>32</v>
       </c>
@@ -2870,7 +2878,7 @@
       <c r="G24" s="3">
         <v>52</v>
       </c>
-      <c r="H24" s="95">
+      <c r="H24" s="80">
         <v>45673</v>
       </c>
       <c r="I24" s="63" t="s">
@@ -2898,7 +2906,7 @@
       <c r="B25" s="3">
         <v>19</v>
       </c>
-      <c r="C25" s="78"/>
+      <c r="C25" s="83"/>
       <c r="D25" s="44" t="s">
         <v>33</v>
       </c>
@@ -2908,7 +2916,7 @@
       <c r="G25" s="3">
         <v>53</v>
       </c>
-      <c r="H25" s="95"/>
+      <c r="H25" s="80"/>
       <c r="I25" s="63" t="s">
         <v>69</v>
       </c>
@@ -2934,7 +2942,7 @@
       <c r="B26" s="3">
         <v>20</v>
       </c>
-      <c r="C26" s="78"/>
+      <c r="C26" s="83"/>
       <c r="D26" s="43" t="s">
         <v>34</v>
       </c>
@@ -2944,7 +2952,7 @@
       <c r="G26" s="3">
         <v>54</v>
       </c>
-      <c r="H26" s="95"/>
+      <c r="H26" s="80"/>
       <c r="I26" s="63" t="s">
         <v>70</v>
       </c>
@@ -2970,7 +2978,7 @@
       <c r="B27" s="3">
         <v>21</v>
       </c>
-      <c r="C27" s="79"/>
+      <c r="C27" s="84"/>
       <c r="D27" s="43" t="s">
         <v>35</v>
       </c>
@@ -3008,7 +3016,7 @@
       <c r="B28" s="3">
         <v>22</v>
       </c>
-      <c r="C28" s="80">
+      <c r="C28" s="76">
         <v>45659</v>
       </c>
       <c r="D28" s="43" t="s">
@@ -3048,7 +3056,7 @@
       <c r="B29" s="5">
         <v>23</v>
       </c>
-      <c r="C29" s="81"/>
+      <c r="C29" s="77"/>
       <c r="D29" s="46" t="s">
         <v>37</v>
       </c>
@@ -3086,7 +3094,7 @@
       <c r="B30" s="3">
         <v>24</v>
       </c>
-      <c r="C30" s="81"/>
+      <c r="C30" s="77"/>
       <c r="D30" s="46" t="s">
         <v>38</v>
       </c>
@@ -3124,7 +3132,7 @@
       <c r="B31" s="3">
         <v>25</v>
       </c>
-      <c r="C31" s="81"/>
+      <c r="C31" s="77"/>
       <c r="D31" s="46" t="s">
         <v>39</v>
       </c>
@@ -3160,7 +3168,7 @@
       <c r="B32" s="3">
         <v>26</v>
       </c>
-      <c r="C32" s="82"/>
+      <c r="C32" s="78"/>
       <c r="D32" s="46" t="s">
         <v>40</v>
       </c>
@@ -3198,7 +3206,7 @@
       <c r="B33" s="3">
         <v>27</v>
       </c>
-      <c r="C33" s="80">
+      <c r="C33" s="76">
         <v>45660</v>
       </c>
       <c r="D33" s="43" t="s">
@@ -3238,7 +3246,7 @@
       <c r="B34" s="3">
         <v>28</v>
       </c>
-      <c r="C34" s="81"/>
+      <c r="C34" s="77"/>
       <c r="D34" s="46" t="s">
         <v>42</v>
       </c>
@@ -3276,7 +3284,7 @@
       <c r="B35" s="3">
         <v>29</v>
       </c>
-      <c r="C35" s="81"/>
+      <c r="C35" s="77"/>
       <c r="D35" s="46" t="s">
         <v>43</v>
       </c>
@@ -3315,7 +3323,7 @@
       <c r="B36" s="6">
         <v>30</v>
       </c>
-      <c r="C36" s="81"/>
+      <c r="C36" s="77"/>
       <c r="D36" s="46" t="s">
         <v>44</v>
       </c>
@@ -3353,7 +3361,7 @@
       <c r="B37" s="3">
         <v>31</v>
       </c>
-      <c r="C37" s="81"/>
+      <c r="C37" s="77"/>
       <c r="D37" s="63" t="s">
         <v>118</v>
       </c>
@@ -3389,7 +3397,7 @@
       <c r="B38" s="3">
         <v>32</v>
       </c>
-      <c r="C38" s="81"/>
+      <c r="C38" s="77"/>
       <c r="D38" s="50" t="s">
         <v>45</v>
       </c>
@@ -3423,7 +3431,7 @@
       <c r="B39" s="3">
         <v>33</v>
       </c>
-      <c r="C39" s="81"/>
+      <c r="C39" s="77"/>
       <c r="D39" s="50" t="s">
         <v>46</v>
       </c>
@@ -3461,7 +3469,7 @@
       <c r="B40" s="3">
         <v>34</v>
       </c>
-      <c r="C40" s="93"/>
+      <c r="C40" s="95"/>
       <c r="D40" s="50" t="s">
         <v>47</v>
       </c>
@@ -3556,43 +3564,65 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C44" s="15" t="s">
         <v>4</v>
       </c>
       <c r="L44" s="4">
         <v>106</v>
       </c>
-      <c r="M44" s="71">
+      <c r="M44" s="29">
         <v>45859</v>
       </c>
-      <c r="N44" s="72" t="s">
+      <c r="N44" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="O44" s="73">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L45" s="26"/>
-      <c r="M45" s="22" t="s">
+      <c r="O44" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="L45" s="4">
+        <v>107</v>
+      </c>
+      <c r="M45" s="29">
+        <v>45865</v>
+      </c>
+      <c r="N45" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="O45" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L46" s="4">
+        <v>108</v>
+      </c>
+      <c r="M46" s="29">
+        <v>45866</v>
+      </c>
+      <c r="N46" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="O46" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L47" s="26"/>
+      <c r="M47" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="N45" s="24"/>
-      <c r="O45" s="25">
-        <f>SUM(O7:O44)</f>
-        <v>188</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="25">
+        <f>SUM(O7:O46)</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H20:H22"/>
     <mergeCell ref="M36:M37"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="C9:C27"/>
@@ -3609,6 +3639,12 @@
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="C33:C40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H20:H22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9703F69-116A-40BA-B69E-64ADD6B7ABE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1663E3-15AB-4E8F-B488-C85DF1B8AABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="0" windowWidth="22725" windowHeight="15600" xr2:uid="{65989A62-DD22-4017-B1F4-9BE3BB514C20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65989A62-DD22-4017-B1F4-9BE3BB514C20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="128">
   <si>
     <t>일   자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -542,6 +542,10 @@
   </si>
   <si>
     <t>임승빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김종현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,7 +722,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -727,19 +731,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF002060"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF002060"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF002060"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF002060"/>
       </left>
@@ -763,19 +754,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF002060"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF002060"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF002060"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF002060"/>
       </left>
       <right style="thin">
@@ -1432,7 +1410,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1442,254 +1420,251 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="13" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1698,26 +1673,26 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2040,10 +2015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC16636-847A-47F1-BA3B-A88365FF7E52}">
-  <dimension ref="B1:X48"/>
+  <dimension ref="B1:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2082,20 +2057,20 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
     </row>
     <row r="3" spans="2:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:23" ht="20.25" x14ac:dyDescent="0.3">
@@ -2142,12 +2117,12 @@
         <v>9</v>
       </c>
       <c r="R6"/>
-      <c r="S6" s="91" t="s">
+      <c r="S6" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="93"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="90"/>
       <c r="W6"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
@@ -2163,26 +2138,26 @@
       <c r="E7" s="41">
         <v>5</v>
       </c>
-      <c r="G7" s="3">
-        <v>35</v>
-      </c>
-      <c r="H7" s="70">
-        <v>45660</v>
-      </c>
-      <c r="I7" s="50" t="s">
-        <v>48</v>
+      <c r="G7" s="4">
+        <v>38</v>
+      </c>
+      <c r="H7" s="51">
+        <v>45662</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>51</v>
       </c>
       <c r="J7" s="45">
         <v>5</v>
       </c>
       <c r="L7" s="3">
-        <v>69</v>
-      </c>
-      <c r="M7" s="29">
-        <v>45695</v>
+        <v>75</v>
+      </c>
+      <c r="M7" s="91">
+        <v>45708</v>
       </c>
       <c r="N7" s="65" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="O7" s="28">
         <v>5</v>
@@ -2215,26 +2190,24 @@
       <c r="E8" s="41">
         <v>5</v>
       </c>
-      <c r="G8" s="3">
-        <v>36</v>
-      </c>
-      <c r="H8" s="62">
-        <v>45661</v>
-      </c>
-      <c r="I8" s="44" t="s">
-        <v>49</v>
+      <c r="G8" s="5">
+        <v>39</v>
+      </c>
+      <c r="H8" s="79">
+        <v>45663</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>52</v>
       </c>
       <c r="J8" s="45">
         <v>5</v>
       </c>
       <c r="L8" s="3">
-        <v>70</v>
-      </c>
-      <c r="M8" s="94">
-        <v>45700</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="M8" s="91"/>
       <c r="N8" s="65" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O8" s="28">
         <v>5</v>
@@ -2258,7 +2231,7 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="82">
+      <c r="C9" s="76">
         <v>45658</v>
       </c>
       <c r="D9" s="42" t="s">
@@ -2268,21 +2241,21 @@
         <v>5</v>
       </c>
       <c r="G9" s="3">
-        <v>37</v>
-      </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="44" t="s">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="H9" s="80"/>
+      <c r="I9" s="46" t="s">
+        <v>53</v>
       </c>
       <c r="J9" s="45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L9" s="3">
-        <v>71</v>
-      </c>
-      <c r="M9" s="94"/>
+        <v>77</v>
+      </c>
+      <c r="M9" s="91"/>
       <c r="N9" s="65" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="O9" s="28">
         <v>5</v>
@@ -2306,33 +2279,31 @@
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="43" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="41">
         <v>5</v>
       </c>
-      <c r="G10" s="4">
-        <v>38</v>
-      </c>
-      <c r="H10" s="51">
-        <v>45662</v>
-      </c>
-      <c r="I10" s="44" t="s">
-        <v>51</v>
+      <c r="G10" s="3">
+        <v>41</v>
+      </c>
+      <c r="H10" s="81"/>
+      <c r="I10" s="46" t="s">
+        <v>54</v>
       </c>
       <c r="J10" s="45">
         <v>5</v>
       </c>
       <c r="L10" s="3">
-        <v>72</v>
-      </c>
-      <c r="M10" s="94">
-        <v>45701</v>
+        <v>78</v>
+      </c>
+      <c r="M10" s="29">
+        <v>45716</v>
       </c>
       <c r="N10" s="65" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O10" s="28">
         <v>5</v>
@@ -2348,33 +2319,35 @@
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="43" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="41">
         <v>5</v>
       </c>
-      <c r="G11" s="5">
-        <v>39</v>
-      </c>
-      <c r="H11" s="76">
-        <v>45663</v>
-      </c>
-      <c r="I11" s="46" t="s">
-        <v>52</v>
+      <c r="G11" s="3">
+        <v>42</v>
+      </c>
+      <c r="H11" s="79">
+        <v>45664</v>
+      </c>
+      <c r="I11" s="61" t="s">
+        <v>58</v>
       </c>
       <c r="J11" s="45">
         <v>5</v>
       </c>
       <c r="L11" s="3">
-        <v>73</v>
-      </c>
-      <c r="M11" s="94"/>
-      <c r="N11" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="O11" s="28">
+        <v>79</v>
+      </c>
+      <c r="M11" s="66">
+        <v>45717</v>
+      </c>
+      <c r="N11" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="O11" s="68">
         <v>5</v>
       </c>
       <c r="R11"/>
@@ -2393,7 +2366,7 @@
       <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="43" t="s">
         <v>20</v>
       </c>
@@ -2401,23 +2374,23 @@
         <v>5</v>
       </c>
       <c r="G12" s="3">
-        <v>40</v>
-      </c>
-      <c r="H12" s="77"/>
-      <c r="I12" s="46" t="s">
-        <v>53</v>
+        <v>43</v>
+      </c>
+      <c r="H12" s="92"/>
+      <c r="I12" s="61" t="s">
+        <v>59</v>
       </c>
       <c r="J12" s="45">
         <v>5</v>
       </c>
-      <c r="L12" s="3">
-        <v>74</v>
+      <c r="L12" s="26">
+        <v>80</v>
       </c>
       <c r="M12" s="29">
-        <v>45707</v>
+        <v>45720</v>
       </c>
       <c r="N12" s="65" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O12" s="28">
         <v>5</v>
@@ -2429,7 +2402,7 @@
       <c r="B13" s="5">
         <v>7</v>
       </c>
-      <c r="C13" s="83"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="43" t="s">
         <v>21</v>
       </c>
@@ -2437,32 +2410,34 @@
         <v>5</v>
       </c>
       <c r="G13" s="3">
-        <v>41</v>
-      </c>
-      <c r="H13" s="78"/>
-      <c r="I13" s="46" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="H13" s="79">
+        <v>45665</v>
+      </c>
+      <c r="I13" s="61" t="s">
+        <v>60</v>
       </c>
       <c r="J13" s="45">
         <v>5</v>
       </c>
-      <c r="L13" s="3">
-        <v>75</v>
-      </c>
-      <c r="M13" s="94">
-        <v>45708</v>
+      <c r="L13" s="26">
+        <v>81</v>
+      </c>
+      <c r="M13" s="91">
+        <v>45721</v>
       </c>
       <c r="N13" s="65" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O13" s="28">
         <v>5</v>
       </c>
       <c r="R13"/>
-      <c r="S13" s="85" t="s">
+      <c r="S13" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="86"/>
+      <c r="T13" s="83"/>
       <c r="U13" s="19" t="s">
         <v>14</v>
       </c>
@@ -2475,7 +2450,7 @@
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="83"/>
+      <c r="C14" s="77"/>
       <c r="D14" s="43" t="s">
         <v>22</v>
       </c>
@@ -2483,35 +2458,33 @@
         <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>42</v>
-      </c>
-      <c r="H14" s="76">
-        <v>45664</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="H14" s="92"/>
       <c r="I14" s="61" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J14" s="45">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
-        <v>76</v>
-      </c>
-      <c r="M14" s="94"/>
+      <c r="L14" s="26">
+        <v>82</v>
+      </c>
+      <c r="M14" s="91"/>
       <c r="N14" s="65" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O14" s="28">
         <v>5</v>
       </c>
       <c r="R14"/>
-      <c r="S14" s="87" t="s">
+      <c r="S14" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="88"/>
+      <c r="T14" s="85"/>
       <c r="U14" s="33">
-        <f>E41+J41+O47</f>
-        <v>538</v>
+        <f>E44+J44+O42</f>
+        <v>543</v>
       </c>
       <c r="V14" s="16"/>
       <c r="W14"/>
@@ -2520,7 +2493,7 @@
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="83"/>
+      <c r="C15" s="77"/>
       <c r="D15" s="43" t="s">
         <v>23</v>
       </c>
@@ -2528,30 +2501,32 @@
         <v>5</v>
       </c>
       <c r="G15" s="3">
-        <v>43</v>
-      </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="61" t="s">
-        <v>59</v>
+        <v>46</v>
+      </c>
+      <c r="H15" s="62">
+        <v>45667</v>
+      </c>
+      <c r="I15" s="63" t="s">
+        <v>62</v>
       </c>
       <c r="J15" s="45">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3">
-        <v>77</v>
-      </c>
-      <c r="M15" s="94"/>
-      <c r="N15" s="65" t="s">
-        <v>92</v>
+        <v>3</v>
+      </c>
+      <c r="L15" s="26">
+        <v>83</v>
+      </c>
+      <c r="M15" s="91"/>
+      <c r="N15" s="27" t="s">
+        <v>98</v>
       </c>
       <c r="O15" s="28">
         <v>5</v>
       </c>
       <c r="R15"/>
-      <c r="S15" s="87" t="s">
+      <c r="S15" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="T15" s="88"/>
+      <c r="T15" s="85"/>
       <c r="U15" s="34">
         <f>U11</f>
         <v>330</v>
@@ -2563,7 +2538,7 @@
       <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="83"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="43" t="s">
         <v>24</v>
       </c>
@@ -2571,37 +2546,37 @@
         <v>3</v>
       </c>
       <c r="G16" s="3">
-        <v>44</v>
-      </c>
-      <c r="H16" s="76">
-        <v>45665</v>
+        <v>47</v>
+      </c>
+      <c r="H16" s="62">
+        <v>45669</v>
       </c>
       <c r="I16" s="61" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J16" s="45">
         <v>5</v>
       </c>
-      <c r="L16" s="3">
-        <v>78</v>
+      <c r="L16" s="26">
+        <v>84</v>
       </c>
       <c r="M16" s="29">
-        <v>45716</v>
-      </c>
-      <c r="N16" s="65" t="s">
-        <v>93</v>
+        <v>45722</v>
+      </c>
+      <c r="N16" s="27" t="s">
+        <v>99</v>
       </c>
       <c r="O16" s="28">
         <v>5</v>
       </c>
       <c r="R16"/>
-      <c r="S16" s="89" t="s">
+      <c r="S16" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="90"/>
+      <c r="T16" s="87"/>
       <c r="U16" s="35">
         <f>SUM(U14:U15)</f>
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="V16" s="18"/>
       <c r="W16"/>
@@ -2610,7 +2585,7 @@
       <c r="B17" s="3">
         <v>11</v>
       </c>
-      <c r="C17" s="83"/>
+      <c r="C17" s="77"/>
       <c r="D17" s="43" t="s">
         <v>25</v>
       </c>
@@ -2618,23 +2593,25 @@
         <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>45</v>
-      </c>
-      <c r="H17" s="79"/>
+        <v>48</v>
+      </c>
+      <c r="H17" s="93">
+        <v>45670</v>
+      </c>
       <c r="I17" s="61" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J17" s="45">
         <v>5</v>
       </c>
       <c r="L17" s="3">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M17" s="66">
-        <v>45717</v>
-      </c>
-      <c r="N17" s="67" t="s">
-        <v>94</v>
+        <v>45725</v>
+      </c>
+      <c r="N17" s="69" t="s">
+        <v>101</v>
       </c>
       <c r="O17" s="68">
         <v>5</v>
@@ -2646,7 +2623,7 @@
       <c r="B18" s="3">
         <v>12</v>
       </c>
-      <c r="C18" s="83"/>
+      <c r="C18" s="77"/>
       <c r="D18" s="43" t="s">
         <v>26</v>
       </c>
@@ -2654,25 +2631,23 @@
         <v>3</v>
       </c>
       <c r="G18" s="3">
-        <v>46</v>
-      </c>
-      <c r="H18" s="62">
-        <v>45667</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H18" s="93"/>
       <c r="I18" s="63" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J18" s="45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L18" s="26">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M18" s="29">
-        <v>45720</v>
-      </c>
-      <c r="N18" s="65" t="s">
-        <v>95</v>
+        <v>45726</v>
+      </c>
+      <c r="N18" s="27" t="s">
+        <v>102</v>
       </c>
       <c r="O18" s="28">
         <v>5</v>
@@ -2685,33 +2660,31 @@
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="83"/>
+      <c r="C19" s="77"/>
       <c r="D19" s="43" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="41">
         <v>5</v>
       </c>
-      <c r="G19" s="3">
-        <v>47</v>
-      </c>
-      <c r="H19" s="62">
-        <v>45669</v>
-      </c>
-      <c r="I19" s="61" t="s">
-        <v>63</v>
+      <c r="G19" s="4">
+        <v>50</v>
+      </c>
+      <c r="H19" s="93"/>
+      <c r="I19" s="63" t="s">
+        <v>65</v>
       </c>
       <c r="J19" s="45">
         <v>5</v>
       </c>
       <c r="L19" s="26">
-        <v>81</v>
-      </c>
-      <c r="M19" s="94">
-        <v>45721</v>
-      </c>
-      <c r="N19" s="65" t="s">
-        <v>96</v>
+        <v>87</v>
+      </c>
+      <c r="M19" s="29">
+        <v>45730</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="O19" s="28">
         <v>5</v>
@@ -2723,7 +2696,7 @@
       <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="83"/>
+      <c r="C20" s="77"/>
       <c r="D20" s="44" t="s">
         <v>28</v>
       </c>
@@ -2731,23 +2704,25 @@
         <v>15</v>
       </c>
       <c r="G20" s="3">
-        <v>48</v>
-      </c>
-      <c r="H20" s="80">
-        <v>45670</v>
-      </c>
-      <c r="I20" s="61" t="s">
-        <v>67</v>
+        <v>51</v>
+      </c>
+      <c r="H20" s="64">
+        <v>45671</v>
+      </c>
+      <c r="I20" s="52" t="s">
+        <v>66</v>
       </c>
       <c r="J20" s="45">
         <v>5</v>
       </c>
       <c r="L20" s="26">
-        <v>82</v>
-      </c>
-      <c r="M20" s="94"/>
+        <v>88</v>
+      </c>
+      <c r="M20" s="29">
+        <v>45734</v>
+      </c>
       <c r="N20" s="65" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="O20" s="28">
         <v>5</v>
@@ -2759,7 +2734,7 @@
       <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="83"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="44" t="s">
         <v>29</v>
       </c>
@@ -2767,21 +2742,25 @@
         <v>5</v>
       </c>
       <c r="G21" s="3">
-        <v>49</v>
-      </c>
-      <c r="H21" s="80"/>
+        <v>52</v>
+      </c>
+      <c r="H21" s="93">
+        <v>45673</v>
+      </c>
       <c r="I21" s="63" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J21" s="45">
         <v>5</v>
       </c>
       <c r="L21" s="26">
-        <v>83</v>
-      </c>
-      <c r="M21" s="94"/>
-      <c r="N21" s="27" t="s">
-        <v>98</v>
+        <v>89</v>
+      </c>
+      <c r="M21" s="29">
+        <v>45748</v>
+      </c>
+      <c r="N21" s="65" t="s">
+        <v>106</v>
       </c>
       <c r="O21" s="28">
         <v>5</v>
@@ -2793,31 +2772,31 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="83"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="44" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="45">
         <v>5</v>
       </c>
-      <c r="G22" s="4">
-        <v>50</v>
-      </c>
-      <c r="H22" s="80"/>
+      <c r="G22" s="3">
+        <v>53</v>
+      </c>
+      <c r="H22" s="93"/>
       <c r="I22" s="63" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J22" s="45">
         <v>5</v>
       </c>
       <c r="L22" s="26">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M22" s="29">
-        <v>45722</v>
-      </c>
-      <c r="N22" s="27" t="s">
-        <v>99</v>
+        <v>45777</v>
+      </c>
+      <c r="N22" s="65" t="s">
+        <v>107</v>
       </c>
       <c r="O22" s="28">
         <v>5</v>
@@ -2829,7 +2808,7 @@
       <c r="B23" s="3">
         <v>17</v>
       </c>
-      <c r="C23" s="83"/>
+      <c r="C23" s="77"/>
       <c r="D23" s="44" t="s">
         <v>31</v>
       </c>
@@ -2837,27 +2816,25 @@
         <v>5</v>
       </c>
       <c r="G23" s="3">
-        <v>51</v>
-      </c>
-      <c r="H23" s="64">
-        <v>45671</v>
-      </c>
-      <c r="I23" s="52" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="H23" s="93"/>
+      <c r="I23" s="63" t="s">
+        <v>70</v>
       </c>
       <c r="J23" s="45">
         <v>5</v>
       </c>
-      <c r="L23" s="3">
-        <v>85</v>
-      </c>
-      <c r="M23" s="66">
-        <v>45725</v>
-      </c>
-      <c r="N23" s="69" t="s">
-        <v>101</v>
-      </c>
-      <c r="O23" s="68">
+      <c r="L23" s="26">
+        <v>91</v>
+      </c>
+      <c r="M23" s="29">
+        <v>45778</v>
+      </c>
+      <c r="N23" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="O23" s="28">
         <v>5</v>
       </c>
       <c r="R23"/>
@@ -2868,7 +2845,7 @@
       <c r="B24" s="3">
         <v>18</v>
       </c>
-      <c r="C24" s="83"/>
+      <c r="C24" s="77"/>
       <c r="D24" s="44" t="s">
         <v>32</v>
       </c>
@@ -2876,25 +2853,25 @@
         <v>5</v>
       </c>
       <c r="G24" s="3">
-        <v>52</v>
-      </c>
-      <c r="H24" s="80">
-        <v>45673</v>
+        <v>55</v>
+      </c>
+      <c r="H24" s="62">
+        <v>45676</v>
       </c>
       <c r="I24" s="63" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J24" s="45">
         <v>5</v>
       </c>
       <c r="L24" s="26">
-        <v>86</v>
-      </c>
-      <c r="M24" s="29">
-        <v>45726</v>
-      </c>
-      <c r="N24" s="27" t="s">
-        <v>102</v>
+        <v>92</v>
+      </c>
+      <c r="M24" s="73">
+        <v>45793</v>
+      </c>
+      <c r="N24" s="65" t="s">
+        <v>109</v>
       </c>
       <c r="O24" s="28">
         <v>5</v>
@@ -2906,7 +2883,7 @@
       <c r="B25" s="3">
         <v>19</v>
       </c>
-      <c r="C25" s="83"/>
+      <c r="C25" s="77"/>
       <c r="D25" s="44" t="s">
         <v>33</v>
       </c>
@@ -2914,23 +2891,23 @@
         <v>5</v>
       </c>
       <c r="G25" s="3">
-        <v>53</v>
-      </c>
-      <c r="H25" s="80"/>
+        <v>56</v>
+      </c>
+      <c r="H25" s="62">
+        <v>45677</v>
+      </c>
       <c r="I25" s="63" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J25" s="45">
         <v>5</v>
       </c>
       <c r="L25" s="26">
-        <v>87</v>
-      </c>
-      <c r="M25" s="29">
-        <v>45730</v>
-      </c>
-      <c r="N25" s="27" t="s">
-        <v>103</v>
+        <v>93</v>
+      </c>
+      <c r="M25" s="74"/>
+      <c r="N25" s="65" t="s">
+        <v>110</v>
       </c>
       <c r="O25" s="28">
         <v>5</v>
@@ -2942,7 +2919,7 @@
       <c r="B26" s="3">
         <v>20</v>
       </c>
-      <c r="C26" s="83"/>
+      <c r="C26" s="77"/>
       <c r="D26" s="43" t="s">
         <v>34</v>
       </c>
@@ -2950,23 +2927,25 @@
         <v>5</v>
       </c>
       <c r="G26" s="3">
-        <v>54</v>
-      </c>
-      <c r="H26" s="80"/>
+        <v>57</v>
+      </c>
+      <c r="H26" s="62">
+        <v>45678</v>
+      </c>
       <c r="I26" s="63" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J26" s="45">
         <v>5</v>
       </c>
       <c r="L26" s="26">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M26" s="29">
-        <v>45734</v>
+        <v>45800</v>
       </c>
       <c r="N26" s="65" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="O26" s="28">
         <v>5</v>
@@ -2978,7 +2957,7 @@
       <c r="B27" s="3">
         <v>21</v>
       </c>
-      <c r="C27" s="84"/>
+      <c r="C27" s="78"/>
       <c r="D27" s="43" t="s">
         <v>35</v>
       </c>
@@ -2986,25 +2965,25 @@
         <v>5</v>
       </c>
       <c r="G27" s="3">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H27" s="62">
-        <v>45676</v>
+        <v>45679</v>
       </c>
       <c r="I27" s="63" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J27" s="45">
         <v>5</v>
       </c>
       <c r="L27" s="26">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M27" s="29">
-        <v>45748</v>
+        <v>45802</v>
       </c>
       <c r="N27" s="65" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="O27" s="28">
         <v>5</v>
@@ -3016,7 +2995,7 @@
       <c r="B28" s="3">
         <v>22</v>
       </c>
-      <c r="C28" s="76">
+      <c r="C28" s="79">
         <v>45659</v>
       </c>
       <c r="D28" s="43" t="s">
@@ -3026,25 +3005,25 @@
         <v>5</v>
       </c>
       <c r="G28" s="3">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H28" s="62">
-        <v>45677</v>
+        <v>45680</v>
       </c>
       <c r="I28" s="63" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J28" s="45">
         <v>5</v>
       </c>
       <c r="L28" s="26">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M28" s="29">
-        <v>45777</v>
+        <v>45803</v>
       </c>
       <c r="N28" s="65" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="O28" s="28">
         <v>5</v>
@@ -3056,7 +3035,7 @@
       <c r="B29" s="5">
         <v>23</v>
       </c>
-      <c r="C29" s="77"/>
+      <c r="C29" s="80"/>
       <c r="D29" s="46" t="s">
         <v>37</v>
       </c>
@@ -3064,25 +3043,25 @@
         <v>5</v>
       </c>
       <c r="G29" s="3">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H29" s="62">
-        <v>45678</v>
+        <v>45684</v>
       </c>
       <c r="I29" s="63" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J29" s="45">
         <v>5</v>
       </c>
       <c r="L29" s="26">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M29" s="29">
-        <v>45778</v>
+        <v>45805</v>
       </c>
       <c r="N29" s="65" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="O29" s="28">
         <v>5</v>
@@ -3094,7 +3073,7 @@
       <c r="B30" s="3">
         <v>24</v>
       </c>
-      <c r="C30" s="77"/>
+      <c r="C30" s="80"/>
       <c r="D30" s="46" t="s">
         <v>38</v>
       </c>
@@ -3102,25 +3081,25 @@
         <v>3</v>
       </c>
       <c r="G30" s="3">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H30" s="62">
-        <v>45679</v>
+        <v>45685</v>
       </c>
       <c r="I30" s="63" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J30" s="45">
         <v>5</v>
       </c>
       <c r="L30" s="26">
-        <v>92</v>
-      </c>
-      <c r="M30" s="74">
-        <v>45793</v>
+        <v>98</v>
+      </c>
+      <c r="M30" s="73">
+        <v>45806</v>
       </c>
       <c r="N30" s="65" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="O30" s="28">
         <v>5</v>
@@ -3132,31 +3111,31 @@
       <c r="B31" s="3">
         <v>25</v>
       </c>
-      <c r="C31" s="77"/>
+      <c r="C31" s="80"/>
       <c r="D31" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="45">
         <v>5</v>
       </c>
-      <c r="G31" s="3">
-        <v>59</v>
-      </c>
-      <c r="H31" s="62">
-        <v>45680</v>
-      </c>
-      <c r="I31" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="J31" s="45">
+      <c r="G31" s="26">
+        <v>62</v>
+      </c>
+      <c r="H31" s="29">
+        <v>45687</v>
+      </c>
+      <c r="I31" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="J31" s="28">
         <v>5</v>
       </c>
       <c r="L31" s="26">
-        <v>93</v>
-      </c>
-      <c r="M31" s="75"/>
+        <v>99</v>
+      </c>
+      <c r="M31" s="74"/>
       <c r="N31" s="65" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="O31" s="28">
         <v>5</v>
@@ -3168,7 +3147,7 @@
       <c r="B32" s="3">
         <v>26</v>
       </c>
-      <c r="C32" s="78"/>
+      <c r="C32" s="81"/>
       <c r="D32" s="46" t="s">
         <v>40</v>
       </c>
@@ -3176,25 +3155,25 @@
         <v>5</v>
       </c>
       <c r="G32" s="3">
-        <v>60</v>
-      </c>
-      <c r="H32" s="62">
-        <v>45684</v>
-      </c>
-      <c r="I32" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="J32" s="45">
+        <v>63</v>
+      </c>
+      <c r="H32" s="29">
+        <v>45688</v>
+      </c>
+      <c r="I32" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="J32" s="28">
         <v>5</v>
       </c>
       <c r="L32" s="26">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M32" s="29">
-        <v>45800</v>
+        <v>45806</v>
       </c>
       <c r="N32" s="65" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="O32" s="28">
         <v>5</v>
@@ -3206,7 +3185,7 @@
       <c r="B33" s="3">
         <v>27</v>
       </c>
-      <c r="C33" s="76">
+      <c r="C33" s="79">
         <v>45660</v>
       </c>
       <c r="D33" s="43" t="s">
@@ -3216,25 +3195,25 @@
         <v>5</v>
       </c>
       <c r="G33" s="3">
-        <v>61</v>
-      </c>
-      <c r="H33" s="62">
-        <v>45685</v>
-      </c>
-      <c r="I33" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="J33" s="45">
+        <v>64</v>
+      </c>
+      <c r="H33" s="29">
+        <v>45689</v>
+      </c>
+      <c r="I33" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="J33" s="28">
         <v>5</v>
       </c>
       <c r="L33" s="26">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M33" s="29">
-        <v>45802</v>
+        <v>45780</v>
       </c>
       <c r="N33" s="65" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="O33" s="28">
         <v>5</v>
@@ -3246,33 +3225,33 @@
       <c r="B34" s="3">
         <v>28</v>
       </c>
-      <c r="C34" s="77"/>
+      <c r="C34" s="80"/>
       <c r="D34" s="46" t="s">
         <v>42</v>
       </c>
       <c r="E34" s="45">
         <v>5</v>
       </c>
-      <c r="G34" s="26">
-        <v>62</v>
-      </c>
-      <c r="H34" s="29">
-        <v>45687</v>
+      <c r="G34" s="3">
+        <v>65</v>
+      </c>
+      <c r="H34" s="73">
+        <v>45689</v>
       </c>
       <c r="I34" s="65" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J34" s="28">
         <v>5</v>
       </c>
       <c r="L34" s="26">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M34" s="29">
-        <v>45803</v>
+        <v>45812</v>
       </c>
       <c r="N34" s="65" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="O34" s="28">
         <v>5</v>
@@ -3284,7 +3263,7 @@
       <c r="B35" s="3">
         <v>29</v>
       </c>
-      <c r="C35" s="77"/>
+      <c r="C35" s="80"/>
       <c r="D35" s="46" t="s">
         <v>43</v>
       </c>
@@ -3293,25 +3272,23 @@
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="3">
-        <v>63</v>
-      </c>
-      <c r="H35" s="29">
-        <v>45688</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="H35" s="74"/>
       <c r="I35" s="65" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="J35" s="28">
         <v>5</v>
       </c>
       <c r="L35" s="26">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M35" s="29">
-        <v>45805</v>
-      </c>
-      <c r="N35" s="65" t="s">
-        <v>114</v>
+        <v>45839</v>
+      </c>
+      <c r="N35" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="O35" s="28">
         <v>5</v>
@@ -3323,7 +3300,7 @@
       <c r="B36" s="6">
         <v>30</v>
       </c>
-      <c r="C36" s="77"/>
+      <c r="C36" s="80"/>
       <c r="D36" s="46" t="s">
         <v>44</v>
       </c>
@@ -3331,27 +3308,27 @@
         <v>5</v>
       </c>
       <c r="G36" s="3">
-        <v>64</v>
-      </c>
-      <c r="H36" s="29">
-        <v>45689</v>
+        <v>67</v>
+      </c>
+      <c r="H36" s="73">
+        <v>45691</v>
       </c>
       <c r="I36" s="65" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J36" s="28">
         <v>5</v>
       </c>
-      <c r="L36" s="26">
-        <v>98</v>
-      </c>
-      <c r="M36" s="74">
-        <v>45806</v>
-      </c>
-      <c r="N36" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="O36" s="28">
+      <c r="L36" s="4">
+        <v>104</v>
+      </c>
+      <c r="M36" s="70">
+        <v>45846</v>
+      </c>
+      <c r="N36" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="O36" s="72">
         <v>5</v>
       </c>
       <c r="R36"/>
@@ -3361,7 +3338,7 @@
       <c r="B37" s="3">
         <v>31</v>
       </c>
-      <c r="C37" s="77"/>
+      <c r="C37" s="80"/>
       <c r="D37" s="63" t="s">
         <v>118</v>
       </c>
@@ -3369,26 +3346,26 @@
         <v>5</v>
       </c>
       <c r="G37" s="3">
-        <v>65</v>
-      </c>
-      <c r="H37" s="74">
-        <v>45689</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="H37" s="74"/>
       <c r="I37" s="65" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J37" s="28">
         <v>5</v>
       </c>
-      <c r="L37" s="26">
-        <v>99</v>
-      </c>
-      <c r="M37" s="75"/>
-      <c r="N37" s="65" t="s">
-        <v>116</v>
+      <c r="L37" s="4">
+        <v>105</v>
+      </c>
+      <c r="M37" s="29">
+        <v>45854</v>
+      </c>
+      <c r="N37" s="27" t="s">
+        <v>123</v>
       </c>
       <c r="O37" s="28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R37"/>
       <c r="W37"/>
@@ -3397,7 +3374,7 @@
       <c r="B38" s="3">
         <v>32</v>
       </c>
-      <c r="C38" s="77"/>
+      <c r="C38" s="80"/>
       <c r="D38" s="50" t="s">
         <v>45</v>
       </c>
@@ -3405,23 +3382,25 @@
         <v>5</v>
       </c>
       <c r="G38" s="3">
-        <v>66</v>
-      </c>
-      <c r="H38" s="75"/>
+        <v>69</v>
+      </c>
+      <c r="H38" s="29">
+        <v>45695</v>
+      </c>
       <c r="I38" s="65" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="J38" s="28">
         <v>5</v>
       </c>
-      <c r="L38" s="26">
-        <v>100</v>
+      <c r="L38" s="4">
+        <v>106</v>
       </c>
       <c r="M38" s="29">
-        <v>45806</v>
-      </c>
-      <c r="N38" s="65" t="s">
-        <v>117</v>
+        <v>45859</v>
+      </c>
+      <c r="N38" s="27" t="s">
+        <v>124</v>
       </c>
       <c r="O38" s="28">
         <v>5</v>
@@ -3431,7 +3410,7 @@
       <c r="B39" s="3">
         <v>33</v>
       </c>
-      <c r="C39" s="77"/>
+      <c r="C39" s="80"/>
       <c r="D39" s="50" t="s">
         <v>46</v>
       </c>
@@ -3440,36 +3419,36 @@
       </c>
       <c r="F39" s="30"/>
       <c r="G39" s="3">
-        <v>67</v>
-      </c>
-      <c r="H39" s="74">
-        <v>45691</v>
+        <v>70</v>
+      </c>
+      <c r="H39" s="91">
+        <v>45700</v>
       </c>
       <c r="I39" s="65" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J39" s="28">
         <v>5</v>
       </c>
       <c r="K39" s="30"/>
-      <c r="L39" s="26">
-        <v>101</v>
+      <c r="L39" s="4">
+        <v>107</v>
       </c>
       <c r="M39" s="29">
-        <v>45780</v>
-      </c>
-      <c r="N39" s="65" t="s">
-        <v>119</v>
+        <v>45865</v>
+      </c>
+      <c r="N39" s="27" t="s">
+        <v>125</v>
       </c>
       <c r="O39" s="28">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40" s="3">
         <v>34</v>
       </c>
-      <c r="C40" s="95"/>
+      <c r="C40" s="81"/>
       <c r="D40" s="50" t="s">
         <v>47</v>
       </c>
@@ -3477,153 +3456,165 @@
         <v>5</v>
       </c>
       <c r="G40" s="3">
-        <v>68</v>
-      </c>
-      <c r="H40" s="75"/>
+        <v>71</v>
+      </c>
+      <c r="H40" s="91"/>
       <c r="I40" s="65" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="J40" s="28">
         <v>5</v>
       </c>
-      <c r="L40" s="26">
-        <v>102</v>
+      <c r="L40" s="4">
+        <v>108</v>
       </c>
       <c r="M40" s="29">
-        <v>45812</v>
-      </c>
-      <c r="N40" s="65" t="s">
-        <v>120</v>
+        <v>45866</v>
+      </c>
+      <c r="N40" s="27" t="s">
+        <v>126</v>
       </c>
       <c r="O40" s="28">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="21"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="49">
-        <f>SUM(E7:E40)</f>
-        <v>174</v>
-      </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="49">
-        <f>SUM(J7:J40)</f>
-        <v>166</v>
-      </c>
-      <c r="L41" s="26">
-        <v>103</v>
-      </c>
-      <c r="M41" s="29">
-        <v>45839</v>
-      </c>
-      <c r="N41" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="O41" s="28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="L42" s="4">
-        <v>104</v>
-      </c>
-      <c r="M42" s="71">
-        <v>45846</v>
-      </c>
-      <c r="N42" s="72" t="s">
-        <v>122</v>
-      </c>
-      <c r="O42" s="73">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C43" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="L43" s="4">
-        <v>105</v>
-      </c>
-      <c r="M43" s="29">
-        <v>45854</v>
-      </c>
-      <c r="N43" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="O43" s="28">
+      <c r="B41" s="3">
+        <v>35</v>
+      </c>
+      <c r="C41" s="94">
+        <v>45660</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="45">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
+        <v>72</v>
+      </c>
+      <c r="H41" s="91">
+        <v>45701</v>
+      </c>
+      <c r="I41" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="J41" s="28">
+        <v>5</v>
+      </c>
+      <c r="L41" s="4">
+        <v>109</v>
+      </c>
+      <c r="M41" s="70">
+        <v>45887</v>
+      </c>
+      <c r="N41" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="O41" s="72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="3">
+        <v>36</v>
+      </c>
+      <c r="C42" s="62">
+        <v>45661</v>
+      </c>
+      <c r="D42" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="45">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
+        <v>73</v>
+      </c>
+      <c r="H42" s="91"/>
+      <c r="I42" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="J42" s="28">
+        <v>5</v>
+      </c>
+      <c r="L42" s="26"/>
+      <c r="M42" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="N42" s="24"/>
+      <c r="O42" s="25">
+        <f>SUM(O7:O41)</f>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="3">
+        <v>37</v>
+      </c>
+      <c r="C43" s="62"/>
+      <c r="D43" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="45">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C44" s="15" t="s">
+      <c r="G43" s="3">
+        <v>74</v>
+      </c>
+      <c r="H43" s="29">
+        <v>45707</v>
+      </c>
+      <c r="I43" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="J43" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="21"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="49">
+        <f>SUM(E7:E43)</f>
+        <v>187</v>
+      </c>
+      <c r="G44" s="21"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="49">
+        <f>SUM(J7:J43)</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="2:23" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C46" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C47" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="4">
-        <v>106</v>
-      </c>
-      <c r="M44" s="29">
-        <v>45859</v>
-      </c>
-      <c r="N44" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="O44" s="28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="L45" s="4">
-        <v>107</v>
-      </c>
-      <c r="M45" s="29">
-        <v>45865</v>
-      </c>
-      <c r="N45" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="O45" s="28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L46" s="4">
-        <v>108</v>
-      </c>
-      <c r="M46" s="29">
-        <v>45866</v>
-      </c>
-      <c r="N46" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="O46" s="28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L47" s="26"/>
-      <c r="M47" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="N47" s="24"/>
-      <c r="O47" s="25">
-        <f>SUM(O7:O46)</f>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="M30:M31"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="C9:C27"/>
     <mergeCell ref="C28:C32"/>
@@ -3632,19 +3623,13 @@
     <mergeCell ref="S15:T15"/>
     <mergeCell ref="S16:T16"/>
     <mergeCell ref="S6:V6"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="M7:M9"/>
     <mergeCell ref="M13:M15"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="H34:H35"/>
     <mergeCell ref="C33:C40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H20:H22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1663E3-15AB-4E8F-B488-C85DF1B8AABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E300599D-5103-4EC4-8B4F-9E8A21DCAB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65989A62-DD22-4017-B1F4-9BE3BB514C20}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="129">
   <si>
     <t>일   자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -546,6 +546,10 @@
   </si>
   <si>
     <t>김종현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이진구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1628,12 +1632,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1644,15 +1666,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1684,15 +1697,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2017,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC16636-847A-47F1-BA3B-A88365FF7E52}">
   <dimension ref="B1:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2057,20 +2061,20 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
     </row>
     <row r="3" spans="2:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:23" ht="20.25" x14ac:dyDescent="0.3">
@@ -2117,12 +2121,12 @@
         <v>9</v>
       </c>
       <c r="R6"/>
-      <c r="S6" s="88" t="s">
+      <c r="S6" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="89"/>
-      <c r="U6" s="89"/>
-      <c r="V6" s="90"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="93"/>
       <c r="W6"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
@@ -2153,7 +2157,7 @@
       <c r="L7" s="3">
         <v>75</v>
       </c>
-      <c r="M7" s="91">
+      <c r="M7" s="94">
         <v>45708</v>
       </c>
       <c r="N7" s="65" t="s">
@@ -2193,7 +2197,7 @@
       <c r="G8" s="5">
         <v>39</v>
       </c>
-      <c r="H8" s="79">
+      <c r="H8" s="76">
         <v>45663</v>
       </c>
       <c r="I8" s="46" t="s">
@@ -2205,7 +2209,7 @@
       <c r="L8" s="3">
         <v>76</v>
       </c>
-      <c r="M8" s="91"/>
+      <c r="M8" s="94"/>
       <c r="N8" s="65" t="s">
         <v>91</v>
       </c>
@@ -2231,7 +2235,7 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="76">
+      <c r="C9" s="82">
         <v>45658</v>
       </c>
       <c r="D9" s="42" t="s">
@@ -2243,7 +2247,7 @@
       <c r="G9" s="3">
         <v>40</v>
       </c>
-      <c r="H9" s="80"/>
+      <c r="H9" s="77"/>
       <c r="I9" s="46" t="s">
         <v>53</v>
       </c>
@@ -2253,7 +2257,7 @@
       <c r="L9" s="3">
         <v>77</v>
       </c>
-      <c r="M9" s="91"/>
+      <c r="M9" s="94"/>
       <c r="N9" s="65" t="s">
         <v>92</v>
       </c>
@@ -2279,7 +2283,7 @@
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="77"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="43" t="s">
         <v>18</v>
       </c>
@@ -2289,7 +2293,7 @@
       <c r="G10" s="3">
         <v>41</v>
       </c>
-      <c r="H10" s="81"/>
+      <c r="H10" s="78"/>
       <c r="I10" s="46" t="s">
         <v>54</v>
       </c>
@@ -2319,7 +2323,7 @@
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="77"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="43" t="s">
         <v>19</v>
       </c>
@@ -2329,7 +2333,7 @@
       <c r="G11" s="3">
         <v>42</v>
       </c>
-      <c r="H11" s="79">
+      <c r="H11" s="76">
         <v>45664</v>
       </c>
       <c r="I11" s="61" t="s">
@@ -2366,7 +2370,7 @@
       <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="77"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="43" t="s">
         <v>20</v>
       </c>
@@ -2376,7 +2380,7 @@
       <c r="G12" s="3">
         <v>43</v>
       </c>
-      <c r="H12" s="92"/>
+      <c r="H12" s="79"/>
       <c r="I12" s="61" t="s">
         <v>59</v>
       </c>
@@ -2402,7 +2406,7 @@
       <c r="B13" s="5">
         <v>7</v>
       </c>
-      <c r="C13" s="77"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="43" t="s">
         <v>21</v>
       </c>
@@ -2412,7 +2416,7 @@
       <c r="G13" s="3">
         <v>44</v>
       </c>
-      <c r="H13" s="79">
+      <c r="H13" s="76">
         <v>45665</v>
       </c>
       <c r="I13" s="61" t="s">
@@ -2424,7 +2428,7 @@
       <c r="L13" s="26">
         <v>81</v>
       </c>
-      <c r="M13" s="91">
+      <c r="M13" s="94">
         <v>45721</v>
       </c>
       <c r="N13" s="65" t="s">
@@ -2434,10 +2438,10 @@
         <v>5</v>
       </c>
       <c r="R13"/>
-      <c r="S13" s="82" t="s">
+      <c r="S13" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="83"/>
+      <c r="T13" s="86"/>
       <c r="U13" s="19" t="s">
         <v>14</v>
       </c>
@@ -2450,7 +2454,7 @@
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="77"/>
+      <c r="C14" s="83"/>
       <c r="D14" s="43" t="s">
         <v>22</v>
       </c>
@@ -2460,7 +2464,7 @@
       <c r="G14" s="3">
         <v>45</v>
       </c>
-      <c r="H14" s="92"/>
+      <c r="H14" s="79"/>
       <c r="I14" s="61" t="s">
         <v>61</v>
       </c>
@@ -2470,7 +2474,7 @@
       <c r="L14" s="26">
         <v>82</v>
       </c>
-      <c r="M14" s="91"/>
+      <c r="M14" s="94"/>
       <c r="N14" s="65" t="s">
         <v>97</v>
       </c>
@@ -2478,13 +2482,13 @@
         <v>5</v>
       </c>
       <c r="R14"/>
-      <c r="S14" s="84" t="s">
+      <c r="S14" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="85"/>
+      <c r="T14" s="88"/>
       <c r="U14" s="33">
-        <f>E44+J44+O42</f>
-        <v>543</v>
+        <f>E44+J44+O43</f>
+        <v>548</v>
       </c>
       <c r="V14" s="16"/>
       <c r="W14"/>
@@ -2493,7 +2497,7 @@
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="77"/>
+      <c r="C15" s="83"/>
       <c r="D15" s="43" t="s">
         <v>23</v>
       </c>
@@ -2515,7 +2519,7 @@
       <c r="L15" s="26">
         <v>83</v>
       </c>
-      <c r="M15" s="91"/>
+      <c r="M15" s="94"/>
       <c r="N15" s="27" t="s">
         <v>98</v>
       </c>
@@ -2523,10 +2527,10 @@
         <v>5</v>
       </c>
       <c r="R15"/>
-      <c r="S15" s="84" t="s">
+      <c r="S15" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="T15" s="85"/>
+      <c r="T15" s="88"/>
       <c r="U15" s="34">
         <f>U11</f>
         <v>330</v>
@@ -2538,7 +2542,7 @@
       <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="77"/>
+      <c r="C16" s="83"/>
       <c r="D16" s="43" t="s">
         <v>24</v>
       </c>
@@ -2570,13 +2574,13 @@
         <v>5</v>
       </c>
       <c r="R16"/>
-      <c r="S16" s="86" t="s">
+      <c r="S16" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="87"/>
+      <c r="T16" s="90"/>
       <c r="U16" s="35">
         <f>SUM(U14:U15)</f>
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="V16" s="18"/>
       <c r="W16"/>
@@ -2585,7 +2589,7 @@
       <c r="B17" s="3">
         <v>11</v>
       </c>
-      <c r="C17" s="77"/>
+      <c r="C17" s="83"/>
       <c r="D17" s="43" t="s">
         <v>25</v>
       </c>
@@ -2595,7 +2599,7 @@
       <c r="G17" s="3">
         <v>48</v>
       </c>
-      <c r="H17" s="93">
+      <c r="H17" s="80">
         <v>45670</v>
       </c>
       <c r="I17" s="61" t="s">
@@ -2623,7 +2627,7 @@
       <c r="B18" s="3">
         <v>12</v>
       </c>
-      <c r="C18" s="77"/>
+      <c r="C18" s="83"/>
       <c r="D18" s="43" t="s">
         <v>26</v>
       </c>
@@ -2633,7 +2637,7 @@
       <c r="G18" s="3">
         <v>49</v>
       </c>
-      <c r="H18" s="93"/>
+      <c r="H18" s="80"/>
       <c r="I18" s="63" t="s">
         <v>64</v>
       </c>
@@ -2660,7 +2664,7 @@
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="77"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="43" t="s">
         <v>27</v>
       </c>
@@ -2670,7 +2674,7 @@
       <c r="G19" s="4">
         <v>50</v>
       </c>
-      <c r="H19" s="93"/>
+      <c r="H19" s="80"/>
       <c r="I19" s="63" t="s">
         <v>65</v>
       </c>
@@ -2696,7 +2700,7 @@
       <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="77"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="44" t="s">
         <v>28</v>
       </c>
@@ -2734,7 +2738,7 @@
       <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="77"/>
+      <c r="C21" s="83"/>
       <c r="D21" s="44" t="s">
         <v>29</v>
       </c>
@@ -2744,7 +2748,7 @@
       <c r="G21" s="3">
         <v>52</v>
       </c>
-      <c r="H21" s="93">
+      <c r="H21" s="80">
         <v>45673</v>
       </c>
       <c r="I21" s="63" t="s">
@@ -2772,7 +2776,7 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="77"/>
+      <c r="C22" s="83"/>
       <c r="D22" s="44" t="s">
         <v>30</v>
       </c>
@@ -2782,7 +2786,7 @@
       <c r="G22" s="3">
         <v>53</v>
       </c>
-      <c r="H22" s="93"/>
+      <c r="H22" s="80"/>
       <c r="I22" s="63" t="s">
         <v>69</v>
       </c>
@@ -2808,7 +2812,7 @@
       <c r="B23" s="3">
         <v>17</v>
       </c>
-      <c r="C23" s="77"/>
+      <c r="C23" s="83"/>
       <c r="D23" s="44" t="s">
         <v>31</v>
       </c>
@@ -2818,7 +2822,7 @@
       <c r="G23" s="3">
         <v>54</v>
       </c>
-      <c r="H23" s="93"/>
+      <c r="H23" s="80"/>
       <c r="I23" s="63" t="s">
         <v>70</v>
       </c>
@@ -2845,7 +2849,7 @@
       <c r="B24" s="3">
         <v>18</v>
       </c>
-      <c r="C24" s="77"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="44" t="s">
         <v>32</v>
       </c>
@@ -2867,7 +2871,7 @@
       <c r="L24" s="26">
         <v>92</v>
       </c>
-      <c r="M24" s="73">
+      <c r="M24" s="74">
         <v>45793</v>
       </c>
       <c r="N24" s="65" t="s">
@@ -2883,7 +2887,7 @@
       <c r="B25" s="3">
         <v>19</v>
       </c>
-      <c r="C25" s="77"/>
+      <c r="C25" s="83"/>
       <c r="D25" s="44" t="s">
         <v>33</v>
       </c>
@@ -2905,7 +2909,7 @@
       <c r="L25" s="26">
         <v>93</v>
       </c>
-      <c r="M25" s="74"/>
+      <c r="M25" s="75"/>
       <c r="N25" s="65" t="s">
         <v>110</v>
       </c>
@@ -2919,7 +2923,7 @@
       <c r="B26" s="3">
         <v>20</v>
       </c>
-      <c r="C26" s="77"/>
+      <c r="C26" s="83"/>
       <c r="D26" s="43" t="s">
         <v>34</v>
       </c>
@@ -2957,7 +2961,7 @@
       <c r="B27" s="3">
         <v>21</v>
       </c>
-      <c r="C27" s="78"/>
+      <c r="C27" s="84"/>
       <c r="D27" s="43" t="s">
         <v>35</v>
       </c>
@@ -2995,7 +2999,7 @@
       <c r="B28" s="3">
         <v>22</v>
       </c>
-      <c r="C28" s="79">
+      <c r="C28" s="76">
         <v>45659</v>
       </c>
       <c r="D28" s="43" t="s">
@@ -3035,7 +3039,7 @@
       <c r="B29" s="5">
         <v>23</v>
       </c>
-      <c r="C29" s="80"/>
+      <c r="C29" s="77"/>
       <c r="D29" s="46" t="s">
         <v>37</v>
       </c>
@@ -3073,7 +3077,7 @@
       <c r="B30" s="3">
         <v>24</v>
       </c>
-      <c r="C30" s="80"/>
+      <c r="C30" s="77"/>
       <c r="D30" s="46" t="s">
         <v>38</v>
       </c>
@@ -3095,7 +3099,7 @@
       <c r="L30" s="26">
         <v>98</v>
       </c>
-      <c r="M30" s="73">
+      <c r="M30" s="74">
         <v>45806</v>
       </c>
       <c r="N30" s="65" t="s">
@@ -3111,7 +3115,7 @@
       <c r="B31" s="3">
         <v>25</v>
       </c>
-      <c r="C31" s="80"/>
+      <c r="C31" s="77"/>
       <c r="D31" s="46" t="s">
         <v>39</v>
       </c>
@@ -3133,7 +3137,7 @@
       <c r="L31" s="26">
         <v>99</v>
       </c>
-      <c r="M31" s="74"/>
+      <c r="M31" s="75"/>
       <c r="N31" s="65" t="s">
         <v>116</v>
       </c>
@@ -3147,7 +3151,7 @@
       <c r="B32" s="3">
         <v>26</v>
       </c>
-      <c r="C32" s="81"/>
+      <c r="C32" s="78"/>
       <c r="D32" s="46" t="s">
         <v>40</v>
       </c>
@@ -3185,7 +3189,7 @@
       <c r="B33" s="3">
         <v>27</v>
       </c>
-      <c r="C33" s="79">
+      <c r="C33" s="76">
         <v>45660</v>
       </c>
       <c r="D33" s="43" t="s">
@@ -3225,7 +3229,7 @@
       <c r="B34" s="3">
         <v>28</v>
       </c>
-      <c r="C34" s="80"/>
+      <c r="C34" s="77"/>
       <c r="D34" s="46" t="s">
         <v>42</v>
       </c>
@@ -3235,7 +3239,7 @@
       <c r="G34" s="3">
         <v>65</v>
       </c>
-      <c r="H34" s="73">
+      <c r="H34" s="74">
         <v>45689</v>
       </c>
       <c r="I34" s="65" t="s">
@@ -3263,7 +3267,7 @@
       <c r="B35" s="3">
         <v>29</v>
       </c>
-      <c r="C35" s="80"/>
+      <c r="C35" s="77"/>
       <c r="D35" s="46" t="s">
         <v>43</v>
       </c>
@@ -3274,7 +3278,7 @@
       <c r="G35" s="3">
         <v>66</v>
       </c>
-      <c r="H35" s="74"/>
+      <c r="H35" s="75"/>
       <c r="I35" s="65" t="s">
         <v>104</v>
       </c>
@@ -3300,7 +3304,7 @@
       <c r="B36" s="6">
         <v>30</v>
       </c>
-      <c r="C36" s="80"/>
+      <c r="C36" s="77"/>
       <c r="D36" s="46" t="s">
         <v>44</v>
       </c>
@@ -3310,7 +3314,7 @@
       <c r="G36" s="3">
         <v>67</v>
       </c>
-      <c r="H36" s="73">
+      <c r="H36" s="74">
         <v>45691</v>
       </c>
       <c r="I36" s="65" t="s">
@@ -3338,7 +3342,7 @@
       <c r="B37" s="3">
         <v>31</v>
       </c>
-      <c r="C37" s="80"/>
+      <c r="C37" s="77"/>
       <c r="D37" s="63" t="s">
         <v>118</v>
       </c>
@@ -3348,7 +3352,7 @@
       <c r="G37" s="3">
         <v>68</v>
       </c>
-      <c r="H37" s="74"/>
+      <c r="H37" s="75"/>
       <c r="I37" s="65" t="s">
         <v>83</v>
       </c>
@@ -3374,7 +3378,7 @@
       <c r="B38" s="3">
         <v>32</v>
       </c>
-      <c r="C38" s="80"/>
+      <c r="C38" s="77"/>
       <c r="D38" s="50" t="s">
         <v>45</v>
       </c>
@@ -3410,7 +3414,7 @@
       <c r="B39" s="3">
         <v>33</v>
       </c>
-      <c r="C39" s="80"/>
+      <c r="C39" s="77"/>
       <c r="D39" s="50" t="s">
         <v>46</v>
       </c>
@@ -3421,7 +3425,7 @@
       <c r="G39" s="3">
         <v>70</v>
       </c>
-      <c r="H39" s="91">
+      <c r="H39" s="94">
         <v>45700</v>
       </c>
       <c r="I39" s="65" t="s">
@@ -3448,7 +3452,7 @@
       <c r="B40" s="3">
         <v>34</v>
       </c>
-      <c r="C40" s="81"/>
+      <c r="C40" s="78"/>
       <c r="D40" s="50" t="s">
         <v>47</v>
       </c>
@@ -3458,7 +3462,7 @@
       <c r="G40" s="3">
         <v>71</v>
       </c>
-      <c r="H40" s="91"/>
+      <c r="H40" s="94"/>
       <c r="I40" s="65" t="s">
         <v>100</v>
       </c>
@@ -3478,11 +3482,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
         <v>35</v>
       </c>
-      <c r="C41" s="94">
+      <c r="C41" s="73">
         <v>45660</v>
       </c>
       <c r="D41" s="50" t="s">
@@ -3494,7 +3498,7 @@
       <c r="G41" s="3">
         <v>72</v>
       </c>
-      <c r="H41" s="91">
+      <c r="H41" s="94">
         <v>45701</v>
       </c>
       <c r="I41" s="65" t="s">
@@ -3532,24 +3536,27 @@
       <c r="G42" s="3">
         <v>73</v>
       </c>
-      <c r="H42" s="91"/>
+      <c r="H42" s="94"/>
       <c r="I42" s="65" t="s">
         <v>88</v>
       </c>
       <c r="J42" s="28">
         <v>5</v>
       </c>
-      <c r="L42" s="26"/>
-      <c r="M42" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="N42" s="24"/>
-      <c r="O42" s="25">
-        <f>SUM(O7:O41)</f>
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L42" s="4">
+        <v>110</v>
+      </c>
+      <c r="M42" s="29">
+        <v>45908</v>
+      </c>
+      <c r="N42" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="O42" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <v>37</v>
       </c>
@@ -3572,8 +3579,17 @@
       <c r="J43" s="28">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L43" s="26"/>
+      <c r="M43" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="N43" s="24"/>
+      <c r="O43" s="25">
+        <f>SUM(O7:O42)</f>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="21"/>
       <c r="C44" s="47"/>
       <c r="D44" s="48"/>
@@ -3608,12 +3624,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="C33:C40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="H34:H35"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="C9:C27"/>
@@ -3623,13 +3640,12 @@
     <mergeCell ref="S15:T15"/>
     <mergeCell ref="S16:T16"/>
     <mergeCell ref="S6:V6"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="C33:C40"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H17:H19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E300599D-5103-4EC4-8B4F-9E8A21DCAB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3DCC59-9221-4156-87D6-73807555BD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65989A62-DD22-4017-B1F4-9BE3BB514C20}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="130">
   <si>
     <t>일   자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -550,6 +550,10 @@
   </si>
   <si>
     <t>이진구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심규익</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1635,25 +1639,22 @@
     <xf numFmtId="176" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1695,7 +1696,10 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2021,8 +2025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC16636-847A-47F1-BA3B-A88365FF7E52}">
   <dimension ref="B1:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S48" sqref="S48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2061,20 +2065,20 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
     </row>
     <row r="3" spans="2:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:23" ht="20.25" x14ac:dyDescent="0.3">
@@ -2121,12 +2125,12 @@
         <v>9</v>
       </c>
       <c r="R6"/>
-      <c r="S6" s="91" t="s">
+      <c r="S6" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="93"/>
+      <c r="T6" s="91"/>
+      <c r="U6" s="91"/>
+      <c r="V6" s="92"/>
       <c r="W6"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
@@ -2157,7 +2161,7 @@
       <c r="L7" s="3">
         <v>75</v>
       </c>
-      <c r="M7" s="94">
+      <c r="M7" s="77">
         <v>45708</v>
       </c>
       <c r="N7" s="65" t="s">
@@ -2197,7 +2201,7 @@
       <c r="G8" s="5">
         <v>39</v>
       </c>
-      <c r="H8" s="76">
+      <c r="H8" s="74">
         <v>45663</v>
       </c>
       <c r="I8" s="46" t="s">
@@ -2209,7 +2213,7 @@
       <c r="L8" s="3">
         <v>76</v>
       </c>
-      <c r="M8" s="94"/>
+      <c r="M8" s="77"/>
       <c r="N8" s="65" t="s">
         <v>91</v>
       </c>
@@ -2235,7 +2239,7 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="82">
+      <c r="C9" s="81">
         <v>45658</v>
       </c>
       <c r="D9" s="42" t="s">
@@ -2247,7 +2251,7 @@
       <c r="G9" s="3">
         <v>40</v>
       </c>
-      <c r="H9" s="77"/>
+      <c r="H9" s="75"/>
       <c r="I9" s="46" t="s">
         <v>53</v>
       </c>
@@ -2257,7 +2261,7 @@
       <c r="L9" s="3">
         <v>77</v>
       </c>
-      <c r="M9" s="94"/>
+      <c r="M9" s="77"/>
       <c r="N9" s="65" t="s">
         <v>92</v>
       </c>
@@ -2283,7 +2287,7 @@
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="43" t="s">
         <v>18</v>
       </c>
@@ -2293,7 +2297,7 @@
       <c r="G10" s="3">
         <v>41</v>
       </c>
-      <c r="H10" s="78"/>
+      <c r="H10" s="76"/>
       <c r="I10" s="46" t="s">
         <v>54</v>
       </c>
@@ -2323,7 +2327,7 @@
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="43" t="s">
         <v>19</v>
       </c>
@@ -2333,7 +2337,7 @@
       <c r="G11" s="3">
         <v>42</v>
       </c>
-      <c r="H11" s="76">
+      <c r="H11" s="74">
         <v>45664</v>
       </c>
       <c r="I11" s="61" t="s">
@@ -2370,7 +2374,7 @@
       <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="43" t="s">
         <v>20</v>
       </c>
@@ -2380,7 +2384,7 @@
       <c r="G12" s="3">
         <v>43</v>
       </c>
-      <c r="H12" s="79"/>
+      <c r="H12" s="93"/>
       <c r="I12" s="61" t="s">
         <v>59</v>
       </c>
@@ -2406,7 +2410,7 @@
       <c r="B13" s="5">
         <v>7</v>
       </c>
-      <c r="C13" s="83"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="43" t="s">
         <v>21</v>
       </c>
@@ -2416,7 +2420,7 @@
       <c r="G13" s="3">
         <v>44</v>
       </c>
-      <c r="H13" s="76">
+      <c r="H13" s="74">
         <v>45665</v>
       </c>
       <c r="I13" s="61" t="s">
@@ -2428,7 +2432,7 @@
       <c r="L13" s="26">
         <v>81</v>
       </c>
-      <c r="M13" s="94">
+      <c r="M13" s="77">
         <v>45721</v>
       </c>
       <c r="N13" s="65" t="s">
@@ -2438,10 +2442,10 @@
         <v>5</v>
       </c>
       <c r="R13"/>
-      <c r="S13" s="85" t="s">
+      <c r="S13" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="86"/>
+      <c r="T13" s="85"/>
       <c r="U13" s="19" t="s">
         <v>14</v>
       </c>
@@ -2454,7 +2458,7 @@
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="83"/>
+      <c r="C14" s="82"/>
       <c r="D14" s="43" t="s">
         <v>22</v>
       </c>
@@ -2464,7 +2468,7 @@
       <c r="G14" s="3">
         <v>45</v>
       </c>
-      <c r="H14" s="79"/>
+      <c r="H14" s="93"/>
       <c r="I14" s="61" t="s">
         <v>61</v>
       </c>
@@ -2474,7 +2478,7 @@
       <c r="L14" s="26">
         <v>82</v>
       </c>
-      <c r="M14" s="94"/>
+      <c r="M14" s="77"/>
       <c r="N14" s="65" t="s">
         <v>97</v>
       </c>
@@ -2482,13 +2486,13 @@
         <v>5</v>
       </c>
       <c r="R14"/>
-      <c r="S14" s="87" t="s">
+      <c r="S14" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="88"/>
+      <c r="T14" s="87"/>
       <c r="U14" s="33">
-        <f>E44+J44+O43</f>
-        <v>548</v>
+        <f>E44+J44+O44</f>
+        <v>553</v>
       </c>
       <c r="V14" s="16"/>
       <c r="W14"/>
@@ -2497,7 +2501,7 @@
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="83"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="43" t="s">
         <v>23</v>
       </c>
@@ -2519,7 +2523,7 @@
       <c r="L15" s="26">
         <v>83</v>
       </c>
-      <c r="M15" s="94"/>
+      <c r="M15" s="77"/>
       <c r="N15" s="27" t="s">
         <v>98</v>
       </c>
@@ -2527,10 +2531,10 @@
         <v>5</v>
       </c>
       <c r="R15"/>
-      <c r="S15" s="87" t="s">
+      <c r="S15" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="T15" s="88"/>
+      <c r="T15" s="87"/>
       <c r="U15" s="34">
         <f>U11</f>
         <v>330</v>
@@ -2542,7 +2546,7 @@
       <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="83"/>
+      <c r="C16" s="82"/>
       <c r="D16" s="43" t="s">
         <v>24</v>
       </c>
@@ -2574,13 +2578,13 @@
         <v>5</v>
       </c>
       <c r="R16"/>
-      <c r="S16" s="89" t="s">
+      <c r="S16" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="90"/>
+      <c r="T16" s="89"/>
       <c r="U16" s="35">
         <f>SUM(U14:U15)</f>
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="V16" s="18"/>
       <c r="W16"/>
@@ -2589,7 +2593,7 @@
       <c r="B17" s="3">
         <v>11</v>
       </c>
-      <c r="C17" s="83"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="43" t="s">
         <v>25</v>
       </c>
@@ -2599,7 +2603,7 @@
       <c r="G17" s="3">
         <v>48</v>
       </c>
-      <c r="H17" s="80">
+      <c r="H17" s="94">
         <v>45670</v>
       </c>
       <c r="I17" s="61" t="s">
@@ -2627,7 +2631,7 @@
       <c r="B18" s="3">
         <v>12</v>
       </c>
-      <c r="C18" s="83"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="43" t="s">
         <v>26</v>
       </c>
@@ -2637,7 +2641,7 @@
       <c r="G18" s="3">
         <v>49</v>
       </c>
-      <c r="H18" s="80"/>
+      <c r="H18" s="94"/>
       <c r="I18" s="63" t="s">
         <v>64</v>
       </c>
@@ -2664,7 +2668,7 @@
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="83"/>
+      <c r="C19" s="82"/>
       <c r="D19" s="43" t="s">
         <v>27</v>
       </c>
@@ -2674,7 +2678,7 @@
       <c r="G19" s="4">
         <v>50</v>
       </c>
-      <c r="H19" s="80"/>
+      <c r="H19" s="94"/>
       <c r="I19" s="63" t="s">
         <v>65</v>
       </c>
@@ -2700,7 +2704,7 @@
       <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="83"/>
+      <c r="C20" s="82"/>
       <c r="D20" s="44" t="s">
         <v>28</v>
       </c>
@@ -2738,7 +2742,7 @@
       <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="83"/>
+      <c r="C21" s="82"/>
       <c r="D21" s="44" t="s">
         <v>29</v>
       </c>
@@ -2748,7 +2752,7 @@
       <c r="G21" s="3">
         <v>52</v>
       </c>
-      <c r="H21" s="80">
+      <c r="H21" s="94">
         <v>45673</v>
       </c>
       <c r="I21" s="63" t="s">
@@ -2776,7 +2780,7 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="83"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="44" t="s">
         <v>30</v>
       </c>
@@ -2786,7 +2790,7 @@
       <c r="G22" s="3">
         <v>53</v>
       </c>
-      <c r="H22" s="80"/>
+      <c r="H22" s="94"/>
       <c r="I22" s="63" t="s">
         <v>69</v>
       </c>
@@ -2812,7 +2816,7 @@
       <c r="B23" s="3">
         <v>17</v>
       </c>
-      <c r="C23" s="83"/>
+      <c r="C23" s="82"/>
       <c r="D23" s="44" t="s">
         <v>31</v>
       </c>
@@ -2822,7 +2826,7 @@
       <c r="G23" s="3">
         <v>54</v>
       </c>
-      <c r="H23" s="80"/>
+      <c r="H23" s="94"/>
       <c r="I23" s="63" t="s">
         <v>70</v>
       </c>
@@ -2849,7 +2853,7 @@
       <c r="B24" s="3">
         <v>18</v>
       </c>
-      <c r="C24" s="83"/>
+      <c r="C24" s="82"/>
       <c r="D24" s="44" t="s">
         <v>32</v>
       </c>
@@ -2871,7 +2875,7 @@
       <c r="L24" s="26">
         <v>92</v>
       </c>
-      <c r="M24" s="74">
+      <c r="M24" s="78">
         <v>45793</v>
       </c>
       <c r="N24" s="65" t="s">
@@ -2887,7 +2891,7 @@
       <c r="B25" s="3">
         <v>19</v>
       </c>
-      <c r="C25" s="83"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="44" t="s">
         <v>33</v>
       </c>
@@ -2909,7 +2913,7 @@
       <c r="L25" s="26">
         <v>93</v>
       </c>
-      <c r="M25" s="75"/>
+      <c r="M25" s="79"/>
       <c r="N25" s="65" t="s">
         <v>110</v>
       </c>
@@ -2923,7 +2927,7 @@
       <c r="B26" s="3">
         <v>20</v>
       </c>
-      <c r="C26" s="83"/>
+      <c r="C26" s="82"/>
       <c r="D26" s="43" t="s">
         <v>34</v>
       </c>
@@ -2961,7 +2965,7 @@
       <c r="B27" s="3">
         <v>21</v>
       </c>
-      <c r="C27" s="84"/>
+      <c r="C27" s="83"/>
       <c r="D27" s="43" t="s">
         <v>35</v>
       </c>
@@ -2999,7 +3003,7 @@
       <c r="B28" s="3">
         <v>22</v>
       </c>
-      <c r="C28" s="76">
+      <c r="C28" s="74">
         <v>45659</v>
       </c>
       <c r="D28" s="43" t="s">
@@ -3039,7 +3043,7 @@
       <c r="B29" s="5">
         <v>23</v>
       </c>
-      <c r="C29" s="77"/>
+      <c r="C29" s="75"/>
       <c r="D29" s="46" t="s">
         <v>37</v>
       </c>
@@ -3077,7 +3081,7 @@
       <c r="B30" s="3">
         <v>24</v>
       </c>
-      <c r="C30" s="77"/>
+      <c r="C30" s="75"/>
       <c r="D30" s="46" t="s">
         <v>38</v>
       </c>
@@ -3099,7 +3103,7 @@
       <c r="L30" s="26">
         <v>98</v>
       </c>
-      <c r="M30" s="74">
+      <c r="M30" s="78">
         <v>45806</v>
       </c>
       <c r="N30" s="65" t="s">
@@ -3115,7 +3119,7 @@
       <c r="B31" s="3">
         <v>25</v>
       </c>
-      <c r="C31" s="77"/>
+      <c r="C31" s="75"/>
       <c r="D31" s="46" t="s">
         <v>39</v>
       </c>
@@ -3137,7 +3141,7 @@
       <c r="L31" s="26">
         <v>99</v>
       </c>
-      <c r="M31" s="75"/>
+      <c r="M31" s="79"/>
       <c r="N31" s="65" t="s">
         <v>116</v>
       </c>
@@ -3151,7 +3155,7 @@
       <c r="B32" s="3">
         <v>26</v>
       </c>
-      <c r="C32" s="78"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="46" t="s">
         <v>40</v>
       </c>
@@ -3189,7 +3193,7 @@
       <c r="B33" s="3">
         <v>27</v>
       </c>
-      <c r="C33" s="76">
+      <c r="C33" s="74">
         <v>45660</v>
       </c>
       <c r="D33" s="43" t="s">
@@ -3229,7 +3233,7 @@
       <c r="B34" s="3">
         <v>28</v>
       </c>
-      <c r="C34" s="77"/>
+      <c r="C34" s="75"/>
       <c r="D34" s="46" t="s">
         <v>42</v>
       </c>
@@ -3239,7 +3243,7 @@
       <c r="G34" s="3">
         <v>65</v>
       </c>
-      <c r="H34" s="74">
+      <c r="H34" s="78">
         <v>45689</v>
       </c>
       <c r="I34" s="65" t="s">
@@ -3267,7 +3271,7 @@
       <c r="B35" s="3">
         <v>29</v>
       </c>
-      <c r="C35" s="77"/>
+      <c r="C35" s="75"/>
       <c r="D35" s="46" t="s">
         <v>43</v>
       </c>
@@ -3278,7 +3282,7 @@
       <c r="G35" s="3">
         <v>66</v>
       </c>
-      <c r="H35" s="75"/>
+      <c r="H35" s="79"/>
       <c r="I35" s="65" t="s">
         <v>104</v>
       </c>
@@ -3304,7 +3308,7 @@
       <c r="B36" s="6">
         <v>30</v>
       </c>
-      <c r="C36" s="77"/>
+      <c r="C36" s="75"/>
       <c r="D36" s="46" t="s">
         <v>44</v>
       </c>
@@ -3314,7 +3318,7 @@
       <c r="G36" s="3">
         <v>67</v>
       </c>
-      <c r="H36" s="74">
+      <c r="H36" s="78">
         <v>45691</v>
       </c>
       <c r="I36" s="65" t="s">
@@ -3342,7 +3346,7 @@
       <c r="B37" s="3">
         <v>31</v>
       </c>
-      <c r="C37" s="77"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="63" t="s">
         <v>118</v>
       </c>
@@ -3352,7 +3356,7 @@
       <c r="G37" s="3">
         <v>68</v>
       </c>
-      <c r="H37" s="75"/>
+      <c r="H37" s="79"/>
       <c r="I37" s="65" t="s">
         <v>83</v>
       </c>
@@ -3378,7 +3382,7 @@
       <c r="B38" s="3">
         <v>32</v>
       </c>
-      <c r="C38" s="77"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="50" t="s">
         <v>45</v>
       </c>
@@ -3414,7 +3418,7 @@
       <c r="B39" s="3">
         <v>33</v>
       </c>
-      <c r="C39" s="77"/>
+      <c r="C39" s="75"/>
       <c r="D39" s="50" t="s">
         <v>46</v>
       </c>
@@ -3425,7 +3429,7 @@
       <c r="G39" s="3">
         <v>70</v>
       </c>
-      <c r="H39" s="94">
+      <c r="H39" s="77">
         <v>45700</v>
       </c>
       <c r="I39" s="65" t="s">
@@ -3452,7 +3456,7 @@
       <c r="B40" s="3">
         <v>34</v>
       </c>
-      <c r="C40" s="78"/>
+      <c r="C40" s="76"/>
       <c r="D40" s="50" t="s">
         <v>47</v>
       </c>
@@ -3462,7 +3466,7 @@
       <c r="G40" s="3">
         <v>71</v>
       </c>
-      <c r="H40" s="94"/>
+      <c r="H40" s="77"/>
       <c r="I40" s="65" t="s">
         <v>100</v>
       </c>
@@ -3498,7 +3502,7 @@
       <c r="G41" s="3">
         <v>72</v>
       </c>
-      <c r="H41" s="94">
+      <c r="H41" s="77">
         <v>45701</v>
       </c>
       <c r="I41" s="65" t="s">
@@ -3520,7 +3524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B42" s="3">
         <v>36</v>
       </c>
@@ -3536,7 +3540,7 @@
       <c r="G42" s="3">
         <v>73</v>
       </c>
-      <c r="H42" s="94"/>
+      <c r="H42" s="77"/>
       <c r="I42" s="65" t="s">
         <v>88</v>
       </c>
@@ -3579,17 +3583,20 @@
       <c r="J43" s="28">
         <v>5</v>
       </c>
-      <c r="L43" s="26"/>
-      <c r="M43" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="N43" s="24"/>
-      <c r="O43" s="25">
-        <f>SUM(O7:O42)</f>
-        <v>178</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L43" s="4">
+        <v>111</v>
+      </c>
+      <c r="M43" s="70">
+        <v>45915</v>
+      </c>
+      <c r="N43" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="O43" s="72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="21"/>
       <c r="C44" s="47"/>
       <c r="D44" s="48"/>
@@ -3604,6 +3611,15 @@
         <f>SUM(J7:J43)</f>
         <v>183</v>
       </c>
+      <c r="L44" s="26"/>
+      <c r="M44" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="N44" s="24"/>
+      <c r="O44" s="25">
+        <f>SUM(O7:O43)</f>
+        <v>183</v>
+      </c>
     </row>
     <row r="45" spans="2:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="2:23" ht="17.25" x14ac:dyDescent="0.3">
@@ -3624,6 +3640,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C9:C27"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H17:H19"/>
     <mergeCell ref="C33:C40"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="H41:H42"/>
@@ -3632,20 +3661,7 @@
     <mergeCell ref="M24:M25"/>
     <mergeCell ref="H34:H35"/>
     <mergeCell ref="M30:M31"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C9:C27"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S6:V6"/>
     <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H17:H19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3DCC59-9221-4156-87D6-73807555BD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A8E6CD-423C-443A-8E48-4B15F4BF4C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65989A62-DD22-4017-B1F4-9BE3BB514C20}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="131">
   <si>
     <t>일   자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -554,6 +554,10 @@
   </si>
   <si>
     <t>심규익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최규동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1639,6 +1643,18 @@
     <xf numFmtId="176" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1646,27 +1662,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1700,6 +1695,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2025,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC16636-847A-47F1-BA3B-A88365FF7E52}">
   <dimension ref="B1:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S48" sqref="S48"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2065,20 +2069,20 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
     </row>
     <row r="3" spans="2:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:23" ht="20.25" x14ac:dyDescent="0.3">
@@ -2125,12 +2129,12 @@
         <v>9</v>
       </c>
       <c r="R6"/>
-      <c r="S6" s="90" t="s">
+      <c r="S6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="91"/>
-      <c r="U6" s="91"/>
-      <c r="V6" s="92"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="89"/>
       <c r="W6"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
@@ -2161,7 +2165,7 @@
       <c r="L7" s="3">
         <v>75</v>
       </c>
-      <c r="M7" s="77">
+      <c r="M7" s="92">
         <v>45708</v>
       </c>
       <c r="N7" s="65" t="s">
@@ -2201,7 +2205,7 @@
       <c r="G8" s="5">
         <v>39</v>
       </c>
-      <c r="H8" s="74">
+      <c r="H8" s="78">
         <v>45663</v>
       </c>
       <c r="I8" s="46" t="s">
@@ -2213,7 +2217,7 @@
       <c r="L8" s="3">
         <v>76</v>
       </c>
-      <c r="M8" s="77"/>
+      <c r="M8" s="92"/>
       <c r="N8" s="65" t="s">
         <v>91</v>
       </c>
@@ -2239,7 +2243,7 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="75">
         <v>45658</v>
       </c>
       <c r="D9" s="42" t="s">
@@ -2251,7 +2255,7 @@
       <c r="G9" s="3">
         <v>40</v>
       </c>
-      <c r="H9" s="75"/>
+      <c r="H9" s="79"/>
       <c r="I9" s="46" t="s">
         <v>53</v>
       </c>
@@ -2261,7 +2265,7 @@
       <c r="L9" s="3">
         <v>77</v>
       </c>
-      <c r="M9" s="77"/>
+      <c r="M9" s="92"/>
       <c r="N9" s="65" t="s">
         <v>92</v>
       </c>
@@ -2287,7 +2291,7 @@
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="82"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="43" t="s">
         <v>18</v>
       </c>
@@ -2297,7 +2301,7 @@
       <c r="G10" s="3">
         <v>41</v>
       </c>
-      <c r="H10" s="76"/>
+      <c r="H10" s="80"/>
       <c r="I10" s="46" t="s">
         <v>54</v>
       </c>
@@ -2327,7 +2331,7 @@
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="82"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="43" t="s">
         <v>19</v>
       </c>
@@ -2337,7 +2341,7 @@
       <c r="G11" s="3">
         <v>42</v>
       </c>
-      <c r="H11" s="74">
+      <c r="H11" s="78">
         <v>45664</v>
       </c>
       <c r="I11" s="61" t="s">
@@ -2374,7 +2378,7 @@
       <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="82"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="43" t="s">
         <v>20</v>
       </c>
@@ -2384,7 +2388,7 @@
       <c r="G12" s="3">
         <v>43</v>
       </c>
-      <c r="H12" s="93"/>
+      <c r="H12" s="90"/>
       <c r="I12" s="61" t="s">
         <v>59</v>
       </c>
@@ -2410,7 +2414,7 @@
       <c r="B13" s="5">
         <v>7</v>
       </c>
-      <c r="C13" s="82"/>
+      <c r="C13" s="76"/>
       <c r="D13" s="43" t="s">
         <v>21</v>
       </c>
@@ -2420,7 +2424,7 @@
       <c r="G13" s="3">
         <v>44</v>
       </c>
-      <c r="H13" s="74">
+      <c r="H13" s="78">
         <v>45665</v>
       </c>
       <c r="I13" s="61" t="s">
@@ -2432,7 +2436,7 @@
       <c r="L13" s="26">
         <v>81</v>
       </c>
-      <c r="M13" s="77">
+      <c r="M13" s="92">
         <v>45721</v>
       </c>
       <c r="N13" s="65" t="s">
@@ -2442,10 +2446,10 @@
         <v>5</v>
       </c>
       <c r="R13"/>
-      <c r="S13" s="84" t="s">
+      <c r="S13" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="85"/>
+      <c r="T13" s="82"/>
       <c r="U13" s="19" t="s">
         <v>14</v>
       </c>
@@ -2458,7 +2462,7 @@
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="82"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="43" t="s">
         <v>22</v>
       </c>
@@ -2468,7 +2472,7 @@
       <c r="G14" s="3">
         <v>45</v>
       </c>
-      <c r="H14" s="93"/>
+      <c r="H14" s="90"/>
       <c r="I14" s="61" t="s">
         <v>61</v>
       </c>
@@ -2478,7 +2482,7 @@
       <c r="L14" s="26">
         <v>82</v>
       </c>
-      <c r="M14" s="77"/>
+      <c r="M14" s="92"/>
       <c r="N14" s="65" t="s">
         <v>97</v>
       </c>
@@ -2486,13 +2490,13 @@
         <v>5</v>
       </c>
       <c r="R14"/>
-      <c r="S14" s="86" t="s">
+      <c r="S14" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="87"/>
+      <c r="T14" s="84"/>
       <c r="U14" s="33">
-        <f>E44+J44+O44</f>
-        <v>553</v>
+        <f>E44+J44+O45</f>
+        <v>558</v>
       </c>
       <c r="V14" s="16"/>
       <c r="W14"/>
@@ -2501,7 +2505,7 @@
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="82"/>
+      <c r="C15" s="76"/>
       <c r="D15" s="43" t="s">
         <v>23</v>
       </c>
@@ -2523,7 +2527,7 @@
       <c r="L15" s="26">
         <v>83</v>
       </c>
-      <c r="M15" s="77"/>
+      <c r="M15" s="92"/>
       <c r="N15" s="27" t="s">
         <v>98</v>
       </c>
@@ -2531,10 +2535,10 @@
         <v>5</v>
       </c>
       <c r="R15"/>
-      <c r="S15" s="86" t="s">
+      <c r="S15" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="T15" s="87"/>
+      <c r="T15" s="84"/>
       <c r="U15" s="34">
         <f>U11</f>
         <v>330</v>
@@ -2546,7 +2550,7 @@
       <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="82"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="43" t="s">
         <v>24</v>
       </c>
@@ -2578,13 +2582,13 @@
         <v>5</v>
       </c>
       <c r="R16"/>
-      <c r="S16" s="88" t="s">
+      <c r="S16" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="89"/>
+      <c r="T16" s="86"/>
       <c r="U16" s="35">
         <f>SUM(U14:U15)</f>
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="V16" s="18"/>
       <c r="W16"/>
@@ -2593,7 +2597,7 @@
       <c r="B17" s="3">
         <v>11</v>
       </c>
-      <c r="C17" s="82"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="43" t="s">
         <v>25</v>
       </c>
@@ -2603,7 +2607,7 @@
       <c r="G17" s="3">
         <v>48</v>
       </c>
-      <c r="H17" s="94">
+      <c r="H17" s="91">
         <v>45670</v>
       </c>
       <c r="I17" s="61" t="s">
@@ -2631,7 +2635,7 @@
       <c r="B18" s="3">
         <v>12</v>
       </c>
-      <c r="C18" s="82"/>
+      <c r="C18" s="76"/>
       <c r="D18" s="43" t="s">
         <v>26</v>
       </c>
@@ -2641,7 +2645,7 @@
       <c r="G18" s="3">
         <v>49</v>
       </c>
-      <c r="H18" s="94"/>
+      <c r="H18" s="91"/>
       <c r="I18" s="63" t="s">
         <v>64</v>
       </c>
@@ -2668,7 +2672,7 @@
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="82"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="43" t="s">
         <v>27</v>
       </c>
@@ -2678,7 +2682,7 @@
       <c r="G19" s="4">
         <v>50</v>
       </c>
-      <c r="H19" s="94"/>
+      <c r="H19" s="91"/>
       <c r="I19" s="63" t="s">
         <v>65</v>
       </c>
@@ -2704,7 +2708,7 @@
       <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="82"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="44" t="s">
         <v>28</v>
       </c>
@@ -2742,7 +2746,7 @@
       <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="82"/>
+      <c r="C21" s="76"/>
       <c r="D21" s="44" t="s">
         <v>29</v>
       </c>
@@ -2752,7 +2756,7 @@
       <c r="G21" s="3">
         <v>52</v>
       </c>
-      <c r="H21" s="94">
+      <c r="H21" s="91">
         <v>45673</v>
       </c>
       <c r="I21" s="63" t="s">
@@ -2780,7 +2784,7 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="82"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="44" t="s">
         <v>30</v>
       </c>
@@ -2790,7 +2794,7 @@
       <c r="G22" s="3">
         <v>53</v>
       </c>
-      <c r="H22" s="94"/>
+      <c r="H22" s="91"/>
       <c r="I22" s="63" t="s">
         <v>69</v>
       </c>
@@ -2816,7 +2820,7 @@
       <c r="B23" s="3">
         <v>17</v>
       </c>
-      <c r="C23" s="82"/>
+      <c r="C23" s="76"/>
       <c r="D23" s="44" t="s">
         <v>31</v>
       </c>
@@ -2826,7 +2830,7 @@
       <c r="G23" s="3">
         <v>54</v>
       </c>
-      <c r="H23" s="94"/>
+      <c r="H23" s="91"/>
       <c r="I23" s="63" t="s">
         <v>70</v>
       </c>
@@ -2853,7 +2857,7 @@
       <c r="B24" s="3">
         <v>18</v>
       </c>
-      <c r="C24" s="82"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="44" t="s">
         <v>32</v>
       </c>
@@ -2875,7 +2879,7 @@
       <c r="L24" s="26">
         <v>92</v>
       </c>
-      <c r="M24" s="78">
+      <c r="M24" s="93">
         <v>45793</v>
       </c>
       <c r="N24" s="65" t="s">
@@ -2891,7 +2895,7 @@
       <c r="B25" s="3">
         <v>19</v>
       </c>
-      <c r="C25" s="82"/>
+      <c r="C25" s="76"/>
       <c r="D25" s="44" t="s">
         <v>33</v>
       </c>
@@ -2913,7 +2917,7 @@
       <c r="L25" s="26">
         <v>93</v>
       </c>
-      <c r="M25" s="79"/>
+      <c r="M25" s="94"/>
       <c r="N25" s="65" t="s">
         <v>110</v>
       </c>
@@ -2927,7 +2931,7 @@
       <c r="B26" s="3">
         <v>20</v>
       </c>
-      <c r="C26" s="82"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="43" t="s">
         <v>34</v>
       </c>
@@ -2965,7 +2969,7 @@
       <c r="B27" s="3">
         <v>21</v>
       </c>
-      <c r="C27" s="83"/>
+      <c r="C27" s="77"/>
       <c r="D27" s="43" t="s">
         <v>35</v>
       </c>
@@ -3003,7 +3007,7 @@
       <c r="B28" s="3">
         <v>22</v>
       </c>
-      <c r="C28" s="74">
+      <c r="C28" s="78">
         <v>45659</v>
       </c>
       <c r="D28" s="43" t="s">
@@ -3043,7 +3047,7 @@
       <c r="B29" s="5">
         <v>23</v>
       </c>
-      <c r="C29" s="75"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="46" t="s">
         <v>37</v>
       </c>
@@ -3081,7 +3085,7 @@
       <c r="B30" s="3">
         <v>24</v>
       </c>
-      <c r="C30" s="75"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="46" t="s">
         <v>38</v>
       </c>
@@ -3103,7 +3107,7 @@
       <c r="L30" s="26">
         <v>98</v>
       </c>
-      <c r="M30" s="78">
+      <c r="M30" s="93">
         <v>45806</v>
       </c>
       <c r="N30" s="65" t="s">
@@ -3119,7 +3123,7 @@
       <c r="B31" s="3">
         <v>25</v>
       </c>
-      <c r="C31" s="75"/>
+      <c r="C31" s="79"/>
       <c r="D31" s="46" t="s">
         <v>39</v>
       </c>
@@ -3141,7 +3145,7 @@
       <c r="L31" s="26">
         <v>99</v>
       </c>
-      <c r="M31" s="79"/>
+      <c r="M31" s="94"/>
       <c r="N31" s="65" t="s">
         <v>116</v>
       </c>
@@ -3155,7 +3159,7 @@
       <c r="B32" s="3">
         <v>26</v>
       </c>
-      <c r="C32" s="76"/>
+      <c r="C32" s="80"/>
       <c r="D32" s="46" t="s">
         <v>40</v>
       </c>
@@ -3193,7 +3197,7 @@
       <c r="B33" s="3">
         <v>27</v>
       </c>
-      <c r="C33" s="74">
+      <c r="C33" s="78">
         <v>45660</v>
       </c>
       <c r="D33" s="43" t="s">
@@ -3233,7 +3237,7 @@
       <c r="B34" s="3">
         <v>28</v>
       </c>
-      <c r="C34" s="75"/>
+      <c r="C34" s="79"/>
       <c r="D34" s="46" t="s">
         <v>42</v>
       </c>
@@ -3243,7 +3247,7 @@
       <c r="G34" s="3">
         <v>65</v>
       </c>
-      <c r="H34" s="78">
+      <c r="H34" s="93">
         <v>45689</v>
       </c>
       <c r="I34" s="65" t="s">
@@ -3271,7 +3275,7 @@
       <c r="B35" s="3">
         <v>29</v>
       </c>
-      <c r="C35" s="75"/>
+      <c r="C35" s="79"/>
       <c r="D35" s="46" t="s">
         <v>43</v>
       </c>
@@ -3282,7 +3286,7 @@
       <c r="G35" s="3">
         <v>66</v>
       </c>
-      <c r="H35" s="79"/>
+      <c r="H35" s="94"/>
       <c r="I35" s="65" t="s">
         <v>104</v>
       </c>
@@ -3308,7 +3312,7 @@
       <c r="B36" s="6">
         <v>30</v>
       </c>
-      <c r="C36" s="75"/>
+      <c r="C36" s="79"/>
       <c r="D36" s="46" t="s">
         <v>44</v>
       </c>
@@ -3318,7 +3322,7 @@
       <c r="G36" s="3">
         <v>67</v>
       </c>
-      <c r="H36" s="78">
+      <c r="H36" s="93">
         <v>45691</v>
       </c>
       <c r="I36" s="65" t="s">
@@ -3346,7 +3350,7 @@
       <c r="B37" s="3">
         <v>31</v>
       </c>
-      <c r="C37" s="75"/>
+      <c r="C37" s="79"/>
       <c r="D37" s="63" t="s">
         <v>118</v>
       </c>
@@ -3356,7 +3360,7 @@
       <c r="G37" s="3">
         <v>68</v>
       </c>
-      <c r="H37" s="79"/>
+      <c r="H37" s="94"/>
       <c r="I37" s="65" t="s">
         <v>83</v>
       </c>
@@ -3382,7 +3386,7 @@
       <c r="B38" s="3">
         <v>32</v>
       </c>
-      <c r="C38" s="75"/>
+      <c r="C38" s="79"/>
       <c r="D38" s="50" t="s">
         <v>45</v>
       </c>
@@ -3418,7 +3422,7 @@
       <c r="B39" s="3">
         <v>33</v>
       </c>
-      <c r="C39" s="75"/>
+      <c r="C39" s="79"/>
       <c r="D39" s="50" t="s">
         <v>46</v>
       </c>
@@ -3429,7 +3433,7 @@
       <c r="G39" s="3">
         <v>70</v>
       </c>
-      <c r="H39" s="77">
+      <c r="H39" s="92">
         <v>45700</v>
       </c>
       <c r="I39" s="65" t="s">
@@ -3456,7 +3460,7 @@
       <c r="B40" s="3">
         <v>34</v>
       </c>
-      <c r="C40" s="76"/>
+      <c r="C40" s="80"/>
       <c r="D40" s="50" t="s">
         <v>47</v>
       </c>
@@ -3466,7 +3470,7 @@
       <c r="G40" s="3">
         <v>71</v>
       </c>
-      <c r="H40" s="77"/>
+      <c r="H40" s="92"/>
       <c r="I40" s="65" t="s">
         <v>100</v>
       </c>
@@ -3502,7 +3506,7 @@
       <c r="G41" s="3">
         <v>72</v>
       </c>
-      <c r="H41" s="77">
+      <c r="H41" s="92">
         <v>45701</v>
       </c>
       <c r="I41" s="65" t="s">
@@ -3540,7 +3544,7 @@
       <c r="G42" s="3">
         <v>73</v>
       </c>
-      <c r="H42" s="77"/>
+      <c r="H42" s="92"/>
       <c r="I42" s="65" t="s">
         <v>88</v>
       </c>
@@ -3611,18 +3615,31 @@
         <f>SUM(J7:J43)</f>
         <v>183</v>
       </c>
-      <c r="L44" s="26"/>
-      <c r="M44" s="22" t="s">
+      <c r="L44" s="4">
+        <v>112</v>
+      </c>
+      <c r="M44" s="29">
+        <v>45923</v>
+      </c>
+      <c r="N44" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="O44" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L45" s="26"/>
+      <c r="M45" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="N44" s="24"/>
-      <c r="O44" s="25">
-        <f>SUM(O7:O43)</f>
-        <v>183</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:23" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="N45" s="24"/>
+      <c r="O45" s="25">
+        <f>SUM(O7:O44)</f>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C46" s="30" t="s">
         <v>5</v>
       </c>
@@ -3640,6 +3657,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C33:C40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="H36:H37"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="C9:C27"/>
     <mergeCell ref="C28:C32"/>
@@ -3653,15 +3679,6 @@
     <mergeCell ref="H21:H23"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="H17:H19"/>
-    <mergeCell ref="C33:C40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="H36:H37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A8E6CD-423C-443A-8E48-4B15F4BF4C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0369369C-6C0D-4195-8B97-3BBE8B25DB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65989A62-DD22-4017-B1F4-9BE3BB514C20}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="133">
   <si>
     <t>일   자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -558,6 +558,14 @@
   </si>
   <si>
     <t>최규동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임국남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전종철</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -734,7 +742,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -1416,13 +1424,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF002060"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF002060"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1643,6 +1664,24 @@
     <xf numFmtId="176" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1653,15 +1692,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1697,13 +1727,7 @@
     <xf numFmtId="176" fontId="0" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2027,9 +2051,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC16636-847A-47F1-BA3B-A88365FF7E52}">
-  <dimension ref="B1:X47"/>
+  <dimension ref="B1:X48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
@@ -2069,20 +2093,20 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
     </row>
     <row r="3" spans="2:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:23" ht="20.25" x14ac:dyDescent="0.3">
@@ -2129,12 +2153,12 @@
         <v>9</v>
       </c>
       <c r="R6"/>
-      <c r="S6" s="87" t="s">
+      <c r="S6" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="88"/>
-      <c r="U6" s="88"/>
-      <c r="V6" s="89"/>
+      <c r="T6" s="91"/>
+      <c r="U6" s="91"/>
+      <c r="V6" s="92"/>
       <c r="W6"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
@@ -2150,26 +2174,26 @@
       <c r="E7" s="41">
         <v>5</v>
       </c>
-      <c r="G7" s="4">
-        <v>38</v>
-      </c>
-      <c r="H7" s="51">
-        <v>45662</v>
-      </c>
-      <c r="I7" s="44" t="s">
-        <v>51</v>
+      <c r="G7" s="5">
+        <v>39</v>
+      </c>
+      <c r="H7" s="74">
+        <v>45663</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>52</v>
       </c>
       <c r="J7" s="45">
         <v>5</v>
       </c>
       <c r="L7" s="3">
-        <v>75</v>
-      </c>
-      <c r="M7" s="92">
+        <v>77</v>
+      </c>
+      <c r="M7" s="29">
         <v>45708</v>
       </c>
       <c r="N7" s="65" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O7" s="28">
         <v>5</v>
@@ -2202,24 +2226,24 @@
       <c r="E8" s="41">
         <v>5</v>
       </c>
-      <c r="G8" s="5">
-        <v>39</v>
-      </c>
-      <c r="H8" s="78">
-        <v>45663</v>
-      </c>
+      <c r="G8" s="3">
+        <v>40</v>
+      </c>
+      <c r="H8" s="75"/>
       <c r="I8" s="46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J8" s="45">
         <v>5</v>
       </c>
       <c r="L8" s="3">
-        <v>76</v>
-      </c>
-      <c r="M8" s="92"/>
+        <v>78</v>
+      </c>
+      <c r="M8" s="29">
+        <v>45716</v>
+      </c>
       <c r="N8" s="65" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O8" s="28">
         <v>5</v>
@@ -2243,7 +2267,7 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="75">
+      <c r="C9" s="81">
         <v>45658</v>
       </c>
       <c r="D9" s="42" t="s">
@@ -2253,23 +2277,25 @@
         <v>5</v>
       </c>
       <c r="G9" s="3">
-        <v>40</v>
-      </c>
-      <c r="H9" s="79"/>
+        <v>41</v>
+      </c>
+      <c r="H9" s="76"/>
       <c r="I9" s="46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J9" s="45">
         <v>5</v>
       </c>
       <c r="L9" s="3">
-        <v>77</v>
-      </c>
-      <c r="M9" s="92"/>
-      <c r="N9" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="O9" s="28">
+        <v>79</v>
+      </c>
+      <c r="M9" s="66">
+        <v>45717</v>
+      </c>
+      <c r="N9" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" s="68">
         <v>5</v>
       </c>
       <c r="R9"/>
@@ -2291,7 +2317,7 @@
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="76"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="43" t="s">
         <v>18</v>
       </c>
@@ -2299,23 +2325,25 @@
         <v>5</v>
       </c>
       <c r="G10" s="3">
-        <v>41</v>
-      </c>
-      <c r="H10" s="80"/>
-      <c r="I10" s="46" t="s">
-        <v>54</v>
+        <v>42</v>
+      </c>
+      <c r="H10" s="74">
+        <v>45664</v>
+      </c>
+      <c r="I10" s="61" t="s">
+        <v>58</v>
       </c>
       <c r="J10" s="45">
         <v>5</v>
       </c>
-      <c r="L10" s="3">
-        <v>78</v>
+      <c r="L10" s="26">
+        <v>80</v>
       </c>
       <c r="M10" s="29">
-        <v>45716</v>
+        <v>45720</v>
       </c>
       <c r="N10" s="65" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O10" s="28">
         <v>5</v>
@@ -2331,7 +2359,7 @@
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="76"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="43" t="s">
         <v>19</v>
       </c>
@@ -2339,27 +2367,25 @@
         <v>5</v>
       </c>
       <c r="G11" s="3">
-        <v>42</v>
-      </c>
-      <c r="H11" s="78">
-        <v>45664</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="H11" s="93"/>
       <c r="I11" s="61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J11" s="45">
         <v>5</v>
       </c>
-      <c r="L11" s="3">
-        <v>79</v>
-      </c>
-      <c r="M11" s="66">
-        <v>45717</v>
-      </c>
-      <c r="N11" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="O11" s="68">
+      <c r="L11" s="26">
+        <v>81</v>
+      </c>
+      <c r="M11" s="77">
+        <v>45721</v>
+      </c>
+      <c r="N11" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="O11" s="28">
         <v>5</v>
       </c>
       <c r="R11"/>
@@ -2378,7 +2404,7 @@
       <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="76"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="43" t="s">
         <v>20</v>
       </c>
@@ -2386,23 +2412,23 @@
         <v>5</v>
       </c>
       <c r="G12" s="3">
-        <v>43</v>
-      </c>
-      <c r="H12" s="90"/>
+        <v>44</v>
+      </c>
+      <c r="H12" s="74">
+        <v>45665</v>
+      </c>
       <c r="I12" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J12" s="45">
         <v>5</v>
       </c>
       <c r="L12" s="26">
-        <v>80</v>
-      </c>
-      <c r="M12" s="29">
-        <v>45720</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="M12" s="77"/>
       <c r="N12" s="65" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O12" s="28">
         <v>5</v>
@@ -2414,7 +2440,7 @@
       <c r="B13" s="5">
         <v>7</v>
       </c>
-      <c r="C13" s="76"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="43" t="s">
         <v>21</v>
       </c>
@@ -2422,34 +2448,30 @@
         <v>5</v>
       </c>
       <c r="G13" s="3">
-        <v>44</v>
-      </c>
-      <c r="H13" s="78">
-        <v>45665</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="H13" s="93"/>
       <c r="I13" s="61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J13" s="45">
         <v>5</v>
       </c>
       <c r="L13" s="26">
-        <v>81</v>
-      </c>
-      <c r="M13" s="92">
-        <v>45721</v>
-      </c>
-      <c r="N13" s="65" t="s">
-        <v>96</v>
+        <v>83</v>
+      </c>
+      <c r="M13" s="77"/>
+      <c r="N13" s="27" t="s">
+        <v>98</v>
       </c>
       <c r="O13" s="28">
         <v>5</v>
       </c>
       <c r="R13"/>
-      <c r="S13" s="81" t="s">
+      <c r="S13" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="82"/>
+      <c r="T13" s="85"/>
       <c r="U13" s="19" t="s">
         <v>14</v>
       </c>
@@ -2462,7 +2484,7 @@
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="76"/>
+      <c r="C14" s="82"/>
       <c r="D14" s="43" t="s">
         <v>22</v>
       </c>
@@ -2470,33 +2492,37 @@
         <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>45</v>
-      </c>
-      <c r="H14" s="90"/>
-      <c r="I14" s="61" t="s">
-        <v>61</v>
+        <v>46</v>
+      </c>
+      <c r="H14" s="62">
+        <v>45667</v>
+      </c>
+      <c r="I14" s="63" t="s">
+        <v>62</v>
       </c>
       <c r="J14" s="45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L14" s="26">
-        <v>82</v>
-      </c>
-      <c r="M14" s="92"/>
-      <c r="N14" s="65" t="s">
-        <v>97</v>
+        <v>84</v>
+      </c>
+      <c r="M14" s="29">
+        <v>45722</v>
+      </c>
+      <c r="N14" s="27" t="s">
+        <v>99</v>
       </c>
       <c r="O14" s="28">
         <v>5</v>
       </c>
       <c r="R14"/>
-      <c r="S14" s="83" t="s">
+      <c r="S14" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="84"/>
+      <c r="T14" s="87"/>
       <c r="U14" s="33">
-        <f>E44+J44+O45</f>
-        <v>558</v>
+        <f>E45+J45+O45</f>
+        <v>568</v>
       </c>
       <c r="V14" s="16"/>
       <c r="W14"/>
@@ -2505,7 +2531,7 @@
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="76"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="43" t="s">
         <v>23</v>
       </c>
@@ -2513,32 +2539,34 @@
         <v>5</v>
       </c>
       <c r="G15" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" s="62">
-        <v>45667</v>
-      </c>
-      <c r="I15" s="63" t="s">
-        <v>62</v>
+        <v>45669</v>
+      </c>
+      <c r="I15" s="61" t="s">
+        <v>63</v>
       </c>
       <c r="J15" s="45">
-        <v>3</v>
-      </c>
-      <c r="L15" s="26">
-        <v>83</v>
-      </c>
-      <c r="M15" s="92"/>
-      <c r="N15" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="O15" s="28">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
+        <v>85</v>
+      </c>
+      <c r="M15" s="66">
+        <v>45725</v>
+      </c>
+      <c r="N15" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="O15" s="68">
         <v>5</v>
       </c>
       <c r="R15"/>
-      <c r="S15" s="83" t="s">
+      <c r="S15" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="T15" s="84"/>
+      <c r="T15" s="87"/>
       <c r="U15" s="34">
         <f>U11</f>
         <v>330</v>
@@ -2550,7 +2578,7 @@
       <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="76"/>
+      <c r="C16" s="82"/>
       <c r="D16" s="43" t="s">
         <v>24</v>
       </c>
@@ -2558,37 +2586,37 @@
         <v>3</v>
       </c>
       <c r="G16" s="3">
-        <v>47</v>
-      </c>
-      <c r="H16" s="62">
-        <v>45669</v>
+        <v>48</v>
+      </c>
+      <c r="H16" s="94">
+        <v>45670</v>
       </c>
       <c r="I16" s="61" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J16" s="45">
         <v>5</v>
       </c>
       <c r="L16" s="26">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M16" s="29">
-        <v>45722</v>
+        <v>45726</v>
       </c>
       <c r="N16" s="27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O16" s="28">
         <v>5</v>
       </c>
       <c r="R16"/>
-      <c r="S16" s="85" t="s">
+      <c r="S16" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="86"/>
+      <c r="T16" s="89"/>
       <c r="U16" s="35">
         <f>SUM(U14:U15)</f>
-        <v>888</v>
+        <v>898</v>
       </c>
       <c r="V16" s="18"/>
       <c r="W16"/>
@@ -2597,7 +2625,7 @@
       <c r="B17" s="3">
         <v>11</v>
       </c>
-      <c r="C17" s="76"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="43" t="s">
         <v>25</v>
       </c>
@@ -2605,27 +2633,25 @@
         <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>48</v>
-      </c>
-      <c r="H17" s="91">
-        <v>45670</v>
-      </c>
-      <c r="I17" s="61" t="s">
-        <v>67</v>
+        <v>49</v>
+      </c>
+      <c r="H17" s="94"/>
+      <c r="I17" s="63" t="s">
+        <v>64</v>
       </c>
       <c r="J17" s="45">
         <v>5</v>
       </c>
-      <c r="L17" s="3">
-        <v>85</v>
-      </c>
-      <c r="M17" s="66">
-        <v>45725</v>
-      </c>
-      <c r="N17" s="69" t="s">
-        <v>101</v>
-      </c>
-      <c r="O17" s="68">
+      <c r="L17" s="26">
+        <v>87</v>
+      </c>
+      <c r="M17" s="29">
+        <v>45730</v>
+      </c>
+      <c r="N17" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="O17" s="28">
         <v>5</v>
       </c>
       <c r="R17"/>
@@ -2635,31 +2661,31 @@
       <c r="B18" s="3">
         <v>12</v>
       </c>
-      <c r="C18" s="76"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="41">
         <v>3</v>
       </c>
-      <c r="G18" s="3">
-        <v>49</v>
-      </c>
-      <c r="H18" s="91"/>
+      <c r="G18" s="4">
+        <v>50</v>
+      </c>
+      <c r="H18" s="94"/>
       <c r="I18" s="63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J18" s="45">
         <v>5</v>
       </c>
       <c r="L18" s="26">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M18" s="29">
-        <v>45726</v>
-      </c>
-      <c r="N18" s="27" t="s">
-        <v>102</v>
+        <v>45734</v>
+      </c>
+      <c r="N18" s="65" t="s">
+        <v>105</v>
       </c>
       <c r="O18" s="28">
         <v>5</v>
@@ -2672,31 +2698,33 @@
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="76"/>
+      <c r="C19" s="82"/>
       <c r="D19" s="43" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="41">
         <v>5</v>
       </c>
-      <c r="G19" s="4">
-        <v>50</v>
-      </c>
-      <c r="H19" s="91"/>
-      <c r="I19" s="63" t="s">
-        <v>65</v>
+      <c r="G19" s="3">
+        <v>51</v>
+      </c>
+      <c r="H19" s="64">
+        <v>45671</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>66</v>
       </c>
       <c r="J19" s="45">
         <v>5</v>
       </c>
       <c r="L19" s="26">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M19" s="29">
-        <v>45730</v>
-      </c>
-      <c r="N19" s="27" t="s">
-        <v>103</v>
+        <v>45748</v>
+      </c>
+      <c r="N19" s="65" t="s">
+        <v>106</v>
       </c>
       <c r="O19" s="28">
         <v>5</v>
@@ -2708,7 +2736,7 @@
       <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="76"/>
+      <c r="C20" s="82"/>
       <c r="D20" s="44" t="s">
         <v>28</v>
       </c>
@@ -2716,25 +2744,25 @@
         <v>15</v>
       </c>
       <c r="G20" s="3">
-        <v>51</v>
-      </c>
-      <c r="H20" s="64">
-        <v>45671</v>
-      </c>
-      <c r="I20" s="52" t="s">
-        <v>66</v>
+        <v>52</v>
+      </c>
+      <c r="H20" s="94">
+        <v>45673</v>
+      </c>
+      <c r="I20" s="63" t="s">
+        <v>68</v>
       </c>
       <c r="J20" s="45">
         <v>5</v>
       </c>
       <c r="L20" s="26">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M20" s="29">
-        <v>45734</v>
+        <v>45777</v>
       </c>
       <c r="N20" s="65" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O20" s="28">
         <v>5</v>
@@ -2746,7 +2774,7 @@
       <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="76"/>
+      <c r="C21" s="82"/>
       <c r="D21" s="44" t="s">
         <v>29</v>
       </c>
@@ -2754,25 +2782,23 @@
         <v>5</v>
       </c>
       <c r="G21" s="3">
-        <v>52</v>
-      </c>
-      <c r="H21" s="91">
-        <v>45673</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H21" s="94"/>
       <c r="I21" s="63" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J21" s="45">
         <v>5</v>
       </c>
       <c r="L21" s="26">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M21" s="29">
-        <v>45748</v>
+        <v>45778</v>
       </c>
       <c r="N21" s="65" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O21" s="28">
         <v>5</v>
@@ -2784,7 +2810,7 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="76"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="44" t="s">
         <v>30</v>
       </c>
@@ -2792,23 +2818,23 @@
         <v>5</v>
       </c>
       <c r="G22" s="3">
-        <v>53</v>
-      </c>
-      <c r="H22" s="91"/>
+        <v>54</v>
+      </c>
+      <c r="H22" s="94"/>
       <c r="I22" s="63" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J22" s="45">
         <v>5</v>
       </c>
       <c r="L22" s="26">
-        <v>90</v>
-      </c>
-      <c r="M22" s="29">
-        <v>45777</v>
+        <v>92</v>
+      </c>
+      <c r="M22" s="78">
+        <v>45793</v>
       </c>
       <c r="N22" s="65" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O22" s="28">
         <v>5</v>
@@ -2820,7 +2846,7 @@
       <c r="B23" s="3">
         <v>17</v>
       </c>
-      <c r="C23" s="76"/>
+      <c r="C23" s="82"/>
       <c r="D23" s="44" t="s">
         <v>31</v>
       </c>
@@ -2828,23 +2854,23 @@
         <v>5</v>
       </c>
       <c r="G23" s="3">
-        <v>54</v>
-      </c>
-      <c r="H23" s="91"/>
+        <v>55</v>
+      </c>
+      <c r="H23" s="62">
+        <v>45676</v>
+      </c>
       <c r="I23" s="63" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J23" s="45">
         <v>5</v>
       </c>
       <c r="L23" s="26">
-        <v>91</v>
-      </c>
-      <c r="M23" s="29">
-        <v>45778</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="M23" s="79"/>
       <c r="N23" s="65" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O23" s="28">
         <v>5</v>
@@ -2857,7 +2883,7 @@
       <c r="B24" s="3">
         <v>18</v>
       </c>
-      <c r="C24" s="76"/>
+      <c r="C24" s="82"/>
       <c r="D24" s="44" t="s">
         <v>32</v>
       </c>
@@ -2865,25 +2891,25 @@
         <v>5</v>
       </c>
       <c r="G24" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H24" s="62">
-        <v>45676</v>
+        <v>45677</v>
       </c>
       <c r="I24" s="63" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J24" s="45">
         <v>5</v>
       </c>
       <c r="L24" s="26">
-        <v>92</v>
-      </c>
-      <c r="M24" s="93">
-        <v>45793</v>
+        <v>94</v>
+      </c>
+      <c r="M24" s="29">
+        <v>45800</v>
       </c>
       <c r="N24" s="65" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O24" s="28">
         <v>5</v>
@@ -2895,7 +2921,7 @@
       <c r="B25" s="3">
         <v>19</v>
       </c>
-      <c r="C25" s="76"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="44" t="s">
         <v>33</v>
       </c>
@@ -2903,23 +2929,25 @@
         <v>5</v>
       </c>
       <c r="G25" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H25" s="62">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="I25" s="63" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J25" s="45">
         <v>5</v>
       </c>
       <c r="L25" s="26">
-        <v>93</v>
-      </c>
-      <c r="M25" s="94"/>
+        <v>95</v>
+      </c>
+      <c r="M25" s="29">
+        <v>45802</v>
+      </c>
       <c r="N25" s="65" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O25" s="28">
         <v>5</v>
@@ -2931,7 +2959,7 @@
       <c r="B26" s="3">
         <v>20</v>
       </c>
-      <c r="C26" s="76"/>
+      <c r="C26" s="82"/>
       <c r="D26" s="43" t="s">
         <v>34</v>
       </c>
@@ -2939,25 +2967,25 @@
         <v>5</v>
       </c>
       <c r="G26" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H26" s="62">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="I26" s="63" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J26" s="45">
         <v>5</v>
       </c>
       <c r="L26" s="26">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M26" s="29">
-        <v>45800</v>
+        <v>45803</v>
       </c>
       <c r="N26" s="65" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O26" s="28">
         <v>5</v>
@@ -2969,7 +2997,7 @@
       <c r="B27" s="3">
         <v>21</v>
       </c>
-      <c r="C27" s="77"/>
+      <c r="C27" s="83"/>
       <c r="D27" s="43" t="s">
         <v>35</v>
       </c>
@@ -2977,25 +3005,25 @@
         <v>5</v>
       </c>
       <c r="G27" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="62">
-        <v>45679</v>
+        <v>45680</v>
       </c>
       <c r="I27" s="63" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J27" s="45">
         <v>5</v>
       </c>
       <c r="L27" s="26">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M27" s="29">
-        <v>45802</v>
+        <v>45805</v>
       </c>
       <c r="N27" s="65" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O27" s="28">
         <v>5</v>
@@ -3007,7 +3035,7 @@
       <c r="B28" s="3">
         <v>22</v>
       </c>
-      <c r="C28" s="78">
+      <c r="C28" s="74">
         <v>45659</v>
       </c>
       <c r="D28" s="43" t="s">
@@ -3017,25 +3045,25 @@
         <v>5</v>
       </c>
       <c r="G28" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H28" s="62">
-        <v>45680</v>
+        <v>45684</v>
       </c>
       <c r="I28" s="63" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J28" s="45">
         <v>5</v>
       </c>
       <c r="L28" s="26">
-        <v>96</v>
-      </c>
-      <c r="M28" s="29">
-        <v>45803</v>
+        <v>98</v>
+      </c>
+      <c r="M28" s="78">
+        <v>45806</v>
       </c>
       <c r="N28" s="65" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O28" s="28">
         <v>5</v>
@@ -3047,7 +3075,7 @@
       <c r="B29" s="5">
         <v>23</v>
       </c>
-      <c r="C29" s="79"/>
+      <c r="C29" s="75"/>
       <c r="D29" s="46" t="s">
         <v>37</v>
       </c>
@@ -3055,25 +3083,23 @@
         <v>5</v>
       </c>
       <c r="G29" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H29" s="62">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="I29" s="63" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J29" s="45">
         <v>5</v>
       </c>
       <c r="L29" s="26">
-        <v>97</v>
-      </c>
-      <c r="M29" s="29">
-        <v>45805</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M29" s="79"/>
       <c r="N29" s="65" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O29" s="28">
         <v>5</v>
@@ -3085,33 +3111,33 @@
       <c r="B30" s="3">
         <v>24</v>
       </c>
-      <c r="C30" s="79"/>
+      <c r="C30" s="75"/>
       <c r="D30" s="46" t="s">
         <v>38</v>
       </c>
       <c r="E30" s="45">
         <v>3</v>
       </c>
-      <c r="G30" s="3">
-        <v>61</v>
-      </c>
-      <c r="H30" s="62">
-        <v>45685</v>
-      </c>
-      <c r="I30" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="J30" s="45">
+      <c r="G30" s="26">
+        <v>62</v>
+      </c>
+      <c r="H30" s="29">
+        <v>45687</v>
+      </c>
+      <c r="I30" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="J30" s="28">
         <v>5</v>
       </c>
       <c r="L30" s="26">
-        <v>98</v>
-      </c>
-      <c r="M30" s="93">
+        <v>100</v>
+      </c>
+      <c r="M30" s="29">
         <v>45806</v>
       </c>
       <c r="N30" s="65" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O30" s="28">
         <v>5</v>
@@ -3123,31 +3149,33 @@
       <c r="B31" s="3">
         <v>25</v>
       </c>
-      <c r="C31" s="79"/>
+      <c r="C31" s="75"/>
       <c r="D31" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="45">
         <v>5</v>
       </c>
-      <c r="G31" s="26">
-        <v>62</v>
+      <c r="G31" s="3">
+        <v>63</v>
       </c>
       <c r="H31" s="29">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="I31" s="65" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J31" s="28">
         <v>5</v>
       </c>
       <c r="L31" s="26">
-        <v>99</v>
-      </c>
-      <c r="M31" s="94"/>
+        <v>101</v>
+      </c>
+      <c r="M31" s="29">
+        <v>45780</v>
+      </c>
       <c r="N31" s="65" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O31" s="28">
         <v>5</v>
@@ -3159,7 +3187,7 @@
       <c r="B32" s="3">
         <v>26</v>
       </c>
-      <c r="C32" s="80"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="46" t="s">
         <v>40</v>
       </c>
@@ -3167,25 +3195,25 @@
         <v>5</v>
       </c>
       <c r="G32" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H32" s="29">
-        <v>45688</v>
+        <v>45689</v>
       </c>
       <c r="I32" s="65" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J32" s="28">
         <v>5</v>
       </c>
       <c r="L32" s="26">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M32" s="29">
-        <v>45806</v>
+        <v>45812</v>
       </c>
       <c r="N32" s="65" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O32" s="28">
         <v>5</v>
@@ -3197,7 +3225,7 @@
       <c r="B33" s="3">
         <v>27</v>
       </c>
-      <c r="C33" s="78">
+      <c r="C33" s="74">
         <v>45660</v>
       </c>
       <c r="D33" s="43" t="s">
@@ -3207,25 +3235,25 @@
         <v>5</v>
       </c>
       <c r="G33" s="3">
-        <v>64</v>
-      </c>
-      <c r="H33" s="29">
+        <v>65</v>
+      </c>
+      <c r="H33" s="78">
         <v>45689</v>
       </c>
       <c r="I33" s="65" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J33" s="28">
         <v>5</v>
       </c>
       <c r="L33" s="26">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M33" s="29">
-        <v>45780</v>
-      </c>
-      <c r="N33" s="65" t="s">
-        <v>119</v>
+        <v>45839</v>
+      </c>
+      <c r="N33" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="O33" s="28">
         <v>5</v>
@@ -3237,7 +3265,7 @@
       <c r="B34" s="3">
         <v>28</v>
       </c>
-      <c r="C34" s="79"/>
+      <c r="C34" s="75"/>
       <c r="D34" s="46" t="s">
         <v>42</v>
       </c>
@@ -3245,27 +3273,25 @@
         <v>5</v>
       </c>
       <c r="G34" s="3">
-        <v>65</v>
-      </c>
-      <c r="H34" s="93">
-        <v>45689</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="H34" s="79"/>
       <c r="I34" s="65" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="J34" s="28">
         <v>5</v>
       </c>
-      <c r="L34" s="26">
-        <v>102</v>
-      </c>
-      <c r="M34" s="29">
-        <v>45812</v>
-      </c>
-      <c r="N34" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="O34" s="28">
+      <c r="L34" s="4">
+        <v>104</v>
+      </c>
+      <c r="M34" s="70">
+        <v>45846</v>
+      </c>
+      <c r="N34" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="O34" s="72">
         <v>5</v>
       </c>
       <c r="R34"/>
@@ -3275,7 +3301,7 @@
       <c r="B35" s="3">
         <v>29</v>
       </c>
-      <c r="C35" s="79"/>
+      <c r="C35" s="75"/>
       <c r="D35" s="46" t="s">
         <v>43</v>
       </c>
@@ -3284,26 +3310,28 @@
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="3">
-        <v>66</v>
-      </c>
-      <c r="H35" s="94"/>
+        <v>67</v>
+      </c>
+      <c r="H35" s="78">
+        <v>45691</v>
+      </c>
       <c r="I35" s="65" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="J35" s="28">
         <v>5</v>
       </c>
-      <c r="L35" s="26">
-        <v>103</v>
+      <c r="L35" s="4">
+        <v>105</v>
       </c>
       <c r="M35" s="29">
-        <v>45839</v>
+        <v>45854</v>
       </c>
       <c r="N35" s="27" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O35" s="28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R35"/>
       <c r="W35"/>
@@ -3312,7 +3340,7 @@
       <c r="B36" s="6">
         <v>30</v>
       </c>
-      <c r="C36" s="79"/>
+      <c r="C36" s="75"/>
       <c r="D36" s="46" t="s">
         <v>44</v>
       </c>
@@ -3320,27 +3348,25 @@
         <v>5</v>
       </c>
       <c r="G36" s="3">
-        <v>67</v>
-      </c>
-      <c r="H36" s="93">
-        <v>45691</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="H36" s="79"/>
       <c r="I36" s="65" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J36" s="28">
         <v>5</v>
       </c>
       <c r="L36" s="4">
-        <v>104</v>
-      </c>
-      <c r="M36" s="70">
-        <v>45846</v>
-      </c>
-      <c r="N36" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="O36" s="72">
+        <v>106</v>
+      </c>
+      <c r="M36" s="29">
+        <v>45859</v>
+      </c>
+      <c r="N36" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="O36" s="28">
         <v>5</v>
       </c>
       <c r="R36"/>
@@ -3350,7 +3376,7 @@
       <c r="B37" s="3">
         <v>31</v>
       </c>
-      <c r="C37" s="79"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="63" t="s">
         <v>118</v>
       </c>
@@ -3358,26 +3384,28 @@
         <v>5</v>
       </c>
       <c r="G37" s="3">
-        <v>68</v>
-      </c>
-      <c r="H37" s="94"/>
+        <v>69</v>
+      </c>
+      <c r="H37" s="29">
+        <v>45695</v>
+      </c>
       <c r="I37" s="65" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J37" s="28">
         <v>5</v>
       </c>
       <c r="L37" s="4">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M37" s="29">
-        <v>45854</v>
+        <v>45865</v>
       </c>
       <c r="N37" s="27" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O37" s="28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R37"/>
       <c r="W37"/>
@@ -3386,7 +3414,7 @@
       <c r="B38" s="3">
         <v>32</v>
       </c>
-      <c r="C38" s="79"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="50" t="s">
         <v>45</v>
       </c>
@@ -3394,25 +3422,25 @@
         <v>5</v>
       </c>
       <c r="G38" s="3">
-        <v>69</v>
-      </c>
-      <c r="H38" s="29">
-        <v>45695</v>
+        <v>70</v>
+      </c>
+      <c r="H38" s="77">
+        <v>45700</v>
       </c>
       <c r="I38" s="65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J38" s="28">
         <v>5</v>
       </c>
       <c r="L38" s="4">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M38" s="29">
-        <v>45859</v>
+        <v>45866</v>
       </c>
       <c r="N38" s="27" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O38" s="28">
         <v>5</v>
@@ -3422,7 +3450,7 @@
       <c r="B39" s="3">
         <v>33</v>
       </c>
-      <c r="C39" s="79"/>
+      <c r="C39" s="75"/>
       <c r="D39" s="50" t="s">
         <v>46</v>
       </c>
@@ -3431,28 +3459,26 @@
       </c>
       <c r="F39" s="30"/>
       <c r="G39" s="3">
-        <v>70</v>
-      </c>
-      <c r="H39" s="92">
-        <v>45700</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="H39" s="77"/>
       <c r="I39" s="65" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="J39" s="28">
         <v>5</v>
       </c>
       <c r="K39" s="30"/>
       <c r="L39" s="4">
-        <v>107</v>
-      </c>
-      <c r="M39" s="29">
-        <v>45865</v>
-      </c>
-      <c r="N39" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="O39" s="28">
+        <v>109</v>
+      </c>
+      <c r="M39" s="70">
+        <v>45887</v>
+      </c>
+      <c r="N39" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="O39" s="72">
         <v>5</v>
       </c>
     </row>
@@ -3460,7 +3486,7 @@
       <c r="B40" s="3">
         <v>34</v>
       </c>
-      <c r="C40" s="80"/>
+      <c r="C40" s="76"/>
       <c r="D40" s="50" t="s">
         <v>47</v>
       </c>
@@ -3468,23 +3494,25 @@
         <v>5</v>
       </c>
       <c r="G40" s="3">
-        <v>71</v>
-      </c>
-      <c r="H40" s="92"/>
+        <v>72</v>
+      </c>
+      <c r="H40" s="77">
+        <v>45701</v>
+      </c>
       <c r="I40" s="65" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="J40" s="28">
         <v>5</v>
       </c>
       <c r="L40" s="4">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M40" s="29">
-        <v>45866</v>
+        <v>45908</v>
       </c>
       <c r="N40" s="27" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O40" s="28">
         <v>5</v>
@@ -3504,25 +3532,23 @@
         <v>5</v>
       </c>
       <c r="G41" s="3">
-        <v>72</v>
-      </c>
-      <c r="H41" s="92">
-        <v>45701</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="H41" s="77"/>
       <c r="I41" s="65" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J41" s="28">
         <v>5</v>
       </c>
       <c r="L41" s="4">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M41" s="70">
-        <v>45887</v>
+        <v>45915</v>
       </c>
       <c r="N41" s="71" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O41" s="72">
         <v>5</v>
@@ -3542,93 +3568,117 @@
         <v>5</v>
       </c>
       <c r="G42" s="3">
-        <v>73</v>
-      </c>
-      <c r="H42" s="92"/>
+        <v>74</v>
+      </c>
+      <c r="H42" s="29">
+        <v>45707</v>
+      </c>
       <c r="I42" s="65" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J42" s="28">
         <v>5</v>
       </c>
       <c r="L42" s="4">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M42" s="29">
-        <v>45908</v>
+        <v>45923</v>
       </c>
       <c r="N42" s="27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O42" s="28">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="3">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
+        <v>38</v>
+      </c>
+      <c r="C43" s="51">
+        <v>45662</v>
+      </c>
+      <c r="D43" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="45">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
+        <v>75</v>
+      </c>
+      <c r="H43" s="78">
+        <v>45708</v>
+      </c>
+      <c r="I43" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="J43" s="28">
+        <v>5</v>
+      </c>
+      <c r="L43" s="4">
+        <v>113</v>
+      </c>
+      <c r="M43" s="29">
+        <v>45939</v>
+      </c>
+      <c r="N43" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="O43" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="3">
         <v>37</v>
       </c>
-      <c r="C43" s="62"/>
-      <c r="D43" s="44" t="s">
+      <c r="C44" s="62"/>
+      <c r="D44" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="E43" s="45">
+      <c r="E44" s="45">
         <v>3</v>
       </c>
-      <c r="G43" s="3">
-        <v>74</v>
-      </c>
-      <c r="H43" s="29">
-        <v>45707</v>
-      </c>
-      <c r="I43" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="J43" s="28">
-        <v>5</v>
-      </c>
-      <c r="L43" s="4">
-        <v>111</v>
-      </c>
-      <c r="M43" s="70">
-        <v>45915</v>
-      </c>
-      <c r="N43" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="O43" s="72">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="21"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="49">
-        <f>SUM(E7:E43)</f>
-        <v>187</v>
-      </c>
-      <c r="G44" s="21"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="49">
-        <f>SUM(J7:J43)</f>
-        <v>183</v>
+      <c r="G44" s="3">
+        <v>76</v>
+      </c>
+      <c r="H44" s="95"/>
+      <c r="I44" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="J44" s="28">
+        <v>5</v>
       </c>
       <c r="L44" s="4">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M44" s="29">
-        <v>45923</v>
+        <v>45951</v>
       </c>
       <c r="N44" s="27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O44" s="28">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="21"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="49">
+        <f>SUM(E7:E44)</f>
+        <v>192</v>
+      </c>
+      <c r="G45" s="21"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="49">
+        <f>SUM(J7:J44)</f>
+        <v>188</v>
+      </c>
       <c r="L45" s="26"/>
       <c r="M45" s="22" t="s">
         <v>7</v>
@@ -3639,33 +3689,26 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="2:23" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C47" s="15" t="s">
+    <row r="46" spans="2:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:23" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C47" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C48" s="15" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C33:C40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H43:H44"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="C9:C27"/>
     <mergeCell ref="C28:C32"/>
@@ -3674,11 +3717,19 @@
     <mergeCell ref="S15:T15"/>
     <mergeCell ref="S16:T16"/>
     <mergeCell ref="S6:V6"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="C33:C40"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="H35:H36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0369369C-6C0D-4195-8B97-3BBE8B25DB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839EE088-1289-4956-B933-1FA42ADD975D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65989A62-DD22-4017-B1F4-9BE3BB514C20}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="134">
   <si>
     <t>일   자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -566,6 +566,10 @@
   </si>
   <si>
     <t>전종철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곽형근</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1664,6 +1668,24 @@
     <xf numFmtId="176" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1671,27 +1693,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1727,7 +1728,10 @@
     <xf numFmtId="176" fontId="0" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2053,8 +2057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC16636-847A-47F1-BA3B-A88365FF7E52}">
   <dimension ref="B1:X48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2093,20 +2097,20 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
     </row>
     <row r="3" spans="2:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:23" ht="20.25" x14ac:dyDescent="0.3">
@@ -2153,12 +2157,12 @@
         <v>9</v>
       </c>
       <c r="R6"/>
-      <c r="S6" s="90" t="s">
+      <c r="S6" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="91"/>
-      <c r="U6" s="91"/>
-      <c r="V6" s="92"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="91"/>
       <c r="W6"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
@@ -2177,7 +2181,7 @@
       <c r="G7" s="5">
         <v>39</v>
       </c>
-      <c r="H7" s="74">
+      <c r="H7" s="80">
         <v>45663</v>
       </c>
       <c r="I7" s="46" t="s">
@@ -2229,7 +2233,7 @@
       <c r="G8" s="3">
         <v>40</v>
       </c>
-      <c r="H8" s="75"/>
+      <c r="H8" s="81"/>
       <c r="I8" s="46" t="s">
         <v>53</v>
       </c>
@@ -2267,7 +2271,7 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="77">
         <v>45658</v>
       </c>
       <c r="D9" s="42" t="s">
@@ -2279,7 +2283,7 @@
       <c r="G9" s="3">
         <v>41</v>
       </c>
-      <c r="H9" s="76"/>
+      <c r="H9" s="82"/>
       <c r="I9" s="46" t="s">
         <v>54</v>
       </c>
@@ -2317,7 +2321,7 @@
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="82"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="43" t="s">
         <v>18</v>
       </c>
@@ -2327,7 +2331,7 @@
       <c r="G10" s="3">
         <v>42</v>
       </c>
-      <c r="H10" s="74">
+      <c r="H10" s="80">
         <v>45664</v>
       </c>
       <c r="I10" s="61" t="s">
@@ -2359,7 +2363,7 @@
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="82"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="43" t="s">
         <v>19</v>
       </c>
@@ -2369,7 +2373,7 @@
       <c r="G11" s="3">
         <v>43</v>
       </c>
-      <c r="H11" s="93"/>
+      <c r="H11" s="92"/>
       <c r="I11" s="61" t="s">
         <v>59</v>
       </c>
@@ -2379,7 +2383,7 @@
       <c r="L11" s="26">
         <v>81</v>
       </c>
-      <c r="M11" s="77">
+      <c r="M11" s="94">
         <v>45721</v>
       </c>
       <c r="N11" s="65" t="s">
@@ -2404,7 +2408,7 @@
       <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="82"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="43" t="s">
         <v>20</v>
       </c>
@@ -2414,7 +2418,7 @@
       <c r="G12" s="3">
         <v>44</v>
       </c>
-      <c r="H12" s="74">
+      <c r="H12" s="80">
         <v>45665</v>
       </c>
       <c r="I12" s="61" t="s">
@@ -2426,7 +2430,7 @@
       <c r="L12" s="26">
         <v>82</v>
       </c>
-      <c r="M12" s="77"/>
+      <c r="M12" s="94"/>
       <c r="N12" s="65" t="s">
         <v>97</v>
       </c>
@@ -2440,7 +2444,7 @@
       <c r="B13" s="5">
         <v>7</v>
       </c>
-      <c r="C13" s="82"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="43" t="s">
         <v>21</v>
       </c>
@@ -2450,7 +2454,7 @@
       <c r="G13" s="3">
         <v>45</v>
       </c>
-      <c r="H13" s="93"/>
+      <c r="H13" s="92"/>
       <c r="I13" s="61" t="s">
         <v>61</v>
       </c>
@@ -2460,7 +2464,7 @@
       <c r="L13" s="26">
         <v>83</v>
       </c>
-      <c r="M13" s="77"/>
+      <c r="M13" s="94"/>
       <c r="N13" s="27" t="s">
         <v>98</v>
       </c>
@@ -2468,10 +2472,10 @@
         <v>5</v>
       </c>
       <c r="R13"/>
-      <c r="S13" s="84" t="s">
+      <c r="S13" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="85"/>
+      <c r="T13" s="84"/>
       <c r="U13" s="19" t="s">
         <v>14</v>
       </c>
@@ -2484,7 +2488,7 @@
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="82"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="43" t="s">
         <v>22</v>
       </c>
@@ -2516,13 +2520,13 @@
         <v>5</v>
       </c>
       <c r="R14"/>
-      <c r="S14" s="86" t="s">
+      <c r="S14" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="87"/>
+      <c r="T14" s="86"/>
       <c r="U14" s="33">
-        <f>E45+J45+O45</f>
-        <v>568</v>
+        <f>E45+J45+O46</f>
+        <v>573</v>
       </c>
       <c r="V14" s="16"/>
       <c r="W14"/>
@@ -2531,7 +2535,7 @@
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="82"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="43" t="s">
         <v>23</v>
       </c>
@@ -2563,10 +2567,10 @@
         <v>5</v>
       </c>
       <c r="R15"/>
-      <c r="S15" s="86" t="s">
+      <c r="S15" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="T15" s="87"/>
+      <c r="T15" s="86"/>
       <c r="U15" s="34">
         <f>U11</f>
         <v>330</v>
@@ -2578,7 +2582,7 @@
       <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="82"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="43" t="s">
         <v>24</v>
       </c>
@@ -2588,7 +2592,7 @@
       <c r="G16" s="3">
         <v>48</v>
       </c>
-      <c r="H16" s="94">
+      <c r="H16" s="93">
         <v>45670</v>
       </c>
       <c r="I16" s="61" t="s">
@@ -2610,13 +2614,13 @@
         <v>5</v>
       </c>
       <c r="R16"/>
-      <c r="S16" s="88" t="s">
+      <c r="S16" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="89"/>
+      <c r="T16" s="88"/>
       <c r="U16" s="35">
         <f>SUM(U14:U15)</f>
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="V16" s="18"/>
       <c r="W16"/>
@@ -2625,7 +2629,7 @@
       <c r="B17" s="3">
         <v>11</v>
       </c>
-      <c r="C17" s="82"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="43" t="s">
         <v>25</v>
       </c>
@@ -2635,7 +2639,7 @@
       <c r="G17" s="3">
         <v>49</v>
       </c>
-      <c r="H17" s="94"/>
+      <c r="H17" s="93"/>
       <c r="I17" s="63" t="s">
         <v>64</v>
       </c>
@@ -2661,7 +2665,7 @@
       <c r="B18" s="3">
         <v>12</v>
       </c>
-      <c r="C18" s="82"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="43" t="s">
         <v>26</v>
       </c>
@@ -2671,7 +2675,7 @@
       <c r="G18" s="4">
         <v>50</v>
       </c>
-      <c r="H18" s="94"/>
+      <c r="H18" s="93"/>
       <c r="I18" s="63" t="s">
         <v>65</v>
       </c>
@@ -2698,7 +2702,7 @@
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="82"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="43" t="s">
         <v>27</v>
       </c>
@@ -2736,7 +2740,7 @@
       <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="82"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="44" t="s">
         <v>28</v>
       </c>
@@ -2746,7 +2750,7 @@
       <c r="G20" s="3">
         <v>52</v>
       </c>
-      <c r="H20" s="94">
+      <c r="H20" s="93">
         <v>45673</v>
       </c>
       <c r="I20" s="63" t="s">
@@ -2774,7 +2778,7 @@
       <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="82"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="44" t="s">
         <v>29</v>
       </c>
@@ -2784,7 +2788,7 @@
       <c r="G21" s="3">
         <v>53</v>
       </c>
-      <c r="H21" s="94"/>
+      <c r="H21" s="93"/>
       <c r="I21" s="63" t="s">
         <v>69</v>
       </c>
@@ -2810,7 +2814,7 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="82"/>
+      <c r="C22" s="78"/>
       <c r="D22" s="44" t="s">
         <v>30</v>
       </c>
@@ -2820,7 +2824,7 @@
       <c r="G22" s="3">
         <v>54</v>
       </c>
-      <c r="H22" s="94"/>
+      <c r="H22" s="93"/>
       <c r="I22" s="63" t="s">
         <v>70</v>
       </c>
@@ -2830,7 +2834,7 @@
       <c r="L22" s="26">
         <v>92</v>
       </c>
-      <c r="M22" s="78">
+      <c r="M22" s="74">
         <v>45793</v>
       </c>
       <c r="N22" s="65" t="s">
@@ -2846,7 +2850,7 @@
       <c r="B23" s="3">
         <v>17</v>
       </c>
-      <c r="C23" s="82"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="44" t="s">
         <v>31</v>
       </c>
@@ -2868,7 +2872,7 @@
       <c r="L23" s="26">
         <v>93</v>
       </c>
-      <c r="M23" s="79"/>
+      <c r="M23" s="95"/>
       <c r="N23" s="65" t="s">
         <v>110</v>
       </c>
@@ -2883,7 +2887,7 @@
       <c r="B24" s="3">
         <v>18</v>
       </c>
-      <c r="C24" s="82"/>
+      <c r="C24" s="78"/>
       <c r="D24" s="44" t="s">
         <v>32</v>
       </c>
@@ -2921,7 +2925,7 @@
       <c r="B25" s="3">
         <v>19</v>
       </c>
-      <c r="C25" s="82"/>
+      <c r="C25" s="78"/>
       <c r="D25" s="44" t="s">
         <v>33</v>
       </c>
@@ -2959,7 +2963,7 @@
       <c r="B26" s="3">
         <v>20</v>
       </c>
-      <c r="C26" s="82"/>
+      <c r="C26" s="78"/>
       <c r="D26" s="43" t="s">
         <v>34</v>
       </c>
@@ -2997,7 +3001,7 @@
       <c r="B27" s="3">
         <v>21</v>
       </c>
-      <c r="C27" s="83"/>
+      <c r="C27" s="79"/>
       <c r="D27" s="43" t="s">
         <v>35</v>
       </c>
@@ -3035,7 +3039,7 @@
       <c r="B28" s="3">
         <v>22</v>
       </c>
-      <c r="C28" s="74">
+      <c r="C28" s="80">
         <v>45659</v>
       </c>
       <c r="D28" s="43" t="s">
@@ -3059,7 +3063,7 @@
       <c r="L28" s="26">
         <v>98</v>
       </c>
-      <c r="M28" s="78">
+      <c r="M28" s="74">
         <v>45806</v>
       </c>
       <c r="N28" s="65" t="s">
@@ -3075,7 +3079,7 @@
       <c r="B29" s="5">
         <v>23</v>
       </c>
-      <c r="C29" s="75"/>
+      <c r="C29" s="81"/>
       <c r="D29" s="46" t="s">
         <v>37</v>
       </c>
@@ -3097,7 +3101,7 @@
       <c r="L29" s="26">
         <v>99</v>
       </c>
-      <c r="M29" s="79"/>
+      <c r="M29" s="95"/>
       <c r="N29" s="65" t="s">
         <v>116</v>
       </c>
@@ -3111,7 +3115,7 @@
       <c r="B30" s="3">
         <v>24</v>
       </c>
-      <c r="C30" s="75"/>
+      <c r="C30" s="81"/>
       <c r="D30" s="46" t="s">
         <v>38</v>
       </c>
@@ -3149,7 +3153,7 @@
       <c r="B31" s="3">
         <v>25</v>
       </c>
-      <c r="C31" s="75"/>
+      <c r="C31" s="81"/>
       <c r="D31" s="46" t="s">
         <v>39</v>
       </c>
@@ -3187,7 +3191,7 @@
       <c r="B32" s="3">
         <v>26</v>
       </c>
-      <c r="C32" s="76"/>
+      <c r="C32" s="82"/>
       <c r="D32" s="46" t="s">
         <v>40</v>
       </c>
@@ -3225,7 +3229,7 @@
       <c r="B33" s="3">
         <v>27</v>
       </c>
-      <c r="C33" s="74">
+      <c r="C33" s="80">
         <v>45660</v>
       </c>
       <c r="D33" s="43" t="s">
@@ -3237,7 +3241,7 @@
       <c r="G33" s="3">
         <v>65</v>
       </c>
-      <c r="H33" s="78">
+      <c r="H33" s="74">
         <v>45689</v>
       </c>
       <c r="I33" s="65" t="s">
@@ -3265,7 +3269,7 @@
       <c r="B34" s="3">
         <v>28</v>
       </c>
-      <c r="C34" s="75"/>
+      <c r="C34" s="81"/>
       <c r="D34" s="46" t="s">
         <v>42</v>
       </c>
@@ -3275,7 +3279,7 @@
       <c r="G34" s="3">
         <v>66</v>
       </c>
-      <c r="H34" s="79"/>
+      <c r="H34" s="95"/>
       <c r="I34" s="65" t="s">
         <v>104</v>
       </c>
@@ -3301,7 +3305,7 @@
       <c r="B35" s="3">
         <v>29</v>
       </c>
-      <c r="C35" s="75"/>
+      <c r="C35" s="81"/>
       <c r="D35" s="46" t="s">
         <v>43</v>
       </c>
@@ -3312,7 +3316,7 @@
       <c r="G35" s="3">
         <v>67</v>
       </c>
-      <c r="H35" s="78">
+      <c r="H35" s="74">
         <v>45691</v>
       </c>
       <c r="I35" s="65" t="s">
@@ -3340,7 +3344,7 @@
       <c r="B36" s="6">
         <v>30</v>
       </c>
-      <c r="C36" s="75"/>
+      <c r="C36" s="81"/>
       <c r="D36" s="46" t="s">
         <v>44</v>
       </c>
@@ -3350,7 +3354,7 @@
       <c r="G36" s="3">
         <v>68</v>
       </c>
-      <c r="H36" s="79"/>
+      <c r="H36" s="95"/>
       <c r="I36" s="65" t="s">
         <v>83</v>
       </c>
@@ -3376,7 +3380,7 @@
       <c r="B37" s="3">
         <v>31</v>
       </c>
-      <c r="C37" s="75"/>
+      <c r="C37" s="81"/>
       <c r="D37" s="63" t="s">
         <v>118</v>
       </c>
@@ -3414,7 +3418,7 @@
       <c r="B38" s="3">
         <v>32</v>
       </c>
-      <c r="C38" s="75"/>
+      <c r="C38" s="81"/>
       <c r="D38" s="50" t="s">
         <v>45</v>
       </c>
@@ -3424,7 +3428,7 @@
       <c r="G38" s="3">
         <v>70</v>
       </c>
-      <c r="H38" s="77">
+      <c r="H38" s="94">
         <v>45700</v>
       </c>
       <c r="I38" s="65" t="s">
@@ -3450,7 +3454,7 @@
       <c r="B39" s="3">
         <v>33</v>
       </c>
-      <c r="C39" s="75"/>
+      <c r="C39" s="81"/>
       <c r="D39" s="50" t="s">
         <v>46</v>
       </c>
@@ -3461,7 +3465,7 @@
       <c r="G39" s="3">
         <v>71</v>
       </c>
-      <c r="H39" s="77"/>
+      <c r="H39" s="94"/>
       <c r="I39" s="65" t="s">
         <v>100</v>
       </c>
@@ -3486,7 +3490,7 @@
       <c r="B40" s="3">
         <v>34</v>
       </c>
-      <c r="C40" s="76"/>
+      <c r="C40" s="82"/>
       <c r="D40" s="50" t="s">
         <v>47</v>
       </c>
@@ -3496,7 +3500,7 @@
       <c r="G40" s="3">
         <v>72</v>
       </c>
-      <c r="H40" s="77">
+      <c r="H40" s="94">
         <v>45701</v>
       </c>
       <c r="I40" s="65" t="s">
@@ -3534,7 +3538,7 @@
       <c r="G41" s="3">
         <v>73</v>
       </c>
-      <c r="H41" s="77"/>
+      <c r="H41" s="94"/>
       <c r="I41" s="65" t="s">
         <v>88</v>
       </c>
@@ -3608,7 +3612,7 @@
       <c r="G43" s="3">
         <v>75</v>
       </c>
-      <c r="H43" s="78">
+      <c r="H43" s="74">
         <v>45708</v>
       </c>
       <c r="I43" s="65" t="s">
@@ -3644,7 +3648,7 @@
       <c r="G44" s="3">
         <v>76</v>
       </c>
-      <c r="H44" s="95"/>
+      <c r="H44" s="75"/>
       <c r="I44" s="65" t="s">
         <v>91</v>
       </c>
@@ -3679,18 +3683,29 @@
         <f>SUM(J7:J44)</f>
         <v>188</v>
       </c>
-      <c r="L45" s="26"/>
-      <c r="M45" s="22" t="s">
+      <c r="L45" s="4"/>
+      <c r="M45" s="70">
+        <v>45961</v>
+      </c>
+      <c r="N45" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="O45" s="72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L46" s="26"/>
+      <c r="M46" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="N45" s="24"/>
-      <c r="O45" s="25">
-        <f>SUM(O7:O44)</f>
-        <v>188</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:23" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="N46" s="24"/>
+      <c r="O46" s="25">
+        <f>SUM(O7:O45)</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C47" s="30" t="s">
         <v>5</v>
       </c>
@@ -3708,6 +3723,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="H35:H36"/>
     <mergeCell ref="H43:H44"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="C9:C27"/>
@@ -3724,12 +3745,6 @@
     <mergeCell ref="H16:H18"/>
     <mergeCell ref="C33:C40"/>
     <mergeCell ref="H38:H39"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="H35:H36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839EE088-1289-4956-B933-1FA42ADD975D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05420CFA-9775-44BE-8AB4-B47850817091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65989A62-DD22-4017-B1F4-9BE3BB514C20}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="135">
   <si>
     <t>일   자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -570,6 +570,10 @@
   </si>
   <si>
     <t>곽형근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정인과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1599,9 +1603,6 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1668,7 +1669,13 @@
     <xf numFmtId="176" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1728,10 +1735,7 @@
     <xf numFmtId="176" fontId="0" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2057,8 +2061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC16636-847A-47F1-BA3B-A88365FF7E52}">
   <dimension ref="B1:X48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="T43" sqref="T43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="T46" sqref="T46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2097,24 +2101,24 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
     </row>
     <row r="3" spans="2:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:23" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="59" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2157,12 +2161,12 @@
         <v>9</v>
       </c>
       <c r="R6"/>
-      <c r="S6" s="89" t="s">
+      <c r="S6" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="91"/>
+      <c r="T6" s="91"/>
+      <c r="U6" s="91"/>
+      <c r="V6" s="92"/>
       <c r="W6"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
@@ -2181,7 +2185,7 @@
       <c r="G7" s="5">
         <v>39</v>
       </c>
-      <c r="H7" s="80">
+      <c r="H7" s="81">
         <v>45663</v>
       </c>
       <c r="I7" s="46" t="s">
@@ -2196,23 +2200,23 @@
       <c r="M7" s="29">
         <v>45708</v>
       </c>
-      <c r="N7" s="65" t="s">
+      <c r="N7" s="64" t="s">
         <v>92</v>
       </c>
       <c r="O7" s="28">
         <v>5</v>
       </c>
       <c r="R7"/>
-      <c r="S7" s="53">
+      <c r="S7" s="52">
         <v>45658</v>
       </c>
-      <c r="T7" s="54" t="s">
+      <c r="T7" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="U7" s="55">
+      <c r="U7" s="54">
         <v>30</v>
       </c>
-      <c r="V7" s="56" t="s">
+      <c r="V7" s="55" t="s">
         <v>56</v>
       </c>
       <c r="W7"/>
@@ -2233,7 +2237,7 @@
       <c r="G8" s="3">
         <v>40</v>
       </c>
-      <c r="H8" s="81"/>
+      <c r="H8" s="82"/>
       <c r="I8" s="46" t="s">
         <v>53</v>
       </c>
@@ -2246,23 +2250,23 @@
       <c r="M8" s="29">
         <v>45716</v>
       </c>
-      <c r="N8" s="65" t="s">
+      <c r="N8" s="64" t="s">
         <v>93</v>
       </c>
       <c r="O8" s="28">
         <v>5</v>
       </c>
       <c r="R8"/>
-      <c r="S8" s="57">
+      <c r="S8" s="56">
         <v>45659</v>
       </c>
-      <c r="T8" s="58" t="s">
+      <c r="T8" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="U8" s="55">
+      <c r="U8" s="54">
         <v>100</v>
       </c>
-      <c r="V8" s="56" t="s">
+      <c r="V8" s="55" t="s">
         <v>56</v>
       </c>
       <c r="W8"/>
@@ -2271,7 +2275,7 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="77">
+      <c r="C9" s="78">
         <v>45658</v>
       </c>
       <c r="D9" s="42" t="s">
@@ -2283,7 +2287,7 @@
       <c r="G9" s="3">
         <v>41</v>
       </c>
-      <c r="H9" s="82"/>
+      <c r="H9" s="83"/>
       <c r="I9" s="46" t="s">
         <v>54</v>
       </c>
@@ -2293,26 +2297,26 @@
       <c r="L9" s="3">
         <v>79</v>
       </c>
-      <c r="M9" s="66">
+      <c r="M9" s="65">
         <v>45717</v>
       </c>
-      <c r="N9" s="67" t="s">
+      <c r="N9" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="O9" s="68">
+      <c r="O9" s="67">
         <v>5</v>
       </c>
       <c r="R9"/>
-      <c r="S9" s="57">
+      <c r="S9" s="56">
         <v>45700</v>
       </c>
-      <c r="T9" s="59" t="s">
+      <c r="T9" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="U9" s="55">
+      <c r="U9" s="54">
         <v>200</v>
       </c>
-      <c r="V9" s="56" t="s">
+      <c r="V9" s="55" t="s">
         <v>56</v>
       </c>
       <c r="W9"/>
@@ -2321,7 +2325,7 @@
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="78"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="43" t="s">
         <v>18</v>
       </c>
@@ -2331,10 +2335,10 @@
       <c r="G10" s="3">
         <v>42</v>
       </c>
-      <c r="H10" s="80">
+      <c r="H10" s="81">
         <v>45664</v>
       </c>
-      <c r="I10" s="61" t="s">
+      <c r="I10" s="60" t="s">
         <v>58</v>
       </c>
       <c r="J10" s="45">
@@ -2346,7 +2350,7 @@
       <c r="M10" s="29">
         <v>45720</v>
       </c>
-      <c r="N10" s="65" t="s">
+      <c r="N10" s="64" t="s">
         <v>95</v>
       </c>
       <c r="O10" s="28">
@@ -2363,7 +2367,7 @@
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="78"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="43" t="s">
         <v>19</v>
       </c>
@@ -2373,8 +2377,8 @@
       <c r="G11" s="3">
         <v>43</v>
       </c>
-      <c r="H11" s="92"/>
-      <c r="I11" s="61" t="s">
+      <c r="H11" s="93"/>
+      <c r="I11" s="60" t="s">
         <v>59</v>
       </c>
       <c r="J11" s="45">
@@ -2383,10 +2387,10 @@
       <c r="L11" s="26">
         <v>81</v>
       </c>
-      <c r="M11" s="94">
+      <c r="M11" s="73">
         <v>45721</v>
       </c>
-      <c r="N11" s="65" t="s">
+      <c r="N11" s="64" t="s">
         <v>96</v>
       </c>
       <c r="O11" s="28">
@@ -2408,7 +2412,7 @@
       <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="78"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="43" t="s">
         <v>20</v>
       </c>
@@ -2418,10 +2422,10 @@
       <c r="G12" s="3">
         <v>44</v>
       </c>
-      <c r="H12" s="80">
+      <c r="H12" s="81">
         <v>45665</v>
       </c>
-      <c r="I12" s="61" t="s">
+      <c r="I12" s="60" t="s">
         <v>60</v>
       </c>
       <c r="J12" s="45">
@@ -2430,8 +2434,8 @@
       <c r="L12" s="26">
         <v>82</v>
       </c>
-      <c r="M12" s="94"/>
-      <c r="N12" s="65" t="s">
+      <c r="M12" s="73"/>
+      <c r="N12" s="64" t="s">
         <v>97</v>
       </c>
       <c r="O12" s="28">
@@ -2444,7 +2448,7 @@
       <c r="B13" s="5">
         <v>7</v>
       </c>
-      <c r="C13" s="78"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="43" t="s">
         <v>21</v>
       </c>
@@ -2454,8 +2458,8 @@
       <c r="G13" s="3">
         <v>45</v>
       </c>
-      <c r="H13" s="92"/>
-      <c r="I13" s="61" t="s">
+      <c r="H13" s="93"/>
+      <c r="I13" s="60" t="s">
         <v>61</v>
       </c>
       <c r="J13" s="45">
@@ -2464,7 +2468,7 @@
       <c r="L13" s="26">
         <v>83</v>
       </c>
-      <c r="M13" s="94"/>
+      <c r="M13" s="73"/>
       <c r="N13" s="27" t="s">
         <v>98</v>
       </c>
@@ -2472,10 +2476,10 @@
         <v>5</v>
       </c>
       <c r="R13"/>
-      <c r="S13" s="83" t="s">
+      <c r="S13" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="84"/>
+      <c r="T13" s="85"/>
       <c r="U13" s="19" t="s">
         <v>14</v>
       </c>
@@ -2488,7 +2492,7 @@
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="78"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="43" t="s">
         <v>22</v>
       </c>
@@ -2498,10 +2502,10 @@
       <c r="G14" s="3">
         <v>46</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H14" s="61">
         <v>45667</v>
       </c>
-      <c r="I14" s="63" t="s">
+      <c r="I14" s="62" t="s">
         <v>62</v>
       </c>
       <c r="J14" s="45">
@@ -2520,13 +2524,13 @@
         <v>5</v>
       </c>
       <c r="R14"/>
-      <c r="S14" s="85" t="s">
+      <c r="S14" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="86"/>
+      <c r="T14" s="87"/>
       <c r="U14" s="33">
-        <f>E45+J45+O46</f>
-        <v>573</v>
+        <f>E45+J45+O47</f>
+        <v>578</v>
       </c>
       <c r="V14" s="16"/>
       <c r="W14"/>
@@ -2535,7 +2539,7 @@
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="78"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="43" t="s">
         <v>23</v>
       </c>
@@ -2545,10 +2549,10 @@
       <c r="G15" s="3">
         <v>47</v>
       </c>
-      <c r="H15" s="62">
+      <c r="H15" s="61">
         <v>45669</v>
       </c>
-      <c r="I15" s="61" t="s">
+      <c r="I15" s="60" t="s">
         <v>63</v>
       </c>
       <c r="J15" s="45">
@@ -2557,20 +2561,20 @@
       <c r="L15" s="3">
         <v>85</v>
       </c>
-      <c r="M15" s="66">
+      <c r="M15" s="65">
         <v>45725</v>
       </c>
-      <c r="N15" s="69" t="s">
+      <c r="N15" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="O15" s="68">
+      <c r="O15" s="67">
         <v>5</v>
       </c>
       <c r="R15"/>
-      <c r="S15" s="85" t="s">
+      <c r="S15" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="T15" s="86"/>
+      <c r="T15" s="87"/>
       <c r="U15" s="34">
         <f>U11</f>
         <v>330</v>
@@ -2582,7 +2586,7 @@
       <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="78"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="43" t="s">
         <v>24</v>
       </c>
@@ -2592,10 +2596,10 @@
       <c r="G16" s="3">
         <v>48</v>
       </c>
-      <c r="H16" s="93">
+      <c r="H16" s="94">
         <v>45670</v>
       </c>
-      <c r="I16" s="61" t="s">
+      <c r="I16" s="60" t="s">
         <v>67</v>
       </c>
       <c r="J16" s="45">
@@ -2614,13 +2618,13 @@
         <v>5</v>
       </c>
       <c r="R16"/>
-      <c r="S16" s="87" t="s">
+      <c r="S16" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="88"/>
+      <c r="T16" s="89"/>
       <c r="U16" s="35">
         <f>SUM(U14:U15)</f>
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="V16" s="18"/>
       <c r="W16"/>
@@ -2629,7 +2633,7 @@
       <c r="B17" s="3">
         <v>11</v>
       </c>
-      <c r="C17" s="78"/>
+      <c r="C17" s="79"/>
       <c r="D17" s="43" t="s">
         <v>25</v>
       </c>
@@ -2639,8 +2643,8 @@
       <c r="G17" s="3">
         <v>49</v>
       </c>
-      <c r="H17" s="93"/>
-      <c r="I17" s="63" t="s">
+      <c r="H17" s="94"/>
+      <c r="I17" s="62" t="s">
         <v>64</v>
       </c>
       <c r="J17" s="45">
@@ -2665,7 +2669,7 @@
       <c r="B18" s="3">
         <v>12</v>
       </c>
-      <c r="C18" s="78"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="43" t="s">
         <v>26</v>
       </c>
@@ -2675,8 +2679,8 @@
       <c r="G18" s="4">
         <v>50</v>
       </c>
-      <c r="H18" s="93"/>
-      <c r="I18" s="63" t="s">
+      <c r="H18" s="94"/>
+      <c r="I18" s="62" t="s">
         <v>65</v>
       </c>
       <c r="J18" s="45">
@@ -2688,7 +2692,7 @@
       <c r="M18" s="29">
         <v>45734</v>
       </c>
-      <c r="N18" s="65" t="s">
+      <c r="N18" s="64" t="s">
         <v>105</v>
       </c>
       <c r="O18" s="28">
@@ -2702,7 +2706,7 @@
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="78"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="43" t="s">
         <v>27</v>
       </c>
@@ -2712,10 +2716,10 @@
       <c r="G19" s="3">
         <v>51</v>
       </c>
-      <c r="H19" s="64">
+      <c r="H19" s="63">
         <v>45671</v>
       </c>
-      <c r="I19" s="52" t="s">
+      <c r="I19" s="51" t="s">
         <v>66</v>
       </c>
       <c r="J19" s="45">
@@ -2727,7 +2731,7 @@
       <c r="M19" s="29">
         <v>45748</v>
       </c>
-      <c r="N19" s="65" t="s">
+      <c r="N19" s="64" t="s">
         <v>106</v>
       </c>
       <c r="O19" s="28">
@@ -2740,7 +2744,7 @@
       <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="78"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="44" t="s">
         <v>28</v>
       </c>
@@ -2750,10 +2754,10 @@
       <c r="G20" s="3">
         <v>52</v>
       </c>
-      <c r="H20" s="93">
+      <c r="H20" s="94">
         <v>45673</v>
       </c>
-      <c r="I20" s="63" t="s">
+      <c r="I20" s="62" t="s">
         <v>68</v>
       </c>
       <c r="J20" s="45">
@@ -2765,7 +2769,7 @@
       <c r="M20" s="29">
         <v>45777</v>
       </c>
-      <c r="N20" s="65" t="s">
+      <c r="N20" s="64" t="s">
         <v>107</v>
       </c>
       <c r="O20" s="28">
@@ -2778,7 +2782,7 @@
       <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="78"/>
+      <c r="C21" s="79"/>
       <c r="D21" s="44" t="s">
         <v>29</v>
       </c>
@@ -2788,8 +2792,8 @@
       <c r="G21" s="3">
         <v>53</v>
       </c>
-      <c r="H21" s="93"/>
-      <c r="I21" s="63" t="s">
+      <c r="H21" s="94"/>
+      <c r="I21" s="62" t="s">
         <v>69</v>
       </c>
       <c r="J21" s="45">
@@ -2801,7 +2805,7 @@
       <c r="M21" s="29">
         <v>45778</v>
       </c>
-      <c r="N21" s="65" t="s">
+      <c r="N21" s="64" t="s">
         <v>108</v>
       </c>
       <c r="O21" s="28">
@@ -2814,7 +2818,7 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="78"/>
+      <c r="C22" s="79"/>
       <c r="D22" s="44" t="s">
         <v>30</v>
       </c>
@@ -2824,8 +2828,8 @@
       <c r="G22" s="3">
         <v>54</v>
       </c>
-      <c r="H22" s="93"/>
-      <c r="I22" s="63" t="s">
+      <c r="H22" s="94"/>
+      <c r="I22" s="62" t="s">
         <v>70</v>
       </c>
       <c r="J22" s="45">
@@ -2837,7 +2841,7 @@
       <c r="M22" s="74">
         <v>45793</v>
       </c>
-      <c r="N22" s="65" t="s">
+      <c r="N22" s="64" t="s">
         <v>109</v>
       </c>
       <c r="O22" s="28">
@@ -2850,7 +2854,7 @@
       <c r="B23" s="3">
         <v>17</v>
       </c>
-      <c r="C23" s="78"/>
+      <c r="C23" s="79"/>
       <c r="D23" s="44" t="s">
         <v>31</v>
       </c>
@@ -2860,10 +2864,10 @@
       <c r="G23" s="3">
         <v>55</v>
       </c>
-      <c r="H23" s="62">
+      <c r="H23" s="61">
         <v>45676</v>
       </c>
-      <c r="I23" s="63" t="s">
+      <c r="I23" s="62" t="s">
         <v>71</v>
       </c>
       <c r="J23" s="45">
@@ -2872,8 +2876,8 @@
       <c r="L23" s="26">
         <v>93</v>
       </c>
-      <c r="M23" s="95"/>
-      <c r="N23" s="65" t="s">
+      <c r="M23" s="75"/>
+      <c r="N23" s="64" t="s">
         <v>110</v>
       </c>
       <c r="O23" s="28">
@@ -2887,7 +2891,7 @@
       <c r="B24" s="3">
         <v>18</v>
       </c>
-      <c r="C24" s="78"/>
+      <c r="C24" s="79"/>
       <c r="D24" s="44" t="s">
         <v>32</v>
       </c>
@@ -2897,10 +2901,10 @@
       <c r="G24" s="3">
         <v>56</v>
       </c>
-      <c r="H24" s="62">
+      <c r="H24" s="61">
         <v>45677</v>
       </c>
-      <c r="I24" s="63" t="s">
+      <c r="I24" s="62" t="s">
         <v>72</v>
       </c>
       <c r="J24" s="45">
@@ -2912,7 +2916,7 @@
       <c r="M24" s="29">
         <v>45800</v>
       </c>
-      <c r="N24" s="65" t="s">
+      <c r="N24" s="64" t="s">
         <v>111</v>
       </c>
       <c r="O24" s="28">
@@ -2925,7 +2929,7 @@
       <c r="B25" s="3">
         <v>19</v>
       </c>
-      <c r="C25" s="78"/>
+      <c r="C25" s="79"/>
       <c r="D25" s="44" t="s">
         <v>33</v>
       </c>
@@ -2935,10 +2939,10 @@
       <c r="G25" s="3">
         <v>57</v>
       </c>
-      <c r="H25" s="62">
+      <c r="H25" s="61">
         <v>45678</v>
       </c>
-      <c r="I25" s="63" t="s">
+      <c r="I25" s="62" t="s">
         <v>73</v>
       </c>
       <c r="J25" s="45">
@@ -2950,7 +2954,7 @@
       <c r="M25" s="29">
         <v>45802</v>
       </c>
-      <c r="N25" s="65" t="s">
+      <c r="N25" s="64" t="s">
         <v>112</v>
       </c>
       <c r="O25" s="28">
@@ -2963,7 +2967,7 @@
       <c r="B26" s="3">
         <v>20</v>
       </c>
-      <c r="C26" s="78"/>
+      <c r="C26" s="79"/>
       <c r="D26" s="43" t="s">
         <v>34</v>
       </c>
@@ -2973,10 +2977,10 @@
       <c r="G26" s="3">
         <v>58</v>
       </c>
-      <c r="H26" s="62">
+      <c r="H26" s="61">
         <v>45679</v>
       </c>
-      <c r="I26" s="63" t="s">
+      <c r="I26" s="62" t="s">
         <v>74</v>
       </c>
       <c r="J26" s="45">
@@ -2988,7 +2992,7 @@
       <c r="M26" s="29">
         <v>45803</v>
       </c>
-      <c r="N26" s="65" t="s">
+      <c r="N26" s="64" t="s">
         <v>113</v>
       </c>
       <c r="O26" s="28">
@@ -3001,7 +3005,7 @@
       <c r="B27" s="3">
         <v>21</v>
       </c>
-      <c r="C27" s="79"/>
+      <c r="C27" s="80"/>
       <c r="D27" s="43" t="s">
         <v>35</v>
       </c>
@@ -3011,10 +3015,10 @@
       <c r="G27" s="3">
         <v>59</v>
       </c>
-      <c r="H27" s="62">
+      <c r="H27" s="61">
         <v>45680</v>
       </c>
-      <c r="I27" s="63" t="s">
+      <c r="I27" s="62" t="s">
         <v>75</v>
       </c>
       <c r="J27" s="45">
@@ -3026,7 +3030,7 @@
       <c r="M27" s="29">
         <v>45805</v>
       </c>
-      <c r="N27" s="65" t="s">
+      <c r="N27" s="64" t="s">
         <v>114</v>
       </c>
       <c r="O27" s="28">
@@ -3039,7 +3043,7 @@
       <c r="B28" s="3">
         <v>22</v>
       </c>
-      <c r="C28" s="80">
+      <c r="C28" s="81">
         <v>45659</v>
       </c>
       <c r="D28" s="43" t="s">
@@ -3051,10 +3055,10 @@
       <c r="G28" s="3">
         <v>60</v>
       </c>
-      <c r="H28" s="62">
+      <c r="H28" s="61">
         <v>45684</v>
       </c>
-      <c r="I28" s="63" t="s">
+      <c r="I28" s="62" t="s">
         <v>76</v>
       </c>
       <c r="J28" s="45">
@@ -3066,7 +3070,7 @@
       <c r="M28" s="74">
         <v>45806</v>
       </c>
-      <c r="N28" s="65" t="s">
+      <c r="N28" s="64" t="s">
         <v>115</v>
       </c>
       <c r="O28" s="28">
@@ -3079,7 +3083,7 @@
       <c r="B29" s="5">
         <v>23</v>
       </c>
-      <c r="C29" s="81"/>
+      <c r="C29" s="82"/>
       <c r="D29" s="46" t="s">
         <v>37</v>
       </c>
@@ -3089,10 +3093,10 @@
       <c r="G29" s="3">
         <v>61</v>
       </c>
-      <c r="H29" s="62">
+      <c r="H29" s="61">
         <v>45685</v>
       </c>
-      <c r="I29" s="63" t="s">
+      <c r="I29" s="62" t="s">
         <v>77</v>
       </c>
       <c r="J29" s="45">
@@ -3101,8 +3105,8 @@
       <c r="L29" s="26">
         <v>99</v>
       </c>
-      <c r="M29" s="95"/>
-      <c r="N29" s="65" t="s">
+      <c r="M29" s="75"/>
+      <c r="N29" s="64" t="s">
         <v>116</v>
       </c>
       <c r="O29" s="28">
@@ -3115,7 +3119,7 @@
       <c r="B30" s="3">
         <v>24</v>
       </c>
-      <c r="C30" s="81"/>
+      <c r="C30" s="82"/>
       <c r="D30" s="46" t="s">
         <v>38</v>
       </c>
@@ -3128,7 +3132,7 @@
       <c r="H30" s="29">
         <v>45687</v>
       </c>
-      <c r="I30" s="65" t="s">
+      <c r="I30" s="64" t="s">
         <v>78</v>
       </c>
       <c r="J30" s="28">
@@ -3140,7 +3144,7 @@
       <c r="M30" s="29">
         <v>45806</v>
       </c>
-      <c r="N30" s="65" t="s">
+      <c r="N30" s="64" t="s">
         <v>117</v>
       </c>
       <c r="O30" s="28">
@@ -3153,7 +3157,7 @@
       <c r="B31" s="3">
         <v>25</v>
       </c>
-      <c r="C31" s="81"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="46" t="s">
         <v>39</v>
       </c>
@@ -3166,7 +3170,7 @@
       <c r="H31" s="29">
         <v>45688</v>
       </c>
-      <c r="I31" s="65" t="s">
+      <c r="I31" s="64" t="s">
         <v>79</v>
       </c>
       <c r="J31" s="28">
@@ -3178,7 +3182,7 @@
       <c r="M31" s="29">
         <v>45780</v>
       </c>
-      <c r="N31" s="65" t="s">
+      <c r="N31" s="64" t="s">
         <v>119</v>
       </c>
       <c r="O31" s="28">
@@ -3191,7 +3195,7 @@
       <c r="B32" s="3">
         <v>26</v>
       </c>
-      <c r="C32" s="82"/>
+      <c r="C32" s="83"/>
       <c r="D32" s="46" t="s">
         <v>40</v>
       </c>
@@ -3204,7 +3208,7 @@
       <c r="H32" s="29">
         <v>45689</v>
       </c>
-      <c r="I32" s="65" t="s">
+      <c r="I32" s="64" t="s">
         <v>80</v>
       </c>
       <c r="J32" s="28">
@@ -3216,7 +3220,7 @@
       <c r="M32" s="29">
         <v>45812</v>
       </c>
-      <c r="N32" s="65" t="s">
+      <c r="N32" s="64" t="s">
         <v>120</v>
       </c>
       <c r="O32" s="28">
@@ -3229,7 +3233,7 @@
       <c r="B33" s="3">
         <v>27</v>
       </c>
-      <c r="C33" s="80">
+      <c r="C33" s="81">
         <v>45660</v>
       </c>
       <c r="D33" s="43" t="s">
@@ -3244,7 +3248,7 @@
       <c r="H33" s="74">
         <v>45689</v>
       </c>
-      <c r="I33" s="65" t="s">
+      <c r="I33" s="64" t="s">
         <v>81</v>
       </c>
       <c r="J33" s="28">
@@ -3269,7 +3273,7 @@
       <c r="B34" s="3">
         <v>28</v>
       </c>
-      <c r="C34" s="81"/>
+      <c r="C34" s="82"/>
       <c r="D34" s="46" t="s">
         <v>42</v>
       </c>
@@ -3279,8 +3283,8 @@
       <c r="G34" s="3">
         <v>66</v>
       </c>
-      <c r="H34" s="95"/>
-      <c r="I34" s="65" t="s">
+      <c r="H34" s="75"/>
+      <c r="I34" s="64" t="s">
         <v>104</v>
       </c>
       <c r="J34" s="28">
@@ -3289,13 +3293,13 @@
       <c r="L34" s="4">
         <v>104</v>
       </c>
-      <c r="M34" s="70">
+      <c r="M34" s="69">
         <v>45846</v>
       </c>
-      <c r="N34" s="71" t="s">
+      <c r="N34" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="O34" s="72">
+      <c r="O34" s="71">
         <v>5</v>
       </c>
       <c r="R34"/>
@@ -3305,7 +3309,7 @@
       <c r="B35" s="3">
         <v>29</v>
       </c>
-      <c r="C35" s="81"/>
+      <c r="C35" s="82"/>
       <c r="D35" s="46" t="s">
         <v>43</v>
       </c>
@@ -3319,7 +3323,7 @@
       <c r="H35" s="74">
         <v>45691</v>
       </c>
-      <c r="I35" s="65" t="s">
+      <c r="I35" s="64" t="s">
         <v>82</v>
       </c>
       <c r="J35" s="28">
@@ -3344,7 +3348,7 @@
       <c r="B36" s="6">
         <v>30</v>
       </c>
-      <c r="C36" s="81"/>
+      <c r="C36" s="82"/>
       <c r="D36" s="46" t="s">
         <v>44</v>
       </c>
@@ -3354,8 +3358,8 @@
       <c r="G36" s="3">
         <v>68</v>
       </c>
-      <c r="H36" s="95"/>
-      <c r="I36" s="65" t="s">
+      <c r="H36" s="75"/>
+      <c r="I36" s="64" t="s">
         <v>83</v>
       </c>
       <c r="J36" s="28">
@@ -3380,8 +3384,8 @@
       <c r="B37" s="3">
         <v>31</v>
       </c>
-      <c r="C37" s="81"/>
-      <c r="D37" s="63" t="s">
+      <c r="C37" s="82"/>
+      <c r="D37" s="62" t="s">
         <v>118</v>
       </c>
       <c r="E37" s="45">
@@ -3393,7 +3397,7 @@
       <c r="H37" s="29">
         <v>45695</v>
       </c>
-      <c r="I37" s="65" t="s">
+      <c r="I37" s="64" t="s">
         <v>85</v>
       </c>
       <c r="J37" s="28">
@@ -3418,7 +3422,7 @@
       <c r="B38" s="3">
         <v>32</v>
       </c>
-      <c r="C38" s="81"/>
+      <c r="C38" s="82"/>
       <c r="D38" s="50" t="s">
         <v>45</v>
       </c>
@@ -3428,10 +3432,10 @@
       <c r="G38" s="3">
         <v>70</v>
       </c>
-      <c r="H38" s="94">
+      <c r="H38" s="73">
         <v>45700</v>
       </c>
-      <c r="I38" s="65" t="s">
+      <c r="I38" s="64" t="s">
         <v>86</v>
       </c>
       <c r="J38" s="28">
@@ -3454,7 +3458,7 @@
       <c r="B39" s="3">
         <v>33</v>
       </c>
-      <c r="C39" s="81"/>
+      <c r="C39" s="82"/>
       <c r="D39" s="50" t="s">
         <v>46</v>
       </c>
@@ -3465,8 +3469,8 @@
       <c r="G39" s="3">
         <v>71</v>
       </c>
-      <c r="H39" s="94"/>
-      <c r="I39" s="65" t="s">
+      <c r="H39" s="73"/>
+      <c r="I39" s="64" t="s">
         <v>100</v>
       </c>
       <c r="J39" s="28">
@@ -3476,13 +3480,13 @@
       <c r="L39" s="4">
         <v>109</v>
       </c>
-      <c r="M39" s="70">
+      <c r="M39" s="69">
         <v>45887</v>
       </c>
-      <c r="N39" s="71" t="s">
+      <c r="N39" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="O39" s="72">
+      <c r="O39" s="71">
         <v>5</v>
       </c>
     </row>
@@ -3490,7 +3494,7 @@
       <c r="B40" s="3">
         <v>34</v>
       </c>
-      <c r="C40" s="82"/>
+      <c r="C40" s="83"/>
       <c r="D40" s="50" t="s">
         <v>47</v>
       </c>
@@ -3500,10 +3504,10 @@
       <c r="G40" s="3">
         <v>72</v>
       </c>
-      <c r="H40" s="94">
+      <c r="H40" s="73">
         <v>45701</v>
       </c>
-      <c r="I40" s="65" t="s">
+      <c r="I40" s="64" t="s">
         <v>87</v>
       </c>
       <c r="J40" s="28">
@@ -3526,7 +3530,7 @@
       <c r="B41" s="3">
         <v>35</v>
       </c>
-      <c r="C41" s="73">
+      <c r="C41" s="72">
         <v>45660</v>
       </c>
       <c r="D41" s="50" t="s">
@@ -3538,8 +3542,8 @@
       <c r="G41" s="3">
         <v>73</v>
       </c>
-      <c r="H41" s="94"/>
-      <c r="I41" s="65" t="s">
+      <c r="H41" s="73"/>
+      <c r="I41" s="64" t="s">
         <v>88</v>
       </c>
       <c r="J41" s="28">
@@ -3548,13 +3552,13 @@
       <c r="L41" s="4">
         <v>111</v>
       </c>
-      <c r="M41" s="70">
+      <c r="M41" s="69">
         <v>45915</v>
       </c>
-      <c r="N41" s="71" t="s">
+      <c r="N41" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="O41" s="72">
+      <c r="O41" s="71">
         <v>5</v>
       </c>
     </row>
@@ -3562,7 +3566,7 @@
       <c r="B42" s="3">
         <v>36</v>
       </c>
-      <c r="C42" s="62">
+      <c r="C42" s="61">
         <v>45661</v>
       </c>
       <c r="D42" s="44" t="s">
@@ -3577,7 +3581,7 @@
       <c r="H42" s="29">
         <v>45707</v>
       </c>
-      <c r="I42" s="65" t="s">
+      <c r="I42" s="64" t="s">
         <v>89</v>
       </c>
       <c r="J42" s="28">
@@ -3600,7 +3604,7 @@
       <c r="B43" s="4">
         <v>38</v>
       </c>
-      <c r="C43" s="51">
+      <c r="C43" s="81">
         <v>45662</v>
       </c>
       <c r="D43" s="44" t="s">
@@ -3615,7 +3619,7 @@
       <c r="H43" s="74">
         <v>45708</v>
       </c>
-      <c r="I43" s="65" t="s">
+      <c r="I43" s="64" t="s">
         <v>90</v>
       </c>
       <c r="J43" s="28">
@@ -3638,7 +3642,7 @@
       <c r="B44" s="3">
         <v>37</v>
       </c>
-      <c r="C44" s="62"/>
+      <c r="C44" s="95"/>
       <c r="D44" s="44" t="s">
         <v>50</v>
       </c>
@@ -3648,8 +3652,8 @@
       <c r="G44" s="3">
         <v>76</v>
       </c>
-      <c r="H44" s="75"/>
-      <c r="I44" s="65" t="s">
+      <c r="H44" s="76"/>
+      <c r="I44" s="64" t="s">
         <v>91</v>
       </c>
       <c r="J44" s="28">
@@ -3683,29 +3687,34 @@
         <f>SUM(J7:J44)</f>
         <v>188</v>
       </c>
-      <c r="L45" s="4"/>
-      <c r="M45" s="70">
+      <c r="L45" s="4">
+        <v>115</v>
+      </c>
+      <c r="M45" s="29">
         <v>45961</v>
       </c>
-      <c r="N45" s="71" t="s">
+      <c r="N45" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="O45" s="72">
+      <c r="O45" s="28">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="2:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L46" s="26"/>
-      <c r="M46" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="N46" s="24"/>
-      <c r="O46" s="25">
-        <f>SUM(O7:O45)</f>
-        <v>193</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="L46" s="4">
+        <v>116</v>
+      </c>
+      <c r="M46" s="69">
+        <v>45981</v>
+      </c>
+      <c r="N46" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="O46" s="71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C47" s="30" t="s">
         <v>5</v>
       </c>
@@ -3715,20 +3724,24 @@
       <c r="H47" s="30"/>
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="L47" s="4"/>
+      <c r="M47" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="N47" s="24"/>
+      <c r="O47" s="25">
+        <f>SUM(O7:O46)</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C48" s="15" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="H35:H36"/>
+  <mergeCells count="23">
+    <mergeCell ref="C43:C44"/>
     <mergeCell ref="H43:H44"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="C9:C27"/>
@@ -3745,6 +3758,12 @@
     <mergeCell ref="H16:H18"/>
     <mergeCell ref="C33:C40"/>
     <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="H35:H36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05420CFA-9775-44BE-8AB4-B47850817091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F876674-380E-47EA-802D-32E6105B85A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65989A62-DD22-4017-B1F4-9BE3BB514C20}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="136">
   <si>
     <t>일   자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -574,6 +574,10 @@
   </si>
   <si>
     <t>정인과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤형기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1451,7 +1455,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1669,15 +1673,15 @@
     <xf numFmtId="176" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1691,9 +1695,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1735,8 +1736,14 @@
     <xf numFmtId="176" fontId="0" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2059,10 +2066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC16636-847A-47F1-BA3B-A88365FF7E52}">
-  <dimension ref="B1:X48"/>
+  <dimension ref="B1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="T46" sqref="T46"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2115,6 +2122,7 @@
       <c r="K2" s="77"/>
       <c r="L2" s="77"/>
       <c r="M2" s="77"/>
+      <c r="S2" s="61"/>
     </row>
     <row r="3" spans="2:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:23" ht="20.25" x14ac:dyDescent="0.3">
@@ -2161,12 +2169,12 @@
         <v>9</v>
       </c>
       <c r="R6"/>
-      <c r="S6" s="90" t="s">
+      <c r="S6" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="91"/>
-      <c r="U6" s="91"/>
-      <c r="V6" s="92"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="91"/>
       <c r="W6"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
@@ -2182,28 +2190,28 @@
       <c r="E7" s="41">
         <v>5</v>
       </c>
-      <c r="G7" s="5">
-        <v>39</v>
-      </c>
-      <c r="H7" s="81">
+      <c r="G7" s="3">
+        <v>40</v>
+      </c>
+      <c r="H7" s="73">
         <v>45663</v>
       </c>
       <c r="I7" s="46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J7" s="45">
         <v>5</v>
       </c>
       <c r="L7" s="3">
-        <v>77</v>
-      </c>
-      <c r="M7" s="29">
-        <v>45708</v>
-      </c>
-      <c r="N7" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7" s="28">
+        <v>79</v>
+      </c>
+      <c r="M7" s="65">
+        <v>45717</v>
+      </c>
+      <c r="N7" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" s="67">
         <v>5</v>
       </c>
       <c r="R7"/>
@@ -2235,23 +2243,23 @@
         <v>5</v>
       </c>
       <c r="G8" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H8" s="82"/>
       <c r="I8" s="46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J8" s="45">
         <v>5</v>
       </c>
-      <c r="L8" s="3">
-        <v>78</v>
+      <c r="L8" s="26">
+        <v>80</v>
       </c>
       <c r="M8" s="29">
-        <v>45716</v>
+        <v>45720</v>
       </c>
       <c r="N8" s="64" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O8" s="28">
         <v>5</v>
@@ -2285,25 +2293,27 @@
         <v>5</v>
       </c>
       <c r="G9" s="3">
-        <v>41</v>
-      </c>
-      <c r="H9" s="83"/>
-      <c r="I9" s="46" t="s">
-        <v>54</v>
+        <v>42</v>
+      </c>
+      <c r="H9" s="73">
+        <v>45664</v>
+      </c>
+      <c r="I9" s="60" t="s">
+        <v>58</v>
       </c>
       <c r="J9" s="45">
         <v>5</v>
       </c>
-      <c r="L9" s="3">
-        <v>79</v>
-      </c>
-      <c r="M9" s="65">
-        <v>45717</v>
-      </c>
-      <c r="N9" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="O9" s="67">
+      <c r="L9" s="26">
+        <v>81</v>
+      </c>
+      <c r="M9" s="94">
+        <v>45721</v>
+      </c>
+      <c r="N9" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" s="28">
         <v>5</v>
       </c>
       <c r="R9"/>
@@ -2333,25 +2343,21 @@
         <v>5</v>
       </c>
       <c r="G10" s="3">
-        <v>42</v>
-      </c>
-      <c r="H10" s="81">
-        <v>45664</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="H10" s="92"/>
       <c r="I10" s="60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J10" s="45">
         <v>5</v>
       </c>
       <c r="L10" s="26">
-        <v>80</v>
-      </c>
-      <c r="M10" s="29">
-        <v>45720</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="M10" s="94"/>
       <c r="N10" s="64" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O10" s="28">
         <v>5</v>
@@ -2375,23 +2381,23 @@
         <v>5</v>
       </c>
       <c r="G11" s="3">
-        <v>43</v>
-      </c>
-      <c r="H11" s="93"/>
+        <v>44</v>
+      </c>
+      <c r="H11" s="73">
+        <v>45665</v>
+      </c>
       <c r="I11" s="60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J11" s="45">
         <v>5</v>
       </c>
       <c r="L11" s="26">
-        <v>81</v>
-      </c>
-      <c r="M11" s="73">
-        <v>45721</v>
-      </c>
-      <c r="N11" s="64" t="s">
-        <v>96</v>
+        <v>83</v>
+      </c>
+      <c r="M11" s="94"/>
+      <c r="N11" s="27" t="s">
+        <v>98</v>
       </c>
       <c r="O11" s="28">
         <v>5</v>
@@ -2420,23 +2426,23 @@
         <v>5</v>
       </c>
       <c r="G12" s="3">
-        <v>44</v>
-      </c>
-      <c r="H12" s="81">
-        <v>45665</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="H12" s="92"/>
       <c r="I12" s="60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J12" s="45">
         <v>5</v>
       </c>
       <c r="L12" s="26">
-        <v>82</v>
-      </c>
-      <c r="M12" s="73"/>
-      <c r="N12" s="64" t="s">
-        <v>97</v>
+        <v>84</v>
+      </c>
+      <c r="M12" s="29">
+        <v>45722</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>99</v>
       </c>
       <c r="O12" s="28">
         <v>5</v>
@@ -2456,30 +2462,34 @@
         <v>5</v>
       </c>
       <c r="G13" s="3">
-        <v>45</v>
-      </c>
-      <c r="H13" s="93"/>
-      <c r="I13" s="60" t="s">
-        <v>61</v>
+        <v>46</v>
+      </c>
+      <c r="H13" s="61">
+        <v>45667</v>
+      </c>
+      <c r="I13" s="62" t="s">
+        <v>62</v>
       </c>
       <c r="J13" s="45">
-        <v>5</v>
-      </c>
-      <c r="L13" s="26">
-        <v>83</v>
-      </c>
-      <c r="M13" s="73"/>
-      <c r="N13" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="O13" s="28">
+        <v>3</v>
+      </c>
+      <c r="L13" s="3">
+        <v>85</v>
+      </c>
+      <c r="M13" s="65">
+        <v>45725</v>
+      </c>
+      <c r="N13" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="O13" s="67">
         <v>5</v>
       </c>
       <c r="R13"/>
-      <c r="S13" s="84" t="s">
+      <c r="S13" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="85"/>
+      <c r="T13" s="84"/>
       <c r="U13" s="19" t="s">
         <v>14</v>
       </c>
@@ -2500,37 +2510,37 @@
         <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" s="61">
-        <v>45667</v>
-      </c>
-      <c r="I14" s="62" t="s">
-        <v>62</v>
+        <v>45669</v>
+      </c>
+      <c r="I14" s="60" t="s">
+        <v>63</v>
       </c>
       <c r="J14" s="45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L14" s="26">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M14" s="29">
-        <v>45722</v>
+        <v>45726</v>
       </c>
       <c r="N14" s="27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O14" s="28">
         <v>5</v>
       </c>
       <c r="R14"/>
-      <c r="S14" s="86" t="s">
+      <c r="S14" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="87"/>
+      <c r="T14" s="86"/>
       <c r="U14" s="33">
-        <f>E45+J45+O47</f>
-        <v>578</v>
+        <f>E46+J46+O46</f>
+        <v>583</v>
       </c>
       <c r="V14" s="16"/>
       <c r="W14"/>
@@ -2547,34 +2557,34 @@
         <v>5</v>
       </c>
       <c r="G15" s="3">
-        <v>47</v>
-      </c>
-      <c r="H15" s="61">
-        <v>45669</v>
+        <v>48</v>
+      </c>
+      <c r="H15" s="93">
+        <v>45670</v>
       </c>
       <c r="I15" s="60" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J15" s="45">
         <v>5</v>
       </c>
-      <c r="L15" s="3">
-        <v>85</v>
-      </c>
-      <c r="M15" s="65">
-        <v>45725</v>
-      </c>
-      <c r="N15" s="68" t="s">
-        <v>101</v>
-      </c>
-      <c r="O15" s="67">
+      <c r="L15" s="26">
+        <v>87</v>
+      </c>
+      <c r="M15" s="29">
+        <v>45730</v>
+      </c>
+      <c r="N15" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="O15" s="28">
         <v>5</v>
       </c>
       <c r="R15"/>
-      <c r="S15" s="86" t="s">
+      <c r="S15" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="T15" s="87"/>
+      <c r="T15" s="86"/>
       <c r="U15" s="34">
         <f>U11</f>
         <v>330</v>
@@ -2594,37 +2604,35 @@
         <v>3</v>
       </c>
       <c r="G16" s="3">
-        <v>48</v>
-      </c>
-      <c r="H16" s="94">
-        <v>45670</v>
-      </c>
-      <c r="I16" s="60" t="s">
-        <v>67</v>
+        <v>49</v>
+      </c>
+      <c r="H16" s="93"/>
+      <c r="I16" s="62" t="s">
+        <v>64</v>
       </c>
       <c r="J16" s="45">
         <v>5</v>
       </c>
       <c r="L16" s="26">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M16" s="29">
-        <v>45726</v>
-      </c>
-      <c r="N16" s="27" t="s">
-        <v>102</v>
+        <v>45734</v>
+      </c>
+      <c r="N16" s="64" t="s">
+        <v>105</v>
       </c>
       <c r="O16" s="28">
         <v>5</v>
       </c>
       <c r="R16"/>
-      <c r="S16" s="88" t="s">
+      <c r="S16" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="89"/>
+      <c r="T16" s="88"/>
       <c r="U16" s="35">
         <f>SUM(U14:U15)</f>
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="V16" s="18"/>
       <c r="W16"/>
@@ -2640,24 +2648,24 @@
       <c r="E17" s="41">
         <v>5</v>
       </c>
-      <c r="G17" s="3">
-        <v>49</v>
-      </c>
-      <c r="H17" s="94"/>
+      <c r="G17" s="4">
+        <v>50</v>
+      </c>
+      <c r="H17" s="93"/>
       <c r="I17" s="62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J17" s="45">
         <v>5</v>
       </c>
       <c r="L17" s="26">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M17" s="29">
-        <v>45730</v>
-      </c>
-      <c r="N17" s="27" t="s">
-        <v>103</v>
+        <v>45748</v>
+      </c>
+      <c r="N17" s="64" t="s">
+        <v>106</v>
       </c>
       <c r="O17" s="28">
         <v>5</v>
@@ -2676,24 +2684,26 @@
       <c r="E18" s="41">
         <v>3</v>
       </c>
-      <c r="G18" s="4">
-        <v>50</v>
-      </c>
-      <c r="H18" s="94"/>
-      <c r="I18" s="62" t="s">
-        <v>65</v>
+      <c r="G18" s="3">
+        <v>51</v>
+      </c>
+      <c r="H18" s="63">
+        <v>45671</v>
+      </c>
+      <c r="I18" s="51" t="s">
+        <v>66</v>
       </c>
       <c r="J18" s="45">
         <v>5</v>
       </c>
       <c r="L18" s="26">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M18" s="29">
-        <v>45734</v>
+        <v>45777</v>
       </c>
       <c r="N18" s="64" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O18" s="28">
         <v>5</v>
@@ -2714,25 +2724,25 @@
         <v>5</v>
       </c>
       <c r="G19" s="3">
-        <v>51</v>
-      </c>
-      <c r="H19" s="63">
-        <v>45671</v>
-      </c>
-      <c r="I19" s="51" t="s">
-        <v>66</v>
+        <v>52</v>
+      </c>
+      <c r="H19" s="93">
+        <v>45673</v>
+      </c>
+      <c r="I19" s="62" t="s">
+        <v>68</v>
       </c>
       <c r="J19" s="45">
         <v>5</v>
       </c>
       <c r="L19" s="26">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M19" s="29">
-        <v>45748</v>
+        <v>45778</v>
       </c>
       <c r="N19" s="64" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O19" s="28">
         <v>5</v>
@@ -2752,25 +2762,23 @@
         <v>15</v>
       </c>
       <c r="G20" s="3">
-        <v>52</v>
-      </c>
-      <c r="H20" s="94">
-        <v>45673</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H20" s="93"/>
       <c r="I20" s="62" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J20" s="45">
         <v>5</v>
       </c>
       <c r="L20" s="26">
-        <v>90</v>
-      </c>
-      <c r="M20" s="29">
-        <v>45777</v>
+        <v>92</v>
+      </c>
+      <c r="M20" s="75">
+        <v>45793</v>
       </c>
       <c r="N20" s="64" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O20" s="28">
         <v>5</v>
@@ -2790,23 +2798,21 @@
         <v>5</v>
       </c>
       <c r="G21" s="3">
-        <v>53</v>
-      </c>
-      <c r="H21" s="94"/>
+        <v>54</v>
+      </c>
+      <c r="H21" s="93"/>
       <c r="I21" s="62" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J21" s="45">
         <v>5</v>
       </c>
       <c r="L21" s="26">
-        <v>91</v>
-      </c>
-      <c r="M21" s="29">
-        <v>45778</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="M21" s="95"/>
       <c r="N21" s="64" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O21" s="28">
         <v>5</v>
@@ -2826,23 +2832,25 @@
         <v>5</v>
       </c>
       <c r="G22" s="3">
-        <v>54</v>
-      </c>
-      <c r="H22" s="94"/>
+        <v>55</v>
+      </c>
+      <c r="H22" s="61">
+        <v>45676</v>
+      </c>
       <c r="I22" s="62" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J22" s="45">
         <v>5</v>
       </c>
       <c r="L22" s="26">
-        <v>92</v>
-      </c>
-      <c r="M22" s="74">
-        <v>45793</v>
+        <v>94</v>
+      </c>
+      <c r="M22" s="29">
+        <v>45800</v>
       </c>
       <c r="N22" s="64" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O22" s="28">
         <v>5</v>
@@ -2862,23 +2870,25 @@
         <v>5</v>
       </c>
       <c r="G23" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H23" s="61">
-        <v>45676</v>
+        <v>45677</v>
       </c>
       <c r="I23" s="62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J23" s="45">
         <v>5</v>
       </c>
       <c r="L23" s="26">
-        <v>93</v>
-      </c>
-      <c r="M23" s="75"/>
+        <v>95</v>
+      </c>
+      <c r="M23" s="29">
+        <v>45802</v>
+      </c>
       <c r="N23" s="64" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O23" s="28">
         <v>5</v>
@@ -2899,25 +2909,25 @@
         <v>5</v>
       </c>
       <c r="G24" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H24" s="61">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="I24" s="62" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J24" s="45">
         <v>5</v>
       </c>
       <c r="L24" s="26">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M24" s="29">
-        <v>45800</v>
+        <v>45803</v>
       </c>
       <c r="N24" s="64" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O24" s="28">
         <v>5</v>
@@ -2937,25 +2947,25 @@
         <v>5</v>
       </c>
       <c r="G25" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H25" s="61">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="I25" s="62" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J25" s="45">
         <v>5</v>
       </c>
       <c r="L25" s="26">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M25" s="29">
-        <v>45802</v>
+        <v>45805</v>
       </c>
       <c r="N25" s="64" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O25" s="28">
         <v>5</v>
@@ -2975,25 +2985,25 @@
         <v>5</v>
       </c>
       <c r="G26" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H26" s="61">
-        <v>45679</v>
+        <v>45680</v>
       </c>
       <c r="I26" s="62" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J26" s="45">
         <v>5</v>
       </c>
       <c r="L26" s="26">
-        <v>96</v>
-      </c>
-      <c r="M26" s="29">
-        <v>45803</v>
+        <v>98</v>
+      </c>
+      <c r="M26" s="75">
+        <v>45806</v>
       </c>
       <c r="N26" s="64" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O26" s="28">
         <v>5</v>
@@ -3013,25 +3023,23 @@
         <v>5</v>
       </c>
       <c r="G27" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="61">
-        <v>45680</v>
+        <v>45684</v>
       </c>
       <c r="I27" s="62" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J27" s="45">
         <v>5</v>
       </c>
       <c r="L27" s="26">
-        <v>97</v>
-      </c>
-      <c r="M27" s="29">
-        <v>45805</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M27" s="95"/>
       <c r="N27" s="64" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O27" s="28">
         <v>5</v>
@@ -3043,7 +3051,7 @@
       <c r="B28" s="3">
         <v>22</v>
       </c>
-      <c r="C28" s="81">
+      <c r="C28" s="73">
         <v>45659</v>
       </c>
       <c r="D28" s="43" t="s">
@@ -3053,25 +3061,25 @@
         <v>5</v>
       </c>
       <c r="G28" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H28" s="61">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="I28" s="62" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J28" s="45">
         <v>5</v>
       </c>
       <c r="L28" s="26">
-        <v>98</v>
-      </c>
-      <c r="M28" s="74">
+        <v>100</v>
+      </c>
+      <c r="M28" s="29">
         <v>45806</v>
       </c>
       <c r="N28" s="64" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O28" s="28">
         <v>5</v>
@@ -3083,31 +3091,33 @@
       <c r="B29" s="5">
         <v>23</v>
       </c>
-      <c r="C29" s="82"/>
+      <c r="C29" s="81"/>
       <c r="D29" s="46" t="s">
         <v>37</v>
       </c>
       <c r="E29" s="45">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>61</v>
-      </c>
-      <c r="H29" s="61">
-        <v>45685</v>
-      </c>
-      <c r="I29" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="J29" s="45">
+      <c r="G29" s="26">
+        <v>62</v>
+      </c>
+      <c r="H29" s="29">
+        <v>45687</v>
+      </c>
+      <c r="I29" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29" s="28">
         <v>5</v>
       </c>
       <c r="L29" s="26">
-        <v>99</v>
-      </c>
-      <c r="M29" s="75"/>
+        <v>101</v>
+      </c>
+      <c r="M29" s="29">
+        <v>45780</v>
+      </c>
       <c r="N29" s="64" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O29" s="28">
         <v>5</v>
@@ -3119,33 +3129,33 @@
       <c r="B30" s="3">
         <v>24</v>
       </c>
-      <c r="C30" s="82"/>
+      <c r="C30" s="81"/>
       <c r="D30" s="46" t="s">
         <v>38</v>
       </c>
       <c r="E30" s="45">
         <v>3</v>
       </c>
-      <c r="G30" s="26">
-        <v>62</v>
+      <c r="G30" s="3">
+        <v>63</v>
       </c>
       <c r="H30" s="29">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="I30" s="64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J30" s="28">
         <v>5</v>
       </c>
       <c r="L30" s="26">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M30" s="29">
-        <v>45806</v>
+        <v>45812</v>
       </c>
       <c r="N30" s="64" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O30" s="28">
         <v>5</v>
@@ -3157,7 +3167,7 @@
       <c r="B31" s="3">
         <v>25</v>
       </c>
-      <c r="C31" s="82"/>
+      <c r="C31" s="81"/>
       <c r="D31" s="46" t="s">
         <v>39</v>
       </c>
@@ -3165,25 +3175,25 @@
         <v>5</v>
       </c>
       <c r="G31" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H31" s="29">
-        <v>45688</v>
+        <v>45689</v>
       </c>
       <c r="I31" s="64" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J31" s="28">
         <v>5</v>
       </c>
       <c r="L31" s="26">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M31" s="29">
-        <v>45780</v>
-      </c>
-      <c r="N31" s="64" t="s">
-        <v>119</v>
+        <v>45839</v>
+      </c>
+      <c r="N31" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="O31" s="28">
         <v>5</v>
@@ -3195,7 +3205,7 @@
       <c r="B32" s="3">
         <v>26</v>
       </c>
-      <c r="C32" s="83"/>
+      <c r="C32" s="82"/>
       <c r="D32" s="46" t="s">
         <v>40</v>
       </c>
@@ -3203,27 +3213,27 @@
         <v>5</v>
       </c>
       <c r="G32" s="3">
-        <v>64</v>
-      </c>
-      <c r="H32" s="29">
+        <v>65</v>
+      </c>
+      <c r="H32" s="75">
         <v>45689</v>
       </c>
       <c r="I32" s="64" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J32" s="28">
         <v>5</v>
       </c>
-      <c r="L32" s="26">
-        <v>102</v>
-      </c>
-      <c r="M32" s="29">
-        <v>45812</v>
-      </c>
-      <c r="N32" s="64" t="s">
-        <v>120</v>
-      </c>
-      <c r="O32" s="28">
+      <c r="L32" s="4">
+        <v>104</v>
+      </c>
+      <c r="M32" s="69">
+        <v>45846</v>
+      </c>
+      <c r="N32" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="O32" s="71">
         <v>5</v>
       </c>
       <c r="R32"/>
@@ -3233,7 +3243,7 @@
       <c r="B33" s="3">
         <v>27</v>
       </c>
-      <c r="C33" s="81">
+      <c r="C33" s="73">
         <v>45660</v>
       </c>
       <c r="D33" s="43" t="s">
@@ -3243,28 +3253,26 @@
         <v>5</v>
       </c>
       <c r="G33" s="3">
-        <v>65</v>
-      </c>
-      <c r="H33" s="74">
-        <v>45689</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="H33" s="95"/>
       <c r="I33" s="64" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="J33" s="28">
         <v>5</v>
       </c>
-      <c r="L33" s="26">
-        <v>103</v>
+      <c r="L33" s="4">
+        <v>105</v>
       </c>
       <c r="M33" s="29">
-        <v>45839</v>
+        <v>45854</v>
       </c>
       <c r="N33" s="27" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O33" s="28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R33"/>
       <c r="W33"/>
@@ -3273,7 +3281,7 @@
       <c r="B34" s="3">
         <v>28</v>
       </c>
-      <c r="C34" s="82"/>
+      <c r="C34" s="81"/>
       <c r="D34" s="46" t="s">
         <v>42</v>
       </c>
@@ -3281,25 +3289,27 @@
         <v>5</v>
       </c>
       <c r="G34" s="3">
-        <v>66</v>
-      </c>
-      <c r="H34" s="75"/>
+        <v>67</v>
+      </c>
+      <c r="H34" s="75">
+        <v>45691</v>
+      </c>
       <c r="I34" s="64" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="J34" s="28">
         <v>5</v>
       </c>
       <c r="L34" s="4">
-        <v>104</v>
-      </c>
-      <c r="M34" s="69">
-        <v>45846</v>
-      </c>
-      <c r="N34" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="O34" s="71">
+        <v>106</v>
+      </c>
+      <c r="M34" s="29">
+        <v>45859</v>
+      </c>
+      <c r="N34" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="O34" s="28">
         <v>5</v>
       </c>
       <c r="R34"/>
@@ -3309,7 +3319,7 @@
       <c r="B35" s="3">
         <v>29</v>
       </c>
-      <c r="C35" s="82"/>
+      <c r="C35" s="81"/>
       <c r="D35" s="46" t="s">
         <v>43</v>
       </c>
@@ -3318,28 +3328,26 @@
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="3">
-        <v>67</v>
-      </c>
-      <c r="H35" s="74">
-        <v>45691</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="H35" s="95"/>
       <c r="I35" s="64" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J35" s="28">
         <v>5</v>
       </c>
       <c r="L35" s="4">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M35" s="29">
-        <v>45854</v>
+        <v>45865</v>
       </c>
       <c r="N35" s="27" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O35" s="28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R35"/>
       <c r="W35"/>
@@ -3348,7 +3356,7 @@
       <c r="B36" s="6">
         <v>30</v>
       </c>
-      <c r="C36" s="82"/>
+      <c r="C36" s="81"/>
       <c r="D36" s="46" t="s">
         <v>44</v>
       </c>
@@ -3356,23 +3364,25 @@
         <v>5</v>
       </c>
       <c r="G36" s="3">
-        <v>68</v>
-      </c>
-      <c r="H36" s="75"/>
+        <v>69</v>
+      </c>
+      <c r="H36" s="29">
+        <v>45695</v>
+      </c>
       <c r="I36" s="64" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J36" s="28">
         <v>5</v>
       </c>
       <c r="L36" s="4">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M36" s="29">
-        <v>45859</v>
+        <v>45866</v>
       </c>
       <c r="N36" s="27" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O36" s="28">
         <v>5</v>
@@ -3384,7 +3394,7 @@
       <c r="B37" s="3">
         <v>31</v>
       </c>
-      <c r="C37" s="82"/>
+      <c r="C37" s="81"/>
       <c r="D37" s="62" t="s">
         <v>118</v>
       </c>
@@ -3392,27 +3402,27 @@
         <v>5</v>
       </c>
       <c r="G37" s="3">
-        <v>69</v>
-      </c>
-      <c r="H37" s="29">
-        <v>45695</v>
+        <v>70</v>
+      </c>
+      <c r="H37" s="94">
+        <v>45700</v>
       </c>
       <c r="I37" s="64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J37" s="28">
         <v>5</v>
       </c>
       <c r="L37" s="4">
-        <v>107</v>
-      </c>
-      <c r="M37" s="29">
-        <v>45865</v>
-      </c>
-      <c r="N37" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="O37" s="28">
+        <v>109</v>
+      </c>
+      <c r="M37" s="69">
+        <v>45887</v>
+      </c>
+      <c r="N37" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="O37" s="71">
         <v>5</v>
       </c>
       <c r="R37"/>
@@ -3422,7 +3432,7 @@
       <c r="B38" s="3">
         <v>32</v>
       </c>
-      <c r="C38" s="82"/>
+      <c r="C38" s="81"/>
       <c r="D38" s="50" t="s">
         <v>45</v>
       </c>
@@ -3430,25 +3440,23 @@
         <v>5</v>
       </c>
       <c r="G38" s="3">
-        <v>70</v>
-      </c>
-      <c r="H38" s="73">
-        <v>45700</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="H38" s="94"/>
       <c r="I38" s="64" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="J38" s="28">
         <v>5</v>
       </c>
       <c r="L38" s="4">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M38" s="29">
-        <v>45866</v>
+        <v>45908</v>
       </c>
       <c r="N38" s="27" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O38" s="28">
         <v>5</v>
@@ -3458,7 +3466,7 @@
       <c r="B39" s="3">
         <v>33</v>
       </c>
-      <c r="C39" s="82"/>
+      <c r="C39" s="81"/>
       <c r="D39" s="50" t="s">
         <v>46</v>
       </c>
@@ -3467,24 +3475,26 @@
       </c>
       <c r="F39" s="30"/>
       <c r="G39" s="3">
-        <v>71</v>
-      </c>
-      <c r="H39" s="73"/>
+        <v>72</v>
+      </c>
+      <c r="H39" s="94">
+        <v>45701</v>
+      </c>
       <c r="I39" s="64" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="J39" s="28">
         <v>5</v>
       </c>
       <c r="K39" s="30"/>
       <c r="L39" s="4">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M39" s="69">
-        <v>45887</v>
+        <v>45915</v>
       </c>
       <c r="N39" s="70" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O39" s="71">
         <v>5</v>
@@ -3494,7 +3504,7 @@
       <c r="B40" s="3">
         <v>34</v>
       </c>
-      <c r="C40" s="83"/>
+      <c r="C40" s="82"/>
       <c r="D40" s="50" t="s">
         <v>47</v>
       </c>
@@ -3502,25 +3512,23 @@
         <v>5</v>
       </c>
       <c r="G40" s="3">
-        <v>72</v>
-      </c>
-      <c r="H40" s="73">
-        <v>45701</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="H40" s="94"/>
       <c r="I40" s="64" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J40" s="28">
         <v>5</v>
       </c>
       <c r="L40" s="4">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M40" s="29">
-        <v>45908</v>
+        <v>45923</v>
       </c>
       <c r="N40" s="27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O40" s="28">
         <v>5</v>
@@ -3540,25 +3548,27 @@
         <v>5</v>
       </c>
       <c r="G41" s="3">
-        <v>73</v>
-      </c>
-      <c r="H41" s="73"/>
+        <v>74</v>
+      </c>
+      <c r="H41" s="29">
+        <v>45707</v>
+      </c>
       <c r="I41" s="64" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J41" s="28">
         <v>5</v>
       </c>
       <c r="L41" s="4">
-        <v>111</v>
-      </c>
-      <c r="M41" s="69">
-        <v>45915</v>
-      </c>
-      <c r="N41" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="O41" s="71">
+        <v>113</v>
+      </c>
+      <c r="M41" s="29">
+        <v>45939</v>
+      </c>
+      <c r="N41" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="O41" s="28">
         <v>5</v>
       </c>
     </row>
@@ -3576,35 +3586,35 @@
         <v>5</v>
       </c>
       <c r="G42" s="3">
-        <v>74</v>
-      </c>
-      <c r="H42" s="29">
-        <v>45707</v>
+        <v>75</v>
+      </c>
+      <c r="H42" s="75">
+        <v>45708</v>
       </c>
       <c r="I42" s="64" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J42" s="28">
         <v>5</v>
       </c>
       <c r="L42" s="4">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M42" s="29">
-        <v>45923</v>
+        <v>45951</v>
       </c>
       <c r="N42" s="27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O42" s="28">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4">
         <v>38</v>
       </c>
-      <c r="C43" s="81">
+      <c r="C43" s="73">
         <v>45662</v>
       </c>
       <c r="D43" s="44" t="s">
@@ -3614,25 +3624,23 @@
         <v>5</v>
       </c>
       <c r="G43" s="3">
-        <v>75</v>
-      </c>
-      <c r="H43" s="74">
-        <v>45708</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="H43" s="76"/>
       <c r="I43" s="64" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J43" s="28">
         <v>5</v>
       </c>
       <c r="L43" s="4">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M43" s="29">
-        <v>45939</v>
+        <v>45961</v>
       </c>
       <c r="N43" s="27" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O43" s="28">
         <v>5</v>
@@ -3642,7 +3650,7 @@
       <c r="B44" s="3">
         <v>37</v>
       </c>
-      <c r="C44" s="95"/>
+      <c r="C44" s="74"/>
       <c r="D44" s="44" t="s">
         <v>50</v>
       </c>
@@ -3650,120 +3658,138 @@
         <v>3</v>
       </c>
       <c r="G44" s="3">
-        <v>76</v>
-      </c>
-      <c r="H44" s="76"/>
+        <v>77</v>
+      </c>
+      <c r="H44" s="29">
+        <v>45708</v>
+      </c>
       <c r="I44" s="64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J44" s="28">
         <v>5</v>
       </c>
       <c r="L44" s="4">
-        <v>114</v>
-      </c>
-      <c r="M44" s="29">
-        <v>45951</v>
-      </c>
-      <c r="N44" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="O44" s="28">
+        <v>116</v>
+      </c>
+      <c r="M44" s="69">
+        <v>45981</v>
+      </c>
+      <c r="N44" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="O44" s="71">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="21"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="49">
-        <f>SUM(E7:E44)</f>
-        <v>192</v>
-      </c>
-      <c r="G45" s="21"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="49">
-        <f>SUM(J7:J44)</f>
-        <v>188</v>
+      <c r="B45" s="5">
+        <v>39</v>
+      </c>
+      <c r="C45" s="96">
+        <v>45663</v>
+      </c>
+      <c r="D45" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="45">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
+        <v>78</v>
+      </c>
+      <c r="H45" s="29">
+        <v>45716</v>
+      </c>
+      <c r="I45" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="J45" s="28">
+        <v>5</v>
       </c>
       <c r="L45" s="4">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M45" s="29">
-        <v>45961</v>
+        <v>45995</v>
       </c>
       <c r="N45" s="27" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O45" s="28">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L46" s="4">
-        <v>116</v>
-      </c>
-      <c r="M46" s="69">
-        <v>45981</v>
-      </c>
-      <c r="N46" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="O46" s="71">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C47" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="22" t="s">
+      <c r="T45" s="1">
+        <v>45995</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="21"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="49">
+        <f>SUM(E7:E45)</f>
+        <v>197</v>
+      </c>
+      <c r="G46" s="21"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="49">
+        <f>SUM(J7:J45)</f>
+        <v>193</v>
+      </c>
+      <c r="L46" s="4"/>
+      <c r="M46" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="N47" s="24"/>
-      <c r="O47" s="25">
-        <f>SUM(O7:O46)</f>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="15" t="s">
+      <c r="N46" s="24"/>
+      <c r="O46" s="25">
+        <f>SUM(O7:O45)</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:23" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C48" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="15" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C9:C27"/>
-    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="S13:T13"/>
     <mergeCell ref="S14:T14"/>
     <mergeCell ref="S15:T15"/>
     <mergeCell ref="S16:T16"/>
     <mergeCell ref="S6:V6"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C9:C27"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H15:H17"/>
     <mergeCell ref="C33:C40"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="H32:H33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577604AF-1C62-4F52-9078-BB84D927F509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C7AEDF-9B83-4470-84AA-48A5454825D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{65989A62-DD22-4017-B1F4-9BE3BB514C20}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>일   자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,12 +102,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2026년도 연회비 납입 현황</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>납입계좌: 국민은행 569802-04-163996 [예금주 남무호 (중앙59동창), 수도권 5만원, 지방 3만원]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>납입계좌: 국민은행 569802-04-163996 [예금주 남무호 (중앙59동창), 수도권 5만원, 지방 3만원]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <r>
+      <t>2026년도 연회비 납입 현황</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   (단위: 만원)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -118,7 +131,7 @@
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +214,14 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1103,6 +1124,27 @@
     <xf numFmtId="176" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1134,27 +1176,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1480,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC16636-847A-47F1-BA3B-A88365FF7E52}">
   <dimension ref="B1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1520,41 +1541,41 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
+      <c r="B2" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
       <c r="S2" s="50"/>
     </row>
     <row r="3" spans="2:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:23" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C4" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
+      <c r="C4" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
     </row>
     <row r="5" spans="2:23" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:23" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1570,12 +1591,12 @@
       <c r="E6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="54" t="s">
+      <c r="J6" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="56"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="63"/>
       <c r="R6"/>
       <c r="W6"/>
     </row>
@@ -1595,7 +1616,9 @@
       <c r="L7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="46"/>
+      <c r="M7" s="46" t="s">
+        <v>5</v>
+      </c>
       <c r="R7"/>
       <c r="W7"/>
     </row>
@@ -1625,7 +1648,7 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="60"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="34"/>
       <c r="E9" s="33"/>
       <c r="J9" s="47"/>
@@ -1639,7 +1662,7 @@
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="61"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="35"/>
       <c r="E10" s="33"/>
       <c r="J10" s="23"/>
@@ -1653,7 +1676,7 @@
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="35"/>
       <c r="E11" s="33"/>
       <c r="J11" s="9"/>
@@ -1672,7 +1695,7 @@
       <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="61"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="35"/>
       <c r="E12" s="33"/>
       <c r="R12"/>
@@ -1682,13 +1705,13 @@
       <c r="B13" s="5">
         <v>7</v>
       </c>
-      <c r="C13" s="61"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="35"/>
       <c r="E13" s="33"/>
-      <c r="J13" s="65" t="s">
+      <c r="J13" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="66"/>
+      <c r="K13" s="56"/>
       <c r="L13" s="18" t="s">
         <v>11</v>
       </c>
@@ -1702,13 +1725,13 @@
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="61"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="35"/>
       <c r="E14" s="33"/>
-      <c r="J14" s="67" t="s">
+      <c r="J14" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="68"/>
+      <c r="K14" s="58"/>
       <c r="L14" s="25">
         <f>E46</f>
         <v>0</v>
@@ -1721,13 +1744,13 @@
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="35"/>
       <c r="E15" s="33"/>
-      <c r="J15" s="67" t="s">
+      <c r="J15" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="68"/>
+      <c r="K15" s="58"/>
       <c r="L15" s="26">
         <f>L11</f>
         <v>1000</v>
@@ -1740,13 +1763,13 @@
       <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="61"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="35"/>
       <c r="E16" s="33"/>
-      <c r="J16" s="69" t="s">
+      <c r="J16" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="70"/>
+      <c r="K16" s="60"/>
       <c r="L16" s="27">
         <f>SUM(L14:L15)</f>
         <v>1000</v>
@@ -1759,7 +1782,7 @@
       <c r="B17" s="3">
         <v>11</v>
       </c>
-      <c r="C17" s="61"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="35"/>
       <c r="E17" s="33"/>
       <c r="R17"/>
@@ -1769,7 +1792,7 @@
       <c r="B18" s="3">
         <v>12</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="35"/>
       <c r="E18" s="33"/>
       <c r="L18" s="12"/>
@@ -1780,7 +1803,7 @@
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="61"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="35"/>
       <c r="E19" s="33"/>
       <c r="R19"/>
@@ -1790,7 +1813,7 @@
       <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="36"/>
       <c r="E20" s="37"/>
       <c r="R20"/>
@@ -1800,7 +1823,7 @@
       <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="61"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="36"/>
       <c r="E21" s="37"/>
       <c r="R21"/>
@@ -1810,7 +1833,7 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="36"/>
       <c r="E22" s="37"/>
       <c r="R22"/>
@@ -1820,7 +1843,7 @@
       <c r="B23" s="3">
         <v>17</v>
       </c>
-      <c r="C23" s="61"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="36"/>
       <c r="E23" s="37"/>
       <c r="O23" s="7"/>
@@ -1831,7 +1854,7 @@
       <c r="B24" s="3">
         <v>18</v>
       </c>
-      <c r="C24" s="61"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="36"/>
       <c r="E24" s="37"/>
       <c r="R24"/>
@@ -1841,7 +1864,7 @@
       <c r="B25" s="3">
         <v>19</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="36"/>
       <c r="E25" s="37"/>
       <c r="R25"/>
@@ -1851,7 +1874,7 @@
       <c r="B26" s="3">
         <v>20</v>
       </c>
-      <c r="C26" s="61"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="35"/>
       <c r="E26" s="37"/>
       <c r="R26"/>
@@ -1861,7 +1884,7 @@
       <c r="B27" s="3">
         <v>21</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="35"/>
       <c r="E27" s="37"/>
       <c r="R27"/>
@@ -1871,7 +1894,7 @@
       <c r="B28" s="3">
         <v>22</v>
       </c>
-      <c r="C28" s="57"/>
+      <c r="C28" s="64"/>
       <c r="D28" s="35"/>
       <c r="E28" s="37"/>
       <c r="R28"/>
@@ -1881,7 +1904,7 @@
       <c r="B29" s="5">
         <v>23</v>
       </c>
-      <c r="C29" s="63"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="38"/>
       <c r="E29" s="37"/>
       <c r="R29"/>
@@ -1891,7 +1914,7 @@
       <c r="B30" s="3">
         <v>24</v>
       </c>
-      <c r="C30" s="63"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="38"/>
       <c r="E30" s="37"/>
       <c r="R30"/>
@@ -1901,7 +1924,7 @@
       <c r="B31" s="3">
         <v>25</v>
       </c>
-      <c r="C31" s="63"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="38"/>
       <c r="E31" s="37"/>
       <c r="R31"/>
@@ -1911,7 +1934,7 @@
       <c r="B32" s="3">
         <v>26</v>
       </c>
-      <c r="C32" s="64"/>
+      <c r="C32" s="71"/>
       <c r="D32" s="38"/>
       <c r="E32" s="37"/>
       <c r="R32"/>
@@ -1921,7 +1944,7 @@
       <c r="B33" s="3">
         <v>27</v>
       </c>
-      <c r="C33" s="57"/>
+      <c r="C33" s="64"/>
       <c r="D33" s="35"/>
       <c r="E33" s="37"/>
       <c r="R33"/>
@@ -1931,7 +1954,7 @@
       <c r="B34" s="3">
         <v>28</v>
       </c>
-      <c r="C34" s="63"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="38"/>
       <c r="E34" s="37"/>
       <c r="R34"/>
@@ -1941,7 +1964,7 @@
       <c r="B35" s="3">
         <v>29</v>
       </c>
-      <c r="C35" s="63"/>
+      <c r="C35" s="70"/>
       <c r="D35" s="38"/>
       <c r="E35" s="37"/>
       <c r="F35" s="1"/>
@@ -1952,7 +1975,7 @@
       <c r="B36" s="6">
         <v>30</v>
       </c>
-      <c r="C36" s="63"/>
+      <c r="C36" s="70"/>
       <c r="D36" s="38"/>
       <c r="E36" s="37"/>
       <c r="R36"/>
@@ -1962,7 +1985,7 @@
       <c r="B37" s="3">
         <v>31</v>
       </c>
-      <c r="C37" s="63"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="51"/>
       <c r="E37" s="37"/>
       <c r="R37"/>
@@ -1972,7 +1995,7 @@
       <c r="B38" s="3">
         <v>32</v>
       </c>
-      <c r="C38" s="63"/>
+      <c r="C38" s="70"/>
       <c r="D38" s="42"/>
       <c r="E38" s="37"/>
       <c r="I38" s="2"/>
@@ -1984,7 +2007,7 @@
       <c r="B39" s="3">
         <v>33</v>
       </c>
-      <c r="C39" s="63"/>
+      <c r="C39" s="70"/>
       <c r="D39" s="42"/>
       <c r="E39" s="37"/>
       <c r="F39" s="22"/>
@@ -1997,7 +2020,7 @@
       <c r="B40" s="3">
         <v>34</v>
       </c>
-      <c r="C40" s="64"/>
+      <c r="C40" s="71"/>
       <c r="D40" s="42"/>
       <c r="E40" s="37"/>
       <c r="I40" s="2"/>
@@ -2033,7 +2056,7 @@
       <c r="B43" s="4">
         <v>38</v>
       </c>
-      <c r="C43" s="57"/>
+      <c r="C43" s="64"/>
       <c r="D43" s="36"/>
       <c r="E43" s="37"/>
       <c r="I43" s="2"/>
@@ -2045,7 +2068,7 @@
       <c r="B44" s="3">
         <v>37</v>
       </c>
-      <c r="C44" s="58"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="36"/>
       <c r="E44" s="37"/>
       <c r="I44" s="2"/>
@@ -2084,17 +2107,17 @@
     <row r="47" spans="2:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C9:C27"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="C33:C40"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="J6:M6"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C9:C27"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="C33:C40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
